--- a/BITACORA INCIDENTES Y SOLICITUDES II.xlsx
+++ b/BITACORA INCIDENTES Y SOLICITUDES II.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="150">
   <si>
     <t>APLICACIÓN</t>
   </si>
@@ -477,6 +477,48 @@
   </si>
   <si>
     <t>VERIFICAR CALCULO DE DIGITO DE VERIFICACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERROR AL ELIMINAR UNA RECLASIFICACION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cordial saludo,
+Solicitamos su colaboración para resolver un error que se presenta al tratar de eliminar una Reclasificación de Predial, </t>
+  </si>
+  <si>
+    <t>ERROR DE VALIDACION DE LA TRANSACCION</t>
+  </si>
+  <si>
+    <t>AGREGAR VALIDACION EN LA TRANSACCION</t>
+  </si>
+  <si>
+    <t>ESPERA DE RESPUESTA</t>
+  </si>
+  <si>
+    <t>SE LE AGREGO LOS 6 CAMPOS REQUERIDOS EN LA PLANTILLA DE RETEICA</t>
+  </si>
+  <si>
+    <t>ANULACION DE DECLARACION IPIALES</t>
+  </si>
+  <si>
+    <t>Cordial saludo,
+Solicitamos por favor se revise el sistema ya que no es posible Anular una declaración a la cual se le realizará el proceso de la corrección de la vigencia que está en la solicitud 336.
+(...el PROCEDIMIENTO A SEGUIR ES :  1- anular el pago, 2- anular la declaracion, 3- sistematizar la declaracion nuevamente escribiendo el año 2015 , y 4- volver a aplicar el pago .)</t>
+  </si>
+  <si>
+    <t>REVERTIR UNA DECLARACION</t>
+  </si>
+  <si>
+    <t>JESUS VARGAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVERTIR DECLARACION </t>
+  </si>
+  <si>
+    <t>20 MIN</t>
+  </si>
+  <si>
+    <t>SE LE COLOCO LA ELIMINACION DEL DETALLE DE ANEXOS DE NOVEDAD(RECLASIFICACION)</t>
   </si>
 </sst>
 </file>
@@ -487,7 +529,7 @@
     <numFmt numFmtId="164" formatCode="[h]:mm"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-m\-yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,14 +721,38 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF555555"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF1F497D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1001,7 +1067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="147">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1226,43 +1292,22 @@
     <xf numFmtId="165" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1368,15 +1413,84 @@
     <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1782,7 +1896,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AM323"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -1911,25 +2025,25 @@
       <c r="B3" s="47"/>
       <c r="C3" s="20"/>
       <c r="D3" s="69"/>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
@@ -1956,23 +2070,23 @@
       <c r="B4" s="47"/>
       <c r="C4" s="20"/>
       <c r="D4" s="69"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="146"/>
+      <c r="S4" s="146"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="146"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -2156,69 +2270,69 @@
       </c>
     </row>
     <row r="8" spans="1:39" s="27" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="127" t="s">
+      <c r="E8" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="123">
         <v>42804.525694444441</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="128" t="s">
+      <c r="H8" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="77" t="s">
+      <c r="I8" s="120" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="79"/>
-      <c r="K8" s="129" t="s">
+      <c r="J8" s="126"/>
+      <c r="K8" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="79" t="s">
+      <c r="L8" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="77" t="s">
+      <c r="M8" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="79" t="s">
+      <c r="N8" s="126" t="s">
         <v>111</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="80" t="s">
+      <c r="Q8" s="120"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="128" t="s">
         <v>110</v>
       </c>
-      <c r="T8" s="35"/>
-      <c r="U8" s="81" t="s">
+      <c r="T8" s="123"/>
+      <c r="U8" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="W8" s="82" t="s">
+      <c r="W8" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="83" t="s">
+      <c r="X8" s="130"/>
+      <c r="Y8" s="131" t="s">
         <v>132</v>
       </c>
       <c r="Z8" s="74"/>
@@ -2227,130 +2341,134 @@
       <c r="A9" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="129" t="s">
+      <c r="J9" s="136"/>
+      <c r="K9" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="136" t="s">
         <v>119</v>
       </c>
-      <c r="M9" s="30" t="s">
+      <c r="M9" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="N9" s="87" t="s">
+      <c r="N9" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="O9" s="30" t="s">
+      <c r="O9" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="29" t="s">
+      <c r="Q9" s="118"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="T9" s="85"/>
-      <c r="U9" s="88" t="s">
+      <c r="T9" s="134"/>
+      <c r="U9" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="V9" t="s">
-        <v>27</v>
-      </c>
-      <c r="W9" s="82"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="34"/>
+      <c r="V9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" s="130" t="s">
+        <v>142</v>
+      </c>
+      <c r="X9" s="140"/>
+      <c r="Y9" s="141" t="s">
+        <v>132</v>
+      </c>
       <c r="Z9" s="74"/>
     </row>
     <row r="10" spans="1:39" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="130">
+      <c r="B10" s="142">
         <v>360</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="85" t="s">
+      <c r="F10" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39" t="s">
+      <c r="J10" s="136"/>
+      <c r="K10" s="136" t="s">
         <v>126</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="N10" s="87" t="s">
+      <c r="N10" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="O10" s="30" t="s">
+      <c r="O10" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="30" t="s">
+      <c r="P10" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="29" t="s">
+      <c r="Q10" s="118"/>
+      <c r="R10" s="143"/>
+      <c r="S10" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="T10" s="36"/>
-      <c r="U10" s="37" t="s">
+      <c r="T10" s="144"/>
+      <c r="U10" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="82" t="s">
+      <c r="W10" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="34" t="s">
+      <c r="X10" s="140"/>
+      <c r="Y10" s="141" t="s">
         <v>132</v>
       </c>
       <c r="Z10" s="74"/>
@@ -2359,118 +2477,190 @@
       <c r="A11" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="132">
         <v>361</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39" t="s">
+      <c r="J11" s="136"/>
+      <c r="K11" s="136" t="s">
         <v>135</v>
       </c>
-      <c r="L11" s="39"/>
-      <c r="M11" s="30" t="s">
+      <c r="L11" s="136"/>
+      <c r="M11" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="N11" s="87" t="s">
+      <c r="N11" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="O11" s="30" t="s">
+      <c r="O11" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="P11" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="29" t="s">
+      <c r="Q11" s="118"/>
+      <c r="R11" s="143"/>
+      <c r="S11" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="T11" s="36"/>
-      <c r="U11" s="37"/>
-      <c r="V11" t="s">
-        <v>25</v>
-      </c>
-      <c r="W11" s="82"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="34"/>
+      <c r="T11" s="144"/>
+      <c r="U11" s="145"/>
+      <c r="V11" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="W11" s="130"/>
+      <c r="X11" s="140"/>
+      <c r="Y11" s="141"/>
       <c r="Z11" s="74"/>
     </row>
     <row r="12" spans="1:39" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="30"/>
+      <c r="B12" s="79">
+        <v>362</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="36">
+        <v>42805.4375</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>125</v>
+      </c>
       <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
+      <c r="K12" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="N12" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="Q12" s="30"/>
       <c r="R12" s="31"/>
-      <c r="S12" s="29"/>
+      <c r="S12" s="29" t="s">
+        <v>110</v>
+      </c>
       <c r="T12" s="36"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="82"/>
+      <c r="U12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="V12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="W12" s="78" t="s">
+        <v>149</v>
+      </c>
       <c r="X12" s="33"/>
-      <c r="Y12" s="34"/>
+      <c r="Y12" s="34" t="s">
+        <v>132</v>
+      </c>
       <c r="Z12" s="74"/>
     </row>
-    <row r="13" spans="1:39" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="30"/>
+      <c r="B13" s="50">
+        <v>363</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="36">
+        <v>42805.479166666664</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>107</v>
+      </c>
       <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
+      <c r="K13" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="N13" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="Q13" s="30"/>
       <c r="R13" s="31"/>
-      <c r="S13" s="29"/>
+      <c r="S13" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="T13" s="36"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="82"/>
+      <c r="U13" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="V13" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" s="78"/>
       <c r="X13" s="33"/>
       <c r="Y13" s="34"/>
       <c r="Z13" s="74"/>
@@ -2480,16 +2670,16 @@
         <v>50</v>
       </c>
       <c r="B14" s="50"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="78"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="38"/>
       <c r="F14" s="35"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="90"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="30"/>
       <c r="J14" s="39"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="85"/>
       <c r="M14" s="30"/>
       <c r="N14" s="39"/>
       <c r="O14" s="30"/>
@@ -2500,7 +2690,7 @@
       <c r="T14" s="36"/>
       <c r="U14" s="37"/>
       <c r="V14" s="32"/>
-      <c r="W14" s="82"/>
+      <c r="W14" s="78"/>
       <c r="X14" s="33"/>
       <c r="Y14" s="34"/>
       <c r="Z14" s="74"/>
@@ -2510,18 +2700,18 @@
         <v>51</v>
       </c>
       <c r="B15" s="50"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="78"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="38"/>
       <c r="F15" s="36"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="90"/>
+      <c r="H15" s="83"/>
       <c r="I15" s="30"/>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
       <c r="M15" s="30"/>
-      <c r="N15" s="87"/>
+      <c r="N15" s="81"/>
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
@@ -2530,7 +2720,7 @@
       <c r="T15" s="36"/>
       <c r="U15" s="37"/>
       <c r="V15" s="32"/>
-      <c r="W15" s="82"/>
+      <c r="W15" s="78"/>
       <c r="X15" s="33"/>
       <c r="Y15" s="34"/>
       <c r="Z15" s="74"/>
@@ -2540,18 +2730,18 @@
         <v>52</v>
       </c>
       <c r="B16" s="50"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="78"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="38"/>
       <c r="F16" s="36"/>
       <c r="G16" s="53"/>
-      <c r="H16" s="94"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="30"/>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
       <c r="M16" s="30"/>
-      <c r="N16" s="87"/>
+      <c r="N16" s="81"/>
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
@@ -2560,7 +2750,7 @@
       <c r="T16" s="36"/>
       <c r="U16" s="37"/>
       <c r="V16" s="32"/>
-      <c r="W16" s="82"/>
+      <c r="W16" s="78"/>
       <c r="X16" s="33"/>
       <c r="Y16" s="34"/>
       <c r="Z16" s="74"/>
@@ -2570,18 +2760,18 @@
         <v>53</v>
       </c>
       <c r="B17" s="50"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="78"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="38"/>
       <c r="F17" s="36"/>
       <c r="G17" s="53"/>
-      <c r="H17" s="94"/>
+      <c r="H17" s="87"/>
       <c r="I17" s="30"/>
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
       <c r="M17" s="30"/>
-      <c r="N17" s="87"/>
+      <c r="N17" s="81"/>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
@@ -2590,7 +2780,7 @@
       <c r="T17" s="36"/>
       <c r="U17" s="37"/>
       <c r="V17" s="32"/>
-      <c r="W17" s="82"/>
+      <c r="W17" s="78"/>
       <c r="X17" s="33"/>
       <c r="Y17" s="34"/>
       <c r="Z17" s="74"/>
@@ -2600,12 +2790,12 @@
         <v>54</v>
       </c>
       <c r="B18" s="50"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="38"/>
       <c r="F18" s="36"/>
       <c r="G18" s="53"/>
-      <c r="H18" s="95"/>
+      <c r="H18" s="88"/>
       <c r="I18" s="30"/>
       <c r="J18" s="39"/>
       <c r="K18" s="39"/>
@@ -2620,7 +2810,7 @@
       <c r="T18" s="36"/>
       <c r="U18" s="37"/>
       <c r="V18" s="32"/>
-      <c r="W18" s="82"/>
+      <c r="W18" s="78"/>
       <c r="X18" s="33"/>
       <c r="Y18" s="34"/>
       <c r="Z18" s="74"/>
@@ -2630,18 +2820,18 @@
         <v>55</v>
       </c>
       <c r="B19" s="50"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="38"/>
       <c r="F19" s="36"/>
       <c r="G19" s="53"/>
-      <c r="H19" s="95"/>
+      <c r="H19" s="88"/>
       <c r="I19" s="30"/>
       <c r="J19" s="39"/>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
       <c r="M19" s="30"/>
-      <c r="N19" s="87"/>
+      <c r="N19" s="81"/>
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
@@ -2650,7 +2840,7 @@
       <c r="T19" s="36"/>
       <c r="U19" s="37"/>
       <c r="V19" s="32"/>
-      <c r="W19" s="82"/>
+      <c r="W19" s="78"/>
       <c r="X19" s="33"/>
       <c r="Y19" s="34"/>
       <c r="Z19" s="74"/>
@@ -2660,12 +2850,12 @@
         <v>56</v>
       </c>
       <c r="B20" s="50"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
       <c r="E20" s="38"/>
       <c r="F20" s="36"/>
       <c r="G20" s="53"/>
-      <c r="H20" s="94"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="30"/>
       <c r="J20" s="39"/>
       <c r="K20" s="39"/>
@@ -2680,7 +2870,7 @@
       <c r="T20" s="36"/>
       <c r="U20" s="37"/>
       <c r="V20" s="32"/>
-      <c r="W20" s="82"/>
+      <c r="W20" s="78"/>
       <c r="X20" s="33"/>
       <c r="Y20" s="34"/>
       <c r="Z20" s="74"/>
@@ -2690,12 +2880,12 @@
         <v>57</v>
       </c>
       <c r="B21" s="50"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="38"/>
       <c r="F21" s="36"/>
       <c r="G21" s="53"/>
-      <c r="H21" s="94"/>
+      <c r="H21" s="87"/>
       <c r="I21" s="30"/>
       <c r="J21" s="39"/>
       <c r="K21" s="39"/>
@@ -2710,7 +2900,7 @@
       <c r="T21" s="36"/>
       <c r="U21" s="37"/>
       <c r="V21" s="32"/>
-      <c r="W21" s="82"/>
+      <c r="W21" s="78"/>
       <c r="X21" s="33"/>
       <c r="Y21" s="34"/>
       <c r="Z21" s="74"/>
@@ -2720,18 +2910,18 @@
         <v>58</v>
       </c>
       <c r="B22" s="50"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="38"/>
       <c r="F22" s="36"/>
       <c r="G22" s="53"/>
-      <c r="H22" s="96"/>
+      <c r="H22" s="89"/>
       <c r="I22" s="30"/>
       <c r="J22" s="39"/>
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
       <c r="M22" s="30"/>
-      <c r="N22" s="87"/>
+      <c r="N22" s="81"/>
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
@@ -2740,7 +2930,7 @@
       <c r="T22" s="36"/>
       <c r="U22" s="37"/>
       <c r="V22" s="32"/>
-      <c r="W22" s="82"/>
+      <c r="W22" s="78"/>
       <c r="X22" s="33"/>
       <c r="Y22" s="34"/>
       <c r="Z22" s="74"/>
@@ -2750,12 +2940,12 @@
         <v>59</v>
       </c>
       <c r="B23" s="50"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="38"/>
       <c r="F23" s="36"/>
       <c r="G23" s="53"/>
-      <c r="H23" s="97"/>
+      <c r="H23" s="90"/>
       <c r="I23" s="30"/>
       <c r="J23" s="39"/>
       <c r="K23" s="39"/>
@@ -2770,7 +2960,7 @@
       <c r="T23" s="36"/>
       <c r="U23" s="37"/>
       <c r="V23" s="32"/>
-      <c r="W23" s="82"/>
+      <c r="W23" s="78"/>
       <c r="X23" s="33"/>
       <c r="Y23" s="34"/>
       <c r="Z23" s="74"/>
@@ -2781,7 +2971,7 @@
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="78"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="38"/>
       <c r="F24" s="36"/>
       <c r="G24" s="53"/>
@@ -2811,7 +3001,7 @@
       </c>
       <c r="B25" s="50"/>
       <c r="C25" s="30"/>
-      <c r="D25" s="78"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="38"/>
       <c r="F25" s="36"/>
       <c r="G25" s="53"/>
@@ -2841,7 +3031,7 @@
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="78"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="38"/>
       <c r="F26" s="36"/>
       <c r="G26" s="53"/>
@@ -2871,7 +3061,7 @@
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="78"/>
+      <c r="D27" s="77"/>
       <c r="E27" s="30"/>
       <c r="F27" s="36"/>
       <c r="G27" s="53"/>
@@ -2901,7 +3091,7 @@
       </c>
       <c r="B28" s="50"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="78"/>
+      <c r="D28" s="77"/>
       <c r="E28" s="38"/>
       <c r="F28" s="36"/>
       <c r="G28" s="53"/>
@@ -2919,7 +3109,7 @@
       <c r="S28" s="29"/>
       <c r="T28" s="36"/>
       <c r="U28" s="37"/>
-      <c r="V28" s="100"/>
+      <c r="V28" s="93"/>
       <c r="W28" s="32"/>
       <c r="X28" s="33"/>
       <c r="Y28" s="34"/>
@@ -2931,7 +3121,7 @@
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="78"/>
+      <c r="D29" s="77"/>
       <c r="E29" s="38"/>
       <c r="F29" s="36"/>
       <c r="G29" s="53"/>
@@ -2991,7 +3181,7 @@
       </c>
       <c r="B31" s="50"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="78"/>
+      <c r="D31" s="77"/>
       <c r="E31" s="38"/>
       <c r="F31" s="36"/>
       <c r="G31" s="53"/>
@@ -3021,7 +3211,7 @@
       </c>
       <c r="B32" s="50"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="98"/>
+      <c r="D32" s="91"/>
       <c r="E32" s="30"/>
       <c r="F32" s="36"/>
       <c r="G32" s="53"/>
@@ -3051,7 +3241,7 @@
       </c>
       <c r="B33" s="50"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="78"/>
+      <c r="D33" s="77"/>
       <c r="E33" s="38"/>
       <c r="F33" s="36"/>
       <c r="G33" s="53"/>
@@ -3081,7 +3271,7 @@
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="30"/>
-      <c r="D34" s="78"/>
+      <c r="D34" s="77"/>
       <c r="E34" s="30"/>
       <c r="F34" s="36"/>
       <c r="G34" s="53"/>
@@ -3097,7 +3287,7 @@
       <c r="Q34" s="30"/>
       <c r="R34" s="36"/>
       <c r="S34" s="29"/>
-      <c r="T34" s="93"/>
+      <c r="T34" s="86"/>
       <c r="U34" s="37"/>
       <c r="V34" s="32"/>
       <c r="W34" s="32"/>
@@ -3111,7 +3301,7 @@
       </c>
       <c r="B35" s="50"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="78"/>
+      <c r="D35" s="77"/>
       <c r="E35" s="30"/>
       <c r="F35" s="36"/>
       <c r="G35" s="53"/>
@@ -3141,7 +3331,7 @@
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="98"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="30"/>
       <c r="F36" s="36"/>
       <c r="G36" s="53"/>
@@ -3171,7 +3361,7 @@
       </c>
       <c r="B37" s="50"/>
       <c r="C37" s="30"/>
-      <c r="D37" s="78"/>
+      <c r="D37" s="77"/>
       <c r="E37" s="30"/>
       <c r="F37" s="36"/>
       <c r="G37" s="53"/>
@@ -3201,7 +3391,7 @@
       </c>
       <c r="B38" s="50"/>
       <c r="C38" s="30"/>
-      <c r="D38" s="98"/>
+      <c r="D38" s="91"/>
       <c r="E38" s="30"/>
       <c r="F38" s="36"/>
       <c r="G38" s="53"/>
@@ -3231,7 +3421,7 @@
       </c>
       <c r="B39" s="50"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="78"/>
+      <c r="D39" s="77"/>
       <c r="E39" s="30"/>
       <c r="F39" s="36"/>
       <c r="G39" s="53"/>
@@ -3261,7 +3451,7 @@
       </c>
       <c r="B40" s="50"/>
       <c r="C40" s="30"/>
-      <c r="D40" s="98"/>
+      <c r="D40" s="91"/>
       <c r="E40" s="30"/>
       <c r="F40" s="36"/>
       <c r="G40" s="53"/>
@@ -3291,7 +3481,7 @@
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="30"/>
-      <c r="D41" s="78"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="30"/>
       <c r="F41" s="36"/>
       <c r="G41" s="53"/>
@@ -3321,7 +3511,7 @@
       </c>
       <c r="B42" s="50"/>
       <c r="C42" s="30"/>
-      <c r="D42" s="78"/>
+      <c r="D42" s="77"/>
       <c r="E42" s="30"/>
       <c r="F42" s="36"/>
       <c r="G42" s="53"/>
@@ -3351,7 +3541,7 @@
       </c>
       <c r="B43" s="50"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="98"/>
+      <c r="D43" s="91"/>
       <c r="E43" s="30"/>
       <c r="F43" s="36"/>
       <c r="G43" s="53"/>
@@ -3381,7 +3571,7 @@
       </c>
       <c r="B44" s="50"/>
       <c r="C44" s="30"/>
-      <c r="D44" s="98"/>
+      <c r="D44" s="91"/>
       <c r="E44" s="30"/>
       <c r="F44" s="36"/>
       <c r="G44" s="53"/>
@@ -3411,7 +3601,7 @@
       </c>
       <c r="B45" s="50"/>
       <c r="C45" s="30"/>
-      <c r="D45" s="78"/>
+      <c r="D45" s="77"/>
       <c r="E45" s="30"/>
       <c r="F45" s="36"/>
       <c r="G45" s="53"/>
@@ -3441,7 +3631,7 @@
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="30"/>
-      <c r="D46" s="98"/>
+      <c r="D46" s="91"/>
       <c r="E46" s="30"/>
       <c r="F46" s="36"/>
       <c r="G46" s="53"/>
@@ -3471,7 +3661,7 @@
       </c>
       <c r="B47" s="50"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="78"/>
+      <c r="D47" s="77"/>
       <c r="E47" s="30"/>
       <c r="F47" s="36"/>
       <c r="G47" s="53"/>
@@ -3501,7 +3691,7 @@
       </c>
       <c r="B48" s="50"/>
       <c r="C48" s="30"/>
-      <c r="D48" s="78"/>
+      <c r="D48" s="77"/>
       <c r="E48" s="30"/>
       <c r="F48" s="36"/>
       <c r="G48" s="53"/>
@@ -3531,7 +3721,7 @@
       </c>
       <c r="B49" s="50"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="78"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="30"/>
       <c r="F49" s="36"/>
       <c r="G49" s="53"/>
@@ -3561,7 +3751,7 @@
       </c>
       <c r="B50" s="50"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="78"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="30"/>
       <c r="F50" s="36"/>
       <c r="G50" s="53"/>
@@ -3591,7 +3781,7 @@
       </c>
       <c r="B51" s="50"/>
       <c r="C51" s="30"/>
-      <c r="D51" s="78"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="30"/>
       <c r="F51" s="36"/>
       <c r="G51" s="53"/>
@@ -3621,7 +3811,7 @@
       </c>
       <c r="B52" s="50"/>
       <c r="C52" s="30"/>
-      <c r="D52" s="98"/>
+      <c r="D52" s="91"/>
       <c r="E52" s="30"/>
       <c r="F52" s="36"/>
       <c r="G52" s="53"/>
@@ -3651,11 +3841,11 @@
       </c>
       <c r="B53" s="60"/>
       <c r="C53" s="45"/>
-      <c r="D53" s="78"/>
+      <c r="D53" s="77"/>
       <c r="E53" s="45"/>
       <c r="F53" s="44"/>
       <c r="G53" s="54"/>
-      <c r="H53" s="104"/>
+      <c r="H53" s="97"/>
       <c r="I53" s="45"/>
       <c r="J53" s="55"/>
       <c r="K53" s="55"/>
@@ -3670,7 +3860,7 @@
       <c r="T53" s="44"/>
       <c r="U53" s="55"/>
       <c r="V53" s="55"/>
-      <c r="W53" s="110"/>
+      <c r="W53" s="103"/>
       <c r="X53" s="58"/>
       <c r="Y53" s="59"/>
       <c r="Z53" s="74"/>
@@ -3681,11 +3871,11 @@
       </c>
       <c r="B54" s="60"/>
       <c r="C54" s="45"/>
-      <c r="D54" s="78"/>
+      <c r="D54" s="77"/>
       <c r="E54" s="45"/>
       <c r="F54" s="44"/>
       <c r="G54" s="54"/>
-      <c r="H54" s="106"/>
+      <c r="H54" s="99"/>
       <c r="I54" s="45"/>
       <c r="J54" s="55"/>
       <c r="K54" s="55"/>
@@ -3700,7 +3890,7 @@
       <c r="T54" s="44"/>
       <c r="U54" s="55"/>
       <c r="V54" s="55"/>
-      <c r="W54" s="110"/>
+      <c r="W54" s="103"/>
       <c r="X54" s="58"/>
       <c r="Y54" s="59"/>
       <c r="Z54" s="74"/>
@@ -3711,17 +3901,17 @@
       </c>
       <c r="B55" s="60"/>
       <c r="C55" s="45"/>
-      <c r="D55" s="78"/>
+      <c r="D55" s="77"/>
       <c r="E55" s="45"/>
       <c r="F55" s="44"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="106"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="99"/>
       <c r="I55" s="73"/>
       <c r="J55" s="55"/>
       <c r="K55" s="55"/>
       <c r="L55" s="55"/>
       <c r="M55" s="45"/>
-      <c r="N55" s="87"/>
+      <c r="N55" s="81"/>
       <c r="O55" s="45"/>
       <c r="P55" s="45"/>
       <c r="Q55" s="45"/>
@@ -3729,8 +3919,8 @@
       <c r="S55" s="42"/>
       <c r="T55" s="44"/>
       <c r="U55" s="55"/>
-      <c r="V55" s="111"/>
-      <c r="W55" s="110"/>
+      <c r="V55" s="104"/>
+      <c r="W55" s="103"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59"/>
       <c r="Z55" s="74"/>
@@ -3741,11 +3931,11 @@
       </c>
       <c r="B56" s="60"/>
       <c r="C56" s="45"/>
-      <c r="D56" s="78"/>
+      <c r="D56" s="77"/>
       <c r="E56" s="45"/>
       <c r="F56" s="44"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="105"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="98"/>
       <c r="I56" s="73"/>
       <c r="J56" s="55"/>
       <c r="K56" s="55"/>
@@ -3760,7 +3950,7 @@
       <c r="T56" s="44"/>
       <c r="U56" s="55"/>
       <c r="V56" s="55"/>
-      <c r="W56" s="110"/>
+      <c r="W56" s="103"/>
       <c r="X56" s="58"/>
       <c r="Y56" s="59"/>
       <c r="Z56" s="74"/>
@@ -3771,11 +3961,11 @@
       </c>
       <c r="B57" s="60"/>
       <c r="C57" s="45"/>
-      <c r="D57" s="78"/>
+      <c r="D57" s="77"/>
       <c r="E57" s="45"/>
       <c r="F57" s="44"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="106"/>
+      <c r="G57" s="95"/>
+      <c r="H57" s="99"/>
       <c r="I57" s="45"/>
       <c r="J57" s="55"/>
       <c r="K57" s="55"/>
@@ -3789,8 +3979,8 @@
       <c r="S57" s="42"/>
       <c r="T57" s="44"/>
       <c r="U57" s="55"/>
-      <c r="V57" s="112"/>
-      <c r="W57" s="110"/>
+      <c r="V57" s="105"/>
+      <c r="W57" s="103"/>
       <c r="X57" s="58"/>
       <c r="Y57" s="59"/>
       <c r="Z57" s="74"/>
@@ -3805,7 +3995,7 @@
       <c r="E58" s="45"/>
       <c r="F58" s="44"/>
       <c r="G58" s="45"/>
-      <c r="H58" s="104"/>
+      <c r="H58" s="97"/>
       <c r="I58" s="45"/>
       <c r="J58" s="55"/>
       <c r="K58" s="55"/>
@@ -3820,7 +4010,7 @@
       <c r="T58" s="55"/>
       <c r="U58" s="55"/>
       <c r="V58" s="55"/>
-      <c r="W58" s="110"/>
+      <c r="W58" s="103"/>
       <c r="X58" s="58"/>
       <c r="Y58" s="59"/>
       <c r="Z58" s="74"/>
@@ -3835,13 +4025,13 @@
       <c r="E59" s="45"/>
       <c r="F59" s="44"/>
       <c r="G59" s="45"/>
-      <c r="H59" s="109"/>
+      <c r="H59" s="102"/>
       <c r="I59" s="45"/>
       <c r="J59" s="55"/>
       <c r="K59" s="55"/>
       <c r="L59" s="55"/>
       <c r="M59" s="45"/>
-      <c r="N59" s="104"/>
+      <c r="N59" s="97"/>
       <c r="O59" s="45"/>
       <c r="P59" s="45"/>
       <c r="Q59" s="45"/>
@@ -3850,7 +4040,7 @@
       <c r="T59" s="55"/>
       <c r="U59" s="55"/>
       <c r="V59" s="55"/>
-      <c r="W59" s="110"/>
+      <c r="W59" s="103"/>
       <c r="X59" s="58"/>
       <c r="Y59" s="59"/>
       <c r="Z59" s="74"/>
@@ -3865,7 +4055,7 @@
       <c r="E60" s="45"/>
       <c r="F60" s="44"/>
       <c r="G60" s="45"/>
-      <c r="H60" s="108"/>
+      <c r="H60" s="101"/>
       <c r="I60" s="45"/>
       <c r="J60" s="55"/>
       <c r="K60" s="55"/>
@@ -3880,7 +4070,7 @@
       <c r="T60" s="44"/>
       <c r="U60" s="55"/>
       <c r="V60" s="55"/>
-      <c r="W60" s="110"/>
+      <c r="W60" s="103"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59"/>
       <c r="Z60" s="74"/>
@@ -3895,7 +4085,7 @@
       <c r="E61" s="45"/>
       <c r="F61" s="44"/>
       <c r="G61" s="45"/>
-      <c r="H61" s="105"/>
+      <c r="H61" s="98"/>
       <c r="I61" s="45"/>
       <c r="J61" s="55"/>
       <c r="K61" s="55"/>
@@ -3910,7 +4100,7 @@
       <c r="T61" s="44"/>
       <c r="U61" s="55"/>
       <c r="V61" s="55"/>
-      <c r="W61" s="110"/>
+      <c r="W61" s="103"/>
       <c r="X61" s="58"/>
       <c r="Y61" s="59"/>
       <c r="Z61" s="74"/>
@@ -3925,7 +4115,7 @@
       <c r="E62" s="45"/>
       <c r="F62" s="44"/>
       <c r="G62" s="45"/>
-      <c r="H62" s="108"/>
+      <c r="H62" s="101"/>
       <c r="I62" s="45"/>
       <c r="J62" s="55"/>
       <c r="K62" s="55"/>
@@ -3940,7 +4130,7 @@
       <c r="T62" s="44"/>
       <c r="U62" s="55"/>
       <c r="V62" s="55"/>
-      <c r="W62" s="110"/>
+      <c r="W62" s="103"/>
       <c r="X62" s="58"/>
       <c r="Y62" s="59"/>
       <c r="Z62" s="74"/>
@@ -3951,11 +4141,11 @@
       </c>
       <c r="B63" s="51"/>
       <c r="C63" s="45"/>
-      <c r="D63" s="78"/>
+      <c r="D63" s="77"/>
       <c r="E63" s="45"/>
       <c r="F63" s="44"/>
-      <c r="G63" s="102"/>
-      <c r="H63" s="106"/>
+      <c r="G63" s="95"/>
+      <c r="H63" s="99"/>
       <c r="I63" s="45"/>
       <c r="J63" s="55"/>
       <c r="K63" s="55"/>
@@ -3970,7 +4160,7 @@
       <c r="T63" s="55"/>
       <c r="U63" s="55"/>
       <c r="V63" s="55"/>
-      <c r="W63" s="110"/>
+      <c r="W63" s="103"/>
       <c r="X63" s="58"/>
       <c r="Y63" s="59"/>
       <c r="Z63" s="74"/>
@@ -3985,7 +4175,7 @@
       <c r="E64" s="45"/>
       <c r="F64" s="44"/>
       <c r="G64" s="45"/>
-      <c r="H64" s="107"/>
+      <c r="H64" s="100"/>
       <c r="I64" s="45"/>
       <c r="J64" s="55"/>
       <c r="K64" s="55"/>
@@ -4000,7 +4190,7 @@
       <c r="T64" s="55"/>
       <c r="U64" s="55"/>
       <c r="V64" s="55"/>
-      <c r="W64" s="110"/>
+      <c r="W64" s="103"/>
       <c r="X64" s="58"/>
       <c r="Y64" s="59"/>
       <c r="Z64" s="74"/>
@@ -4009,11 +4199,11 @@
       <c r="A65" s="42"/>
       <c r="B65" s="51"/>
       <c r="C65" s="45"/>
-      <c r="D65" s="78"/>
+      <c r="D65" s="77"/>
       <c r="E65" s="45"/>
       <c r="F65" s="44"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="106"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="99"/>
       <c r="I65" s="45"/>
       <c r="J65" s="55"/>
       <c r="K65" s="55"/>
@@ -4028,7 +4218,7 @@
       <c r="T65" s="44"/>
       <c r="U65" s="55"/>
       <c r="V65" s="55"/>
-      <c r="W65" s="110"/>
+      <c r="W65" s="103"/>
       <c r="X65" s="58"/>
       <c r="Y65" s="59"/>
       <c r="Z65" s="74"/>
@@ -4037,11 +4227,11 @@
       <c r="A66" s="42"/>
       <c r="B66" s="51"/>
       <c r="C66" s="45"/>
-      <c r="D66" s="78"/>
+      <c r="D66" s="77"/>
       <c r="E66" s="45"/>
       <c r="F66" s="44"/>
       <c r="G66" s="43"/>
-      <c r="H66" s="105"/>
+      <c r="H66" s="98"/>
       <c r="I66" s="45"/>
       <c r="J66" s="55"/>
       <c r="K66" s="55"/>
@@ -4056,7 +4246,7 @@
       <c r="T66" s="55"/>
       <c r="U66" s="55"/>
       <c r="V66" s="55"/>
-      <c r="W66" s="110"/>
+      <c r="W66" s="103"/>
       <c r="X66" s="58"/>
       <c r="Y66" s="59"/>
       <c r="Z66" s="74"/>
@@ -4065,11 +4255,11 @@
       <c r="A67" s="42"/>
       <c r="B67" s="51"/>
       <c r="C67" s="45"/>
-      <c r="D67" s="78"/>
+      <c r="D67" s="77"/>
       <c r="E67" s="45"/>
       <c r="F67" s="44"/>
       <c r="G67" s="43"/>
-      <c r="H67" s="104"/>
+      <c r="H67" s="97"/>
       <c r="I67" s="45"/>
       <c r="J67" s="55"/>
       <c r="K67" s="55"/>
@@ -4084,7 +4274,7 @@
       <c r="T67" s="44"/>
       <c r="U67" s="55"/>
       <c r="V67" s="55"/>
-      <c r="W67" s="110"/>
+      <c r="W67" s="103"/>
       <c r="X67" s="58"/>
       <c r="Y67" s="59"/>
       <c r="Z67" s="74"/>
@@ -4097,7 +4287,7 @@
       <c r="E68" s="45"/>
       <c r="F68" s="44"/>
       <c r="G68" s="45"/>
-      <c r="H68" s="113"/>
+      <c r="H68" s="106"/>
       <c r="I68" s="45"/>
       <c r="J68" s="55"/>
       <c r="K68" s="55"/>
@@ -4112,7 +4302,7 @@
       <c r="T68" s="44"/>
       <c r="U68" s="55"/>
       <c r="V68" s="55"/>
-      <c r="W68" s="110"/>
+      <c r="W68" s="103"/>
       <c r="X68" s="58"/>
       <c r="Y68" s="59"/>
       <c r="Z68" s="74"/>
@@ -4121,11 +4311,11 @@
       <c r="A69" s="42"/>
       <c r="B69" s="51"/>
       <c r="C69" s="45"/>
-      <c r="D69" s="78"/>
+      <c r="D69" s="77"/>
       <c r="E69" s="45"/>
       <c r="F69" s="44"/>
       <c r="G69" s="43"/>
-      <c r="H69" s="104"/>
+      <c r="H69" s="97"/>
       <c r="I69" s="45"/>
       <c r="J69" s="55"/>
       <c r="K69" s="55"/>
@@ -4140,7 +4330,7 @@
       <c r="T69" s="44"/>
       <c r="U69" s="55"/>
       <c r="V69" s="55"/>
-      <c r="W69" s="110"/>
+      <c r="W69" s="103"/>
       <c r="X69" s="58"/>
       <c r="Y69" s="59"/>
       <c r="Z69" s="74"/>
@@ -4149,11 +4339,11 @@
       <c r="A70" s="42"/>
       <c r="B70" s="51"/>
       <c r="C70" s="45"/>
-      <c r="D70" s="78"/>
+      <c r="D70" s="77"/>
       <c r="E70" s="45"/>
       <c r="F70" s="44"/>
       <c r="G70" s="43"/>
-      <c r="H70" s="106"/>
+      <c r="H70" s="99"/>
       <c r="I70" s="45"/>
       <c r="J70" s="55"/>
       <c r="K70" s="55"/>
@@ -4168,10 +4358,10 @@
       <c r="T70" s="44"/>
       <c r="U70" s="55"/>
       <c r="V70" s="55"/>
-      <c r="W70" s="110"/>
+      <c r="W70" s="103"/>
       <c r="X70" s="58"/>
-      <c r="Y70" s="114"/>
-      <c r="Z70" s="101"/>
+      <c r="Y70" s="107"/>
+      <c r="Z70" s="94"/>
     </row>
     <row r="71" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A71" s="42"/>
@@ -4181,7 +4371,7 @@
       <c r="E71" s="45"/>
       <c r="F71" s="44"/>
       <c r="G71" s="45"/>
-      <c r="H71" s="104"/>
+      <c r="H71" s="97"/>
       <c r="I71" s="45"/>
       <c r="J71" s="55"/>
       <c r="K71" s="55"/>
@@ -4196,10 +4386,10 @@
       <c r="T71" s="44"/>
       <c r="U71" s="55"/>
       <c r="V71" s="55"/>
-      <c r="W71" s="110"/>
+      <c r="W71" s="103"/>
       <c r="X71" s="58"/>
       <c r="Y71" s="59"/>
-      <c r="Z71" s="101"/>
+      <c r="Z71" s="94"/>
     </row>
     <row r="72" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A72" s="42"/>
@@ -4209,7 +4399,7 @@
       <c r="E72" s="45"/>
       <c r="F72" s="44"/>
       <c r="G72" s="45"/>
-      <c r="H72" s="106"/>
+      <c r="H72" s="99"/>
       <c r="I72" s="45"/>
       <c r="J72" s="55"/>
       <c r="K72" s="55"/>
@@ -4224,10 +4414,10 @@
       <c r="T72" s="44"/>
       <c r="U72" s="55"/>
       <c r="V72" s="55"/>
-      <c r="W72" s="110"/>
+      <c r="W72" s="103"/>
       <c r="X72" s="58"/>
       <c r="Y72" s="59"/>
-      <c r="Z72" s="101"/>
+      <c r="Z72" s="94"/>
     </row>
     <row r="73" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A73" s="42"/>
@@ -4237,7 +4427,7 @@
       <c r="E73" s="45"/>
       <c r="F73" s="44"/>
       <c r="G73" s="45"/>
-      <c r="H73" s="104"/>
+      <c r="H73" s="97"/>
       <c r="I73" s="45"/>
       <c r="J73" s="55"/>
       <c r="K73" s="55"/>
@@ -4252,10 +4442,10 @@
       <c r="T73" s="44"/>
       <c r="U73" s="55"/>
       <c r="V73" s="55"/>
-      <c r="W73" s="110"/>
+      <c r="W73" s="103"/>
       <c r="X73" s="58"/>
       <c r="Y73" s="59"/>
-      <c r="Z73" s="101"/>
+      <c r="Z73" s="94"/>
     </row>
     <row r="74" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A74" s="42"/>
@@ -4265,7 +4455,7 @@
       <c r="E74" s="45"/>
       <c r="F74" s="44"/>
       <c r="G74" s="45"/>
-      <c r="H74" s="106"/>
+      <c r="H74" s="99"/>
       <c r="I74" s="45"/>
       <c r="J74" s="55"/>
       <c r="K74" s="55"/>
@@ -4280,10 +4470,10 @@
       <c r="T74" s="55"/>
       <c r="U74" s="55"/>
       <c r="V74" s="55"/>
-      <c r="W74" s="110"/>
+      <c r="W74" s="103"/>
       <c r="X74" s="58"/>
       <c r="Y74" s="59"/>
-      <c r="Z74" s="101"/>
+      <c r="Z74" s="94"/>
     </row>
     <row r="75" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A75" s="42"/>
@@ -4293,7 +4483,7 @@
       <c r="E75" s="45"/>
       <c r="F75" s="44"/>
       <c r="G75" s="45"/>
-      <c r="H75" s="104"/>
+      <c r="H75" s="97"/>
       <c r="I75" s="45"/>
       <c r="J75" s="55"/>
       <c r="K75" s="55"/>
@@ -4308,20 +4498,20 @@
       <c r="T75" s="44"/>
       <c r="U75" s="55"/>
       <c r="V75" s="55"/>
-      <c r="W75" s="110"/>
+      <c r="W75" s="103"/>
       <c r="X75" s="58"/>
       <c r="Y75" s="59"/>
-      <c r="Z75" s="101"/>
+      <c r="Z75" s="94"/>
     </row>
     <row r="76" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A76" s="42"/>
       <c r="B76" s="51"/>
       <c r="C76" s="45"/>
-      <c r="D76" s="78"/>
+      <c r="D76" s="77"/>
       <c r="E76" s="45"/>
       <c r="F76" s="44"/>
       <c r="G76" s="43"/>
-      <c r="H76" s="106"/>
+      <c r="H76" s="99"/>
       <c r="I76" s="45"/>
       <c r="J76" s="55"/>
       <c r="K76" s="55"/>
@@ -4336,10 +4526,10 @@
       <c r="T76" s="55"/>
       <c r="U76" s="55"/>
       <c r="V76" s="55"/>
-      <c r="W76" s="110"/>
+      <c r="W76" s="103"/>
       <c r="X76" s="58"/>
       <c r="Y76" s="59"/>
-      <c r="Z76" s="101"/>
+      <c r="Z76" s="94"/>
     </row>
     <row r="77" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A77" s="42"/>
@@ -4349,7 +4539,7 @@
       <c r="E77" s="45"/>
       <c r="F77" s="44"/>
       <c r="G77" s="45"/>
-      <c r="H77" s="106"/>
+      <c r="H77" s="99"/>
       <c r="I77" s="45"/>
       <c r="J77" s="55"/>
       <c r="K77" s="55"/>
@@ -4364,10 +4554,10 @@
       <c r="T77" s="55"/>
       <c r="U77" s="55"/>
       <c r="V77" s="55"/>
-      <c r="W77" s="110"/>
+      <c r="W77" s="103"/>
       <c r="X77" s="58"/>
       <c r="Y77" s="59"/>
-      <c r="Z77" s="101"/>
+      <c r="Z77" s="94"/>
     </row>
     <row r="78" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A78" s="42"/>
@@ -4377,7 +4567,7 @@
       <c r="E78" s="45"/>
       <c r="F78" s="44"/>
       <c r="G78" s="45"/>
-      <c r="H78" s="105"/>
+      <c r="H78" s="98"/>
       <c r="I78" s="45"/>
       <c r="J78" s="55"/>
       <c r="K78" s="55"/>
@@ -4392,20 +4582,20 @@
       <c r="T78" s="44"/>
       <c r="U78" s="55"/>
       <c r="V78" s="55"/>
-      <c r="W78" s="110"/>
+      <c r="W78" s="103"/>
       <c r="X78" s="58"/>
       <c r="Y78" s="59"/>
-      <c r="Z78" s="101"/>
+      <c r="Z78" s="94"/>
     </row>
     <row r="79" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A79" s="42"/>
       <c r="B79" s="51"/>
       <c r="C79" s="45"/>
-      <c r="D79" s="78"/>
+      <c r="D79" s="77"/>
       <c r="E79" s="45"/>
       <c r="F79" s="44"/>
       <c r="G79" s="43"/>
-      <c r="H79" s="104"/>
+      <c r="H79" s="97"/>
       <c r="I79" s="45"/>
       <c r="J79" s="55"/>
       <c r="K79" s="55"/>
@@ -4420,20 +4610,20 @@
       <c r="T79" s="55"/>
       <c r="U79" s="55"/>
       <c r="V79" s="55"/>
-      <c r="W79" s="110"/>
+      <c r="W79" s="103"/>
       <c r="X79" s="58"/>
       <c r="Y79" s="59"/>
-      <c r="Z79" s="101"/>
+      <c r="Z79" s="94"/>
     </row>
     <row r="80" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A80" s="42"/>
       <c r="B80" s="51"/>
       <c r="C80" s="45"/>
-      <c r="D80" s="78"/>
+      <c r="D80" s="77"/>
       <c r="E80" s="45"/>
       <c r="F80" s="44"/>
       <c r="G80" s="43"/>
-      <c r="H80" s="106"/>
+      <c r="H80" s="99"/>
       <c r="I80" s="45"/>
       <c r="J80" s="55"/>
       <c r="K80" s="55"/>
@@ -4448,10 +4638,10 @@
       <c r="T80" s="44"/>
       <c r="U80" s="55"/>
       <c r="V80" s="55"/>
-      <c r="W80" s="110"/>
+      <c r="W80" s="103"/>
       <c r="X80" s="58"/>
       <c r="Y80" s="59"/>
-      <c r="Z80" s="101"/>
+      <c r="Z80" s="94"/>
     </row>
     <row r="81" spans="1:26" s="11" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="42"/>
@@ -4461,7 +4651,7 @@
       <c r="E81" s="45"/>
       <c r="F81" s="44"/>
       <c r="G81" s="45"/>
-      <c r="H81" s="105"/>
+      <c r="H81" s="98"/>
       <c r="I81" s="45"/>
       <c r="J81" s="55"/>
       <c r="K81" s="55"/>
@@ -4476,10 +4666,10 @@
       <c r="T81" s="44"/>
       <c r="U81" s="55"/>
       <c r="V81" s="55"/>
-      <c r="W81" s="110"/>
+      <c r="W81" s="103"/>
       <c r="X81" s="58"/>
       <c r="Y81" s="59"/>
-      <c r="Z81" s="101"/>
+      <c r="Z81" s="94"/>
     </row>
     <row r="82" spans="1:26" s="11" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="42"/>
@@ -4489,7 +4679,7 @@
       <c r="E82" s="45"/>
       <c r="F82" s="44"/>
       <c r="G82" s="45"/>
-      <c r="H82" s="103"/>
+      <c r="H82" s="96"/>
       <c r="I82" s="45"/>
       <c r="J82" s="55"/>
       <c r="K82" s="55"/>
@@ -4504,20 +4694,20 @@
       <c r="T82" s="55"/>
       <c r="U82" s="55"/>
       <c r="V82" s="55"/>
-      <c r="W82" s="110"/>
+      <c r="W82" s="103"/>
       <c r="X82" s="58"/>
       <c r="Y82" s="59"/>
-      <c r="Z82" s="101"/>
+      <c r="Z82" s="94"/>
     </row>
     <row r="83" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A83" s="42"/>
       <c r="B83" s="51"/>
       <c r="C83" s="45"/>
-      <c r="D83" s="78"/>
+      <c r="D83" s="77"/>
       <c r="E83" s="45"/>
       <c r="F83" s="44"/>
       <c r="G83" s="43"/>
-      <c r="H83" s="104"/>
+      <c r="H83" s="97"/>
       <c r="I83" s="45"/>
       <c r="J83" s="55"/>
       <c r="K83" s="55"/>
@@ -4532,10 +4722,10 @@
       <c r="T83" s="55"/>
       <c r="U83" s="55"/>
       <c r="V83" s="55"/>
-      <c r="W83" s="110"/>
+      <c r="W83" s="103"/>
       <c r="X83" s="58"/>
       <c r="Y83" s="59"/>
-      <c r="Z83" s="101"/>
+      <c r="Z83" s="94"/>
     </row>
     <row r="84" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A84" s="42"/>
@@ -4545,7 +4735,7 @@
       <c r="E84" s="45"/>
       <c r="F84" s="44"/>
       <c r="G84" s="45"/>
-      <c r="H84" s="106"/>
+      <c r="H84" s="99"/>
       <c r="I84" s="45"/>
       <c r="J84" s="55"/>
       <c r="K84" s="55"/>
@@ -4560,20 +4750,20 @@
       <c r="T84" s="55"/>
       <c r="U84" s="55"/>
       <c r="V84" s="55"/>
-      <c r="W84" s="110"/>
+      <c r="W84" s="103"/>
       <c r="X84" s="58"/>
       <c r="Y84" s="59"/>
-      <c r="Z84" s="101"/>
+      <c r="Z84" s="94"/>
     </row>
     <row r="85" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A85" s="42"/>
       <c r="B85" s="51"/>
       <c r="C85" s="45"/>
-      <c r="D85" s="78"/>
+      <c r="D85" s="77"/>
       <c r="E85" s="45"/>
       <c r="F85" s="44"/>
       <c r="G85" s="43"/>
-      <c r="H85" s="104"/>
+      <c r="H85" s="97"/>
       <c r="I85" s="45"/>
       <c r="J85" s="55"/>
       <c r="K85" s="55"/>
@@ -4588,10 +4778,10 @@
       <c r="T85" s="44"/>
       <c r="U85" s="55"/>
       <c r="V85" s="55"/>
-      <c r="W85" s="110"/>
+      <c r="W85" s="103"/>
       <c r="X85" s="58"/>
       <c r="Y85" s="59"/>
-      <c r="Z85" s="101"/>
+      <c r="Z85" s="94"/>
     </row>
     <row r="86" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A86" s="42"/>
@@ -4601,7 +4791,7 @@
       <c r="E86" s="45"/>
       <c r="F86" s="44"/>
       <c r="G86" s="45"/>
-      <c r="H86" s="115"/>
+      <c r="H86" s="108"/>
       <c r="I86" s="45"/>
       <c r="J86" s="55"/>
       <c r="K86" s="55"/>
@@ -4616,10 +4806,10 @@
       <c r="T86" s="55"/>
       <c r="U86" s="55"/>
       <c r="V86" s="55"/>
-      <c r="W86" s="110"/>
+      <c r="W86" s="103"/>
       <c r="X86" s="58"/>
       <c r="Y86" s="59"/>
-      <c r="Z86" s="101"/>
+      <c r="Z86" s="94"/>
     </row>
     <row r="87" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A87" s="42"/>
@@ -4629,7 +4819,7 @@
       <c r="E87" s="45"/>
       <c r="F87" s="44"/>
       <c r="G87" s="45"/>
-      <c r="H87" s="104"/>
+      <c r="H87" s="97"/>
       <c r="I87" s="45"/>
       <c r="J87" s="55"/>
       <c r="K87" s="55"/>
@@ -4644,16 +4834,16 @@
       <c r="T87" s="55"/>
       <c r="U87" s="55"/>
       <c r="V87" s="55"/>
-      <c r="W87" s="110"/>
+      <c r="W87" s="103"/>
       <c r="X87" s="58"/>
       <c r="Y87" s="59"/>
-      <c r="Z87" s="101"/>
+      <c r="Z87" s="94"/>
     </row>
     <row r="88" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A88" s="45"/>
       <c r="B88" s="51"/>
       <c r="C88" s="45"/>
-      <c r="D88" s="78"/>
+      <c r="D88" s="77"/>
       <c r="E88" s="45"/>
       <c r="F88" s="44"/>
       <c r="G88" s="43"/>
@@ -4672,16 +4862,16 @@
       <c r="T88" s="44"/>
       <c r="U88" s="55"/>
       <c r="V88" s="55"/>
-      <c r="W88" s="110"/>
+      <c r="W88" s="103"/>
       <c r="X88" s="58"/>
       <c r="Y88" s="59"/>
-      <c r="Z88" s="101"/>
+      <c r="Z88" s="94"/>
     </row>
     <row r="89" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A89" s="45"/>
       <c r="B89" s="51"/>
       <c r="C89" s="45"/>
-      <c r="D89" s="78"/>
+      <c r="D89" s="77"/>
       <c r="E89" s="45"/>
       <c r="F89" s="44"/>
       <c r="G89" s="43"/>
@@ -4700,16 +4890,16 @@
       <c r="T89" s="55"/>
       <c r="U89" s="55"/>
       <c r="V89" s="55"/>
-      <c r="W89" s="110"/>
+      <c r="W89" s="103"/>
       <c r="X89" s="58"/>
       <c r="Y89" s="59"/>
-      <c r="Z89" s="101"/>
+      <c r="Z89" s="94"/>
     </row>
     <row r="90" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A90" s="42"/>
       <c r="B90" s="51"/>
       <c r="C90" s="45"/>
-      <c r="D90" s="78"/>
+      <c r="D90" s="77"/>
       <c r="E90" s="45"/>
       <c r="F90" s="44"/>
       <c r="G90" s="43"/>
@@ -4728,16 +4918,16 @@
       <c r="T90" s="55"/>
       <c r="U90" s="55"/>
       <c r="V90" s="55"/>
-      <c r="W90" s="110"/>
+      <c r="W90" s="103"/>
       <c r="X90" s="58"/>
       <c r="Y90" s="59"/>
-      <c r="Z90" s="101"/>
+      <c r="Z90" s="94"/>
     </row>
     <row r="91" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A91" s="45"/>
       <c r="B91" s="51"/>
       <c r="C91" s="45"/>
-      <c r="D91" s="78"/>
+      <c r="D91" s="77"/>
       <c r="E91" s="45"/>
       <c r="F91" s="44"/>
       <c r="G91" s="43"/>
@@ -4756,16 +4946,16 @@
       <c r="T91" s="55"/>
       <c r="U91" s="55"/>
       <c r="V91" s="55"/>
-      <c r="W91" s="110"/>
+      <c r="W91" s="103"/>
       <c r="X91" s="58"/>
       <c r="Y91" s="59"/>
-      <c r="Z91" s="101"/>
+      <c r="Z91" s="94"/>
     </row>
     <row r="92" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A92" s="45"/>
       <c r="B92" s="51"/>
       <c r="C92" s="45"/>
-      <c r="D92" s="78"/>
+      <c r="D92" s="77"/>
       <c r="E92" s="45"/>
       <c r="F92" s="44"/>
       <c r="G92" s="45"/>
@@ -4784,10 +4974,10 @@
       <c r="T92" s="55"/>
       <c r="U92" s="55"/>
       <c r="V92" s="55"/>
-      <c r="W92" s="110"/>
+      <c r="W92" s="103"/>
       <c r="X92" s="58"/>
       <c r="Y92" s="59"/>
-      <c r="Z92" s="101"/>
+      <c r="Z92" s="94"/>
     </row>
     <row r="93" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A93" s="45"/>
@@ -4812,20 +5002,20 @@
       <c r="T93" s="44"/>
       <c r="U93" s="55"/>
       <c r="V93" s="55"/>
-      <c r="W93" s="110"/>
+      <c r="W93" s="103"/>
       <c r="X93" s="58"/>
       <c r="Y93" s="59"/>
-      <c r="Z93" s="101"/>
+      <c r="Z93" s="94"/>
     </row>
     <row r="94" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A94" s="45"/>
       <c r="B94" s="51"/>
       <c r="C94" s="45"/>
-      <c r="D94" s="78"/>
+      <c r="D94" s="77"/>
       <c r="E94" s="45"/>
       <c r="F94" s="44"/>
       <c r="G94" s="45"/>
-      <c r="H94" s="104"/>
+      <c r="H94" s="97"/>
       <c r="I94" s="45"/>
       <c r="J94" s="55"/>
       <c r="K94" s="55"/>
@@ -4840,10 +5030,10 @@
       <c r="T94" s="55"/>
       <c r="U94" s="55"/>
       <c r="V94" s="55"/>
-      <c r="W94" s="110"/>
+      <c r="W94" s="103"/>
       <c r="X94" s="58"/>
       <c r="Y94" s="59"/>
-      <c r="Z94" s="101"/>
+      <c r="Z94" s="94"/>
     </row>
     <row r="95" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A95" s="45"/>
@@ -4868,20 +5058,20 @@
       <c r="T95" s="44"/>
       <c r="U95" s="55"/>
       <c r="V95" s="55"/>
-      <c r="W95" s="110"/>
+      <c r="W95" s="103"/>
       <c r="X95" s="58"/>
       <c r="Y95" s="59"/>
-      <c r="Z95" s="101"/>
+      <c r="Z95" s="94"/>
     </row>
     <row r="96" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="51"/>
       <c r="C96" s="45"/>
-      <c r="D96" s="78"/>
+      <c r="D96" s="77"/>
       <c r="E96" s="45"/>
       <c r="F96" s="44"/>
       <c r="G96" s="45"/>
-      <c r="H96" s="99"/>
+      <c r="H96" s="92"/>
       <c r="I96" s="45"/>
       <c r="J96" s="55"/>
       <c r="K96" s="55"/>
@@ -4896,16 +5086,16 @@
       <c r="T96" s="44"/>
       <c r="U96" s="55"/>
       <c r="V96" s="55"/>
-      <c r="W96" s="110"/>
+      <c r="W96" s="103"/>
       <c r="X96" s="58"/>
       <c r="Y96" s="59"/>
-      <c r="Z96" s="101"/>
+      <c r="Z96" s="94"/>
     </row>
     <row r="97" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A97" s="45"/>
       <c r="B97" s="51"/>
       <c r="C97" s="45"/>
-      <c r="D97" s="78"/>
+      <c r="D97" s="77"/>
       <c r="E97" s="45"/>
       <c r="F97" s="44"/>
       <c r="G97" s="45"/>
@@ -4924,10 +5114,10 @@
       <c r="T97" s="55"/>
       <c r="U97" s="55"/>
       <c r="V97" s="55"/>
-      <c r="W97" s="110"/>
+      <c r="W97" s="103"/>
       <c r="X97" s="58"/>
       <c r="Y97" s="59"/>
-      <c r="Z97" s="101"/>
+      <c r="Z97" s="94"/>
     </row>
     <row r="98" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A98" s="45"/>
@@ -4937,7 +5127,7 @@
       <c r="E98" s="45"/>
       <c r="F98" s="44"/>
       <c r="G98" s="45"/>
-      <c r="H98" s="116"/>
+      <c r="H98" s="109"/>
       <c r="I98" s="45"/>
       <c r="J98" s="55"/>
       <c r="K98" s="55"/>
@@ -4952,20 +5142,20 @@
       <c r="T98" s="55"/>
       <c r="U98" s="55"/>
       <c r="V98" s="55"/>
-      <c r="W98" s="110"/>
+      <c r="W98" s="103"/>
       <c r="X98" s="58"/>
       <c r="Y98" s="59"/>
-      <c r="Z98" s="101"/>
+      <c r="Z98" s="94"/>
     </row>
     <row r="99" spans="1:26" s="11" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="45"/>
       <c r="B99" s="51"/>
       <c r="C99" s="45"/>
-      <c r="D99" s="78"/>
+      <c r="D99" s="77"/>
       <c r="E99" s="45"/>
       <c r="F99" s="44"/>
       <c r="G99" s="45"/>
-      <c r="H99" s="115"/>
+      <c r="H99" s="108"/>
       <c r="I99" s="45"/>
       <c r="J99" s="55"/>
       <c r="K99" s="55"/>
@@ -4980,10 +5170,10 @@
       <c r="T99" s="44"/>
       <c r="U99" s="55"/>
       <c r="V99" s="55"/>
-      <c r="W99" s="110"/>
+      <c r="W99" s="103"/>
       <c r="X99" s="58"/>
       <c r="Y99" s="59"/>
-      <c r="Z99" s="101"/>
+      <c r="Z99" s="94"/>
     </row>
     <row r="100" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A100" s="45"/>
@@ -4993,7 +5183,7 @@
       <c r="E100" s="45"/>
       <c r="F100" s="44"/>
       <c r="G100" s="45"/>
-      <c r="H100" s="104"/>
+      <c r="H100" s="97"/>
       <c r="I100" s="45"/>
       <c r="J100" s="55"/>
       <c r="K100" s="55"/>
@@ -5008,20 +5198,20 @@
       <c r="T100" s="55"/>
       <c r="U100" s="55"/>
       <c r="V100" s="55"/>
-      <c r="W100" s="110"/>
+      <c r="W100" s="103"/>
       <c r="X100" s="58"/>
       <c r="Y100" s="59"/>
-      <c r="Z100" s="101"/>
+      <c r="Z100" s="94"/>
     </row>
     <row r="101" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A101" s="45"/>
       <c r="B101" s="51"/>
       <c r="C101" s="45"/>
-      <c r="D101" s="78"/>
+      <c r="D101" s="77"/>
       <c r="E101" s="45"/>
       <c r="F101" s="44"/>
       <c r="G101" s="45"/>
-      <c r="H101" s="115"/>
+      <c r="H101" s="108"/>
       <c r="I101" s="45"/>
       <c r="J101" s="55"/>
       <c r="K101" s="45"/>
@@ -5036,16 +5226,16 @@
       <c r="T101" s="55"/>
       <c r="U101" s="55"/>
       <c r="V101" s="45"/>
-      <c r="W101" s="110"/>
+      <c r="W101" s="103"/>
       <c r="X101" s="58"/>
       <c r="Y101" s="59"/>
-      <c r="Z101" s="101"/>
+      <c r="Z101" s="94"/>
     </row>
     <row r="102" spans="1:26" s="11" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="45"/>
       <c r="B102" s="51"/>
       <c r="C102" s="45"/>
-      <c r="D102" s="78"/>
+      <c r="D102" s="77"/>
       <c r="E102" s="45"/>
       <c r="F102" s="44"/>
       <c r="G102" s="45"/>
@@ -5064,16 +5254,16 @@
       <c r="T102" s="55"/>
       <c r="U102" s="55"/>
       <c r="V102" s="45"/>
-      <c r="W102" s="110"/>
+      <c r="W102" s="103"/>
       <c r="X102" s="58"/>
       <c r="Y102" s="59"/>
-      <c r="Z102" s="101"/>
+      <c r="Z102" s="94"/>
     </row>
     <row r="103" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A103" s="45"/>
       <c r="B103" s="51"/>
       <c r="C103" s="45"/>
-      <c r="D103" s="78"/>
+      <c r="D103" s="77"/>
       <c r="E103" s="45"/>
       <c r="F103" s="44"/>
       <c r="G103" s="45"/>
@@ -5092,10 +5282,10 @@
       <c r="T103" s="55"/>
       <c r="U103" s="55"/>
       <c r="V103" s="55"/>
-      <c r="W103" s="110"/>
+      <c r="W103" s="103"/>
       <c r="X103" s="58"/>
       <c r="Y103" s="59"/>
-      <c r="Z103" s="101"/>
+      <c r="Z103" s="94"/>
     </row>
     <row r="104" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A104" s="45"/>
@@ -5105,7 +5295,7 @@
       <c r="E104" s="45"/>
       <c r="F104" s="44"/>
       <c r="G104" s="45"/>
-      <c r="H104" s="115"/>
+      <c r="H104" s="108"/>
       <c r="I104" s="45"/>
       <c r="J104" s="55"/>
       <c r="K104" s="55"/>
@@ -5120,20 +5310,20 @@
       <c r="T104" s="44"/>
       <c r="U104" s="55"/>
       <c r="V104" s="45"/>
-      <c r="W104" s="110"/>
+      <c r="W104" s="103"/>
       <c r="X104" s="58"/>
       <c r="Y104" s="59"/>
-      <c r="Z104" s="101"/>
+      <c r="Z104" s="94"/>
     </row>
     <row r="105" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A105" s="45"/>
       <c r="B105" s="51"/>
       <c r="C105" s="45"/>
-      <c r="D105" s="78"/>
+      <c r="D105" s="77"/>
       <c r="E105" s="45"/>
       <c r="F105" s="44"/>
       <c r="G105" s="45"/>
-      <c r="H105" s="117"/>
+      <c r="H105" s="110"/>
       <c r="I105" s="45"/>
       <c r="J105" s="55"/>
       <c r="K105" s="55"/>
@@ -5148,10 +5338,10 @@
       <c r="T105" s="44"/>
       <c r="U105" s="55"/>
       <c r="V105" s="45"/>
-      <c r="W105" s="110"/>
+      <c r="W105" s="103"/>
       <c r="X105" s="58"/>
       <c r="Y105" s="59"/>
-      <c r="Z105" s="101"/>
+      <c r="Z105" s="94"/>
     </row>
     <row r="106" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A106" s="45"/>
@@ -5176,10 +5366,10 @@
       <c r="T106" s="44"/>
       <c r="U106" s="55"/>
       <c r="V106" s="45"/>
-      <c r="W106" s="110"/>
+      <c r="W106" s="103"/>
       <c r="X106" s="58"/>
       <c r="Y106" s="59"/>
-      <c r="Z106" s="101"/>
+      <c r="Z106" s="94"/>
     </row>
     <row r="107" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A107" s="45"/>
@@ -5204,20 +5394,20 @@
       <c r="T107" s="44"/>
       <c r="U107" s="55"/>
       <c r="V107" s="45"/>
-      <c r="W107" s="110"/>
+      <c r="W107" s="103"/>
       <c r="X107" s="58"/>
       <c r="Y107" s="59"/>
-      <c r="Z107" s="101"/>
+      <c r="Z107" s="94"/>
     </row>
     <row r="108" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A108" s="45"/>
       <c r="B108" s="51"/>
       <c r="C108" s="45"/>
-      <c r="D108" s="78"/>
+      <c r="D108" s="77"/>
       <c r="E108" s="45"/>
       <c r="F108" s="44"/>
       <c r="G108" s="45"/>
-      <c r="H108" s="108"/>
+      <c r="H108" s="101"/>
       <c r="I108" s="45"/>
       <c r="J108" s="55"/>
       <c r="K108" s="55"/>
@@ -5232,10 +5422,10 @@
       <c r="T108" s="44"/>
       <c r="U108" s="55"/>
       <c r="V108" s="45"/>
-      <c r="W108" s="110"/>
+      <c r="W108" s="103"/>
       <c r="X108" s="58"/>
       <c r="Y108" s="59"/>
-      <c r="Z108" s="101"/>
+      <c r="Z108" s="94"/>
     </row>
     <row r="109" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A109" s="45"/>
@@ -5245,7 +5435,7 @@
       <c r="E109" s="45"/>
       <c r="F109" s="44"/>
       <c r="G109" s="45"/>
-      <c r="H109" s="106"/>
+      <c r="H109" s="99"/>
       <c r="I109" s="45"/>
       <c r="J109" s="55"/>
       <c r="K109" s="55"/>
@@ -5260,10 +5450,10 @@
       <c r="T109" s="44"/>
       <c r="U109" s="55"/>
       <c r="V109" s="55"/>
-      <c r="W109" s="110"/>
+      <c r="W109" s="103"/>
       <c r="X109" s="58"/>
       <c r="Y109" s="59"/>
-      <c r="Z109" s="101"/>
+      <c r="Z109" s="94"/>
     </row>
     <row r="110" spans="1:26" s="11" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="45"/>
@@ -5273,7 +5463,7 @@
       <c r="E110" s="45"/>
       <c r="F110" s="44"/>
       <c r="G110" s="45"/>
-      <c r="H110" s="116"/>
+      <c r="H110" s="109"/>
       <c r="I110" s="45"/>
       <c r="J110" s="55"/>
       <c r="K110" s="55"/>
@@ -5288,10 +5478,10 @@
       <c r="T110" s="44"/>
       <c r="U110" s="55"/>
       <c r="V110" s="55"/>
-      <c r="W110" s="110"/>
+      <c r="W110" s="103"/>
       <c r="X110" s="58"/>
       <c r="Y110" s="59"/>
-      <c r="Z110" s="101"/>
+      <c r="Z110" s="94"/>
     </row>
     <row r="111" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A111" s="45"/>
@@ -5301,7 +5491,7 @@
       <c r="E111" s="45"/>
       <c r="F111" s="44"/>
       <c r="G111" s="45"/>
-      <c r="H111" s="116"/>
+      <c r="H111" s="109"/>
       <c r="I111" s="45"/>
       <c r="J111" s="55"/>
       <c r="K111" s="55"/>
@@ -5316,10 +5506,10 @@
       <c r="T111" s="44"/>
       <c r="U111" s="55"/>
       <c r="V111" s="55"/>
-      <c r="W111" s="110"/>
+      <c r="W111" s="103"/>
       <c r="X111" s="58"/>
       <c r="Y111" s="59"/>
-      <c r="Z111" s="101"/>
+      <c r="Z111" s="94"/>
     </row>
     <row r="112" spans="1:26" s="11" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="45"/>
@@ -5329,7 +5519,7 @@
       <c r="E112" s="45"/>
       <c r="F112" s="44"/>
       <c r="G112" s="45"/>
-      <c r="H112" s="116"/>
+      <c r="H112" s="109"/>
       <c r="I112" s="45"/>
       <c r="J112" s="55"/>
       <c r="K112" s="55"/>
@@ -5344,20 +5534,20 @@
       <c r="T112" s="55"/>
       <c r="U112" s="55"/>
       <c r="V112" s="55"/>
-      <c r="W112" s="110"/>
+      <c r="W112" s="103"/>
       <c r="X112" s="58"/>
       <c r="Y112" s="45"/>
-      <c r="Z112" s="101"/>
+      <c r="Z112" s="94"/>
     </row>
     <row r="113" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A113" s="45"/>
       <c r="B113" s="51"/>
       <c r="C113" s="45"/>
-      <c r="D113" s="78"/>
+      <c r="D113" s="77"/>
       <c r="E113" s="45"/>
       <c r="F113" s="44"/>
       <c r="G113" s="45"/>
-      <c r="H113" s="116"/>
+      <c r="H113" s="109"/>
       <c r="I113" s="45"/>
       <c r="J113" s="55"/>
       <c r="K113" s="55"/>
@@ -5372,26 +5562,26 @@
       <c r="T113" s="44"/>
       <c r="U113" s="55"/>
       <c r="V113" s="55"/>
-      <c r="W113" s="110"/>
+      <c r="W113" s="103"/>
       <c r="X113" s="58"/>
       <c r="Y113" s="59"/>
-      <c r="Z113" s="101"/>
+      <c r="Z113" s="94"/>
     </row>
     <row r="114" spans="1:26" s="11" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="45"/>
       <c r="B114" s="51"/>
       <c r="C114" s="45"/>
-      <c r="D114" s="78"/>
+      <c r="D114" s="77"/>
       <c r="E114" s="45"/>
       <c r="F114" s="44"/>
       <c r="G114" s="45"/>
-      <c r="H114" s="116"/>
+      <c r="H114" s="109"/>
       <c r="I114" s="45"/>
       <c r="J114" s="55"/>
       <c r="K114" s="55"/>
       <c r="L114" s="55"/>
       <c r="M114" s="45"/>
-      <c r="N114" s="87"/>
+      <c r="N114" s="81"/>
       <c r="O114" s="45"/>
       <c r="P114" s="45"/>
       <c r="Q114" s="45"/>
@@ -5399,11 +5589,11 @@
       <c r="S114" s="42"/>
       <c r="T114" s="44"/>
       <c r="U114" s="55"/>
-      <c r="V114" s="118"/>
-      <c r="W114" s="110"/>
+      <c r="V114" s="111"/>
+      <c r="W114" s="103"/>
       <c r="X114" s="58"/>
       <c r="Y114" s="59"/>
-      <c r="Z114" s="101"/>
+      <c r="Z114" s="94"/>
     </row>
     <row r="115" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A115" s="45"/>
@@ -5413,7 +5603,7 @@
       <c r="E115" s="45"/>
       <c r="F115" s="44"/>
       <c r="G115" s="45"/>
-      <c r="H115" s="115"/>
+      <c r="H115" s="108"/>
       <c r="I115" s="45"/>
       <c r="J115" s="55"/>
       <c r="K115" s="55"/>
@@ -5428,10 +5618,10 @@
       <c r="T115" s="55"/>
       <c r="U115" s="55"/>
       <c r="V115" s="55"/>
-      <c r="W115" s="110"/>
+      <c r="W115" s="103"/>
       <c r="X115" s="58"/>
       <c r="Y115" s="59"/>
-      <c r="Z115" s="101"/>
+      <c r="Z115" s="94"/>
     </row>
     <row r="116" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A116" s="45"/>
@@ -5456,20 +5646,20 @@
       <c r="T116" s="55"/>
       <c r="U116" s="55"/>
       <c r="V116" s="55"/>
-      <c r="W116" s="110"/>
+      <c r="W116" s="103"/>
       <c r="X116" s="58"/>
       <c r="Y116" s="59"/>
-      <c r="Z116" s="101"/>
+      <c r="Z116" s="94"/>
     </row>
     <row r="117" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A117" s="45"/>
       <c r="B117" s="51"/>
       <c r="C117" s="45"/>
-      <c r="D117" s="78"/>
+      <c r="D117" s="77"/>
       <c r="E117" s="45"/>
       <c r="F117" s="44"/>
       <c r="G117" s="45"/>
-      <c r="H117" s="115"/>
+      <c r="H117" s="108"/>
       <c r="I117" s="45"/>
       <c r="J117" s="55"/>
       <c r="K117" s="55"/>
@@ -5484,10 +5674,10 @@
       <c r="T117" s="44"/>
       <c r="U117" s="55"/>
       <c r="V117" s="55"/>
-      <c r="W117" s="110"/>
+      <c r="W117" s="103"/>
       <c r="X117" s="58"/>
       <c r="Y117" s="59"/>
-      <c r="Z117" s="101"/>
+      <c r="Z117" s="94"/>
     </row>
     <row r="118" spans="1:26" s="11" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="45"/>
@@ -5497,7 +5687,7 @@
       <c r="E118" s="45"/>
       <c r="F118" s="44"/>
       <c r="G118" s="45"/>
-      <c r="H118" s="116"/>
+      <c r="H118" s="109"/>
       <c r="I118" s="45"/>
       <c r="J118" s="55"/>
       <c r="K118" s="55"/>
@@ -5512,10 +5702,10 @@
       <c r="T118" s="55"/>
       <c r="U118" s="55"/>
       <c r="V118" s="55"/>
-      <c r="W118" s="110"/>
+      <c r="W118" s="103"/>
       <c r="X118" s="58"/>
       <c r="Y118" s="59"/>
-      <c r="Z118" s="101"/>
+      <c r="Z118" s="94"/>
     </row>
     <row r="119" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A119" s="45"/>
@@ -5540,20 +5730,20 @@
       <c r="T119" s="55"/>
       <c r="U119" s="55"/>
       <c r="V119" s="55"/>
-      <c r="W119" s="110"/>
+      <c r="W119" s="103"/>
       <c r="X119" s="58"/>
       <c r="Y119" s="59"/>
-      <c r="Z119" s="101"/>
+      <c r="Z119" s="94"/>
     </row>
     <row r="120" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A120" s="45"/>
       <c r="B120" s="60"/>
       <c r="C120" s="45"/>
-      <c r="D120" s="78"/>
+      <c r="D120" s="77"/>
       <c r="E120" s="45"/>
       <c r="F120" s="44"/>
       <c r="G120" s="45"/>
-      <c r="H120" s="99"/>
+      <c r="H120" s="92"/>
       <c r="I120" s="45"/>
       <c r="J120" s="55"/>
       <c r="K120" s="55"/>
@@ -5568,16 +5758,16 @@
       <c r="T120" s="55"/>
       <c r="U120" s="55"/>
       <c r="V120" s="55"/>
-      <c r="W120" s="110"/>
+      <c r="W120" s="103"/>
       <c r="X120" s="58"/>
       <c r="Y120" s="59"/>
-      <c r="Z120" s="101"/>
+      <c r="Z120" s="94"/>
     </row>
     <row r="121" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A121" s="45"/>
       <c r="B121" s="51"/>
       <c r="C121" s="45"/>
-      <c r="D121" s="78"/>
+      <c r="D121" s="77"/>
       <c r="E121" s="45"/>
       <c r="F121" s="44"/>
       <c r="G121" s="45"/>
@@ -5596,16 +5786,16 @@
       <c r="T121" s="55"/>
       <c r="U121" s="55"/>
       <c r="V121" s="55"/>
-      <c r="W121" s="110"/>
+      <c r="W121" s="103"/>
       <c r="X121" s="58"/>
       <c r="Y121" s="59"/>
-      <c r="Z121" s="101"/>
+      <c r="Z121" s="94"/>
     </row>
     <row r="122" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A122" s="45"/>
       <c r="B122" s="51"/>
       <c r="C122" s="45"/>
-      <c r="D122" s="78"/>
+      <c r="D122" s="77"/>
       <c r="E122" s="45"/>
       <c r="F122" s="44"/>
       <c r="G122" s="45"/>
@@ -5624,16 +5814,16 @@
       <c r="T122" s="55"/>
       <c r="U122" s="55"/>
       <c r="V122" s="55"/>
-      <c r="W122" s="110"/>
+      <c r="W122" s="103"/>
       <c r="X122" s="58"/>
       <c r="Y122" s="59"/>
-      <c r="Z122" s="101"/>
+      <c r="Z122" s="94"/>
     </row>
     <row r="123" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A123" s="45"/>
       <c r="B123" s="51"/>
       <c r="C123" s="45"/>
-      <c r="D123" s="78"/>
+      <c r="D123" s="77"/>
       <c r="E123" s="45"/>
       <c r="F123" s="44"/>
       <c r="G123" s="45"/>
@@ -5652,16 +5842,16 @@
       <c r="T123" s="55"/>
       <c r="U123" s="55"/>
       <c r="V123" s="55"/>
-      <c r="W123" s="110"/>
+      <c r="W123" s="103"/>
       <c r="X123" s="58"/>
       <c r="Y123" s="59"/>
-      <c r="Z123" s="101"/>
+      <c r="Z123" s="94"/>
     </row>
     <row r="124" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A124" s="45"/>
       <c r="B124" s="51"/>
       <c r="C124" s="45"/>
-      <c r="D124" s="78"/>
+      <c r="D124" s="77"/>
       <c r="E124" s="45"/>
       <c r="F124" s="44"/>
       <c r="G124" s="45"/>
@@ -5680,16 +5870,16 @@
       <c r="T124" s="55"/>
       <c r="U124" s="55"/>
       <c r="V124" s="55"/>
-      <c r="W124" s="110"/>
+      <c r="W124" s="103"/>
       <c r="X124" s="58"/>
       <c r="Y124" s="59"/>
-      <c r="Z124" s="101"/>
+      <c r="Z124" s="94"/>
     </row>
     <row r="125" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A125" s="45"/>
       <c r="B125" s="51"/>
       <c r="C125" s="45"/>
-      <c r="D125" s="78"/>
+      <c r="D125" s="77"/>
       <c r="E125" s="45"/>
       <c r="F125" s="44"/>
       <c r="G125" s="45"/>
@@ -5708,10 +5898,10 @@
       <c r="T125" s="55"/>
       <c r="U125" s="55"/>
       <c r="V125" s="55"/>
-      <c r="W125" s="110"/>
+      <c r="W125" s="103"/>
       <c r="X125" s="58"/>
       <c r="Y125" s="59"/>
-      <c r="Z125" s="101"/>
+      <c r="Z125" s="94"/>
     </row>
     <row r="126" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A126" s="45"/>
@@ -5721,7 +5911,7 @@
       <c r="E126" s="45"/>
       <c r="F126" s="44"/>
       <c r="G126" s="45"/>
-      <c r="H126" s="116"/>
+      <c r="H126" s="109"/>
       <c r="I126" s="45"/>
       <c r="J126" s="55"/>
       <c r="K126" s="55"/>
@@ -5736,16 +5926,16 @@
       <c r="T126" s="55"/>
       <c r="U126" s="55"/>
       <c r="V126" s="55"/>
-      <c r="W126" s="110"/>
+      <c r="W126" s="103"/>
       <c r="X126" s="58"/>
       <c r="Y126" s="59"/>
-      <c r="Z126" s="101"/>
+      <c r="Z126" s="94"/>
     </row>
     <row r="127" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A127" s="45"/>
       <c r="B127" s="51"/>
       <c r="C127" s="45"/>
-      <c r="D127" s="78"/>
+      <c r="D127" s="77"/>
       <c r="E127" s="45"/>
       <c r="F127" s="44"/>
       <c r="G127" s="45"/>
@@ -5764,16 +5954,16 @@
       <c r="T127" s="44"/>
       <c r="U127" s="55"/>
       <c r="V127" s="55"/>
-      <c r="W127" s="110"/>
+      <c r="W127" s="103"/>
       <c r="X127" s="58"/>
       <c r="Y127" s="59"/>
-      <c r="Z127" s="101"/>
+      <c r="Z127" s="94"/>
     </row>
     <row r="128" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A128" s="45"/>
       <c r="B128" s="51"/>
       <c r="C128" s="45"/>
-      <c r="D128" s="78"/>
+      <c r="D128" s="77"/>
       <c r="E128" s="45"/>
       <c r="F128" s="44"/>
       <c r="G128" s="45"/>
@@ -5792,16 +5982,16 @@
       <c r="T128" s="55"/>
       <c r="U128" s="55"/>
       <c r="V128" s="55"/>
-      <c r="W128" s="110"/>
+      <c r="W128" s="103"/>
       <c r="X128" s="58"/>
       <c r="Y128" s="59"/>
-      <c r="Z128" s="101"/>
+      <c r="Z128" s="94"/>
     </row>
     <row r="129" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A129" s="45"/>
       <c r="B129" s="51"/>
       <c r="C129" s="45"/>
-      <c r="D129" s="78"/>
+      <c r="D129" s="77"/>
       <c r="E129" s="45"/>
       <c r="F129" s="44"/>
       <c r="G129" s="45"/>
@@ -5820,16 +6010,16 @@
       <c r="T129" s="55"/>
       <c r="U129" s="55"/>
       <c r="V129" s="55"/>
-      <c r="W129" s="110"/>
+      <c r="W129" s="103"/>
       <c r="X129" s="58"/>
       <c r="Y129" s="59"/>
-      <c r="Z129" s="101"/>
+      <c r="Z129" s="94"/>
     </row>
     <row r="130" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A130" s="45"/>
       <c r="B130" s="51"/>
       <c r="C130" s="45"/>
-      <c r="D130" s="78"/>
+      <c r="D130" s="77"/>
       <c r="E130" s="45"/>
       <c r="F130" s="44"/>
       <c r="G130" s="45"/>
@@ -5848,10 +6038,10 @@
       <c r="T130" s="55"/>
       <c r="U130" s="55"/>
       <c r="V130" s="55"/>
-      <c r="W130" s="110"/>
+      <c r="W130" s="103"/>
       <c r="X130" s="58"/>
       <c r="Y130" s="59"/>
-      <c r="Z130" s="101"/>
+      <c r="Z130" s="94"/>
     </row>
     <row r="131" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A131" s="45"/>
@@ -5861,7 +6051,7 @@
       <c r="E131" s="45"/>
       <c r="F131" s="44"/>
       <c r="G131" s="45"/>
-      <c r="H131" s="119"/>
+      <c r="H131" s="112"/>
       <c r="I131" s="45"/>
       <c r="J131" s="55"/>
       <c r="K131" s="55"/>
@@ -5876,16 +6066,16 @@
       <c r="T131" s="44"/>
       <c r="U131" s="55"/>
       <c r="V131" s="55"/>
-      <c r="W131" s="110"/>
+      <c r="W131" s="103"/>
       <c r="X131" s="58"/>
       <c r="Y131" s="59"/>
-      <c r="Z131" s="101"/>
+      <c r="Z131" s="94"/>
     </row>
     <row r="132" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A132" s="45"/>
       <c r="B132" s="51"/>
       <c r="C132" s="45"/>
-      <c r="D132" s="78"/>
+      <c r="D132" s="77"/>
       <c r="E132" s="45"/>
       <c r="F132" s="55"/>
       <c r="G132" s="45"/>
@@ -5904,10 +6094,10 @@
       <c r="T132" s="55"/>
       <c r="U132" s="55"/>
       <c r="V132" s="55"/>
-      <c r="W132" s="110"/>
+      <c r="W132" s="103"/>
       <c r="X132" s="58"/>
       <c r="Y132" s="59"/>
-      <c r="Z132" s="101"/>
+      <c r="Z132" s="94"/>
     </row>
     <row r="133" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A133" s="45"/>
@@ -5917,7 +6107,7 @@
       <c r="E133" s="45"/>
       <c r="F133" s="44"/>
       <c r="G133" s="45"/>
-      <c r="H133" s="108"/>
+      <c r="H133" s="101"/>
       <c r="I133" s="45"/>
       <c r="J133" s="55"/>
       <c r="K133" s="55"/>
@@ -5932,10 +6122,10 @@
       <c r="T133" s="44"/>
       <c r="U133" s="55"/>
       <c r="V133" s="55"/>
-      <c r="W133" s="110"/>
+      <c r="W133" s="103"/>
       <c r="X133" s="58"/>
       <c r="Y133" s="59"/>
-      <c r="Z133" s="101"/>
+      <c r="Z133" s="94"/>
     </row>
     <row r="134" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A134" s="45"/>
@@ -5945,7 +6135,7 @@
       <c r="E134" s="45"/>
       <c r="F134" s="44"/>
       <c r="G134" s="45"/>
-      <c r="H134" s="120"/>
+      <c r="H134" s="113"/>
       <c r="I134" s="45"/>
       <c r="J134" s="55"/>
       <c r="K134" s="55"/>
@@ -5960,20 +6150,20 @@
       <c r="T134" s="55"/>
       <c r="U134" s="55"/>
       <c r="V134" s="55"/>
-      <c r="W134" s="110"/>
+      <c r="W134" s="103"/>
       <c r="X134" s="58"/>
       <c r="Y134" s="59"/>
-      <c r="Z134" s="101"/>
+      <c r="Z134" s="94"/>
     </row>
     <row r="135" spans="1:26" s="11" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="45"/>
       <c r="B135" s="51"/>
       <c r="C135" s="45"/>
-      <c r="D135" s="78"/>
+      <c r="D135" s="77"/>
       <c r="E135" s="45"/>
       <c r="F135" s="44"/>
       <c r="G135" s="45"/>
-      <c r="H135" s="116"/>
+      <c r="H135" s="109"/>
       <c r="I135" s="45"/>
       <c r="J135" s="55"/>
       <c r="K135" s="55"/>
@@ -5988,10 +6178,10 @@
       <c r="T135" s="55"/>
       <c r="U135" s="55"/>
       <c r="V135" s="55"/>
-      <c r="W135" s="110"/>
+      <c r="W135" s="103"/>
       <c r="X135" s="58"/>
       <c r="Y135" s="59"/>
-      <c r="Z135" s="101"/>
+      <c r="Z135" s="94"/>
     </row>
     <row r="136" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A136" s="45"/>
@@ -6001,7 +6191,7 @@
       <c r="E136" s="45"/>
       <c r="F136" s="44"/>
       <c r="G136" s="45"/>
-      <c r="H136" s="116"/>
+      <c r="H136" s="109"/>
       <c r="I136" s="45"/>
       <c r="J136" s="55"/>
       <c r="K136" s="55"/>
@@ -6016,16 +6206,16 @@
       <c r="T136" s="44"/>
       <c r="U136" s="55"/>
       <c r="V136" s="55"/>
-      <c r="W136" s="110"/>
+      <c r="W136" s="103"/>
       <c r="X136" s="58"/>
       <c r="Y136" s="59"/>
-      <c r="Z136" s="101"/>
+      <c r="Z136" s="94"/>
     </row>
     <row r="137" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A137" s="45"/>
       <c r="B137" s="51"/>
       <c r="C137" s="45"/>
-      <c r="D137" s="78"/>
+      <c r="D137" s="77"/>
       <c r="E137" s="45"/>
       <c r="F137" s="44"/>
       <c r="G137" s="45"/>
@@ -6044,16 +6234,16 @@
       <c r="T137" s="44"/>
       <c r="U137" s="55"/>
       <c r="V137" s="55"/>
-      <c r="W137" s="110"/>
+      <c r="W137" s="103"/>
       <c r="X137" s="58"/>
       <c r="Y137" s="59"/>
-      <c r="Z137" s="101"/>
+      <c r="Z137" s="94"/>
     </row>
     <row r="138" spans="1:26" s="11" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="45"/>
       <c r="B138" s="51"/>
       <c r="C138" s="45"/>
-      <c r="D138" s="78"/>
+      <c r="D138" s="77"/>
       <c r="E138" s="45"/>
       <c r="F138" s="44"/>
       <c r="G138" s="45"/>
@@ -6072,10 +6262,10 @@
       <c r="T138" s="55"/>
       <c r="U138" s="55"/>
       <c r="V138" s="55"/>
-      <c r="W138" s="110"/>
+      <c r="W138" s="103"/>
       <c r="X138" s="58"/>
       <c r="Y138" s="59"/>
-      <c r="Z138" s="101"/>
+      <c r="Z138" s="94"/>
     </row>
     <row r="139" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A139" s="45"/>
@@ -6100,16 +6290,16 @@
       <c r="T139" s="55"/>
       <c r="U139" s="55"/>
       <c r="V139" s="55"/>
-      <c r="W139" s="110"/>
+      <c r="W139" s="103"/>
       <c r="X139" s="58"/>
       <c r="Y139" s="59"/>
-      <c r="Z139" s="101"/>
+      <c r="Z139" s="94"/>
     </row>
     <row r="140" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A140" s="45"/>
       <c r="B140" s="51"/>
       <c r="C140" s="45"/>
-      <c r="D140" s="78"/>
+      <c r="D140" s="77"/>
       <c r="E140" s="45"/>
       <c r="F140" s="44"/>
       <c r="G140" s="45"/>
@@ -6128,16 +6318,16 @@
       <c r="T140" s="55"/>
       <c r="U140" s="55"/>
       <c r="V140" s="55"/>
-      <c r="W140" s="110"/>
+      <c r="W140" s="103"/>
       <c r="X140" s="58"/>
       <c r="Y140" s="59"/>
-      <c r="Z140" s="101"/>
+      <c r="Z140" s="94"/>
     </row>
     <row r="141" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A141" s="45"/>
       <c r="B141" s="51"/>
       <c r="C141" s="45"/>
-      <c r="D141" s="78"/>
+      <c r="D141" s="77"/>
       <c r="E141" s="45"/>
       <c r="F141" s="44"/>
       <c r="G141" s="45"/>
@@ -6156,10 +6346,10 @@
       <c r="T141" s="55"/>
       <c r="U141" s="55"/>
       <c r="V141" s="55"/>
-      <c r="W141" s="110"/>
+      <c r="W141" s="103"/>
       <c r="X141" s="58"/>
       <c r="Y141" s="59"/>
-      <c r="Z141" s="101"/>
+      <c r="Z141" s="94"/>
     </row>
     <row r="142" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A142" s="45"/>
@@ -6184,10 +6374,10 @@
       <c r="T142" s="55"/>
       <c r="U142" s="55"/>
       <c r="V142" s="55"/>
-      <c r="W142" s="110"/>
+      <c r="W142" s="103"/>
       <c r="X142" s="58"/>
       <c r="Y142" s="59"/>
-      <c r="Z142" s="101"/>
+      <c r="Z142" s="94"/>
     </row>
     <row r="143" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A143" s="75"/>
@@ -6212,10 +6402,10 @@
       <c r="T143" s="55"/>
       <c r="U143" s="55"/>
       <c r="V143" s="55"/>
-      <c r="W143" s="110"/>
+      <c r="W143" s="103"/>
       <c r="X143" s="58"/>
       <c r="Y143" s="59"/>
-      <c r="Z143" s="101"/>
+      <c r="Z143" s="94"/>
     </row>
     <row r="144" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A144" s="75"/>
@@ -6240,10 +6430,10 @@
       <c r="T144" s="55"/>
       <c r="U144" s="55"/>
       <c r="V144" s="55"/>
-      <c r="W144" s="110"/>
+      <c r="W144" s="103"/>
       <c r="X144" s="58"/>
       <c r="Y144" s="59"/>
-      <c r="Z144" s="101"/>
+      <c r="Z144" s="94"/>
     </row>
     <row r="145" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A145" s="75"/>
@@ -6268,10 +6458,10 @@
       <c r="T145" s="55"/>
       <c r="U145" s="55"/>
       <c r="V145" s="55"/>
-      <c r="W145" s="110"/>
+      <c r="W145" s="103"/>
       <c r="X145" s="58"/>
       <c r="Y145" s="59"/>
-      <c r="Z145" s="101"/>
+      <c r="Z145" s="94"/>
     </row>
     <row r="146" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A146" s="75"/>
@@ -6296,10 +6486,10 @@
       <c r="T146" s="55"/>
       <c r="U146" s="55"/>
       <c r="V146" s="55"/>
-      <c r="W146" s="110"/>
+      <c r="W146" s="103"/>
       <c r="X146" s="58"/>
       <c r="Y146" s="59"/>
-      <c r="Z146" s="101"/>
+      <c r="Z146" s="94"/>
     </row>
     <row r="147" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A147" s="75"/>
@@ -6324,10 +6514,10 @@
       <c r="T147" s="55"/>
       <c r="U147" s="55"/>
       <c r="V147" s="55"/>
-      <c r="W147" s="110"/>
+      <c r="W147" s="103"/>
       <c r="X147" s="58"/>
       <c r="Y147" s="59"/>
-      <c r="Z147" s="101"/>
+      <c r="Z147" s="94"/>
     </row>
     <row r="148" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A148" s="75"/>
@@ -6352,10 +6542,10 @@
       <c r="T148" s="55"/>
       <c r="U148" s="55"/>
       <c r="V148" s="55"/>
-      <c r="W148" s="110"/>
+      <c r="W148" s="103"/>
       <c r="X148" s="58"/>
       <c r="Y148" s="59"/>
-      <c r="Z148" s="101"/>
+      <c r="Z148" s="94"/>
     </row>
     <row r="149" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A149" s="75"/>
@@ -6380,10 +6570,10 @@
       <c r="T149" s="55"/>
       <c r="U149" s="55"/>
       <c r="V149" s="55"/>
-      <c r="W149" s="110"/>
+      <c r="W149" s="103"/>
       <c r="X149" s="58"/>
       <c r="Y149" s="59"/>
-      <c r="Z149" s="101"/>
+      <c r="Z149" s="94"/>
     </row>
     <row r="150" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A150" s="75"/>
@@ -6408,10 +6598,10 @@
       <c r="T150" s="55"/>
       <c r="U150" s="55"/>
       <c r="V150" s="55"/>
-      <c r="W150" s="110"/>
+      <c r="W150" s="103"/>
       <c r="X150" s="58"/>
       <c r="Y150" s="59"/>
-      <c r="Z150" s="101"/>
+      <c r="Z150" s="94"/>
     </row>
     <row r="151" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A151" s="75"/>
@@ -6436,10 +6626,10 @@
       <c r="T151" s="55"/>
       <c r="U151" s="55"/>
       <c r="V151" s="55"/>
-      <c r="W151" s="110"/>
+      <c r="W151" s="103"/>
       <c r="X151" s="58"/>
       <c r="Y151" s="59"/>
-      <c r="Z151" s="101"/>
+      <c r="Z151" s="94"/>
     </row>
     <row r="152" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A152" s="75"/>
@@ -6464,10 +6654,10 @@
       <c r="T152" s="55"/>
       <c r="U152" s="55"/>
       <c r="V152" s="55"/>
-      <c r="W152" s="110"/>
+      <c r="W152" s="103"/>
       <c r="X152" s="58"/>
       <c r="Y152" s="59"/>
-      <c r="Z152" s="101"/>
+      <c r="Z152" s="94"/>
     </row>
     <row r="153" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A153" s="75"/>
@@ -6492,10 +6682,10 @@
       <c r="T153" s="55"/>
       <c r="U153" s="55"/>
       <c r="V153" s="55"/>
-      <c r="W153" s="110"/>
+      <c r="W153" s="103"/>
       <c r="X153" s="58"/>
       <c r="Y153" s="59"/>
-      <c r="Z153" s="101"/>
+      <c r="Z153" s="94"/>
     </row>
     <row r="154" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A154" s="75"/>
@@ -6520,10 +6710,10 @@
       <c r="T154" s="55"/>
       <c r="U154" s="55"/>
       <c r="V154" s="55"/>
-      <c r="W154" s="110"/>
+      <c r="W154" s="103"/>
       <c r="X154" s="58"/>
       <c r="Y154" s="59"/>
-      <c r="Z154" s="101"/>
+      <c r="Z154" s="94"/>
     </row>
     <row r="155" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A155" s="75"/>
@@ -6548,10 +6738,10 @@
       <c r="T155" s="55"/>
       <c r="U155" s="55"/>
       <c r="V155" s="55"/>
-      <c r="W155" s="110"/>
+      <c r="W155" s="103"/>
       <c r="X155" s="58"/>
       <c r="Y155" s="59"/>
-      <c r="Z155" s="101"/>
+      <c r="Z155" s="94"/>
     </row>
     <row r="156" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A156" s="75"/>
@@ -6576,10 +6766,10 @@
       <c r="T156" s="55"/>
       <c r="U156" s="55"/>
       <c r="V156" s="55"/>
-      <c r="W156" s="110"/>
+      <c r="W156" s="103"/>
       <c r="X156" s="58"/>
       <c r="Y156" s="59"/>
-      <c r="Z156" s="101"/>
+      <c r="Z156" s="94"/>
     </row>
     <row r="157" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A157" s="75"/>
@@ -6604,10 +6794,10 @@
       <c r="T157" s="55"/>
       <c r="U157" s="55"/>
       <c r="V157" s="55"/>
-      <c r="W157" s="110"/>
+      <c r="W157" s="103"/>
       <c r="X157" s="58"/>
       <c r="Y157" s="59"/>
-      <c r="Z157" s="101"/>
+      <c r="Z157" s="94"/>
     </row>
     <row r="158" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A158" s="75"/>
@@ -6632,10 +6822,10 @@
       <c r="T158" s="55"/>
       <c r="U158" s="55"/>
       <c r="V158" s="55"/>
-      <c r="W158" s="110"/>
+      <c r="W158" s="103"/>
       <c r="X158" s="58"/>
       <c r="Y158" s="59"/>
-      <c r="Z158" s="101"/>
+      <c r="Z158" s="94"/>
     </row>
     <row r="159" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A159" s="75"/>
@@ -6660,10 +6850,10 @@
       <c r="T159" s="55"/>
       <c r="U159" s="55"/>
       <c r="V159" s="55"/>
-      <c r="W159" s="110"/>
+      <c r="W159" s="103"/>
       <c r="X159" s="58"/>
       <c r="Y159" s="59"/>
-      <c r="Z159" s="101"/>
+      <c r="Z159" s="94"/>
     </row>
     <row r="160" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A160" s="75"/>
@@ -6688,10 +6878,10 @@
       <c r="T160" s="55"/>
       <c r="U160" s="55"/>
       <c r="V160" s="55"/>
-      <c r="W160" s="110"/>
+      <c r="W160" s="103"/>
       <c r="X160" s="58"/>
       <c r="Y160" s="59"/>
-      <c r="Z160" s="101"/>
+      <c r="Z160" s="94"/>
     </row>
     <row r="161" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A161" s="75"/>
@@ -6716,10 +6906,10 @@
       <c r="T161" s="55"/>
       <c r="U161" s="55"/>
       <c r="V161" s="55"/>
-      <c r="W161" s="110"/>
+      <c r="W161" s="103"/>
       <c r="X161" s="58"/>
       <c r="Y161" s="59"/>
-      <c r="Z161" s="101"/>
+      <c r="Z161" s="94"/>
     </row>
     <row r="162" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A162" s="75"/>
@@ -6729,7 +6919,7 @@
       <c r="E162" s="45"/>
       <c r="F162" s="44"/>
       <c r="G162" s="45"/>
-      <c r="H162" s="121"/>
+      <c r="H162" s="114"/>
       <c r="I162" s="45"/>
       <c r="J162" s="55"/>
       <c r="K162" s="55"/>
@@ -6744,10 +6934,10 @@
       <c r="T162" s="55"/>
       <c r="U162" s="55"/>
       <c r="V162" s="55"/>
-      <c r="W162" s="122"/>
+      <c r="W162" s="115"/>
       <c r="X162" s="58"/>
       <c r="Y162" s="59"/>
-      <c r="Z162" s="101"/>
+      <c r="Z162" s="94"/>
     </row>
     <row r="163" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A163" s="75"/>
@@ -6772,10 +6962,10 @@
       <c r="T163" s="55"/>
       <c r="U163" s="55"/>
       <c r="V163" s="55"/>
-      <c r="W163" s="110"/>
+      <c r="W163" s="103"/>
       <c r="X163" s="58"/>
       <c r="Y163" s="59"/>
-      <c r="Z163" s="101"/>
+      <c r="Z163" s="94"/>
     </row>
     <row r="164" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A164" s="45"/>
@@ -6800,10 +6990,10 @@
       <c r="T164" s="55"/>
       <c r="U164" s="55"/>
       <c r="V164" s="55"/>
-      <c r="W164" s="110"/>
+      <c r="W164" s="103"/>
       <c r="X164" s="58"/>
       <c r="Y164" s="59"/>
-      <c r="Z164" s="101"/>
+      <c r="Z164" s="94"/>
     </row>
     <row r="165" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A165" s="45"/>
@@ -6828,10 +7018,10 @@
       <c r="T165" s="55"/>
       <c r="U165" s="55"/>
       <c r="V165" s="55"/>
-      <c r="W165" s="110"/>
+      <c r="W165" s="103"/>
       <c r="X165" s="58"/>
       <c r="Y165" s="59"/>
-      <c r="Z165" s="101"/>
+      <c r="Z165" s="94"/>
     </row>
     <row r="166" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A166" s="45"/>
@@ -6856,10 +7046,10 @@
       <c r="T166" s="55"/>
       <c r="U166" s="55"/>
       <c r="V166" s="55"/>
-      <c r="W166" s="110"/>
+      <c r="W166" s="103"/>
       <c r="X166" s="58"/>
       <c r="Y166" s="59"/>
-      <c r="Z166" s="101"/>
+      <c r="Z166" s="94"/>
     </row>
     <row r="167" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A167" s="45"/>
@@ -6884,10 +7074,10 @@
       <c r="T167" s="55"/>
       <c r="U167" s="55"/>
       <c r="V167" s="55"/>
-      <c r="W167" s="110"/>
+      <c r="W167" s="103"/>
       <c r="X167" s="58"/>
       <c r="Y167" s="59"/>
-      <c r="Z167" s="101"/>
+      <c r="Z167" s="94"/>
     </row>
     <row r="168" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A168" s="45"/>
@@ -6912,10 +7102,10 @@
       <c r="T168" s="55"/>
       <c r="U168" s="55"/>
       <c r="V168" s="55"/>
-      <c r="W168" s="110"/>
+      <c r="W168" s="103"/>
       <c r="X168" s="58"/>
       <c r="Y168" s="59"/>
-      <c r="Z168" s="101"/>
+      <c r="Z168" s="94"/>
     </row>
     <row r="169" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A169" s="45"/>
@@ -6940,10 +7130,10 @@
       <c r="T169" s="55"/>
       <c r="U169" s="55"/>
       <c r="V169" s="55"/>
-      <c r="W169" s="110"/>
+      <c r="W169" s="103"/>
       <c r="X169" s="58"/>
       <c r="Y169" s="59"/>
-      <c r="Z169" s="101"/>
+      <c r="Z169" s="94"/>
     </row>
     <row r="170" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A170" s="45"/>
@@ -6968,10 +7158,10 @@
       <c r="T170" s="55"/>
       <c r="U170" s="55"/>
       <c r="V170" s="55"/>
-      <c r="W170" s="110"/>
+      <c r="W170" s="103"/>
       <c r="X170" s="58"/>
       <c r="Y170" s="59"/>
-      <c r="Z170" s="101"/>
+      <c r="Z170" s="94"/>
     </row>
     <row r="171" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A171" s="45"/>
@@ -6996,10 +7186,10 @@
       <c r="T171" s="55"/>
       <c r="U171" s="55"/>
       <c r="V171" s="55"/>
-      <c r="W171" s="110"/>
+      <c r="W171" s="103"/>
       <c r="X171" s="58"/>
       <c r="Y171" s="59"/>
-      <c r="Z171" s="101"/>
+      <c r="Z171" s="94"/>
     </row>
     <row r="172" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A172" s="45"/>
@@ -7024,10 +7214,10 @@
       <c r="T172" s="55"/>
       <c r="U172" s="55"/>
       <c r="V172" s="55"/>
-      <c r="W172" s="110"/>
+      <c r="W172" s="103"/>
       <c r="X172" s="58"/>
       <c r="Y172" s="59"/>
-      <c r="Z172" s="101"/>
+      <c r="Z172" s="94"/>
     </row>
     <row r="173" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A173" s="45"/>
@@ -7052,10 +7242,10 @@
       <c r="T173" s="55"/>
       <c r="U173" s="55"/>
       <c r="V173" s="55"/>
-      <c r="W173" s="110"/>
+      <c r="W173" s="103"/>
       <c r="X173" s="58"/>
       <c r="Y173" s="59"/>
-      <c r="Z173" s="101"/>
+      <c r="Z173" s="94"/>
     </row>
     <row r="174" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A174" s="45"/>
@@ -7080,10 +7270,10 @@
       <c r="T174" s="55"/>
       <c r="U174" s="55"/>
       <c r="V174" s="55"/>
-      <c r="W174" s="110"/>
+      <c r="W174" s="103"/>
       <c r="X174" s="58"/>
       <c r="Y174" s="59"/>
-      <c r="Z174" s="101"/>
+      <c r="Z174" s="94"/>
     </row>
     <row r="175" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A175" s="45"/>
@@ -7108,10 +7298,10 @@
       <c r="T175" s="55"/>
       <c r="U175" s="55"/>
       <c r="V175" s="55"/>
-      <c r="W175" s="110"/>
+      <c r="W175" s="103"/>
       <c r="X175" s="58"/>
       <c r="Y175" s="59"/>
-      <c r="Z175" s="101"/>
+      <c r="Z175" s="94"/>
     </row>
     <row r="176" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A176" s="45"/>
@@ -7136,10 +7326,10 @@
       <c r="T176" s="55"/>
       <c r="U176" s="55"/>
       <c r="V176" s="55"/>
-      <c r="W176" s="110"/>
+      <c r="W176" s="103"/>
       <c r="X176" s="58"/>
       <c r="Y176" s="59"/>
-      <c r="Z176" s="101"/>
+      <c r="Z176" s="94"/>
     </row>
     <row r="177" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A177" s="45"/>
@@ -7164,10 +7354,10 @@
       <c r="T177" s="55"/>
       <c r="U177" s="55"/>
       <c r="V177" s="55"/>
-      <c r="W177" s="110"/>
+      <c r="W177" s="103"/>
       <c r="X177" s="58"/>
       <c r="Y177" s="59"/>
-      <c r="Z177" s="101"/>
+      <c r="Z177" s="94"/>
     </row>
     <row r="178" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A178" s="45"/>
@@ -7192,10 +7382,10 @@
       <c r="T178" s="55"/>
       <c r="U178" s="55"/>
       <c r="V178" s="55"/>
-      <c r="W178" s="110"/>
+      <c r="W178" s="103"/>
       <c r="X178" s="58"/>
       <c r="Y178" s="59"/>
-      <c r="Z178" s="101"/>
+      <c r="Z178" s="94"/>
     </row>
     <row r="179" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A179" s="45"/>
@@ -7220,10 +7410,10 @@
       <c r="T179" s="55"/>
       <c r="U179" s="55"/>
       <c r="V179" s="55"/>
-      <c r="W179" s="110"/>
+      <c r="W179" s="103"/>
       <c r="X179" s="58"/>
       <c r="Y179" s="59"/>
-      <c r="Z179" s="101"/>
+      <c r="Z179" s="94"/>
     </row>
     <row r="180" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A180" s="45"/>
@@ -7248,10 +7438,10 @@
       <c r="T180" s="55"/>
       <c r="U180" s="55"/>
       <c r="V180" s="55"/>
-      <c r="W180" s="110"/>
+      <c r="W180" s="103"/>
       <c r="X180" s="58"/>
       <c r="Y180" s="59"/>
-      <c r="Z180" s="101"/>
+      <c r="Z180" s="94"/>
     </row>
     <row r="181" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A181" s="45"/>
@@ -7276,10 +7466,10 @@
       <c r="T181" s="55"/>
       <c r="U181" s="55"/>
       <c r="V181" s="55"/>
-      <c r="W181" s="110"/>
+      <c r="W181" s="103"/>
       <c r="X181" s="58"/>
       <c r="Y181" s="59"/>
-      <c r="Z181" s="101"/>
+      <c r="Z181" s="94"/>
     </row>
     <row r="182" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A182" s="45"/>
@@ -7304,10 +7494,10 @@
       <c r="T182" s="55"/>
       <c r="U182" s="55"/>
       <c r="V182" s="55"/>
-      <c r="W182" s="110"/>
+      <c r="W182" s="103"/>
       <c r="X182" s="58"/>
       <c r="Y182" s="59"/>
-      <c r="Z182" s="101"/>
+      <c r="Z182" s="94"/>
     </row>
     <row r="183" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A183" s="45"/>
@@ -7332,10 +7522,10 @@
       <c r="T183" s="55"/>
       <c r="U183" s="55"/>
       <c r="V183" s="55"/>
-      <c r="W183" s="110"/>
+      <c r="W183" s="103"/>
       <c r="X183" s="58"/>
       <c r="Y183" s="59"/>
-      <c r="Z183" s="101"/>
+      <c r="Z183" s="94"/>
     </row>
     <row r="184" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A184" s="45"/>
@@ -7360,10 +7550,10 @@
       <c r="T184" s="55"/>
       <c r="U184" s="55"/>
       <c r="V184" s="55"/>
-      <c r="W184" s="110"/>
+      <c r="W184" s="103"/>
       <c r="X184" s="58"/>
       <c r="Y184" s="59"/>
-      <c r="Z184" s="101"/>
+      <c r="Z184" s="94"/>
     </row>
     <row r="185" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A185" s="45"/>
@@ -7388,10 +7578,10 @@
       <c r="T185" s="55"/>
       <c r="U185" s="55"/>
       <c r="V185" s="55"/>
-      <c r="W185" s="110"/>
+      <c r="W185" s="103"/>
       <c r="X185" s="58"/>
       <c r="Y185" s="59"/>
-      <c r="Z185" s="101"/>
+      <c r="Z185" s="94"/>
     </row>
     <row r="186" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A186" s="45"/>
@@ -7416,10 +7606,10 @@
       <c r="T186" s="55"/>
       <c r="U186" s="55"/>
       <c r="V186" s="55"/>
-      <c r="W186" s="110"/>
+      <c r="W186" s="103"/>
       <c r="X186" s="58"/>
       <c r="Y186" s="59"/>
-      <c r="Z186" s="101"/>
+      <c r="Z186" s="94"/>
     </row>
     <row r="187" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A187" s="45"/>
@@ -7444,10 +7634,10 @@
       <c r="T187" s="55"/>
       <c r="U187" s="55"/>
       <c r="V187" s="55"/>
-      <c r="W187" s="110"/>
+      <c r="W187" s="103"/>
       <c r="X187" s="58"/>
       <c r="Y187" s="59"/>
-      <c r="Z187" s="101"/>
+      <c r="Z187" s="94"/>
     </row>
     <row r="188" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A188" s="45"/>
@@ -7472,10 +7662,10 @@
       <c r="T188" s="55"/>
       <c r="U188" s="55"/>
       <c r="V188" s="55"/>
-      <c r="W188" s="110"/>
+      <c r="W188" s="103"/>
       <c r="X188" s="58"/>
       <c r="Y188" s="59"/>
-      <c r="Z188" s="101"/>
+      <c r="Z188" s="94"/>
     </row>
     <row r="189" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A189" s="45"/>
@@ -7500,10 +7690,10 @@
       <c r="T189" s="55"/>
       <c r="U189" s="55"/>
       <c r="V189" s="55"/>
-      <c r="W189" s="110"/>
+      <c r="W189" s="103"/>
       <c r="X189" s="58"/>
       <c r="Y189" s="59"/>
-      <c r="Z189" s="101"/>
+      <c r="Z189" s="94"/>
     </row>
     <row r="190" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A190" s="45"/>
@@ -7528,10 +7718,10 @@
       <c r="T190" s="55"/>
       <c r="U190" s="55"/>
       <c r="V190" s="55"/>
-      <c r="W190" s="110"/>
+      <c r="W190" s="103"/>
       <c r="X190" s="58"/>
       <c r="Y190" s="59"/>
-      <c r="Z190" s="101"/>
+      <c r="Z190" s="94"/>
     </row>
     <row r="191" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A191" s="45"/>
@@ -7556,10 +7746,10 @@
       <c r="T191" s="55"/>
       <c r="U191" s="55"/>
       <c r="V191" s="55"/>
-      <c r="W191" s="110"/>
+      <c r="W191" s="103"/>
       <c r="X191" s="58"/>
       <c r="Y191" s="59"/>
-      <c r="Z191" s="101"/>
+      <c r="Z191" s="94"/>
     </row>
     <row r="192" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A192" s="45"/>
@@ -7584,10 +7774,10 @@
       <c r="T192" s="55"/>
       <c r="U192" s="55"/>
       <c r="V192" s="55"/>
-      <c r="W192" s="110"/>
+      <c r="W192" s="103"/>
       <c r="X192" s="58"/>
       <c r="Y192" s="59"/>
-      <c r="Z192" s="101"/>
+      <c r="Z192" s="94"/>
     </row>
     <row r="193" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A193" s="45"/>
@@ -7612,10 +7802,10 @@
       <c r="T193" s="55"/>
       <c r="U193" s="55"/>
       <c r="V193" s="55"/>
-      <c r="W193" s="110"/>
+      <c r="W193" s="103"/>
       <c r="X193" s="58"/>
       <c r="Y193" s="59"/>
-      <c r="Z193" s="101"/>
+      <c r="Z193" s="94"/>
     </row>
     <row r="194" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A194" s="45"/>
@@ -7640,10 +7830,10 @@
       <c r="T194" s="55"/>
       <c r="U194" s="55"/>
       <c r="V194" s="55"/>
-      <c r="W194" s="110"/>
+      <c r="W194" s="103"/>
       <c r="X194" s="58"/>
       <c r="Y194" s="59"/>
-      <c r="Z194" s="101"/>
+      <c r="Z194" s="94"/>
     </row>
     <row r="195" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A195" s="45"/>
@@ -7668,10 +7858,10 @@
       <c r="T195" s="55"/>
       <c r="U195" s="55"/>
       <c r="V195" s="55"/>
-      <c r="W195" s="110"/>
+      <c r="W195" s="103"/>
       <c r="X195" s="58"/>
       <c r="Y195" s="59"/>
-      <c r="Z195" s="101"/>
+      <c r="Z195" s="94"/>
     </row>
     <row r="196" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A196" s="45"/>
@@ -7696,10 +7886,10 @@
       <c r="T196" s="55"/>
       <c r="U196" s="55"/>
       <c r="V196" s="55"/>
-      <c r="W196" s="110"/>
+      <c r="W196" s="103"/>
       <c r="X196" s="58"/>
       <c r="Y196" s="59"/>
-      <c r="Z196" s="101"/>
+      <c r="Z196" s="94"/>
     </row>
     <row r="197" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A197" s="45"/>
@@ -7724,10 +7914,10 @@
       <c r="T197" s="55"/>
       <c r="U197" s="55"/>
       <c r="V197" s="55"/>
-      <c r="W197" s="110"/>
+      <c r="W197" s="103"/>
       <c r="X197" s="58"/>
       <c r="Y197" s="59"/>
-      <c r="Z197" s="101"/>
+      <c r="Z197" s="94"/>
     </row>
     <row r="198" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A198" s="45"/>
@@ -7752,10 +7942,10 @@
       <c r="T198" s="55"/>
       <c r="U198" s="55"/>
       <c r="V198" s="55"/>
-      <c r="W198" s="110"/>
+      <c r="W198" s="103"/>
       <c r="X198" s="58"/>
       <c r="Y198" s="59"/>
-      <c r="Z198" s="101"/>
+      <c r="Z198" s="94"/>
     </row>
     <row r="199" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A199" s="45"/>
@@ -7780,10 +7970,10 @@
       <c r="T199" s="55"/>
       <c r="U199" s="55"/>
       <c r="V199" s="55"/>
-      <c r="W199" s="110"/>
+      <c r="W199" s="103"/>
       <c r="X199" s="58"/>
       <c r="Y199" s="59"/>
-      <c r="Z199" s="101"/>
+      <c r="Z199" s="94"/>
     </row>
     <row r="200" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A200" s="45"/>
@@ -7808,10 +7998,10 @@
       <c r="T200" s="55"/>
       <c r="U200" s="55"/>
       <c r="V200" s="55"/>
-      <c r="W200" s="110"/>
+      <c r="W200" s="103"/>
       <c r="X200" s="58"/>
       <c r="Y200" s="59"/>
-      <c r="Z200" s="101"/>
+      <c r="Z200" s="94"/>
     </row>
     <row r="201" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A201" s="45"/>
@@ -7836,10 +8026,10 @@
       <c r="T201" s="55"/>
       <c r="U201" s="55"/>
       <c r="V201" s="55"/>
-      <c r="W201" s="110"/>
+      <c r="W201" s="103"/>
       <c r="X201" s="58"/>
       <c r="Y201" s="59"/>
-      <c r="Z201" s="101"/>
+      <c r="Z201" s="94"/>
     </row>
     <row r="202" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A202" s="45"/>
@@ -7864,10 +8054,10 @@
       <c r="T202" s="55"/>
       <c r="U202" s="55"/>
       <c r="V202" s="55"/>
-      <c r="W202" s="110"/>
+      <c r="W202" s="103"/>
       <c r="X202" s="58"/>
       <c r="Y202" s="59"/>
-      <c r="Z202" s="101"/>
+      <c r="Z202" s="94"/>
     </row>
     <row r="203" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A203" s="45"/>
@@ -7892,10 +8082,10 @@
       <c r="T203" s="55"/>
       <c r="U203" s="55"/>
       <c r="V203" s="55"/>
-      <c r="W203" s="110"/>
+      <c r="W203" s="103"/>
       <c r="X203" s="58"/>
       <c r="Y203" s="59"/>
-      <c r="Z203" s="101"/>
+      <c r="Z203" s="94"/>
     </row>
     <row r="204" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A204" s="45"/>
@@ -7920,10 +8110,10 @@
       <c r="T204" s="55"/>
       <c r="U204" s="55"/>
       <c r="V204" s="55"/>
-      <c r="W204" s="110"/>
+      <c r="W204" s="103"/>
       <c r="X204" s="58"/>
       <c r="Y204" s="59"/>
-      <c r="Z204" s="101"/>
+      <c r="Z204" s="94"/>
     </row>
     <row r="205" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A205" s="45"/>
@@ -7948,10 +8138,10 @@
       <c r="T205" s="55"/>
       <c r="U205" s="55"/>
       <c r="V205" s="55"/>
-      <c r="W205" s="110"/>
+      <c r="W205" s="103"/>
       <c r="X205" s="58"/>
       <c r="Y205" s="59"/>
-      <c r="Z205" s="101"/>
+      <c r="Z205" s="94"/>
     </row>
     <row r="206" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A206" s="45"/>
@@ -7976,10 +8166,10 @@
       <c r="T206" s="55"/>
       <c r="U206" s="55"/>
       <c r="V206" s="55"/>
-      <c r="W206" s="110"/>
+      <c r="W206" s="103"/>
       <c r="X206" s="58"/>
       <c r="Y206" s="59"/>
-      <c r="Z206" s="101"/>
+      <c r="Z206" s="94"/>
     </row>
     <row r="207" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A207" s="45"/>
@@ -8004,10 +8194,10 @@
       <c r="T207" s="55"/>
       <c r="U207" s="55"/>
       <c r="V207" s="55"/>
-      <c r="W207" s="110"/>
+      <c r="W207" s="103"/>
       <c r="X207" s="58"/>
       <c r="Y207" s="59"/>
-      <c r="Z207" s="101"/>
+      <c r="Z207" s="94"/>
     </row>
     <row r="208" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A208" s="45"/>
@@ -8032,10 +8222,10 @@
       <c r="T208" s="55"/>
       <c r="U208" s="55"/>
       <c r="V208" s="55"/>
-      <c r="W208" s="110"/>
+      <c r="W208" s="103"/>
       <c r="X208" s="58"/>
       <c r="Y208" s="59"/>
-      <c r="Z208" s="101"/>
+      <c r="Z208" s="94"/>
     </row>
     <row r="209" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A209" s="45"/>
@@ -8060,10 +8250,10 @@
       <c r="T209" s="55"/>
       <c r="U209" s="55"/>
       <c r="V209" s="55"/>
-      <c r="W209" s="110"/>
+      <c r="W209" s="103"/>
       <c r="X209" s="58"/>
       <c r="Y209" s="59"/>
-      <c r="Z209" s="101"/>
+      <c r="Z209" s="94"/>
     </row>
     <row r="210" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A210" s="45"/>
@@ -8088,10 +8278,10 @@
       <c r="T210" s="55"/>
       <c r="U210" s="55"/>
       <c r="V210" s="55"/>
-      <c r="W210" s="110"/>
+      <c r="W210" s="103"/>
       <c r="X210" s="58"/>
       <c r="Y210" s="59"/>
-      <c r="Z210" s="101"/>
+      <c r="Z210" s="94"/>
     </row>
     <row r="211" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A211" s="45"/>
@@ -8116,10 +8306,10 @@
       <c r="T211" s="55"/>
       <c r="U211" s="55"/>
       <c r="V211" s="55"/>
-      <c r="W211" s="110"/>
+      <c r="W211" s="103"/>
       <c r="X211" s="58"/>
       <c r="Y211" s="59"/>
-      <c r="Z211" s="101"/>
+      <c r="Z211" s="94"/>
     </row>
     <row r="212" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A212" s="45"/>
@@ -8144,14 +8334,14 @@
       <c r="T212" s="55"/>
       <c r="U212" s="55"/>
       <c r="V212" s="55"/>
-      <c r="W212" s="110"/>
+      <c r="W212" s="103"/>
       <c r="X212" s="58"/>
       <c r="Y212" s="59"/>
-      <c r="Z212" s="101"/>
+      <c r="Z212" s="94"/>
     </row>
     <row r="213" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="45"/>
-      <c r="B213" s="123"/>
+      <c r="B213" s="116"/>
       <c r="C213" s="20"/>
       <c r="D213" s="69"/>
       <c r="E213" s="20"/>
@@ -8165,12 +8355,12 @@
       <c r="S213" s="20"/>
       <c r="V213" s="14"/>
       <c r="W213" s="14"/>
-      <c r="Y213" s="124"/>
-      <c r="Z213" s="101"/>
+      <c r="Y213" s="117"/>
+      <c r="Z213" s="94"/>
     </row>
     <row r="214" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="45"/>
-      <c r="B214" s="123"/>
+      <c r="B214" s="116"/>
       <c r="C214" s="20"/>
       <c r="D214" s="69"/>
       <c r="E214" s="20"/>
@@ -8184,12 +8374,12 @@
       <c r="S214" s="20"/>
       <c r="V214" s="14"/>
       <c r="W214" s="14"/>
-      <c r="Y214" s="124"/>
-      <c r="Z214" s="101"/>
+      <c r="Y214" s="117"/>
+      <c r="Z214" s="94"/>
     </row>
     <row r="215" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="45"/>
-      <c r="B215" s="123"/>
+      <c r="B215" s="116"/>
       <c r="C215" s="20"/>
       <c r="D215" s="69"/>
       <c r="E215" s="20"/>
@@ -8203,12 +8393,12 @@
       <c r="S215" s="20"/>
       <c r="V215" s="14"/>
       <c r="W215" s="14"/>
-      <c r="Y215" s="124"/>
-      <c r="Z215" s="101"/>
+      <c r="Y215" s="117"/>
+      <c r="Z215" s="94"/>
     </row>
     <row r="216" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="45"/>
-      <c r="B216" s="123"/>
+      <c r="B216" s="116"/>
       <c r="C216" s="20"/>
       <c r="D216" s="69"/>
       <c r="E216" s="20"/>
@@ -8222,12 +8412,12 @@
       <c r="S216" s="20"/>
       <c r="V216" s="14"/>
       <c r="W216" s="14"/>
-      <c r="Y216" s="124"/>
-      <c r="Z216" s="101"/>
+      <c r="Y216" s="117"/>
+      <c r="Z216" s="94"/>
     </row>
     <row r="217" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="45"/>
-      <c r="B217" s="123"/>
+      <c r="B217" s="116"/>
       <c r="C217" s="20"/>
       <c r="D217" s="69"/>
       <c r="E217" s="20"/>
@@ -8241,12 +8431,12 @@
       <c r="S217" s="20"/>
       <c r="V217" s="14"/>
       <c r="W217" s="14"/>
-      <c r="Y217" s="124"/>
-      <c r="Z217" s="101"/>
+      <c r="Y217" s="117"/>
+      <c r="Z217" s="94"/>
     </row>
     <row r="218" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="45"/>
-      <c r="B218" s="123"/>
+      <c r="B218" s="116"/>
       <c r="C218" s="20"/>
       <c r="D218" s="69"/>
       <c r="E218" s="20"/>
@@ -8260,12 +8450,12 @@
       <c r="S218" s="20"/>
       <c r="V218" s="14"/>
       <c r="W218" s="14"/>
-      <c r="Y218" s="124"/>
-      <c r="Z218" s="101"/>
+      <c r="Y218" s="117"/>
+      <c r="Z218" s="94"/>
     </row>
     <row r="219" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="45"/>
-      <c r="B219" s="123"/>
+      <c r="B219" s="116"/>
       <c r="C219" s="20"/>
       <c r="D219" s="69"/>
       <c r="E219" s="20"/>
@@ -8279,12 +8469,12 @@
       <c r="S219" s="20"/>
       <c r="V219" s="14"/>
       <c r="W219" s="14"/>
-      <c r="Y219" s="124"/>
-      <c r="Z219" s="101"/>
+      <c r="Y219" s="117"/>
+      <c r="Z219" s="94"/>
     </row>
     <row r="220" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="45"/>
-      <c r="B220" s="123"/>
+      <c r="B220" s="116"/>
       <c r="C220" s="20"/>
       <c r="D220" s="69"/>
       <c r="E220" s="20"/>
@@ -8298,12 +8488,12 @@
       <c r="S220" s="20"/>
       <c r="V220" s="14"/>
       <c r="W220" s="14"/>
-      <c r="Y220" s="124"/>
-      <c r="Z220" s="101"/>
+      <c r="Y220" s="117"/>
+      <c r="Z220" s="94"/>
     </row>
     <row r="221" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="45"/>
-      <c r="B221" s="123"/>
+      <c r="B221" s="116"/>
       <c r="C221" s="20"/>
       <c r="D221" s="69"/>
       <c r="E221" s="20"/>
@@ -8317,12 +8507,12 @@
       <c r="S221" s="20"/>
       <c r="V221" s="14"/>
       <c r="W221" s="14"/>
-      <c r="Y221" s="124"/>
-      <c r="Z221" s="101"/>
+      <c r="Y221" s="117"/>
+      <c r="Z221" s="94"/>
     </row>
     <row r="222" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="45"/>
-      <c r="B222" s="123"/>
+      <c r="B222" s="116"/>
       <c r="C222" s="20"/>
       <c r="D222" s="69"/>
       <c r="E222" s="20"/>
@@ -8336,12 +8526,12 @@
       <c r="S222" s="20"/>
       <c r="V222" s="14"/>
       <c r="W222" s="14"/>
-      <c r="Y222" s="124"/>
-      <c r="Z222" s="101"/>
+      <c r="Y222" s="117"/>
+      <c r="Z222" s="94"/>
     </row>
     <row r="223" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="45"/>
-      <c r="B223" s="123"/>
+      <c r="B223" s="116"/>
       <c r="C223" s="20"/>
       <c r="D223" s="69"/>
       <c r="E223" s="20"/>
@@ -8355,12 +8545,12 @@
       <c r="S223" s="20"/>
       <c r="V223" s="14"/>
       <c r="W223" s="14"/>
-      <c r="Y223" s="124"/>
-      <c r="Z223" s="101"/>
+      <c r="Y223" s="117"/>
+      <c r="Z223" s="94"/>
     </row>
     <row r="224" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="45"/>
-      <c r="B224" s="123"/>
+      <c r="B224" s="116"/>
       <c r="C224" s="20"/>
       <c r="D224" s="69"/>
       <c r="E224" s="20"/>
@@ -8374,12 +8564,12 @@
       <c r="S224" s="20"/>
       <c r="V224" s="14"/>
       <c r="W224" s="14"/>
-      <c r="Y224" s="124"/>
-      <c r="Z224" s="101"/>
+      <c r="Y224" s="117"/>
+      <c r="Z224" s="94"/>
     </row>
     <row r="225" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="45"/>
-      <c r="B225" s="123"/>
+      <c r="B225" s="116"/>
       <c r="C225" s="20"/>
       <c r="D225" s="69"/>
       <c r="E225" s="20"/>
@@ -8393,12 +8583,12 @@
       <c r="S225" s="20"/>
       <c r="V225" s="14"/>
       <c r="W225" s="14"/>
-      <c r="Y225" s="124"/>
-      <c r="Z225" s="101"/>
+      <c r="Y225" s="117"/>
+      <c r="Z225" s="94"/>
     </row>
     <row r="226" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="45"/>
-      <c r="B226" s="123"/>
+      <c r="B226" s="116"/>
       <c r="C226" s="20"/>
       <c r="D226" s="69"/>
       <c r="E226" s="20"/>
@@ -8412,12 +8602,12 @@
       <c r="S226" s="20"/>
       <c r="V226" s="14"/>
       <c r="W226" s="14"/>
-      <c r="Y226" s="124"/>
-      <c r="Z226" s="101"/>
+      <c r="Y226" s="117"/>
+      <c r="Z226" s="94"/>
     </row>
     <row r="227" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="45"/>
-      <c r="B227" s="123"/>
+      <c r="B227" s="116"/>
       <c r="C227" s="20"/>
       <c r="D227" s="69"/>
       <c r="E227" s="20"/>
@@ -8431,12 +8621,12 @@
       <c r="S227" s="20"/>
       <c r="V227" s="14"/>
       <c r="W227" s="14"/>
-      <c r="Y227" s="124"/>
-      <c r="Z227" s="101"/>
+      <c r="Y227" s="117"/>
+      <c r="Z227" s="94"/>
     </row>
     <row r="228" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="45"/>
-      <c r="B228" s="123"/>
+      <c r="B228" s="116"/>
       <c r="C228" s="20"/>
       <c r="D228" s="69"/>
       <c r="E228" s="20"/>
@@ -8450,12 +8640,12 @@
       <c r="S228" s="20"/>
       <c r="V228" s="14"/>
       <c r="W228" s="14"/>
-      <c r="Y228" s="124"/>
-      <c r="Z228" s="101"/>
+      <c r="Y228" s="117"/>
+      <c r="Z228" s="94"/>
     </row>
     <row r="229" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="45"/>
-      <c r="B229" s="123"/>
+      <c r="B229" s="116"/>
       <c r="C229" s="20"/>
       <c r="D229" s="69"/>
       <c r="E229" s="20"/>
@@ -8469,12 +8659,12 @@
       <c r="S229" s="20"/>
       <c r="V229" s="14"/>
       <c r="W229" s="14"/>
-      <c r="Y229" s="124"/>
-      <c r="Z229" s="101"/>
+      <c r="Y229" s="117"/>
+      <c r="Z229" s="94"/>
     </row>
     <row r="230" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="45"/>
-      <c r="B230" s="123"/>
+      <c r="B230" s="116"/>
       <c r="C230" s="20"/>
       <c r="D230" s="69"/>
       <c r="E230" s="20"/>
@@ -8488,12 +8678,12 @@
       <c r="S230" s="20"/>
       <c r="V230" s="14"/>
       <c r="W230" s="14"/>
-      <c r="Y230" s="124"/>
-      <c r="Z230" s="101"/>
+      <c r="Y230" s="117"/>
+      <c r="Z230" s="94"/>
     </row>
     <row r="231" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="45"/>
-      <c r="B231" s="123"/>
+      <c r="B231" s="116"/>
       <c r="C231" s="20"/>
       <c r="D231" s="69"/>
       <c r="E231" s="20"/>
@@ -8507,12 +8697,12 @@
       <c r="S231" s="20"/>
       <c r="V231" s="14"/>
       <c r="W231" s="14"/>
-      <c r="Y231" s="124"/>
-      <c r="Z231" s="101"/>
+      <c r="Y231" s="117"/>
+      <c r="Z231" s="94"/>
     </row>
     <row r="232" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="45"/>
-      <c r="B232" s="123"/>
+      <c r="B232" s="116"/>
       <c r="C232" s="20"/>
       <c r="D232" s="69"/>
       <c r="E232" s="20"/>
@@ -8526,12 +8716,12 @@
       <c r="S232" s="20"/>
       <c r="V232" s="14"/>
       <c r="W232" s="14"/>
-      <c r="Y232" s="124"/>
-      <c r="Z232" s="101"/>
+      <c r="Y232" s="117"/>
+      <c r="Z232" s="94"/>
     </row>
     <row r="233" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="45"/>
-      <c r="B233" s="123"/>
+      <c r="B233" s="116"/>
       <c r="C233" s="20"/>
       <c r="D233" s="69"/>
       <c r="E233" s="20"/>
@@ -8545,12 +8735,12 @@
       <c r="S233" s="20"/>
       <c r="V233" s="14"/>
       <c r="W233" s="14"/>
-      <c r="Y233" s="124"/>
-      <c r="Z233" s="101"/>
+      <c r="Y233" s="117"/>
+      <c r="Z233" s="94"/>
     </row>
     <row r="234" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="45"/>
-      <c r="B234" s="123"/>
+      <c r="B234" s="116"/>
       <c r="C234" s="20"/>
       <c r="D234" s="69"/>
       <c r="E234" s="20"/>
@@ -8564,12 +8754,12 @@
       <c r="S234" s="20"/>
       <c r="V234" s="14"/>
       <c r="W234" s="14"/>
-      <c r="Y234" s="124"/>
-      <c r="Z234" s="101"/>
+      <c r="Y234" s="117"/>
+      <c r="Z234" s="94"/>
     </row>
     <row r="235" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="45"/>
-      <c r="B235" s="123"/>
+      <c r="B235" s="116"/>
       <c r="C235" s="20"/>
       <c r="D235" s="69"/>
       <c r="E235" s="20"/>
@@ -8583,12 +8773,12 @@
       <c r="S235" s="20"/>
       <c r="V235" s="14"/>
       <c r="W235" s="14"/>
-      <c r="Y235" s="124"/>
-      <c r="Z235" s="101"/>
+      <c r="Y235" s="117"/>
+      <c r="Z235" s="94"/>
     </row>
     <row r="236" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="45"/>
-      <c r="B236" s="123"/>
+      <c r="B236" s="116"/>
       <c r="C236" s="20"/>
       <c r="D236" s="69"/>
       <c r="E236" s="20"/>
@@ -8602,12 +8792,12 @@
       <c r="S236" s="20"/>
       <c r="V236" s="14"/>
       <c r="W236" s="14"/>
-      <c r="Y236" s="124"/>
-      <c r="Z236" s="101"/>
+      <c r="Y236" s="117"/>
+      <c r="Z236" s="94"/>
     </row>
     <row r="237" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="45"/>
-      <c r="B237" s="123"/>
+      <c r="B237" s="116"/>
       <c r="C237" s="20"/>
       <c r="D237" s="69"/>
       <c r="E237" s="20"/>
@@ -8621,12 +8811,12 @@
       <c r="S237" s="20"/>
       <c r="V237" s="14"/>
       <c r="W237" s="14"/>
-      <c r="Y237" s="124"/>
-      <c r="Z237" s="101"/>
+      <c r="Y237" s="117"/>
+      <c r="Z237" s="94"/>
     </row>
     <row r="238" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="45"/>
-      <c r="B238" s="123"/>
+      <c r="B238" s="116"/>
       <c r="C238" s="20"/>
       <c r="D238" s="69"/>
       <c r="E238" s="20"/>
@@ -8640,12 +8830,12 @@
       <c r="S238" s="20"/>
       <c r="V238" s="14"/>
       <c r="W238" s="14"/>
-      <c r="Y238" s="124"/>
-      <c r="Z238" s="101"/>
+      <c r="Y238" s="117"/>
+      <c r="Z238" s="94"/>
     </row>
     <row r="239" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="45"/>
-      <c r="B239" s="123"/>
+      <c r="B239" s="116"/>
       <c r="C239" s="20"/>
       <c r="D239" s="69"/>
       <c r="E239" s="20"/>
@@ -8659,12 +8849,12 @@
       <c r="S239" s="20"/>
       <c r="V239" s="14"/>
       <c r="W239" s="14"/>
-      <c r="Y239" s="124"/>
-      <c r="Z239" s="101"/>
+      <c r="Y239" s="117"/>
+      <c r="Z239" s="94"/>
     </row>
     <row r="240" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="45"/>
-      <c r="B240" s="123"/>
+      <c r="B240" s="116"/>
       <c r="C240" s="20"/>
       <c r="D240" s="69"/>
       <c r="E240" s="20"/>
@@ -8678,12 +8868,12 @@
       <c r="S240" s="20"/>
       <c r="V240" s="14"/>
       <c r="W240" s="14"/>
-      <c r="Y240" s="124"/>
-      <c r="Z240" s="101"/>
+      <c r="Y240" s="117"/>
+      <c r="Z240" s="94"/>
     </row>
     <row r="241" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="45"/>
-      <c r="B241" s="123"/>
+      <c r="B241" s="116"/>
       <c r="C241" s="20"/>
       <c r="D241" s="69"/>
       <c r="E241" s="20"/>
@@ -8697,12 +8887,12 @@
       <c r="S241" s="20"/>
       <c r="V241" s="14"/>
       <c r="W241" s="14"/>
-      <c r="Y241" s="124"/>
-      <c r="Z241" s="101"/>
+      <c r="Y241" s="117"/>
+      <c r="Z241" s="94"/>
     </row>
     <row r="242" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="45"/>
-      <c r="B242" s="123"/>
+      <c r="B242" s="116"/>
       <c r="C242" s="20"/>
       <c r="D242" s="69"/>
       <c r="E242" s="20"/>
@@ -8716,12 +8906,12 @@
       <c r="S242" s="20"/>
       <c r="V242" s="14"/>
       <c r="W242" s="14"/>
-      <c r="Y242" s="124"/>
-      <c r="Z242" s="101"/>
+      <c r="Y242" s="117"/>
+      <c r="Z242" s="94"/>
     </row>
     <row r="243" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="45"/>
-      <c r="B243" s="123"/>
+      <c r="B243" s="116"/>
       <c r="C243" s="20"/>
       <c r="D243" s="69"/>
       <c r="E243" s="20"/>
@@ -8735,12 +8925,12 @@
       <c r="S243" s="20"/>
       <c r="V243" s="14"/>
       <c r="W243" s="14"/>
-      <c r="Y243" s="124"/>
-      <c r="Z243" s="101"/>
+      <c r="Y243" s="117"/>
+      <c r="Z243" s="94"/>
     </row>
     <row r="244" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="45"/>
-      <c r="B244" s="123"/>
+      <c r="B244" s="116"/>
       <c r="C244" s="20"/>
       <c r="D244" s="69"/>
       <c r="E244" s="20"/>
@@ -8754,12 +8944,12 @@
       <c r="S244" s="20"/>
       <c r="V244" s="14"/>
       <c r="W244" s="14"/>
-      <c r="Y244" s="124"/>
-      <c r="Z244" s="101"/>
+      <c r="Y244" s="117"/>
+      <c r="Z244" s="94"/>
     </row>
     <row r="245" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="45"/>
-      <c r="B245" s="123"/>
+      <c r="B245" s="116"/>
       <c r="C245" s="20"/>
       <c r="D245" s="69"/>
       <c r="E245" s="20"/>
@@ -8773,12 +8963,12 @@
       <c r="S245" s="20"/>
       <c r="V245" s="14"/>
       <c r="W245" s="14"/>
-      <c r="Y245" s="124"/>
-      <c r="Z245" s="101"/>
+      <c r="Y245" s="117"/>
+      <c r="Z245" s="94"/>
     </row>
     <row r="246" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="45"/>
-      <c r="B246" s="123"/>
+      <c r="B246" s="116"/>
       <c r="C246" s="20"/>
       <c r="D246" s="69"/>
       <c r="E246" s="20"/>
@@ -8792,12 +8982,12 @@
       <c r="S246" s="20"/>
       <c r="V246" s="14"/>
       <c r="W246" s="14"/>
-      <c r="Y246" s="124"/>
-      <c r="Z246" s="101"/>
+      <c r="Y246" s="117"/>
+      <c r="Z246" s="94"/>
     </row>
     <row r="247" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="45"/>
-      <c r="B247" s="123"/>
+      <c r="B247" s="116"/>
       <c r="C247" s="20"/>
       <c r="D247" s="69"/>
       <c r="E247" s="20"/>
@@ -8811,12 +9001,12 @@
       <c r="S247" s="20"/>
       <c r="V247" s="14"/>
       <c r="W247" s="14"/>
-      <c r="Y247" s="124"/>
-      <c r="Z247" s="101"/>
+      <c r="Y247" s="117"/>
+      <c r="Z247" s="94"/>
     </row>
     <row r="248" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="45"/>
-      <c r="B248" s="123"/>
+      <c r="B248" s="116"/>
       <c r="C248" s="20"/>
       <c r="D248" s="69"/>
       <c r="E248" s="20"/>
@@ -8830,12 +9020,12 @@
       <c r="S248" s="20"/>
       <c r="V248" s="14"/>
       <c r="W248" s="14"/>
-      <c r="Y248" s="124"/>
-      <c r="Z248" s="101"/>
+      <c r="Y248" s="117"/>
+      <c r="Z248" s="94"/>
     </row>
     <row r="249" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="45"/>
-      <c r="B249" s="123"/>
+      <c r="B249" s="116"/>
       <c r="C249" s="20"/>
       <c r="D249" s="69"/>
       <c r="E249" s="20"/>
@@ -8849,12 +9039,12 @@
       <c r="S249" s="20"/>
       <c r="V249" s="14"/>
       <c r="W249" s="14"/>
-      <c r="Y249" s="124"/>
-      <c r="Z249" s="101"/>
+      <c r="Y249" s="117"/>
+      <c r="Z249" s="94"/>
     </row>
     <row r="250" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="45"/>
-      <c r="B250" s="123"/>
+      <c r="B250" s="116"/>
       <c r="C250" s="20"/>
       <c r="D250" s="69"/>
       <c r="E250" s="20"/>
@@ -8868,12 +9058,12 @@
       <c r="S250" s="20"/>
       <c r="V250" s="14"/>
       <c r="W250" s="14"/>
-      <c r="Y250" s="124"/>
-      <c r="Z250" s="101"/>
+      <c r="Y250" s="117"/>
+      <c r="Z250" s="94"/>
     </row>
     <row r="251" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="45"/>
-      <c r="B251" s="123"/>
+      <c r="B251" s="116"/>
       <c r="C251" s="20"/>
       <c r="D251" s="69"/>
       <c r="E251" s="20"/>
@@ -8887,12 +9077,12 @@
       <c r="S251" s="20"/>
       <c r="V251" s="14"/>
       <c r="W251" s="14"/>
-      <c r="Y251" s="124"/>
-      <c r="Z251" s="101"/>
+      <c r="Y251" s="117"/>
+      <c r="Z251" s="94"/>
     </row>
     <row r="252" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="45"/>
-      <c r="B252" s="123"/>
+      <c r="B252" s="116"/>
       <c r="C252" s="20"/>
       <c r="D252" s="69"/>
       <c r="E252" s="20"/>
@@ -8906,12 +9096,12 @@
       <c r="S252" s="20"/>
       <c r="V252" s="14"/>
       <c r="W252" s="14"/>
-      <c r="Y252" s="124"/>
-      <c r="Z252" s="101"/>
+      <c r="Y252" s="117"/>
+      <c r="Z252" s="94"/>
     </row>
     <row r="253" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="45"/>
-      <c r="B253" s="123"/>
+      <c r="B253" s="116"/>
       <c r="C253" s="20"/>
       <c r="D253" s="69"/>
       <c r="E253" s="20"/>
@@ -8925,12 +9115,12 @@
       <c r="S253" s="20"/>
       <c r="V253" s="14"/>
       <c r="W253" s="14"/>
-      <c r="Y253" s="124"/>
-      <c r="Z253" s="101"/>
+      <c r="Y253" s="117"/>
+      <c r="Z253" s="94"/>
     </row>
     <row r="254" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="45"/>
-      <c r="B254" s="123"/>
+      <c r="B254" s="116"/>
       <c r="C254" s="20"/>
       <c r="D254" s="69"/>
       <c r="E254" s="20"/>
@@ -8944,12 +9134,12 @@
       <c r="S254" s="20"/>
       <c r="V254" s="14"/>
       <c r="W254" s="14"/>
-      <c r="Y254" s="124"/>
-      <c r="Z254" s="101"/>
+      <c r="Y254" s="117"/>
+      <c r="Z254" s="94"/>
     </row>
     <row r="255" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="45"/>
-      <c r="B255" s="123"/>
+      <c r="B255" s="116"/>
       <c r="C255" s="20"/>
       <c r="D255" s="69"/>
       <c r="E255" s="20"/>
@@ -8963,12 +9153,12 @@
       <c r="S255" s="20"/>
       <c r="V255" s="14"/>
       <c r="W255" s="14"/>
-      <c r="Y255" s="124"/>
-      <c r="Z255" s="101"/>
+      <c r="Y255" s="117"/>
+      <c r="Z255" s="94"/>
     </row>
     <row r="256" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="45"/>
-      <c r="B256" s="123"/>
+      <c r="B256" s="116"/>
       <c r="C256" s="20"/>
       <c r="D256" s="69"/>
       <c r="E256" s="20"/>
@@ -8982,12 +9172,12 @@
       <c r="S256" s="20"/>
       <c r="V256" s="14"/>
       <c r="W256" s="14"/>
-      <c r="Y256" s="124"/>
-      <c r="Z256" s="101"/>
+      <c r="Y256" s="117"/>
+      <c r="Z256" s="94"/>
     </row>
     <row r="257" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="45"/>
-      <c r="B257" s="123"/>
+      <c r="B257" s="116"/>
       <c r="C257" s="20"/>
       <c r="D257" s="69"/>
       <c r="E257" s="20"/>
@@ -9001,12 +9191,12 @@
       <c r="S257" s="20"/>
       <c r="V257" s="14"/>
       <c r="W257" s="14"/>
-      <c r="Y257" s="124"/>
-      <c r="Z257" s="101"/>
+      <c r="Y257" s="117"/>
+      <c r="Z257" s="94"/>
     </row>
     <row r="258" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="45"/>
-      <c r="B258" s="123"/>
+      <c r="B258" s="116"/>
       <c r="C258" s="20"/>
       <c r="D258" s="69"/>
       <c r="E258" s="20"/>
@@ -9020,8 +9210,8 @@
       <c r="S258" s="20"/>
       <c r="V258" s="14"/>
       <c r="W258" s="14"/>
-      <c r="Y258" s="124"/>
-      <c r="Z258" s="101"/>
+      <c r="Y258" s="117"/>
+      <c r="Z258" s="94"/>
     </row>
     <row r="259" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="20"/>
@@ -9039,8 +9229,8 @@
       <c r="S259" s="20"/>
       <c r="V259" s="14"/>
       <c r="W259" s="14"/>
-      <c r="Y259" s="124"/>
-      <c r="Z259" s="101"/>
+      <c r="Y259" s="117"/>
+      <c r="Z259" s="94"/>
     </row>
     <row r="260" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="20"/>
@@ -9058,8 +9248,8 @@
       <c r="S260" s="20"/>
       <c r="V260" s="14"/>
       <c r="W260" s="14"/>
-      <c r="Y260" s="124"/>
-      <c r="Z260" s="101"/>
+      <c r="Y260" s="117"/>
+      <c r="Z260" s="94"/>
     </row>
     <row r="261" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="20"/>
@@ -9077,8 +9267,8 @@
       <c r="S261" s="20"/>
       <c r="V261" s="14"/>
       <c r="W261" s="14"/>
-      <c r="Y261" s="124"/>
-      <c r="Z261" s="101"/>
+      <c r="Y261" s="117"/>
+      <c r="Z261" s="94"/>
     </row>
     <row r="262" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="20"/>
@@ -9096,8 +9286,8 @@
       <c r="S262" s="20"/>
       <c r="V262" s="14"/>
       <c r="W262" s="14"/>
-      <c r="Y262" s="124"/>
-      <c r="Z262" s="101"/>
+      <c r="Y262" s="117"/>
+      <c r="Z262" s="94"/>
     </row>
     <row r="263" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="20"/>
@@ -9115,8 +9305,8 @@
       <c r="S263" s="20"/>
       <c r="V263" s="14"/>
       <c r="W263" s="14"/>
-      <c r="Y263" s="124"/>
-      <c r="Z263" s="101"/>
+      <c r="Y263" s="117"/>
+      <c r="Z263" s="94"/>
     </row>
     <row r="264" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="20"/>
@@ -9134,8 +9324,8 @@
       <c r="S264" s="20"/>
       <c r="V264" s="14"/>
       <c r="W264" s="14"/>
-      <c r="Y264" s="124"/>
-      <c r="Z264" s="101"/>
+      <c r="Y264" s="117"/>
+      <c r="Z264" s="94"/>
     </row>
     <row r="265" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="20"/>
@@ -9153,8 +9343,8 @@
       <c r="S265" s="20"/>
       <c r="V265" s="14"/>
       <c r="W265" s="14"/>
-      <c r="Y265" s="124"/>
-      <c r="Z265" s="101"/>
+      <c r="Y265" s="117"/>
+      <c r="Z265" s="94"/>
     </row>
     <row r="266" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="20"/>
@@ -9172,8 +9362,8 @@
       <c r="S266" s="20"/>
       <c r="V266" s="14"/>
       <c r="W266" s="14"/>
-      <c r="Y266" s="124"/>
-      <c r="Z266" s="101"/>
+      <c r="Y266" s="117"/>
+      <c r="Z266" s="94"/>
     </row>
     <row r="267" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="20"/>
@@ -9191,8 +9381,8 @@
       <c r="S267" s="20"/>
       <c r="V267" s="14"/>
       <c r="W267" s="14"/>
-      <c r="Y267" s="124"/>
-      <c r="Z267" s="101"/>
+      <c r="Y267" s="117"/>
+      <c r="Z267" s="94"/>
     </row>
     <row r="268" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="20"/>
@@ -9210,8 +9400,8 @@
       <c r="S268" s="20"/>
       <c r="V268" s="14"/>
       <c r="W268" s="14"/>
-      <c r="Y268" s="124"/>
-      <c r="Z268" s="101"/>
+      <c r="Y268" s="117"/>
+      <c r="Z268" s="94"/>
     </row>
     <row r="269" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="20"/>
@@ -9229,8 +9419,8 @@
       <c r="S269" s="20"/>
       <c r="V269" s="14"/>
       <c r="W269" s="14"/>
-      <c r="Y269" s="124"/>
-      <c r="Z269" s="101"/>
+      <c r="Y269" s="117"/>
+      <c r="Z269" s="94"/>
     </row>
     <row r="270" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="20"/>
@@ -9248,8 +9438,8 @@
       <c r="S270" s="20"/>
       <c r="V270" s="14"/>
       <c r="W270" s="14"/>
-      <c r="Y270" s="124"/>
-      <c r="Z270" s="101"/>
+      <c r="Y270" s="117"/>
+      <c r="Z270" s="94"/>
     </row>
     <row r="271" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="20"/>
@@ -9267,8 +9457,8 @@
       <c r="S271" s="20"/>
       <c r="V271" s="14"/>
       <c r="W271" s="14"/>
-      <c r="Y271" s="124"/>
-      <c r="Z271" s="101"/>
+      <c r="Y271" s="117"/>
+      <c r="Z271" s="94"/>
     </row>
     <row r="272" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="20"/>
@@ -9286,8 +9476,8 @@
       <c r="S272" s="20"/>
       <c r="V272" s="14"/>
       <c r="W272" s="14"/>
-      <c r="Y272" s="124"/>
-      <c r="Z272" s="101"/>
+      <c r="Y272" s="117"/>
+      <c r="Z272" s="94"/>
     </row>
     <row r="273" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="20"/>
@@ -9305,8 +9495,8 @@
       <c r="S273" s="20"/>
       <c r="V273" s="14"/>
       <c r="W273" s="14"/>
-      <c r="Y273" s="124"/>
-      <c r="Z273" s="101"/>
+      <c r="Y273" s="117"/>
+      <c r="Z273" s="94"/>
     </row>
     <row r="274" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="20"/>
@@ -9324,8 +9514,8 @@
       <c r="S274" s="20"/>
       <c r="V274" s="14"/>
       <c r="W274" s="14"/>
-      <c r="Y274" s="124"/>
-      <c r="Z274" s="101"/>
+      <c r="Y274" s="117"/>
+      <c r="Z274" s="94"/>
     </row>
     <row r="275" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="20"/>
@@ -9343,8 +9533,8 @@
       <c r="S275" s="20"/>
       <c r="V275" s="14"/>
       <c r="W275" s="14"/>
-      <c r="Y275" s="124"/>
-      <c r="Z275" s="101"/>
+      <c r="Y275" s="117"/>
+      <c r="Z275" s="94"/>
     </row>
     <row r="276" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="20"/>
@@ -9362,8 +9552,8 @@
       <c r="S276" s="20"/>
       <c r="V276" s="14"/>
       <c r="W276" s="14"/>
-      <c r="Y276" s="124"/>
-      <c r="Z276" s="101"/>
+      <c r="Y276" s="117"/>
+      <c r="Z276" s="94"/>
     </row>
     <row r="277" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="20"/>
@@ -9381,8 +9571,8 @@
       <c r="S277" s="20"/>
       <c r="V277" s="14"/>
       <c r="W277" s="14"/>
-      <c r="Y277" s="124"/>
-      <c r="Z277" s="101"/>
+      <c r="Y277" s="117"/>
+      <c r="Z277" s="94"/>
     </row>
     <row r="278" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="20"/>
@@ -9400,8 +9590,8 @@
       <c r="S278" s="20"/>
       <c r="V278" s="14"/>
       <c r="W278" s="14"/>
-      <c r="Y278" s="124"/>
-      <c r="Z278" s="101"/>
+      <c r="Y278" s="117"/>
+      <c r="Z278" s="94"/>
     </row>
     <row r="279" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="20"/>
@@ -9419,8 +9609,8 @@
       <c r="S279" s="20"/>
       <c r="V279" s="14"/>
       <c r="W279" s="14"/>
-      <c r="Y279" s="124"/>
-      <c r="Z279" s="101"/>
+      <c r="Y279" s="117"/>
+      <c r="Z279" s="94"/>
     </row>
     <row r="280" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="20"/>
@@ -9438,8 +9628,8 @@
       <c r="S280" s="20"/>
       <c r="V280" s="14"/>
       <c r="W280" s="14"/>
-      <c r="Y280" s="124"/>
-      <c r="Z280" s="101"/>
+      <c r="Y280" s="117"/>
+      <c r="Z280" s="94"/>
     </row>
     <row r="281" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="20"/>
@@ -9457,8 +9647,8 @@
       <c r="S281" s="20"/>
       <c r="V281" s="14"/>
       <c r="W281" s="14"/>
-      <c r="Y281" s="124"/>
-      <c r="Z281" s="101"/>
+      <c r="Y281" s="117"/>
+      <c r="Z281" s="94"/>
     </row>
     <row r="282" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="20"/>
@@ -9476,8 +9666,8 @@
       <c r="S282" s="20"/>
       <c r="V282" s="14"/>
       <c r="W282" s="14"/>
-      <c r="Y282" s="124"/>
-      <c r="Z282" s="101"/>
+      <c r="Y282" s="117"/>
+      <c r="Z282" s="94"/>
     </row>
     <row r="283" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="20"/>
@@ -9495,8 +9685,8 @@
       <c r="S283" s="20"/>
       <c r="V283" s="14"/>
       <c r="W283" s="14"/>
-      <c r="Y283" s="124"/>
-      <c r="Z283" s="101"/>
+      <c r="Y283" s="117"/>
+      <c r="Z283" s="94"/>
     </row>
     <row r="284" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="20"/>
@@ -9514,8 +9704,8 @@
       <c r="S284" s="20"/>
       <c r="V284" s="14"/>
       <c r="W284" s="14"/>
-      <c r="Y284" s="124"/>
-      <c r="Z284" s="101"/>
+      <c r="Y284" s="117"/>
+      <c r="Z284" s="94"/>
     </row>
     <row r="285" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="20"/>
@@ -9533,8 +9723,8 @@
       <c r="S285" s="20"/>
       <c r="V285" s="14"/>
       <c r="W285" s="14"/>
-      <c r="Y285" s="124"/>
-      <c r="Z285" s="101"/>
+      <c r="Y285" s="117"/>
+      <c r="Z285" s="94"/>
     </row>
     <row r="286" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="20"/>
@@ -9552,8 +9742,8 @@
       <c r="S286" s="20"/>
       <c r="V286" s="14"/>
       <c r="W286" s="14"/>
-      <c r="Y286" s="124"/>
-      <c r="Z286" s="101"/>
+      <c r="Y286" s="117"/>
+      <c r="Z286" s="94"/>
     </row>
     <row r="287" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="20"/>
@@ -9571,8 +9761,8 @@
       <c r="S287" s="20"/>
       <c r="V287" s="14"/>
       <c r="W287" s="14"/>
-      <c r="Y287" s="124"/>
-      <c r="Z287" s="101"/>
+      <c r="Y287" s="117"/>
+      <c r="Z287" s="94"/>
     </row>
     <row r="288" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="20"/>
@@ -9590,8 +9780,8 @@
       <c r="S288" s="20"/>
       <c r="V288" s="14"/>
       <c r="W288" s="14"/>
-      <c r="Y288" s="124"/>
-      <c r="Z288" s="101"/>
+      <c r="Y288" s="117"/>
+      <c r="Z288" s="94"/>
     </row>
     <row r="289" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="20"/>
@@ -9609,8 +9799,8 @@
       <c r="S289" s="20"/>
       <c r="V289" s="14"/>
       <c r="W289" s="14"/>
-      <c r="Y289" s="124"/>
-      <c r="Z289" s="101"/>
+      <c r="Y289" s="117"/>
+      <c r="Z289" s="94"/>
     </row>
     <row r="290" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="20"/>
@@ -9628,8 +9818,8 @@
       <c r="S290" s="20"/>
       <c r="V290" s="14"/>
       <c r="W290" s="14"/>
-      <c r="Y290" s="124"/>
-      <c r="Z290" s="101"/>
+      <c r="Y290" s="117"/>
+      <c r="Z290" s="94"/>
     </row>
     <row r="291" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="20"/>
@@ -9647,8 +9837,8 @@
       <c r="S291" s="20"/>
       <c r="V291" s="14"/>
       <c r="W291" s="14"/>
-      <c r="Y291" s="124"/>
-      <c r="Z291" s="101"/>
+      <c r="Y291" s="117"/>
+      <c r="Z291" s="94"/>
     </row>
     <row r="292" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="20"/>
@@ -9666,8 +9856,8 @@
       <c r="S292" s="20"/>
       <c r="V292" s="14"/>
       <c r="W292" s="14"/>
-      <c r="Y292" s="124"/>
-      <c r="Z292" s="101"/>
+      <c r="Y292" s="117"/>
+      <c r="Z292" s="94"/>
     </row>
     <row r="293" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="20"/>
@@ -9685,8 +9875,8 @@
       <c r="S293" s="20"/>
       <c r="V293" s="14"/>
       <c r="W293" s="14"/>
-      <c r="Y293" s="124"/>
-      <c r="Z293" s="101"/>
+      <c r="Y293" s="117"/>
+      <c r="Z293" s="94"/>
     </row>
     <row r="294" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="20"/>
@@ -9704,8 +9894,8 @@
       <c r="S294" s="20"/>
       <c r="V294" s="14"/>
       <c r="W294" s="14"/>
-      <c r="Y294" s="124"/>
-      <c r="Z294" s="101"/>
+      <c r="Y294" s="117"/>
+      <c r="Z294" s="94"/>
     </row>
     <row r="295" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="20"/>
@@ -9723,8 +9913,8 @@
       <c r="S295" s="20"/>
       <c r="V295" s="14"/>
       <c r="W295" s="14"/>
-      <c r="Y295" s="124"/>
-      <c r="Z295" s="101"/>
+      <c r="Y295" s="117"/>
+      <c r="Z295" s="94"/>
     </row>
     <row r="296" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="20"/>
@@ -9742,8 +9932,8 @@
       <c r="S296" s="20"/>
       <c r="V296" s="14"/>
       <c r="W296" s="14"/>
-      <c r="Y296" s="124"/>
-      <c r="Z296" s="101"/>
+      <c r="Y296" s="117"/>
+      <c r="Z296" s="94"/>
     </row>
     <row r="297" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="20"/>
@@ -9761,8 +9951,8 @@
       <c r="S297" s="20"/>
       <c r="V297" s="14"/>
       <c r="W297" s="14"/>
-      <c r="Y297" s="124"/>
-      <c r="Z297" s="101"/>
+      <c r="Y297" s="117"/>
+      <c r="Z297" s="94"/>
     </row>
     <row r="298" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="20"/>
@@ -9780,8 +9970,8 @@
       <c r="S298" s="20"/>
       <c r="V298" s="14"/>
       <c r="W298" s="14"/>
-      <c r="Y298" s="124"/>
-      <c r="Z298" s="101"/>
+      <c r="Y298" s="117"/>
+      <c r="Z298" s="94"/>
     </row>
     <row r="299" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="20"/>
@@ -9799,8 +9989,8 @@
       <c r="S299" s="20"/>
       <c r="V299" s="14"/>
       <c r="W299" s="14"/>
-      <c r="Y299" s="124"/>
-      <c r="Z299" s="101"/>
+      <c r="Y299" s="117"/>
+      <c r="Z299" s="94"/>
     </row>
     <row r="300" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="20"/>
@@ -9818,8 +10008,8 @@
       <c r="S300" s="20"/>
       <c r="V300" s="14"/>
       <c r="W300" s="14"/>
-      <c r="Y300" s="124"/>
-      <c r="Z300" s="101"/>
+      <c r="Y300" s="117"/>
+      <c r="Z300" s="94"/>
     </row>
     <row r="301" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="20"/>
@@ -9837,8 +10027,8 @@
       <c r="S301" s="20"/>
       <c r="V301" s="14"/>
       <c r="W301" s="14"/>
-      <c r="Y301" s="124"/>
-      <c r="Z301" s="101"/>
+      <c r="Y301" s="117"/>
+      <c r="Z301" s="94"/>
     </row>
     <row r="302" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="20"/>
@@ -9856,8 +10046,8 @@
       <c r="S302" s="20"/>
       <c r="V302" s="14"/>
       <c r="W302" s="14"/>
-      <c r="Y302" s="124"/>
-      <c r="Z302" s="101"/>
+      <c r="Y302" s="117"/>
+      <c r="Z302" s="94"/>
     </row>
     <row r="303" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="20"/>
@@ -9875,8 +10065,8 @@
       <c r="S303" s="20"/>
       <c r="V303" s="14"/>
       <c r="W303" s="14"/>
-      <c r="Y303" s="124"/>
-      <c r="Z303" s="101"/>
+      <c r="Y303" s="117"/>
+      <c r="Z303" s="94"/>
     </row>
     <row r="304" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="20"/>
@@ -9894,8 +10084,8 @@
       <c r="S304" s="20"/>
       <c r="V304" s="14"/>
       <c r="W304" s="14"/>
-      <c r="Y304" s="124"/>
-      <c r="Z304" s="101"/>
+      <c r="Y304" s="117"/>
+      <c r="Z304" s="94"/>
     </row>
     <row r="305" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="20"/>
@@ -9913,8 +10103,8 @@
       <c r="S305" s="20"/>
       <c r="V305" s="14"/>
       <c r="W305" s="14"/>
-      <c r="Y305" s="124"/>
-      <c r="Z305" s="101"/>
+      <c r="Y305" s="117"/>
+      <c r="Z305" s="94"/>
     </row>
     <row r="306" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="20"/>
@@ -9932,8 +10122,8 @@
       <c r="S306" s="20"/>
       <c r="V306" s="14"/>
       <c r="W306" s="14"/>
-      <c r="Y306" s="124"/>
-      <c r="Z306" s="101"/>
+      <c r="Y306" s="117"/>
+      <c r="Z306" s="94"/>
     </row>
     <row r="307" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="20"/>
@@ -9951,8 +10141,8 @@
       <c r="S307" s="20"/>
       <c r="V307" s="14"/>
       <c r="W307" s="14"/>
-      <c r="Y307" s="124"/>
-      <c r="Z307" s="101"/>
+      <c r="Y307" s="117"/>
+      <c r="Z307" s="94"/>
     </row>
     <row r="308" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="20"/>
@@ -9970,8 +10160,8 @@
       <c r="S308" s="20"/>
       <c r="V308" s="14"/>
       <c r="W308" s="14"/>
-      <c r="Y308" s="124"/>
-      <c r="Z308" s="101"/>
+      <c r="Y308" s="117"/>
+      <c r="Z308" s="94"/>
     </row>
     <row r="309" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="20"/>
@@ -9989,8 +10179,8 @@
       <c r="S309" s="20"/>
       <c r="V309" s="14"/>
       <c r="W309" s="14"/>
-      <c r="Y309" s="124"/>
-      <c r="Z309" s="101"/>
+      <c r="Y309" s="117"/>
+      <c r="Z309" s="94"/>
     </row>
     <row r="310" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="20"/>
@@ -10008,8 +10198,8 @@
       <c r="S310" s="20"/>
       <c r="V310" s="14"/>
       <c r="W310" s="14"/>
-      <c r="Y310" s="124"/>
-      <c r="Z310" s="101"/>
+      <c r="Y310" s="117"/>
+      <c r="Z310" s="94"/>
     </row>
     <row r="311" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="20"/>
@@ -10027,8 +10217,8 @@
       <c r="S311" s="20"/>
       <c r="V311" s="14"/>
       <c r="W311" s="14"/>
-      <c r="Y311" s="124"/>
-      <c r="Z311" s="101"/>
+      <c r="Y311" s="117"/>
+      <c r="Z311" s="94"/>
     </row>
     <row r="312" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="20"/>
@@ -10046,8 +10236,8 @@
       <c r="S312" s="20"/>
       <c r="V312" s="14"/>
       <c r="W312" s="14"/>
-      <c r="Y312" s="124"/>
-      <c r="Z312" s="101"/>
+      <c r="Y312" s="117"/>
+      <c r="Z312" s="94"/>
     </row>
     <row r="313" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="20"/>
@@ -10065,8 +10255,8 @@
       <c r="S313" s="20"/>
       <c r="V313" s="14"/>
       <c r="W313" s="14"/>
-      <c r="Y313" s="124"/>
-      <c r="Z313" s="101"/>
+      <c r="Y313" s="117"/>
+      <c r="Z313" s="94"/>
     </row>
     <row r="314" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="20"/>
@@ -10084,8 +10274,8 @@
       <c r="S314" s="20"/>
       <c r="V314" s="14"/>
       <c r="W314" s="14"/>
-      <c r="Y314" s="124"/>
-      <c r="Z314" s="101"/>
+      <c r="Y314" s="117"/>
+      <c r="Z314" s="94"/>
     </row>
     <row r="315" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="20"/>
@@ -10103,8 +10293,8 @@
       <c r="S315" s="20"/>
       <c r="V315" s="14"/>
       <c r="W315" s="14"/>
-      <c r="Y315" s="124"/>
-      <c r="Z315" s="101"/>
+      <c r="Y315" s="117"/>
+      <c r="Z315" s="94"/>
     </row>
     <row r="316" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="20"/>
@@ -10122,8 +10312,8 @@
       <c r="S316" s="20"/>
       <c r="V316" s="14"/>
       <c r="W316" s="14"/>
-      <c r="Y316" s="124"/>
-      <c r="Z316" s="101"/>
+      <c r="Y316" s="117"/>
+      <c r="Z316" s="94"/>
     </row>
     <row r="317" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="20"/>
@@ -10141,8 +10331,8 @@
       <c r="S317" s="20"/>
       <c r="V317" s="14"/>
       <c r="W317" s="14"/>
-      <c r="Y317" s="124"/>
-      <c r="Z317" s="101"/>
+      <c r="Y317" s="117"/>
+      <c r="Z317" s="94"/>
     </row>
     <row r="318" spans="1:26" x14ac:dyDescent="0.25">
       <c r="V318" s="3"/>
@@ -10191,7 +10381,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BITACORA INCIDENTES Y SOLICITUDES II.xlsx
+++ b/BITACORA INCIDENTES Y SOLICITUDES II.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="265">
   <si>
     <t>APLICACIÓN</t>
   </si>
@@ -878,9 +878,6 @@
     <t>15/03/2017  16:13:00 a. m.</t>
   </si>
   <si>
-    <t>reversion de pago montelibano</t>
-  </si>
-  <si>
     <t>CAPACITACION REQUERIDA</t>
   </si>
   <si>
@@ -918,6 +915,79 @@
   <si>
     <t>jesus vargas</t>
   </si>
+  <si>
+    <t>HACIENDA BARANOA</t>
+  </si>
+  <si>
+    <t>15/03/2017  18:13:00 a. m.</t>
+  </si>
+  <si>
+    <t>PAGOS SIN REGISTRAR</t>
+  </si>
+  <si>
+    <t>Buenas tardes
+Favor solicito revisar el estado de cuenta dela referencia catastral 010004840001000 a nombre de Pedro Blanco el contribuyente cancelo el pasado 13 de septiembre de 2016 las vigencias 2015 y 2016 y al acercarse a cancelar la vigencia 2017 se encuentra con la sorpresa que no aparecen aplicados los pagos de las respectivas vigencias, para lo cual envio recibos de caja del predial y la CRA.
+De igual forma revisando el reporte mensual del mes de septiembre de 2016 no aparece el número del recibo</t>
+  </si>
+  <si>
+    <t>AÑADICION DE ACTIVIDAD ICAT PARA LA ELABORACION DE DECLARACIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEÑORES: 
+COMERCIALIZADORA 
+CORDIAL SALUDO  
+SOLICITO ME COLABOREN INGRESANDO AL SISTEMA DE INDUSTRIA Y COMERCIO OTRO CÓDIGO DE UNA ACTIVIDAD FINANCIERA LLAMADA 
+ACTIVIDADES DE SERVICIO DE INFORMACION  LA TARIFA ES 10 X MIL.
+PARA PODER REGISTRAR  AL CONTRIBUYENTE 
+GRACIAS POR LA COLABORACION
+ATT </t>
+  </si>
+  <si>
+    <t>BUSCAR AUDITORIA DE PAGOS APLICADOS EN EL SISTEMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cordial saludo,
+Solicitamos la información de quien fue el funcionario responsable de aplicar el pago del recibo de estampillas contrato:
+Imágenes integradas 1
+Que aparece reportado en Swit con fecha 20-01-17.
+Igualmente necesitamos saber la información de la aplicación del recibo de maquinaria verde:
+Imágenes integradas 2
+Que aparece reportado en Swit con fecha 25-01-17.
+Favor informarnos de manera Urgente, ya que se está entregando informes a entes de control. Muchas Gracias.
+</t>
+  </si>
+  <si>
+    <t>CORRECION DE REVISORES Y RESPONSABLES FISCALES EN NOTAS CREDITO</t>
+  </si>
+  <si>
+    <t>Cordial saludo,
+Solicitamos por favor se corrija los nombres de las NOTAS CREDITO, ya que aparece el nombre del Tesorero del año anterior.
+Imágenes integradas 1
+Sugerimos se deje el cuadro en blanco como aparece actualmente en las NOTAS DEBITO.
+Imágenes integradas 2
+Favor revisar, muchas gracias.</t>
+  </si>
+  <si>
+    <t>revesion de pago montelibano</t>
+  </si>
+  <si>
+    <t>POLO NUEVO</t>
+  </si>
+  <si>
+    <t>Mariela Cervantes</t>
+  </si>
+  <si>
+    <t>16/03/2017  18:13:00 a. m.</t>
+  </si>
+  <si>
+    <t>Les solicito el favor de ayudarme para que el valor de los recibos 18 y 71 queden en cero pesos, debido a que alguien introdujo el nombre le Secretario de Hacienda y lo liquidaron un valor de $206.000 y el recibo No. 71 a nombre de la señora LADY JOHANA PIZARRO, es debido a que error involuntario lo liquide tres veces, como ustedes pueden apreciar en la planilla enviada, y estos valores están sumando a los ingresos. y estos valores no son verdad porque no están consignados en banco. 
+Agradezco su valiosa colaboración
+MARIELA CERVANTES
+Auxiliar Administrativo</t>
+  </si>
+  <si>
+    <t>REVERSION DE PAGOS POLO NUEVO</t>
+  </si>
 </sst>
 </file>
 
@@ -927,7 +997,7 @@
     <numFmt numFmtId="164" formatCode="[h]:mm"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-m\-yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1161,6 +1231,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1486,7 +1563,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="210">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1929,12 +2006,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2084,6 +2155,19 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2490,11 +2574,11 @@
   <sheetPr codeName="Hoja1" filterMode="1"/>
   <dimension ref="A1:AM323"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2619,25 +2703,25 @@
       <c r="B3" s="46"/>
       <c r="C3" s="20"/>
       <c r="D3" s="68"/>
-      <c r="E3" s="154" t="s">
+      <c r="E3" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
@@ -2664,23 +2748,23 @@
       <c r="B4" s="46"/>
       <c r="C4" s="20"/>
       <c r="D4" s="68"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="155"/>
-      <c r="S4" s="155"/>
-      <c r="T4" s="155"/>
-      <c r="U4" s="155"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="206"/>
+      <c r="O4" s="206"/>
+      <c r="P4" s="206"/>
+      <c r="Q4" s="206"/>
+      <c r="R4" s="206"/>
+      <c r="S4" s="206"/>
+      <c r="T4" s="206"/>
+      <c r="U4" s="206"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -3067,65 +3151,65 @@
       </c>
       <c r="Z10" s="73"/>
     </row>
-    <row r="11" spans="1:39" s="175" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="156" t="s">
+    <row r="11" spans="1:39" s="173" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="157">
+      <c r="B11" s="155">
         <v>361</v>
       </c>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="159" t="s">
+      <c r="D11" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="160" t="s">
+      <c r="E11" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="161" t="s">
+      <c r="F11" s="159" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="162" t="s">
+      <c r="G11" s="160" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="163" t="s">
+      <c r="H11" s="161" t="s">
         <v>134</v>
       </c>
-      <c r="I11" s="164" t="s">
+      <c r="I11" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="165"/>
-      <c r="K11" s="165" t="s">
+      <c r="J11" s="163"/>
+      <c r="K11" s="163" t="s">
         <v>135</v>
       </c>
-      <c r="L11" s="165"/>
-      <c r="M11" s="164" t="s">
+      <c r="L11" s="163"/>
+      <c r="M11" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="N11" s="166" t="s">
+      <c r="N11" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="O11" s="164" t="s">
+      <c r="O11" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="164" t="s">
+      <c r="P11" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="167"/>
-      <c r="S11" s="168" t="s">
+      <c r="Q11" s="162"/>
+      <c r="R11" s="165"/>
+      <c r="S11" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="T11" s="161"/>
-      <c r="U11" s="169"/>
-      <c r="V11" s="170" t="s">
+      <c r="T11" s="159"/>
+      <c r="U11" s="167"/>
+      <c r="V11" s="168" t="s">
         <v>141</v>
       </c>
-      <c r="W11" s="171"/>
-      <c r="X11" s="172"/>
-      <c r="Y11" s="173"/>
-      <c r="Z11" s="174"/>
+      <c r="W11" s="169"/>
+      <c r="X11" s="170"/>
+      <c r="Y11" s="171"/>
+      <c r="Z11" s="172"/>
     </row>
     <row r="12" spans="1:39" s="27" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
@@ -4093,63 +4177,63 @@
       <c r="Y27" s="34"/>
       <c r="Z27" s="73"/>
     </row>
-    <row r="28" spans="1:26" s="175" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="156" t="s">
+    <row r="28" spans="1:26" s="173" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="176">
+      <c r="B28" s="174">
         <v>364</v>
       </c>
-      <c r="C28" s="177" t="s">
+      <c r="C28" s="175" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="178" t="s">
+      <c r="D28" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="179" t="s">
+      <c r="E28" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="180">
+      <c r="F28" s="178">
         <v>42807.625</v>
       </c>
-      <c r="G28" s="181" t="s">
+      <c r="G28" s="179" t="s">
         <v>105</v>
       </c>
-      <c r="H28" s="182" t="s">
+      <c r="H28" s="180" t="s">
         <v>211</v>
       </c>
-      <c r="I28" s="177" t="s">
+      <c r="I28" s="175" t="s">
         <v>212</v>
       </c>
-      <c r="J28" s="183"/>
-      <c r="K28" s="183" t="s">
+      <c r="J28" s="181"/>
+      <c r="K28" s="181" t="s">
         <v>213</v>
       </c>
-      <c r="L28" s="183"/>
-      <c r="M28" s="177" t="s">
+      <c r="L28" s="181"/>
+      <c r="M28" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="N28" s="183"/>
-      <c r="O28" s="177" t="s">
+      <c r="N28" s="181"/>
+      <c r="O28" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="P28" s="177" t="s">
+      <c r="P28" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="Q28" s="177"/>
-      <c r="R28" s="180"/>
-      <c r="S28" s="184" t="s">
+      <c r="Q28" s="175"/>
+      <c r="R28" s="178"/>
+      <c r="S28" s="182" t="s">
         <v>110</v>
       </c>
-      <c r="T28" s="180"/>
-      <c r="U28" s="185"/>
-      <c r="V28" s="186" t="s">
+      <c r="T28" s="178"/>
+      <c r="U28" s="183"/>
+      <c r="V28" s="184" t="s">
         <v>173</v>
       </c>
-      <c r="W28" s="187"/>
-      <c r="X28" s="188"/>
-      <c r="Y28" s="189"/>
-      <c r="Z28" s="174"/>
+      <c r="W28" s="185"/>
+      <c r="X28" s="186"/>
+      <c r="Y28" s="187"/>
+      <c r="Z28" s="172"/>
     </row>
     <row r="29" spans="1:26" s="27" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
@@ -4381,63 +4465,63 @@
       <c r="Y32" s="34"/>
       <c r="Z32" s="73"/>
     </row>
-    <row r="33" spans="1:26" s="175" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="156" t="s">
+    <row r="33" spans="1:26" s="173" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="190" t="s">
+      <c r="B33" s="188" t="s">
         <v>226</v>
       </c>
-      <c r="C33" s="177" t="s">
+      <c r="C33" s="175" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="178" t="s">
+      <c r="D33" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="179" t="s">
+      <c r="E33" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="180">
+      <c r="F33" s="178">
         <v>42809.342361111114</v>
       </c>
-      <c r="G33" s="181" t="s">
+      <c r="G33" s="179" t="s">
         <v>105</v>
       </c>
-      <c r="H33" s="182" t="s">
+      <c r="H33" s="180" t="s">
         <v>227</v>
       </c>
-      <c r="I33" s="177" t="s">
+      <c r="I33" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="J33" s="183"/>
-      <c r="K33" s="183" t="s">
+      <c r="J33" s="181"/>
+      <c r="K33" s="181" t="s">
         <v>228</v>
       </c>
-      <c r="L33" s="183"/>
-      <c r="M33" s="177" t="s">
+      <c r="L33" s="181"/>
+      <c r="M33" s="175" t="s">
         <v>217</v>
       </c>
-      <c r="N33" s="183"/>
-      <c r="O33" s="177" t="s">
+      <c r="N33" s="181"/>
+      <c r="O33" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="P33" s="177" t="s">
+      <c r="P33" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="Q33" s="177"/>
-      <c r="R33" s="180"/>
-      <c r="S33" s="184" t="s">
+      <c r="Q33" s="175"/>
+      <c r="R33" s="178"/>
+      <c r="S33" s="182" t="s">
         <v>217</v>
       </c>
-      <c r="T33" s="180"/>
-      <c r="U33" s="185"/>
-      <c r="V33" s="187" t="s">
+      <c r="T33" s="178"/>
+      <c r="U33" s="183"/>
+      <c r="V33" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="W33" s="187"/>
-      <c r="X33" s="188"/>
-      <c r="Y33" s="189"/>
-      <c r="Z33" s="174"/>
+      <c r="W33" s="185"/>
+      <c r="X33" s="186"/>
+      <c r="Y33" s="187"/>
+      <c r="Z33" s="172"/>
     </row>
     <row r="34" spans="1:26" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
@@ -4553,65 +4637,65 @@
       <c r="Y35" s="34"/>
       <c r="Z35" s="73"/>
     </row>
-    <row r="36" spans="1:26" s="206" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="191" t="s">
+    <row r="36" spans="1:26" s="204" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="189" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="192" t="s">
+      <c r="B36" s="190" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="193" t="s">
+      <c r="C36" s="191" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="194" t="s">
+      <c r="D36" s="192" t="s">
         <v>234</v>
       </c>
-      <c r="E36" s="195" t="s">
+      <c r="E36" s="193" t="s">
         <v>235</v>
       </c>
-      <c r="F36" s="196" t="s">
+      <c r="F36" s="194" t="s">
         <v>236</v>
       </c>
-      <c r="G36" s="197" t="s">
+      <c r="G36" s="195" t="s">
         <v>105</v>
       </c>
-      <c r="H36" s="198" t="s">
+      <c r="H36" s="196" t="s">
         <v>237</v>
       </c>
-      <c r="I36" s="193" t="s">
+      <c r="I36" s="191" t="s">
         <v>238</v>
       </c>
-      <c r="J36" s="199"/>
-      <c r="K36" s="199" t="s">
+      <c r="J36" s="197"/>
+      <c r="K36" s="197" t="s">
         <v>239</v>
       </c>
-      <c r="L36" s="199"/>
-      <c r="M36" s="193" t="s">
+      <c r="L36" s="197"/>
+      <c r="M36" s="191" t="s">
         <v>120</v>
       </c>
-      <c r="N36" s="199"/>
-      <c r="O36" s="193" t="s">
+      <c r="N36" s="197"/>
+      <c r="O36" s="191" t="s">
         <v>153</v>
       </c>
-      <c r="P36" s="193" t="s">
+      <c r="P36" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="Q36" s="193"/>
-      <c r="R36" s="196"/>
-      <c r="S36" s="200" t="s">
+      <c r="Q36" s="191"/>
+      <c r="R36" s="194"/>
+      <c r="S36" s="198" t="s">
         <v>110</v>
       </c>
-      <c r="T36" s="196"/>
-      <c r="U36" s="201"/>
-      <c r="V36" s="202" t="s">
+      <c r="T36" s="194"/>
+      <c r="U36" s="199"/>
+      <c r="V36" s="200" t="s">
         <v>173</v>
       </c>
-      <c r="W36" s="202"/>
-      <c r="X36" s="203"/>
-      <c r="Y36" s="204"/>
-      <c r="Z36" s="205"/>
-    </row>
-    <row r="37" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W36" s="200"/>
+      <c r="X36" s="201"/>
+      <c r="Y36" s="202"/>
+      <c r="Z36" s="203"/>
+    </row>
+    <row r="37" spans="1:26" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
         <v>73</v>
       </c>
@@ -4634,7 +4718,7 @@
         <v>105</v>
       </c>
       <c r="H37" s="65" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="I37" s="30" t="s">
         <v>125</v>
@@ -4660,7 +4744,7 @@
       <c r="T37" s="35"/>
       <c r="U37" s="36"/>
       <c r="V37" s="32" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="W37" s="32"/>
       <c r="X37" s="33"/>
@@ -4690,14 +4774,14 @@
         <v>105</v>
       </c>
       <c r="H38" s="65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I38" s="30" t="s">
         <v>125</v>
       </c>
       <c r="J38" s="38"/>
       <c r="K38" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L38" s="38"/>
       <c r="M38" s="30" t="s">
@@ -4725,7 +4809,7 @@
       <c r="Y38" s="34"/>
       <c r="Z38" s="73"/>
     </row>
-    <row r="39" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" s="27" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
         <v>75</v>
       </c>
@@ -4748,14 +4832,14 @@
         <v>105</v>
       </c>
       <c r="H39" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I39" s="30" t="s">
         <v>125</v>
       </c>
       <c r="J39" s="38"/>
       <c r="K39" s="38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L39" s="38"/>
       <c r="M39" s="30" t="s">
@@ -4776,7 +4860,7 @@
       <c r="T39" s="35"/>
       <c r="U39" s="36"/>
       <c r="V39" s="32" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="W39" s="32"/>
       <c r="X39" s="33"/>
@@ -4797,16 +4881,16 @@
         <v>103</v>
       </c>
       <c r="E40" s="150" t="s">
+        <v>245</v>
+      </c>
+      <c r="F40" s="35" t="s">
         <v>246</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>247</v>
       </c>
       <c r="G40" s="52" t="s">
         <v>105</v>
       </c>
       <c r="H40" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I40" s="30" t="s">
         <v>125</v>
@@ -4827,7 +4911,7 @@
       <c r="Q40" s="30"/>
       <c r="R40" s="31"/>
       <c r="S40" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T40" s="35"/>
       <c r="U40" s="36"/>
@@ -4839,151 +4923,291 @@
       <c r="Y40" s="34"/>
       <c r="Z40" s="73"/>
     </row>
-    <row r="41" spans="1:26" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
+    <row r="41" spans="1:26" s="204" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="189" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="73"/>
-    </row>
-    <row r="42" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
+      <c r="B41" s="190" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="191" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="207" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" s="193" t="s">
+        <v>249</v>
+      </c>
+      <c r="F41" s="194" t="s">
+        <v>250</v>
+      </c>
+      <c r="G41" s="195" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="196" t="s">
+        <v>251</v>
+      </c>
+      <c r="I41" s="191" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41" s="197"/>
+      <c r="K41" s="197" t="s">
+        <v>252</v>
+      </c>
+      <c r="L41" s="197"/>
+      <c r="M41" s="191" t="s">
+        <v>195</v>
+      </c>
+      <c r="N41" s="197"/>
+      <c r="O41" s="191" t="s">
+        <v>153</v>
+      </c>
+      <c r="P41" s="191" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q41" s="191"/>
+      <c r="R41" s="208"/>
+      <c r="S41" s="198" t="s">
+        <v>110</v>
+      </c>
+      <c r="T41" s="194"/>
+      <c r="U41" s="199"/>
+      <c r="V41" t="s">
+        <v>31</v>
+      </c>
+      <c r="W41" s="200"/>
+      <c r="X41" s="201"/>
+      <c r="Y41" s="202"/>
+      <c r="Z41" s="203"/>
+    </row>
+    <row r="42" spans="1:26" s="204" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="189" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="73"/>
-    </row>
-    <row r="43" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="190" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="191" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="207" t="s">
+        <v>234</v>
+      </c>
+      <c r="E42" s="193" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="194" t="s">
+        <v>250</v>
+      </c>
+      <c r="G42" s="195" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="196" t="s">
+        <v>253</v>
+      </c>
+      <c r="I42" s="191" t="s">
+        <v>125</v>
+      </c>
+      <c r="J42" s="197"/>
+      <c r="K42" s="197" t="s">
+        <v>254</v>
+      </c>
+      <c r="L42" s="197"/>
+      <c r="M42" s="191" t="s">
+        <v>183</v>
+      </c>
+      <c r="N42" s="197"/>
+      <c r="O42" s="191" t="s">
+        <v>153</v>
+      </c>
+      <c r="P42" s="191" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q42" s="191"/>
+      <c r="R42" s="208"/>
+      <c r="S42" s="198" t="s">
+        <v>110</v>
+      </c>
+      <c r="T42" s="194"/>
+      <c r="U42" s="199"/>
+      <c r="V42" s="200" t="s">
+        <v>173</v>
+      </c>
+      <c r="W42" s="200"/>
+      <c r="X42" s="201"/>
+      <c r="Y42" s="202"/>
+      <c r="Z42" s="203"/>
+    </row>
+    <row r="43" spans="1:26" s="27" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="30"/>
+      <c r="B43" s="49">
+        <v>367</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="150" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="35">
+        <v>42810.300694444442</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>125</v>
+      </c>
       <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
+      <c r="K43" s="38" t="s">
+        <v>256</v>
+      </c>
       <c r="L43" s="38"/>
-      <c r="M43" s="30"/>
+      <c r="M43" s="30" t="s">
+        <v>172</v>
+      </c>
       <c r="N43" s="38"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
+      <c r="O43" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="P43" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="Q43" s="30"/>
       <c r="R43" s="31"/>
-      <c r="S43" s="29"/>
+      <c r="S43" s="29" t="s">
+        <v>110</v>
+      </c>
       <c r="T43" s="35"/>
       <c r="U43" s="36"/>
-      <c r="V43" s="32"/>
+      <c r="V43" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="W43" s="32"/>
       <c r="X43" s="33"/>
       <c r="Y43" s="34"/>
       <c r="Z43" s="73"/>
     </row>
-    <row r="44" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" s="27" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="150"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="30"/>
+      <c r="B44" s="49">
+        <v>368</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="150" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="35">
+        <v>42810.356249999997</v>
+      </c>
+      <c r="G44" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>125</v>
+      </c>
       <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
+      <c r="K44" s="38" t="s">
+        <v>258</v>
+      </c>
       <c r="L44" s="38"/>
-      <c r="M44" s="30"/>
+      <c r="M44" s="30" t="s">
+        <v>183</v>
+      </c>
       <c r="N44" s="38"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
+      <c r="O44" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="P44" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="Q44" s="30"/>
       <c r="R44" s="35"/>
-      <c r="S44" s="29"/>
+      <c r="S44" s="29" t="s">
+        <v>110</v>
+      </c>
       <c r="T44" s="35"/>
       <c r="U44" s="36"/>
-      <c r="V44" s="32"/>
+      <c r="V44" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="W44" s="32"/>
       <c r="X44" s="33"/>
       <c r="Y44" s="34"/>
       <c r="Z44" s="73"/>
     </row>
-    <row r="45" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="150"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="30"/>
+      <c r="B45" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="E45" s="209" t="s">
+        <v>261</v>
+      </c>
+      <c r="F45" s="194" t="s">
+        <v>262</v>
+      </c>
+      <c r="G45" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>125</v>
+      </c>
       <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
+      <c r="K45" s="38" t="s">
+        <v>263</v>
+      </c>
       <c r="L45" s="38"/>
-      <c r="M45" s="30"/>
+      <c r="M45" s="30" t="s">
+        <v>183</v>
+      </c>
       <c r="N45" s="38"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
+      <c r="O45" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="P45" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="Q45" s="30"/>
       <c r="R45" s="31"/>
-      <c r="S45" s="29"/>
+      <c r="S45" s="29" t="s">
+        <v>110</v>
+      </c>
       <c r="T45" s="35"/>
       <c r="U45" s="36"/>
-      <c r="V45" s="56"/>
+      <c r="V45" s="56" t="s">
+        <v>173</v>
+      </c>
       <c r="W45" s="32"/>
       <c r="X45" s="33"/>
       <c r="Y45" s="34"/>
@@ -11756,7 +11980,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BITACORA INCIDENTES Y SOLICITUDES II.xlsx
+++ b/BITACORA INCIDENTES Y SOLICITUDES II.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="270">
   <si>
     <t>APLICACIÓN</t>
   </si>
@@ -490,9 +490,6 @@
   </si>
   <si>
     <t>AGREGAR VALIDACION EN LA TRANSACCION</t>
-  </si>
-  <si>
-    <t>ESPERA DE RESPUESTA</t>
   </si>
   <si>
     <t>SE LE AGREGO LOS 6 CAMPOS REQUERIDOS EN LA PLANTILLA DE RETEICA</t>
@@ -987,6 +984,40 @@
   </si>
   <si>
     <t>REVERSION DE PAGOS POLO NUEVO</t>
+  </si>
+  <si>
+    <t>revisar pagos de lotes asobancaria de ipiales</t>
+  </si>
+  <si>
+    <t>Cordial saludo,
+Solicitamos favor revisar la aplicacion de un lote asobancaria respecto a los siguientes hechos:
+- El lote de fecha 09-02-17 banco bogota cuenta 1738 se aplico con fecha de reporte 09-02-17.
+- Al revisar en contabilidad los pagos, se encontró que los pagos de este lote estaban con fecha de reporte 01-02-17.
+- Se procedió a la reversión del lote para volverlo a aplicar con fecha 09-02-17 pero al verificarlo aparece el error en 10 recibos de que ya se encuentran aplicados.
+- En una revisión que se hizo, se encontró que los diez recibos aplicados con fecha 09-02-17 siguen apareciendo con fecha de reporte 01-02-17.
+Solicitamos saber porque no se reversan estos 10 pagos ya que se necesita que aparezcan con fecha de reporte 09-02-17 como estaban inicialmente y no con fecha 01-02-17 como están actualmente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cordial saludo,
+Se solicita que realicen el cambio de Nit de la contribuyente MARTA ROCIO VIVAS BASTIDAS quien es la propietaria del establecimiento LA ESTACION COFFE LUNCH ya que en sistema aparece el numero 37001480 que no corresponde a su cédula de ciudadanía. El numero correcto es 37011480, adjunto copia del documento de identificación.
+Favor revisar, muchas gracias.
+</t>
+  </si>
+  <si>
+    <t>17/03/2017  19:13:00 a. m.</t>
+  </si>
+  <si>
+    <t>REVISAR VIGENCIAS PAGADAS DE UN CONTRIBUYENTE QUE S ELE LIQUIDO EL PERIODO DOS VECES</t>
+  </si>
+  <si>
+    <t>Cordial saludo,
+Solicitamos por favor se revise porque se liquido dos veces la vigencia del año 2016 del predio 010012930005000, el contribuyente hizo el pago de la vigencia 2016 enla fecha 14-03-16 y ente año pago la vigencia 2016 y 2017 el 01-02-17.
+Por lo tanto necesitamos se revise de forma urgente cual fue el motivo de que le aparezca liquidada la vigencia 2016 dos veces, muchas gracias.
+Adjunto recibos predio 010012930005000
+Cordialmente,
+--
+Secretaría de Hacienda
+Alcaldía Municipal de Ipiales</t>
   </si>
 </sst>
 </file>
@@ -2155,19 +2186,19 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2574,11 +2605,11 @@
   <sheetPr codeName="Hoja1" filterMode="1"/>
   <dimension ref="A1:AM323"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2703,25 +2734,25 @@
       <c r="B3" s="46"/>
       <c r="C3" s="20"/>
       <c r="D3" s="68"/>
-      <c r="E3" s="205" t="s">
+      <c r="E3" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="209"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
@@ -2748,23 +2779,23 @@
       <c r="B4" s="46"/>
       <c r="C4" s="20"/>
       <c r="D4" s="68"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206"/>
-      <c r="M4" s="206"/>
-      <c r="N4" s="206"/>
-      <c r="O4" s="206"/>
-      <c r="P4" s="206"/>
-      <c r="Q4" s="206"/>
-      <c r="R4" s="206"/>
-      <c r="S4" s="206"/>
-      <c r="T4" s="206"/>
-      <c r="U4" s="206"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="209"/>
+      <c r="L4" s="209"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="209"/>
+      <c r="P4" s="209"/>
+      <c r="Q4" s="209"/>
+      <c r="R4" s="209"/>
+      <c r="S4" s="209"/>
+      <c r="T4" s="209"/>
+      <c r="U4" s="209"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -3075,7 +3106,7 @@
         <v>31</v>
       </c>
       <c r="W9" s="128" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X9" s="138"/>
       <c r="Y9" s="139" t="s">
@@ -3151,7 +3182,7 @@
       </c>
       <c r="Z10" s="73"/>
     </row>
-    <row r="11" spans="1:39" s="173" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" s="173" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="154" t="s">
         <v>47</v>
       </c>
@@ -3204,7 +3235,7 @@
       <c r="T11" s="159"/>
       <c r="U11" s="167"/>
       <c r="V11" s="168" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="W11" s="169"/>
       <c r="X11" s="170"/>
@@ -3271,7 +3302,7 @@
         <v>31</v>
       </c>
       <c r="W12" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X12" s="33"/>
       <c r="Y12" s="34" t="s">
@@ -3302,23 +3333,23 @@
         <v>105</v>
       </c>
       <c r="H13" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>107</v>
       </c>
       <c r="J13" s="38"/>
       <c r="K13" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="L13" s="38" t="s">
+      <c r="M13" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="M13" s="30" t="s">
+      <c r="N13" s="80" t="s">
         <v>146</v>
-      </c>
-      <c r="N13" s="80" t="s">
-        <v>147</v>
       </c>
       <c r="O13" s="30" t="s">
         <v>36</v>
@@ -3329,11 +3360,11 @@
       <c r="Q13" s="30"/>
       <c r="R13" s="31"/>
       <c r="S13" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T13" s="35"/>
       <c r="U13" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V13" t="s">
         <v>31</v>
@@ -3341,7 +3372,7 @@
       <c r="W13" s="77"/>
       <c r="X13" s="33"/>
       <c r="Y13" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z13" s="73"/>
     </row>
@@ -3368,24 +3399,24 @@
         <v>105</v>
       </c>
       <c r="H14" s="82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>125</v>
       </c>
       <c r="J14" s="38"/>
       <c r="K14" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="84" t="s">
         <v>151</v>
-      </c>
-      <c r="L14" s="84" t="s">
-        <v>152</v>
       </c>
       <c r="M14" s="30" t="s">
         <v>128</v>
       </c>
       <c r="N14" s="38"/>
       <c r="O14" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P14" s="30" t="s">
         <v>24</v>
@@ -3401,11 +3432,11 @@
         <v>31</v>
       </c>
       <c r="W14" s="77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X14" s="33"/>
       <c r="Y14" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z14" s="73"/>
     </row>
@@ -3432,26 +3463,26 @@
         <v>105</v>
       </c>
       <c r="H15" s="82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I15" s="30" t="s">
         <v>107</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" s="38" t="s">
         <v>155</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>156</v>
       </c>
       <c r="M15" s="30" t="s">
         <v>128</v>
       </c>
       <c r="N15" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" s="30" t="s">
         <v>157</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>158</v>
       </c>
       <c r="P15" s="30" t="s">
         <v>36</v>
@@ -3482,7 +3513,7 @@
         <v>102</v>
       </c>
       <c r="D16" s="76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" s="37" t="s">
         <v>120</v>
@@ -3494,7 +3525,7 @@
         <v>105</v>
       </c>
       <c r="H16" s="86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I16" s="30" t="s">
         <v>125</v>
@@ -3502,10 +3533,10 @@
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" s="30" t="s">
         <v>162</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>163</v>
       </c>
       <c r="N16" s="80"/>
       <c r="O16" s="30" t="s">
@@ -3521,7 +3552,7 @@
       </c>
       <c r="T16" s="35"/>
       <c r="U16" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V16" s="32" t="s">
         <v>31</v>
@@ -3545,7 +3576,7 @@
         <v>103</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F17" s="35">
         <v>42807.429166666669</v>
@@ -3554,23 +3585,23 @@
         <v>105</v>
       </c>
       <c r="H17" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="30" t="s">
         <v>165</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>166</v>
       </c>
       <c r="J17" s="38"/>
       <c r="K17" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" s="38" t="s">
         <v>167</v>
-      </c>
-      <c r="L17" s="38" t="s">
-        <v>168</v>
       </c>
       <c r="M17" s="30" t="s">
         <v>128</v>
       </c>
       <c r="N17" s="80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O17" s="30" t="s">
         <v>24</v>
@@ -3618,18 +3649,18 @@
         <v>105</v>
       </c>
       <c r="H18" s="87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I18" s="30" t="s">
         <v>125</v>
       </c>
       <c r="J18" s="38"/>
       <c r="K18" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L18" s="38"/>
       <c r="M18" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N18" s="38"/>
       <c r="O18" s="30" t="s">
@@ -3667,7 +3698,7 @@
         <v>103</v>
       </c>
       <c r="E19" s="144" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F19" s="35">
         <v>42807.473611111112</v>
@@ -3676,7 +3707,7 @@
         <v>105</v>
       </c>
       <c r="H19" s="87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I19" s="30" t="s">
         <v>125</v>
@@ -3715,7 +3746,7 @@
         <v>103</v>
       </c>
       <c r="E20" s="149" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F20" s="35">
         <v>42807.509027777778</v>
@@ -3724,14 +3755,14 @@
         <v>105</v>
       </c>
       <c r="H20" s="86" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I20" s="30" t="s">
         <v>125</v>
       </c>
       <c r="J20" s="38"/>
       <c r="K20" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L20" s="38"/>
       <c r="M20" s="30" t="s">
@@ -3739,10 +3770,10 @@
       </c>
       <c r="N20" s="38"/>
       <c r="O20" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P20" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q20" s="30"/>
       <c r="R20" s="31"/>
@@ -3770,10 +3801,10 @@
         <v>102</v>
       </c>
       <c r="D21" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="149" t="s">
         <v>179</v>
-      </c>
-      <c r="E21" s="149" t="s">
-        <v>180</v>
       </c>
       <c r="F21" s="35">
         <v>42807.515972222223</v>
@@ -3782,21 +3813,21 @@
         <v>105</v>
       </c>
       <c r="H21" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I21" s="30" t="s">
         <v>125</v>
       </c>
       <c r="J21" s="38"/>
       <c r="K21" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L21" s="38"/>
       <c r="M21" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="N21" s="38" t="s">
         <v>183</v>
-      </c>
-      <c r="N21" s="38" t="s">
-        <v>184</v>
       </c>
       <c r="O21" s="30" t="s">
         <v>36</v>
@@ -3833,7 +3864,7 @@
         <v>103</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F22" s="35">
         <v>42807.974305555559</v>
@@ -3842,24 +3873,24 @@
         <v>105</v>
       </c>
       <c r="H22" s="88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I22" s="30" t="s">
         <v>125</v>
       </c>
       <c r="J22" s="38"/>
       <c r="K22" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L22" s="38"/>
       <c r="M22" s="30" t="s">
         <v>110</v>
       </c>
       <c r="N22" s="80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O22" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P22" s="30" t="s">
         <v>24</v>
@@ -3893,7 +3924,7 @@
         <v>103</v>
       </c>
       <c r="E23" s="149" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F23" s="35">
         <v>42807.711805555555</v>
@@ -3902,23 +3933,23 @@
         <v>105</v>
       </c>
       <c r="H23" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I23" s="30" t="s">
         <v>125</v>
       </c>
       <c r="J23" s="38"/>
       <c r="K23" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="M23" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="M23" s="30" t="s">
+      <c r="N23" s="38" t="s">
         <v>195</v>
-      </c>
-      <c r="N23" s="38" t="s">
-        <v>196</v>
       </c>
       <c r="O23" s="30" t="s">
         <v>36</v>
@@ -3955,7 +3986,7 @@
         <v>103</v>
       </c>
       <c r="E24" s="149" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F24" s="35">
         <v>42807.732638888891</v>
@@ -3964,23 +3995,23 @@
         <v>105</v>
       </c>
       <c r="H24" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I24" s="30" t="s">
         <v>125</v>
       </c>
       <c r="J24" s="38"/>
       <c r="K24" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="M24" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="N24" s="38" t="s">
         <v>199</v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="N24" s="38" t="s">
-        <v>200</v>
       </c>
       <c r="O24" s="30" t="s">
         <v>36</v>
@@ -4008,16 +4039,16 @@
         <v>61</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>102</v>
       </c>
       <c r="D25" s="76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E25" s="149" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F25" s="35">
         <v>42808.433333333334</v>
@@ -4026,7 +4057,7 @@
         <v>105</v>
       </c>
       <c r="H25" s="65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="38"/>
@@ -4037,7 +4068,7 @@
       </c>
       <c r="N25" s="38"/>
       <c r="O25" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P25" s="30" t="s">
         <v>36</v>
@@ -4045,7 +4076,7 @@
       <c r="Q25" s="30"/>
       <c r="R25" s="35"/>
       <c r="S25" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T25" s="35"/>
       <c r="U25" s="36"/>
@@ -4071,7 +4102,7 @@
         <v>103</v>
       </c>
       <c r="E26" s="149" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F26" s="35">
         <v>42808.488888888889</v>
@@ -4080,29 +4111,29 @@
         <v>105</v>
       </c>
       <c r="H26" s="65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I26" s="30" t="s">
         <v>125</v>
       </c>
       <c r="J26" s="38"/>
       <c r="K26" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" s="38" t="s">
         <v>205</v>
-      </c>
-      <c r="L26" s="38" t="s">
-        <v>206</v>
       </c>
       <c r="M26" s="30" t="s">
         <v>110</v>
       </c>
       <c r="N26" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P26" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="30"/>
       <c r="R26" s="35"/>
@@ -4133,7 +4164,7 @@
         <v>103</v>
       </c>
       <c r="E27" s="150" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F27" s="35">
         <v>42807.592361111114</v>
@@ -4142,14 +4173,14 @@
         <v>105</v>
       </c>
       <c r="H27" s="65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I27" s="30" t="s">
         <v>117</v>
       </c>
       <c r="J27" s="38"/>
       <c r="K27" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L27" s="38"/>
       <c r="M27" s="30" t="s">
@@ -4157,7 +4188,7 @@
       </c>
       <c r="N27" s="38"/>
       <c r="O27" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P27" s="30" t="s">
         <v>24</v>
@@ -4200,18 +4231,18 @@
         <v>105</v>
       </c>
       <c r="H28" s="180" t="s">
+        <v>210</v>
+      </c>
+      <c r="I28" s="175" t="s">
         <v>211</v>
-      </c>
-      <c r="I28" s="175" t="s">
-        <v>212</v>
       </c>
       <c r="J28" s="181"/>
       <c r="K28" s="181" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L28" s="181"/>
       <c r="M28" s="175" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N28" s="181"/>
       <c r="O28" s="175" t="s">
@@ -4228,7 +4259,7 @@
       <c r="T28" s="178"/>
       <c r="U28" s="183"/>
       <c r="V28" s="184" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W28" s="185"/>
       <c r="X28" s="186"/>
@@ -4240,7 +4271,7 @@
         <v>65</v>
       </c>
       <c r="B29" s="153" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>102</v>
@@ -4258,18 +4289,18 @@
         <v>105</v>
       </c>
       <c r="H29" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J29" s="38"/>
       <c r="K29" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L29" s="38"/>
       <c r="M29" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N29" s="38"/>
       <c r="O29" s="30" t="s">
@@ -4281,7 +4312,7 @@
       <c r="Q29" s="30"/>
       <c r="R29" s="35"/>
       <c r="S29" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T29" s="35"/>
       <c r="U29" s="36"/>
@@ -4304,10 +4335,10 @@
         <v>102</v>
       </c>
       <c r="D30" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="151" t="s">
         <v>218</v>
-      </c>
-      <c r="E30" s="151" t="s">
-        <v>219</v>
       </c>
       <c r="F30" s="35">
         <v>42807.645833333336</v>
@@ -4316,7 +4347,7 @@
         <v>105</v>
       </c>
       <c r="H30" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I30" s="30" t="s">
         <v>125</v>
@@ -4363,31 +4394,31 @@
         <v>103</v>
       </c>
       <c r="E31" s="149" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G31" s="52" t="s">
         <v>105</v>
       </c>
       <c r="H31" s="65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I31" s="30" t="s">
         <v>107</v>
       </c>
       <c r="J31" s="38"/>
       <c r="K31" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L31" s="38"/>
       <c r="M31" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N31" s="38"/>
       <c r="O31" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P31" s="30" t="s">
         <v>36</v>
@@ -4418,26 +4449,26 @@
         <v>102</v>
       </c>
       <c r="D32" s="90" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E32" s="150" t="s">
         <v>120</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G32" s="52" t="s">
         <v>105</v>
       </c>
       <c r="H32" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I32" s="30" t="s">
         <v>125</v>
       </c>
       <c r="J32" s="38"/>
       <c r="K32" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L32" s="38"/>
       <c r="M32" s="30" t="s">
@@ -4470,7 +4501,7 @@
         <v>69</v>
       </c>
       <c r="B33" s="188" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="175" t="s">
         <v>102</v>
@@ -4488,18 +4519,18 @@
         <v>105</v>
       </c>
       <c r="H33" s="180" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I33" s="175" t="s">
         <v>125</v>
       </c>
       <c r="J33" s="181"/>
       <c r="K33" s="181" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L33" s="181"/>
       <c r="M33" s="175" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N33" s="181"/>
       <c r="O33" s="175" t="s">
@@ -4511,7 +4542,7 @@
       <c r="Q33" s="175"/>
       <c r="R33" s="178"/>
       <c r="S33" s="182" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T33" s="178"/>
       <c r="U33" s="183"/>
@@ -4537,7 +4568,7 @@
         <v>103</v>
       </c>
       <c r="E34" s="150" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F34" s="35">
         <v>42809.425694444442</v>
@@ -4546,7 +4577,7 @@
         <v>105</v>
       </c>
       <c r="H34" s="65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I34" s="30" t="s">
         <v>125</v>
@@ -4555,11 +4586,11 @@
       <c r="K34" s="38"/>
       <c r="L34" s="38"/>
       <c r="M34" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N34" s="38"/>
       <c r="O34" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P34" s="30" t="s">
         <v>36</v>
@@ -4590,10 +4621,10 @@
         <v>102</v>
       </c>
       <c r="D35" s="76" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" s="150" t="s">
         <v>230</v>
-      </c>
-      <c r="E35" s="150" t="s">
-        <v>231</v>
       </c>
       <c r="F35" s="35">
         <v>42809.448611111111</v>
@@ -4602,22 +4633,22 @@
         <v>105</v>
       </c>
       <c r="H35" s="65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I35" s="30" t="s">
         <v>125</v>
       </c>
       <c r="J35" s="38"/>
       <c r="K35" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L35" s="38"/>
       <c r="M35" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N35" s="38"/>
       <c r="O35" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P35" s="30" t="s">
         <v>36</v>
@@ -4625,7 +4656,7 @@
       <c r="Q35" s="30"/>
       <c r="R35" s="35"/>
       <c r="S35" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T35" s="35"/>
       <c r="U35" s="36"/>
@@ -4637,7 +4668,7 @@
       <c r="Y35" s="34"/>
       <c r="Z35" s="73"/>
     </row>
-    <row r="36" spans="1:26" s="204" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" s="204" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="189" t="s">
         <v>72</v>
       </c>
@@ -4648,26 +4679,26 @@
         <v>102</v>
       </c>
       <c r="D36" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" s="193" t="s">
         <v>234</v>
       </c>
-      <c r="E36" s="193" t="s">
+      <c r="F36" s="194" t="s">
         <v>235</v>
-      </c>
-      <c r="F36" s="194" t="s">
-        <v>236</v>
       </c>
       <c r="G36" s="195" t="s">
         <v>105</v>
       </c>
       <c r="H36" s="196" t="s">
+        <v>236</v>
+      </c>
+      <c r="I36" s="191" t="s">
         <v>237</v>
-      </c>
-      <c r="I36" s="191" t="s">
-        <v>238</v>
       </c>
       <c r="J36" s="197"/>
       <c r="K36" s="197" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L36" s="197"/>
       <c r="M36" s="191" t="s">
@@ -4675,7 +4706,7 @@
       </c>
       <c r="N36" s="197"/>
       <c r="O36" s="191" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P36" s="191" t="s">
         <v>36</v>
@@ -4688,7 +4719,7 @@
       <c r="T36" s="194"/>
       <c r="U36" s="199"/>
       <c r="V36" s="200" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="W36" s="200"/>
       <c r="X36" s="201"/>
@@ -4709,16 +4740,16 @@
         <v>103</v>
       </c>
       <c r="E37" s="150" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G37" s="52" t="s">
         <v>105</v>
       </c>
       <c r="H37" s="65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I37" s="30" t="s">
         <v>125</v>
@@ -4727,11 +4758,11 @@
       <c r="K37" s="38"/>
       <c r="L37" s="38"/>
       <c r="M37" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N37" s="38"/>
       <c r="O37" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P37" s="30" t="s">
         <v>36</v>
@@ -4762,42 +4793,42 @@
         <v>102</v>
       </c>
       <c r="D38" s="90" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" s="150" t="s">
         <v>234</v>
       </c>
-      <c r="E38" s="150" t="s">
-        <v>235</v>
-      </c>
       <c r="F38" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G38" s="52" t="s">
         <v>105</v>
       </c>
       <c r="H38" s="65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I38" s="30" t="s">
         <v>125</v>
       </c>
       <c r="J38" s="38"/>
       <c r="K38" s="38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L38" s="38"/>
       <c r="M38" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N38" s="38"/>
       <c r="O38" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P38" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q38" s="30"/>
       <c r="R38" s="31"/>
       <c r="S38" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T38" s="35"/>
       <c r="U38" s="36"/>
@@ -4820,7 +4851,7 @@
         <v>102</v>
       </c>
       <c r="D39" s="76" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E39" s="150" t="s">
         <v>120</v>
@@ -4832,14 +4863,14 @@
         <v>105</v>
       </c>
       <c r="H39" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I39" s="30" t="s">
         <v>125</v>
       </c>
       <c r="J39" s="38"/>
       <c r="K39" s="38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L39" s="38"/>
       <c r="M39" s="30" t="s">
@@ -4847,7 +4878,7 @@
       </c>
       <c r="N39" s="38"/>
       <c r="O39" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P39" s="30" t="s">
         <v>36</v>
@@ -4881,16 +4912,16 @@
         <v>103</v>
       </c>
       <c r="E40" s="150" t="s">
+        <v>244</v>
+      </c>
+      <c r="F40" s="35" t="s">
         <v>245</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>246</v>
       </c>
       <c r="G40" s="52" t="s">
         <v>105</v>
       </c>
       <c r="H40" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I40" s="30" t="s">
         <v>125</v>
@@ -4899,11 +4930,11 @@
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
       <c r="M40" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N40" s="38"/>
       <c r="O40" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P40" s="30" t="s">
         <v>36</v>
@@ -4911,7 +4942,7 @@
       <c r="Q40" s="30"/>
       <c r="R40" s="31"/>
       <c r="S40" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T40" s="35"/>
       <c r="U40" s="36"/>
@@ -4933,41 +4964,41 @@
       <c r="C41" s="191" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="207" t="s">
-        <v>230</v>
+      <c r="D41" s="205" t="s">
+        <v>229</v>
       </c>
       <c r="E41" s="193" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" s="194" t="s">
         <v>249</v>
-      </c>
-      <c r="F41" s="194" t="s">
-        <v>250</v>
       </c>
       <c r="G41" s="195" t="s">
         <v>105</v>
       </c>
       <c r="H41" s="196" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I41" s="191" t="s">
         <v>125</v>
       </c>
       <c r="J41" s="197"/>
       <c r="K41" s="197" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L41" s="197"/>
       <c r="M41" s="191" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N41" s="197"/>
       <c r="O41" s="191" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P41" s="191" t="s">
         <v>36</v>
       </c>
       <c r="Q41" s="191"/>
-      <c r="R41" s="208"/>
+      <c r="R41" s="206"/>
       <c r="S41" s="198" t="s">
         <v>110</v>
       </c>
@@ -4991,48 +5022,48 @@
       <c r="C42" s="191" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="207" t="s">
+      <c r="D42" s="205" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" s="193" t="s">
         <v>234</v>
       </c>
-      <c r="E42" s="193" t="s">
-        <v>235</v>
-      </c>
       <c r="F42" s="194" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G42" s="195" t="s">
         <v>105</v>
       </c>
       <c r="H42" s="196" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I42" s="191" t="s">
         <v>125</v>
       </c>
       <c r="J42" s="197"/>
       <c r="K42" s="197" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L42" s="197"/>
       <c r="M42" s="191" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N42" s="197"/>
       <c r="O42" s="191" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P42" s="191" t="s">
         <v>36</v>
       </c>
       <c r="Q42" s="191"/>
-      <c r="R42" s="208"/>
+      <c r="R42" s="206"/>
       <c r="S42" s="198" t="s">
         <v>110</v>
       </c>
       <c r="T42" s="194"/>
       <c r="U42" s="199"/>
-      <c r="V42" s="200" t="s">
-        <v>173</v>
+      <c r="V42" s="32" t="s">
+        <v>172</v>
       </c>
       <c r="W42" s="200"/>
       <c r="X42" s="201"/>
@@ -5062,22 +5093,22 @@
         <v>105</v>
       </c>
       <c r="H43" s="65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I43" s="30" t="s">
         <v>125</v>
       </c>
       <c r="J43" s="38"/>
       <c r="K43" s="38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L43" s="38"/>
       <c r="M43" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N43" s="38"/>
       <c r="O43" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P43" s="30" t="s">
         <v>36</v>
@@ -5120,22 +5151,22 @@
         <v>105</v>
       </c>
       <c r="H44" s="65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I44" s="30" t="s">
         <v>125</v>
       </c>
       <c r="J44" s="38"/>
       <c r="K44" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L44" s="38"/>
       <c r="M44" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N44" s="38"/>
       <c r="O44" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P44" s="30" t="s">
         <v>36</v>
@@ -5155,7 +5186,7 @@
       <c r="Y44" s="34"/>
       <c r="Z44" s="73"/>
     </row>
-    <row r="45" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" s="27" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
         <v>81</v>
       </c>
@@ -5166,34 +5197,34 @@
         <v>102</v>
       </c>
       <c r="D45" s="76" t="s">
+        <v>259</v>
+      </c>
+      <c r="E45" s="207" t="s">
         <v>260</v>
       </c>
-      <c r="E45" s="209" t="s">
+      <c r="F45" s="194" t="s">
         <v>261</v>
-      </c>
-      <c r="F45" s="194" t="s">
-        <v>262</v>
       </c>
       <c r="G45" s="52" t="s">
         <v>105</v>
       </c>
       <c r="H45" s="65" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I45" s="30" t="s">
         <v>125</v>
       </c>
       <c r="J45" s="38"/>
       <c r="K45" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L45" s="38"/>
       <c r="M45" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N45" s="38"/>
       <c r="O45" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P45" s="30" t="s">
         <v>36</v>
@@ -5205,99 +5236,183 @@
       </c>
       <c r="T45" s="35"/>
       <c r="U45" s="36"/>
-      <c r="V45" s="56" t="s">
-        <v>173</v>
+      <c r="V45" t="s">
+        <v>32</v>
       </c>
       <c r="W45" s="32"/>
       <c r="X45" s="33"/>
       <c r="Y45" s="34"/>
       <c r="Z45" s="73"/>
     </row>
-    <row r="46" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" s="27" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="150"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="30"/>
+      <c r="B46" s="49">
+        <v>369</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="150" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="194" t="s">
+        <v>267</v>
+      </c>
+      <c r="G46" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H46" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>125</v>
+      </c>
       <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
+      <c r="K46" s="38" t="s">
+        <v>265</v>
+      </c>
       <c r="L46" s="38"/>
-      <c r="M46" s="30"/>
+      <c r="M46" s="30" t="s">
+        <v>145</v>
+      </c>
       <c r="N46" s="38"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
+      <c r="O46" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="P46" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="Q46" s="30"/>
       <c r="R46" s="35"/>
-      <c r="S46" s="29"/>
+      <c r="S46" s="29" t="s">
+        <v>110</v>
+      </c>
       <c r="T46" s="40"/>
       <c r="U46" s="36"/>
-      <c r="V46" s="56"/>
+      <c r="V46" s="56" t="s">
+        <v>31</v>
+      </c>
       <c r="W46" s="32"/>
       <c r="X46" s="33"/>
       <c r="Y46" s="34"/>
       <c r="Z46" s="73"/>
     </row>
-    <row r="47" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" s="27" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="150"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="30"/>
+      <c r="B47" s="49">
+        <v>370</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="150" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" s="35">
+        <v>42811.375</v>
+      </c>
+      <c r="G47" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>125</v>
+      </c>
       <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
+      <c r="K47" s="38" t="s">
+        <v>266</v>
+      </c>
       <c r="L47" s="38"/>
-      <c r="M47" s="30"/>
+      <c r="M47" s="30" t="s">
+        <v>110</v>
+      </c>
       <c r="N47" s="38"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
+      <c r="O47" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="P47" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="Q47" s="30"/>
       <c r="R47" s="35"/>
-      <c r="S47" s="29"/>
+      <c r="S47" s="29" t="s">
+        <v>110</v>
+      </c>
       <c r="T47" s="40"/>
       <c r="U47" s="36"/>
-      <c r="V47" s="56"/>
+      <c r="V47" s="56" t="s">
+        <v>31</v>
+      </c>
       <c r="W47" s="32"/>
       <c r="X47" s="33"/>
       <c r="Y47" s="34"/>
       <c r="Z47" s="73"/>
     </row>
-    <row r="48" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="150"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="30"/>
+      <c r="B48" s="49">
+        <v>371</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="150" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="194" t="s">
+        <v>267</v>
+      </c>
+      <c r="G48" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="I48" s="30" t="s">
+        <v>125</v>
+      </c>
       <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
+      <c r="K48" s="38" t="s">
+        <v>269</v>
+      </c>
       <c r="L48" s="31"/>
-      <c r="M48" s="29"/>
+      <c r="M48" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="N48" s="31"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
+      <c r="O48" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>36</v>
+      </c>
       <c r="Q48" s="29"/>
       <c r="R48" s="35"/>
-      <c r="S48" s="29"/>
+      <c r="S48" s="29" t="s">
+        <v>110</v>
+      </c>
       <c r="T48" s="35"/>
       <c r="U48" s="36"/>
-      <c r="V48" s="32"/>
+      <c r="V48" s="32" t="s">
+        <v>172</v>
+      </c>
       <c r="W48" s="32"/>
       <c r="X48" s="33"/>
       <c r="Y48" s="34"/>
@@ -11952,7 +12067,6 @@
       <filters blank="1">
         <filter val="ESCALADO A FUNCIONAL"/>
         <filter val="ESCALADO A SISTEMAS"/>
-        <filter val="ESPERA DE RESPUESTA"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -11980,7 +12094,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BITACORA INCIDENTES Y SOLICITUDES II.xlsx
+++ b/BITACORA INCIDENTES Y SOLICITUDES II.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="272">
   <si>
     <t>APLICACIÓN</t>
   </si>
@@ -1018,6 +1018,19 @@
 --
 Secretaría de Hacienda
 Alcaldía Municipal de Ipiales</t>
+  </si>
+  <si>
+    <t>VERIFICAR CUAL CONSECUTIVO SE MOSTRARA EN EL PANEL Y EN EL FORMULARIO</t>
+  </si>
+  <si>
+    <t>Cordial saludo,
+Con respecto a las solicitudes mencionadas se realizó el proceso descrito, pero al momento de imprimir copia de las declaraciones para anexarlas al respectivo reporte, nos percatamos que el sistema le asigno otro número a la declaración diferente al que se ingresó al momento de sistematizar la declaración (imagen adjunta). Por tal razón solicitamos nos colaboren con el cambio del numero de la declaración que el sistema esta asignando y se deje el numero correcto que debe tener la declaración.
+Las declaraciones que se sistematizaron son sus respectivos contribuyentes son:
+declaracion                           Nit                        aparece al imprimir
+16020110002609                   36992717               17020110001000
+16020110001617                   13006005               17020110001686
+16020110001549                   27167805               17020110001771
+16020110001542                   1085932129            17020110001772</t>
   </si>
 </sst>
 </file>
@@ -2602,14 +2615,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" filterMode="1"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AM323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="T8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
+      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,7 +2991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="27" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" s="27" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="116" t="s">
         <v>44</v>
       </c>
@@ -3046,7 +3059,7 @@
       </c>
       <c r="Z8" s="73"/>
     </row>
-    <row r="9" spans="1:39" s="28" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
         <v>45</v>
       </c>
@@ -3114,7 +3127,7 @@
       </c>
       <c r="Z9" s="73"/>
     </row>
-    <row r="10" spans="1:39" s="27" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>46</v>
       </c>
@@ -3182,7 +3195,7 @@
       </c>
       <c r="Z10" s="73"/>
     </row>
-    <row r="11" spans="1:39" s="173" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" s="173" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="154" t="s">
         <v>47</v>
       </c>
@@ -3242,7 +3255,7 @@
       <c r="Y11" s="171"/>
       <c r="Z11" s="172"/>
     </row>
-    <row r="12" spans="1:39" s="27" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>48</v>
       </c>
@@ -3310,7 +3323,7 @@
       </c>
       <c r="Z12" s="73"/>
     </row>
-    <row r="13" spans="1:39" s="27" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>49</v>
       </c>
@@ -3376,7 +3389,7 @@
       </c>
       <c r="Z13" s="73"/>
     </row>
-    <row r="14" spans="1:39" s="27" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>50</v>
       </c>
@@ -3440,7 +3453,7 @@
       </c>
       <c r="Z14" s="73"/>
     </row>
-    <row r="15" spans="1:39" s="27" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>51</v>
       </c>
@@ -3502,7 +3515,7 @@
       <c r="Y15" s="34"/>
       <c r="Z15" s="73"/>
     </row>
-    <row r="16" spans="1:39" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="44" t="s">
         <v>52</v>
       </c>
@@ -3562,7 +3575,7 @@
       <c r="Y16" s="34"/>
       <c r="Z16" s="73"/>
     </row>
-    <row r="17" spans="1:26" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="44" t="s">
         <v>53</v>
       </c>
@@ -3626,7 +3639,7 @@
       </c>
       <c r="Z17" s="73"/>
     </row>
-    <row r="18" spans="1:26" s="27" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>54</v>
       </c>
@@ -3684,7 +3697,7 @@
       <c r="Y18" s="34"/>
       <c r="Z18" s="73"/>
     </row>
-    <row r="19" spans="1:26" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>55</v>
       </c>
@@ -3732,7 +3745,7 @@
       <c r="Y19" s="34"/>
       <c r="Z19" s="73"/>
     </row>
-    <row r="20" spans="1:26" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="44" t="s">
         <v>56</v>
       </c>
@@ -3790,7 +3803,7 @@
       <c r="Y20" s="34"/>
       <c r="Z20" s="73"/>
     </row>
-    <row r="21" spans="1:26" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="44" t="s">
         <v>57</v>
       </c>
@@ -3850,7 +3863,7 @@
       <c r="Y21" s="34"/>
       <c r="Z21" s="73"/>
     </row>
-    <row r="22" spans="1:26" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>58</v>
       </c>
@@ -3910,7 +3923,7 @@
       <c r="Y22" s="34"/>
       <c r="Z22" s="73"/>
     </row>
-    <row r="23" spans="1:26" s="27" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>59</v>
       </c>
@@ -3972,7 +3985,7 @@
       <c r="Y23" s="34"/>
       <c r="Z23" s="73"/>
     </row>
-    <row r="24" spans="1:26" s="27" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>60</v>
       </c>
@@ -4034,7 +4047,7 @@
       <c r="Y24" s="34"/>
       <c r="Z24" s="73"/>
     </row>
-    <row r="25" spans="1:26" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>61</v>
       </c>
@@ -4088,7 +4101,7 @@
       <c r="Y25" s="34"/>
       <c r="Z25" s="73"/>
     </row>
-    <row r="26" spans="1:26" s="27" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>62</v>
       </c>
@@ -4150,7 +4163,7 @@
       <c r="Y26" s="34"/>
       <c r="Z26" s="73"/>
     </row>
-    <row r="27" spans="1:26" s="27" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>63</v>
       </c>
@@ -4266,7 +4279,7 @@
       <c r="Y28" s="187"/>
       <c r="Z28" s="172"/>
     </row>
-    <row r="29" spans="1:26" s="27" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>65</v>
       </c>
@@ -4324,7 +4337,7 @@
       <c r="Y29" s="34"/>
       <c r="Z29" s="73"/>
     </row>
-    <row r="30" spans="1:26" s="27" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
         <v>66</v>
       </c>
@@ -4380,7 +4393,7 @@
       <c r="Y30" s="34"/>
       <c r="Z30" s="73"/>
     </row>
-    <row r="31" spans="1:26" s="27" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
         <v>67</v>
       </c>
@@ -4438,7 +4451,7 @@
       <c r="Y31" s="34"/>
       <c r="Z31" s="73"/>
     </row>
-    <row r="32" spans="1:26" s="27" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
         <v>68</v>
       </c>
@@ -4554,7 +4567,7 @@
       <c r="Y33" s="187"/>
       <c r="Z33" s="172"/>
     </row>
-    <row r="34" spans="1:26" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>70</v>
       </c>
@@ -4610,7 +4623,7 @@
       <c r="Y34" s="34"/>
       <c r="Z34" s="73"/>
     </row>
-    <row r="35" spans="1:26" s="27" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" s="27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>71</v>
       </c>
@@ -4668,7 +4681,7 @@
       <c r="Y35" s="34"/>
       <c r="Z35" s="73"/>
     </row>
-    <row r="36" spans="1:26" s="204" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" s="204" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="189" t="s">
         <v>72</v>
       </c>
@@ -4726,7 +4739,7 @@
       <c r="Y36" s="202"/>
       <c r="Z36" s="203"/>
     </row>
-    <row r="37" spans="1:26" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
         <v>73</v>
       </c>
@@ -4782,7 +4795,7 @@
       <c r="Y37" s="34"/>
       <c r="Z37" s="73"/>
     </row>
-    <row r="38" spans="1:26" s="27" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
         <v>74</v>
       </c>
@@ -4840,7 +4853,7 @@
       <c r="Y38" s="34"/>
       <c r="Z38" s="73"/>
     </row>
-    <row r="39" spans="1:26" s="27" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
         <v>75</v>
       </c>
@@ -4898,7 +4911,7 @@
       <c r="Y39" s="34"/>
       <c r="Z39" s="73"/>
     </row>
-    <row r="40" spans="1:26" s="27" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" s="27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>76</v>
       </c>
@@ -4954,7 +4967,7 @@
       <c r="Y40" s="34"/>
       <c r="Z40" s="73"/>
     </row>
-    <row r="41" spans="1:26" s="204" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" s="204" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="189" t="s">
         <v>77</v>
       </c>
@@ -5062,15 +5075,15 @@
       </c>
       <c r="T42" s="194"/>
       <c r="U42" s="199"/>
-      <c r="V42" s="32" t="s">
-        <v>172</v>
+      <c r="V42" t="s">
+        <v>31</v>
       </c>
       <c r="W42" s="200"/>
       <c r="X42" s="201"/>
       <c r="Y42" s="202"/>
       <c r="Z42" s="203"/>
     </row>
-    <row r="43" spans="1:26" s="27" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>79</v>
       </c>
@@ -5128,7 +5141,7 @@
       <c r="Y43" s="34"/>
       <c r="Z43" s="73"/>
     </row>
-    <row r="44" spans="1:26" s="27" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>80</v>
       </c>
@@ -5186,7 +5199,7 @@
       <c r="Y44" s="34"/>
       <c r="Z44" s="73"/>
     </row>
-    <row r="45" spans="1:26" s="27" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
         <v>81</v>
       </c>
@@ -5244,7 +5257,7 @@
       <c r="Y45" s="34"/>
       <c r="Z45" s="73"/>
     </row>
-    <row r="46" spans="1:26" s="27" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
         <v>82</v>
       </c>
@@ -5302,7 +5315,7 @@
       <c r="Y46" s="34"/>
       <c r="Z46" s="73"/>
     </row>
-    <row r="47" spans="1:26" s="27" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
         <v>83</v>
       </c>
@@ -5418,31 +5431,59 @@
       <c r="Y48" s="34"/>
       <c r="Z48" s="73"/>
     </row>
-    <row r="49" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" s="27" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="150"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="30"/>
+      <c r="B49" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="150" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="35">
+        <v>42812.436805555553</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="I49" s="30" t="s">
+        <v>125</v>
+      </c>
       <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
+      <c r="K49" s="38" t="s">
+        <v>271</v>
+      </c>
       <c r="L49" s="38"/>
-      <c r="M49" s="30"/>
+      <c r="M49" s="30" t="s">
+        <v>110</v>
+      </c>
       <c r="N49" s="38"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
+      <c r="O49" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="P49" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="Q49" s="30"/>
       <c r="R49" s="35"/>
-      <c r="S49" s="29"/>
+      <c r="S49" s="29" t="s">
+        <v>110</v>
+      </c>
       <c r="T49" s="35"/>
       <c r="U49" s="36"/>
-      <c r="V49" s="32"/>
+      <c r="V49" s="32" t="s">
+        <v>25</v>
+      </c>
       <c r="W49" s="32"/>
       <c r="X49" s="33"/>
       <c r="Y49" s="34"/>
@@ -12062,14 +12103,7 @@
       <c r="W323" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:AM125">
-    <filterColumn colId="21">
-      <filters blank="1">
-        <filter val="ESCALADO A FUNCIONAL"/>
-        <filter val="ESCALADO A SISTEMAS"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A7:AM125"/>
   <mergeCells count="1">
     <mergeCell ref="E3:U4"/>
   </mergeCells>
@@ -12094,7 +12128,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BITACORA INCIDENTES Y SOLICITUDES II.xlsx
+++ b/BITACORA INCIDENTES Y SOLICITUDES II.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="5010" windowWidth="12000" windowHeight="1185"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitácora!$A$7:$AM$125</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1036,12 +1036,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[h]:mm"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-m\-yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1607,7 +1607,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="209">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1852,9 +1852,6 @@
     </xf>
     <xf numFmtId="165" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2294,7 +2291,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2314,7 +2311,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2403,7 +2400,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2438,7 +2434,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2614,24 +2609,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AM323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="T8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="51" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="22" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" style="71" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" style="152" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" style="151" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="32.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="96.28515625" style="66" customWidth="1"/>
@@ -2656,12 +2651,12 @@
     <col min="40" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="1" customFormat="1">
       <c r="A1" s="26"/>
       <c r="B1" s="45"/>
       <c r="C1" s="19"/>
       <c r="D1" s="67"/>
-      <c r="E1" s="145"/>
+      <c r="E1" s="144"/>
       <c r="F1" s="8"/>
       <c r="G1" s="19"/>
       <c r="H1" s="60"/>
@@ -2699,12 +2694,12 @@
       <c r="AL1" s="10"/>
       <c r="AM1" s="10"/>
     </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="26"/>
       <c r="B2" s="46"/>
       <c r="C2" s="20"/>
       <c r="D2" s="68"/>
-      <c r="E2" s="146"/>
+      <c r="E2" s="145"/>
       <c r="F2" s="11"/>
       <c r="G2" s="20"/>
       <c r="H2" s="61"/>
@@ -2742,30 +2737,30 @@
       <c r="AL2" s="10"/>
       <c r="AM2" s="10"/>
     </row>
-    <row r="3" spans="1:39" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A3" s="26"/>
       <c r="B3" s="46"/>
       <c r="C3" s="20"/>
       <c r="D3" s="68"/>
-      <c r="E3" s="208" t="s">
+      <c r="E3" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="208"/>
+      <c r="U3" s="208"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
@@ -2787,28 +2782,28 @@
       <c r="AL3" s="10"/>
       <c r="AM3" s="10"/>
     </row>
-    <row r="4" spans="1:39" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="26"/>
       <c r="B4" s="46"/>
       <c r="C4" s="20"/>
       <c r="D4" s="68"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="209"/>
-      <c r="L4" s="209"/>
-      <c r="M4" s="209"/>
-      <c r="N4" s="209"/>
-      <c r="O4" s="209"/>
-      <c r="P4" s="209"/>
-      <c r="Q4" s="209"/>
-      <c r="R4" s="209"/>
-      <c r="S4" s="209"/>
-      <c r="T4" s="209"/>
-      <c r="U4" s="209"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="208"/>
+      <c r="L4" s="208"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="208"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="208"/>
+      <c r="Q4" s="208"/>
+      <c r="R4" s="208"/>
+      <c r="S4" s="208"/>
+      <c r="T4" s="208"/>
+      <c r="U4" s="208"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -2830,12 +2825,12 @@
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
     </row>
-    <row r="5" spans="1:39" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="26"/>
       <c r="B5" s="46"/>
       <c r="C5" s="20"/>
       <c r="D5" s="68"/>
-      <c r="E5" s="146"/>
+      <c r="E5" s="145"/>
       <c r="F5" s="11"/>
       <c r="G5" s="20"/>
       <c r="H5" s="61"/>
@@ -2873,12 +2868,12 @@
       <c r="AL5" s="10"/>
       <c r="AM5" s="10"/>
     </row>
-    <row r="6" spans="1:39" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A6" s="26"/>
       <c r="B6" s="47"/>
       <c r="C6" s="21"/>
       <c r="D6" s="69"/>
-      <c r="E6" s="147"/>
+      <c r="E6" s="146"/>
       <c r="F6" s="16"/>
       <c r="G6" s="21"/>
       <c r="H6" s="62"/>
@@ -2914,7 +2909,7 @@
       <c r="AL6" s="10"/>
       <c r="AM6" s="10"/>
     </row>
-    <row r="7" spans="1:39" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="52.5" customHeight="1" thickBot="1">
       <c r="A7" s="25" t="s">
         <v>43</v>
       </c>
@@ -2927,7 +2922,7 @@
       <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="148" t="s">
+      <c r="E7" s="147" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -2991,271 +2986,271 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="27" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+    <row r="8" spans="1:39" s="27" customFormat="1" ht="24" customHeight="1">
+      <c r="A8" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="120" t="s">
+      <c r="E8" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="121">
+      <c r="F8" s="120">
         <v>42804.525694444441</v>
       </c>
-      <c r="G8" s="122" t="s">
+      <c r="G8" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="123" t="s">
+      <c r="H8" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="118" t="s">
+      <c r="I8" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="124"/>
-      <c r="K8" s="125" t="s">
+      <c r="J8" s="123"/>
+      <c r="K8" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="124" t="s">
+      <c r="L8" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="118" t="s">
+      <c r="M8" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="124" t="s">
+      <c r="N8" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="O8" s="116" t="s">
+      <c r="O8" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="116" t="s">
+      <c r="P8" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="121"/>
-      <c r="S8" s="126" t="s">
+      <c r="Q8" s="117"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="T8" s="121"/>
-      <c r="U8" s="127" t="s">
+      <c r="T8" s="120"/>
+      <c r="U8" s="126" t="s">
         <v>112</v>
       </c>
       <c r="V8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="W8" s="128" t="s">
+      <c r="W8" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="X8" s="128"/>
-      <c r="Y8" s="129" t="s">
+      <c r="X8" s="127"/>
+      <c r="Y8" s="128" t="s">
         <v>132</v>
       </c>
       <c r="Z8" s="73"/>
     </row>
-    <row r="9" spans="1:39" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" s="28" customFormat="1" ht="21.75" customHeight="1">
       <c r="A9" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="131" t="s">
+      <c r="E9" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="132" t="s">
+      <c r="F9" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="122" t="s">
+      <c r="G9" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="133" t="s">
+      <c r="H9" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="116" t="s">
+      <c r="I9" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="134"/>
-      <c r="K9" s="125" t="s">
+      <c r="J9" s="133"/>
+      <c r="K9" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="L9" s="134" t="s">
+      <c r="L9" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="M9" s="116" t="s">
+      <c r="M9" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="N9" s="135" t="s">
+      <c r="N9" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="O9" s="116" t="s">
+      <c r="O9" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="116" t="s">
+      <c r="P9" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="134"/>
-      <c r="S9" s="136" t="s">
+      <c r="Q9" s="115"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="135" t="s">
         <v>110</v>
       </c>
-      <c r="T9" s="132"/>
-      <c r="U9" s="137" t="s">
+      <c r="T9" s="131"/>
+      <c r="U9" s="136" t="s">
         <v>122</v>
       </c>
       <c r="V9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="128" t="s">
+      <c r="W9" s="127" t="s">
         <v>141</v>
       </c>
-      <c r="X9" s="138"/>
-      <c r="Y9" s="139" t="s">
+      <c r="X9" s="137"/>
+      <c r="Y9" s="138" t="s">
         <v>132</v>
       </c>
       <c r="Z9" s="73"/>
     </row>
-    <row r="10" spans="1:39" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" s="27" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="140">
+      <c r="B10" s="139">
         <v>360</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="131" t="s">
+      <c r="E10" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="132" t="s">
+      <c r="F10" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="122" t="s">
+      <c r="G10" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="133" t="s">
+      <c r="H10" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="116" t="s">
+      <c r="I10" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="J10" s="134"/>
-      <c r="K10" s="134" t="s">
+      <c r="J10" s="133"/>
+      <c r="K10" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="L10" s="134" t="s">
+      <c r="L10" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="M10" s="116" t="s">
+      <c r="M10" s="115" t="s">
         <v>128</v>
       </c>
-      <c r="N10" s="135" t="s">
+      <c r="N10" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="O10" s="116" t="s">
+      <c r="O10" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="116" t="s">
+      <c r="P10" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="141"/>
-      <c r="S10" s="136" t="s">
+      <c r="Q10" s="115"/>
+      <c r="R10" s="140"/>
+      <c r="S10" s="135" t="s">
         <v>110</v>
       </c>
-      <c r="T10" s="142"/>
-      <c r="U10" s="143" t="s">
+      <c r="T10" s="141"/>
+      <c r="U10" s="142" t="s">
         <v>112</v>
       </c>
       <c r="V10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="128" t="s">
+      <c r="W10" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="139" t="s">
+      <c r="X10" s="137"/>
+      <c r="Y10" s="138" t="s">
         <v>132</v>
       </c>
       <c r="Z10" s="73"/>
     </row>
-    <row r="11" spans="1:39" s="173" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="154" t="s">
+    <row r="11" spans="1:39" s="172" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="155">
+      <c r="B11" s="154">
         <v>361</v>
       </c>
-      <c r="C11" s="156" t="s">
+      <c r="C11" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="157" t="s">
+      <c r="D11" s="156" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="158" t="s">
+      <c r="E11" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="159" t="s">
+      <c r="F11" s="158" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="160" t="s">
+      <c r="G11" s="159" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="161" t="s">
+      <c r="H11" s="160" t="s">
         <v>134</v>
       </c>
-      <c r="I11" s="162" t="s">
+      <c r="I11" s="161" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163" t="s">
+      <c r="J11" s="162"/>
+      <c r="K11" s="162" t="s">
         <v>135</v>
       </c>
-      <c r="L11" s="163"/>
-      <c r="M11" s="162" t="s">
+      <c r="L11" s="162"/>
+      <c r="M11" s="161" t="s">
         <v>128</v>
       </c>
-      <c r="N11" s="164" t="s">
+      <c r="N11" s="163" t="s">
         <v>136</v>
       </c>
-      <c r="O11" s="162" t="s">
+      <c r="O11" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="162" t="s">
+      <c r="P11" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="165"/>
-      <c r="S11" s="166" t="s">
+      <c r="Q11" s="161"/>
+      <c r="R11" s="164"/>
+      <c r="S11" s="165" t="s">
         <v>110</v>
       </c>
-      <c r="T11" s="159"/>
-      <c r="U11" s="167"/>
-      <c r="V11" s="168" t="s">
+      <c r="T11" s="158"/>
+      <c r="U11" s="166"/>
+      <c r="V11" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="W11" s="169"/>
-      <c r="X11" s="170"/>
-      <c r="Y11" s="171"/>
-      <c r="Z11" s="172"/>
-    </row>
-    <row r="12" spans="1:39" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="168"/>
+      <c r="X11" s="169"/>
+      <c r="Y11" s="170"/>
+      <c r="Z11" s="171"/>
+    </row>
+    <row r="12" spans="1:39" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="44" t="s">
         <v>48</v>
       </c>
@@ -3284,10 +3279,10 @@
         <v>125</v>
       </c>
       <c r="J12" s="38"/>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="54" t="s">
         <v>139</v>
       </c>
       <c r="M12" s="30" t="s">
@@ -3323,7 +3318,7 @@
       </c>
       <c r="Z12" s="73"/>
     </row>
-    <row r="13" spans="1:39" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="44" t="s">
         <v>49</v>
       </c>
@@ -3389,7 +3384,7 @@
       </c>
       <c r="Z13" s="73"/>
     </row>
-    <row r="14" spans="1:39" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="44" t="s">
         <v>50</v>
       </c>
@@ -3418,10 +3413,10 @@
         <v>125</v>
       </c>
       <c r="J14" s="38"/>
-      <c r="K14" s="83" t="s">
+      <c r="K14" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="L14" s="84" t="s">
+      <c r="L14" s="83" t="s">
         <v>151</v>
       </c>
       <c r="M14" s="30" t="s">
@@ -3453,7 +3448,7 @@
       </c>
       <c r="Z14" s="73"/>
     </row>
-    <row r="15" spans="1:39" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="44" t="s">
         <v>51</v>
       </c>
@@ -3482,7 +3477,7 @@
         <v>107</v>
       </c>
       <c r="J15" s="38"/>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="54" t="s">
         <v>154</v>
       </c>
       <c r="L15" s="38" t="s">
@@ -3515,7 +3510,7 @@
       <c r="Y15" s="34"/>
       <c r="Z15" s="73"/>
     </row>
-    <row r="16" spans="1:39" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" s="27" customFormat="1">
       <c r="A16" s="44" t="s">
         <v>52</v>
       </c>
@@ -3537,7 +3532,7 @@
       <c r="G16" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="86" t="s">
+      <c r="H16" s="85" t="s">
         <v>160</v>
       </c>
       <c r="I16" s="30" t="s">
@@ -3575,7 +3570,7 @@
       <c r="Y16" s="34"/>
       <c r="Z16" s="73"/>
     </row>
-    <row r="17" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" s="27" customFormat="1">
       <c r="A17" s="44" t="s">
         <v>53</v>
       </c>
@@ -3597,7 +3592,7 @@
       <c r="G17" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="86" t="s">
+      <c r="H17" s="85" t="s">
         <v>164</v>
       </c>
       <c r="I17" s="30" t="s">
@@ -3639,7 +3634,7 @@
       </c>
       <c r="Z17" s="73"/>
     </row>
-    <row r="18" spans="1:26" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="27" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="44" t="s">
         <v>54</v>
       </c>
@@ -3661,7 +3656,7 @@
       <c r="G18" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="87" t="s">
+      <c r="H18" s="86" t="s">
         <v>169</v>
       </c>
       <c r="I18" s="30" t="s">
@@ -3697,7 +3692,7 @@
       <c r="Y18" s="34"/>
       <c r="Z18" s="73"/>
     </row>
-    <row r="19" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="27" customFormat="1">
       <c r="A19" s="44" t="s">
         <v>55</v>
       </c>
@@ -3710,7 +3705,7 @@
       <c r="D19" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="144" t="s">
+      <c r="E19" s="143" t="s">
         <v>173</v>
       </c>
       <c r="F19" s="35">
@@ -3719,7 +3714,7 @@
       <c r="G19" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="87" t="s">
+      <c r="H19" s="86" t="s">
         <v>174</v>
       </c>
       <c r="I19" s="30" t="s">
@@ -3745,7 +3740,7 @@
       <c r="Y19" s="34"/>
       <c r="Z19" s="73"/>
     </row>
-    <row r="20" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" s="27" customFormat="1">
       <c r="A20" s="44" t="s">
         <v>56</v>
       </c>
@@ -3758,7 +3753,7 @@
       <c r="D20" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="149" t="s">
+      <c r="E20" s="148" t="s">
         <v>190</v>
       </c>
       <c r="F20" s="35">
@@ -3767,7 +3762,7 @@
       <c r="G20" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="86" t="s">
+      <c r="H20" s="85" t="s">
         <v>175</v>
       </c>
       <c r="I20" s="30" t="s">
@@ -3803,7 +3798,7 @@
       <c r="Y20" s="34"/>
       <c r="Z20" s="73"/>
     </row>
-    <row r="21" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" s="27" customFormat="1">
       <c r="A21" s="44" t="s">
         <v>57</v>
       </c>
@@ -3816,7 +3811,7 @@
       <c r="D21" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="E21" s="149" t="s">
+      <c r="E21" s="148" t="s">
         <v>179</v>
       </c>
       <c r="F21" s="35">
@@ -3825,7 +3820,7 @@
       <c r="G21" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="86" t="s">
+      <c r="H21" s="85" t="s">
         <v>180</v>
       </c>
       <c r="I21" s="30" t="s">
@@ -3863,7 +3858,7 @@
       <c r="Y21" s="34"/>
       <c r="Z21" s="73"/>
     </row>
-    <row r="22" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" s="27" customFormat="1">
       <c r="A22" s="44" t="s">
         <v>58</v>
       </c>
@@ -3885,7 +3880,7 @@
       <c r="G22" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="H22" s="88" t="s">
+      <c r="H22" s="87" t="s">
         <v>187</v>
       </c>
       <c r="I22" s="30" t="s">
@@ -3923,7 +3918,7 @@
       <c r="Y22" s="34"/>
       <c r="Z22" s="73"/>
     </row>
-    <row r="23" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="44" t="s">
         <v>59</v>
       </c>
@@ -3936,7 +3931,7 @@
       <c r="D23" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="149" t="s">
+      <c r="E23" s="148" t="s">
         <v>190</v>
       </c>
       <c r="F23" s="35">
@@ -3945,7 +3940,7 @@
       <c r="G23" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="89" t="s">
+      <c r="H23" s="88" t="s">
         <v>191</v>
       </c>
       <c r="I23" s="30" t="s">
@@ -3985,7 +3980,7 @@
       <c r="Y23" s="34"/>
       <c r="Z23" s="73"/>
     </row>
-    <row r="24" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="44" t="s">
         <v>60</v>
       </c>
@@ -3998,7 +3993,7 @@
       <c r="D24" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="149" t="s">
+      <c r="E24" s="148" t="s">
         <v>190</v>
       </c>
       <c r="F24" s="35">
@@ -4047,7 +4042,7 @@
       <c r="Y24" s="34"/>
       <c r="Z24" s="73"/>
     </row>
-    <row r="25" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" s="27" customFormat="1">
       <c r="A25" s="44" t="s">
         <v>61</v>
       </c>
@@ -4060,7 +4055,7 @@
       <c r="D25" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="149" t="s">
+      <c r="E25" s="148" t="s">
         <v>201</v>
       </c>
       <c r="F25" s="35">
@@ -4101,7 +4096,7 @@
       <c r="Y25" s="34"/>
       <c r="Z25" s="73"/>
     </row>
-    <row r="26" spans="1:26" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" s="27" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="44" t="s">
         <v>62</v>
       </c>
@@ -4114,7 +4109,7 @@
       <c r="D26" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="149" t="s">
+      <c r="E26" s="148" t="s">
         <v>207</v>
       </c>
       <c r="F26" s="35">
@@ -4163,7 +4158,7 @@
       <c r="Y26" s="34"/>
       <c r="Z26" s="73"/>
     </row>
-    <row r="27" spans="1:26" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="27" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="44" t="s">
         <v>63</v>
       </c>
@@ -4176,7 +4171,7 @@
       <c r="D27" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="150" t="s">
+      <c r="E27" s="149" t="s">
         <v>173</v>
       </c>
       <c r="F27" s="35">
@@ -4221,69 +4216,69 @@
       <c r="Y27" s="34"/>
       <c r="Z27" s="73"/>
     </row>
-    <row r="28" spans="1:26" s="173" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="154" t="s">
+    <row r="28" spans="1:26" s="172" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="174">
+      <c r="B28" s="173">
         <v>364</v>
       </c>
-      <c r="C28" s="175" t="s">
+      <c r="C28" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="176" t="s">
+      <c r="D28" s="175" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="177" t="s">
+      <c r="E28" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="178">
+      <c r="F28" s="177">
         <v>42807.625</v>
       </c>
-      <c r="G28" s="179" t="s">
+      <c r="G28" s="178" t="s">
         <v>105</v>
       </c>
-      <c r="H28" s="180" t="s">
+      <c r="H28" s="179" t="s">
         <v>210</v>
       </c>
-      <c r="I28" s="175" t="s">
+      <c r="I28" s="174" t="s">
         <v>211</v>
       </c>
-      <c r="J28" s="181"/>
-      <c r="K28" s="181" t="s">
+      <c r="J28" s="180"/>
+      <c r="K28" s="180" t="s">
         <v>212</v>
       </c>
-      <c r="L28" s="181"/>
-      <c r="M28" s="175" t="s">
+      <c r="L28" s="180"/>
+      <c r="M28" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="N28" s="181"/>
-      <c r="O28" s="175" t="s">
+      <c r="N28" s="180"/>
+      <c r="O28" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="P28" s="175" t="s">
+      <c r="P28" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="Q28" s="175"/>
-      <c r="R28" s="178"/>
-      <c r="S28" s="182" t="s">
+      <c r="Q28" s="174"/>
+      <c r="R28" s="177"/>
+      <c r="S28" s="181" t="s">
         <v>110</v>
       </c>
-      <c r="T28" s="178"/>
-      <c r="U28" s="183"/>
-      <c r="V28" s="184" t="s">
+      <c r="T28" s="177"/>
+      <c r="U28" s="182"/>
+      <c r="V28" s="183" t="s">
         <v>172</v>
       </c>
-      <c r="W28" s="185"/>
-      <c r="X28" s="186"/>
-      <c r="Y28" s="187"/>
-      <c r="Z28" s="172"/>
-    </row>
-    <row r="29" spans="1:26" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W28" s="184"/>
+      <c r="X28" s="185"/>
+      <c r="Y28" s="186"/>
+      <c r="Z28" s="171"/>
+    </row>
+    <row r="29" spans="1:26" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="153" t="s">
+      <c r="B29" s="152" t="s">
         <v>213</v>
       </c>
       <c r="C29" s="30" t="s">
@@ -4292,7 +4287,7 @@
       <c r="D29" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="149" t="s">
+      <c r="E29" s="148" t="s">
         <v>114</v>
       </c>
       <c r="F29" s="35">
@@ -4337,7 +4332,7 @@
       <c r="Y29" s="34"/>
       <c r="Z29" s="73"/>
     </row>
-    <row r="30" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="44" t="s">
         <v>66</v>
       </c>
@@ -4350,7 +4345,7 @@
       <c r="D30" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="E30" s="151" t="s">
+      <c r="E30" s="150" t="s">
         <v>218</v>
       </c>
       <c r="F30" s="35">
@@ -4393,7 +4388,7 @@
       <c r="Y30" s="34"/>
       <c r="Z30" s="73"/>
     </row>
-    <row r="31" spans="1:26" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" s="27" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="44" t="s">
         <v>67</v>
       </c>
@@ -4406,7 +4401,7 @@
       <c r="D31" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="149" t="s">
+      <c r="E31" s="148" t="s">
         <v>173</v>
       </c>
       <c r="F31" s="35" t="s">
@@ -4451,7 +4446,7 @@
       <c r="Y31" s="34"/>
       <c r="Z31" s="73"/>
     </row>
-    <row r="32" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="44" t="s">
         <v>68</v>
       </c>
@@ -4461,10 +4456,10 @@
       <c r="C32" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="90" t="s">
+      <c r="D32" s="89" t="s">
         <v>221</v>
       </c>
-      <c r="E32" s="150" t="s">
+      <c r="E32" s="149" t="s">
         <v>120</v>
       </c>
       <c r="F32" s="35" t="s">
@@ -4509,65 +4504,65 @@
       <c r="Y32" s="34"/>
       <c r="Z32" s="73"/>
     </row>
-    <row r="33" spans="1:26" s="173" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="154" t="s">
+    <row r="33" spans="1:26" s="172" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="188" t="s">
+      <c r="B33" s="187" t="s">
         <v>225</v>
       </c>
-      <c r="C33" s="175" t="s">
+      <c r="C33" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="176" t="s">
+      <c r="D33" s="175" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="177" t="s">
+      <c r="E33" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="178">
+      <c r="F33" s="177">
         <v>42809.342361111114</v>
       </c>
-      <c r="G33" s="179" t="s">
+      <c r="G33" s="178" t="s">
         <v>105</v>
       </c>
-      <c r="H33" s="180" t="s">
+      <c r="H33" s="179" t="s">
         <v>226</v>
       </c>
-      <c r="I33" s="175" t="s">
+      <c r="I33" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="J33" s="181"/>
-      <c r="K33" s="181" t="s">
+      <c r="J33" s="180"/>
+      <c r="K33" s="180" t="s">
         <v>227</v>
       </c>
-      <c r="L33" s="181"/>
-      <c r="M33" s="175" t="s">
+      <c r="L33" s="180"/>
+      <c r="M33" s="174" t="s">
         <v>216</v>
       </c>
-      <c r="N33" s="181"/>
-      <c r="O33" s="175" t="s">
+      <c r="N33" s="180"/>
+      <c r="O33" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="P33" s="175" t="s">
+      <c r="P33" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="Q33" s="175"/>
-      <c r="R33" s="178"/>
-      <c r="S33" s="182" t="s">
+      <c r="Q33" s="174"/>
+      <c r="R33" s="177"/>
+      <c r="S33" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="T33" s="178"/>
-      <c r="U33" s="183"/>
-      <c r="V33" s="185" t="s">
+      <c r="T33" s="177"/>
+      <c r="U33" s="182"/>
+      <c r="V33" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="W33" s="185"/>
-      <c r="X33" s="186"/>
-      <c r="Y33" s="187"/>
-      <c r="Z33" s="172"/>
-    </row>
-    <row r="34" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W33" s="184"/>
+      <c r="X33" s="185"/>
+      <c r="Y33" s="186"/>
+      <c r="Z33" s="171"/>
+    </row>
+    <row r="34" spans="1:26" s="27" customFormat="1">
       <c r="A34" s="44" t="s">
         <v>70</v>
       </c>
@@ -4580,7 +4575,7 @@
       <c r="D34" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="150" t="s">
+      <c r="E34" s="149" t="s">
         <v>173</v>
       </c>
       <c r="F34" s="35">
@@ -4613,7 +4608,7 @@
       <c r="S34" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="T34" s="85"/>
+      <c r="T34" s="84"/>
       <c r="U34" s="36"/>
       <c r="V34" s="32" t="s">
         <v>31</v>
@@ -4623,7 +4618,7 @@
       <c r="Y34" s="34"/>
       <c r="Z34" s="73"/>
     </row>
-    <row r="35" spans="1:26" s="27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" s="27" customFormat="1" ht="18.75" customHeight="1">
       <c r="A35" s="44" t="s">
         <v>71</v>
       </c>
@@ -4636,7 +4631,7 @@
       <c r="D35" s="76" t="s">
         <v>229</v>
       </c>
-      <c r="E35" s="150" t="s">
+      <c r="E35" s="149" t="s">
         <v>230</v>
       </c>
       <c r="F35" s="35">
@@ -4681,65 +4676,65 @@
       <c r="Y35" s="34"/>
       <c r="Z35" s="73"/>
     </row>
-    <row r="36" spans="1:26" s="204" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="189" t="s">
+    <row r="36" spans="1:26" s="203" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A36" s="188" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="190" t="s">
+      <c r="B36" s="189" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="191" t="s">
+      <c r="C36" s="190" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="192" t="s">
+      <c r="D36" s="191" t="s">
         <v>233</v>
       </c>
-      <c r="E36" s="193" t="s">
+      <c r="E36" s="192" t="s">
         <v>234</v>
       </c>
-      <c r="F36" s="194" t="s">
+      <c r="F36" s="193" t="s">
         <v>235</v>
       </c>
-      <c r="G36" s="195" t="s">
+      <c r="G36" s="194" t="s">
         <v>105</v>
       </c>
-      <c r="H36" s="196" t="s">
+      <c r="H36" s="195" t="s">
         <v>236</v>
       </c>
-      <c r="I36" s="191" t="s">
+      <c r="I36" s="190" t="s">
         <v>237</v>
       </c>
-      <c r="J36" s="197"/>
-      <c r="K36" s="197" t="s">
+      <c r="J36" s="196"/>
+      <c r="K36" s="196" t="s">
         <v>238</v>
       </c>
-      <c r="L36" s="197"/>
-      <c r="M36" s="191" t="s">
+      <c r="L36" s="196"/>
+      <c r="M36" s="190" t="s">
         <v>120</v>
       </c>
-      <c r="N36" s="197"/>
-      <c r="O36" s="191" t="s">
+      <c r="N36" s="196"/>
+      <c r="O36" s="190" t="s">
         <v>152</v>
       </c>
-      <c r="P36" s="191" t="s">
+      <c r="P36" s="190" t="s">
         <v>36</v>
       </c>
-      <c r="Q36" s="191"/>
-      <c r="R36" s="194"/>
-      <c r="S36" s="198" t="s">
+      <c r="Q36" s="190"/>
+      <c r="R36" s="193"/>
+      <c r="S36" s="197" t="s">
         <v>110</v>
       </c>
-      <c r="T36" s="194"/>
-      <c r="U36" s="199"/>
-      <c r="V36" s="200" t="s">
+      <c r="T36" s="193"/>
+      <c r="U36" s="198"/>
+      <c r="V36" s="199" t="s">
         <v>31</v>
       </c>
-      <c r="W36" s="200"/>
-      <c r="X36" s="201"/>
-      <c r="Y36" s="202"/>
-      <c r="Z36" s="203"/>
-    </row>
-    <row r="37" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W36" s="199"/>
+      <c r="X36" s="200"/>
+      <c r="Y36" s="201"/>
+      <c r="Z36" s="202"/>
+    </row>
+    <row r="37" spans="1:26" s="27" customFormat="1">
       <c r="A37" s="44" t="s">
         <v>73</v>
       </c>
@@ -4752,7 +4747,7 @@
       <c r="D37" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="150" t="s">
+      <c r="E37" s="149" t="s">
         <v>173</v>
       </c>
       <c r="F37" s="35" t="s">
@@ -4795,7 +4790,7 @@
       <c r="Y37" s="34"/>
       <c r="Z37" s="73"/>
     </row>
-    <row r="38" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="44" t="s">
         <v>74</v>
       </c>
@@ -4805,10 +4800,10 @@
       <c r="C38" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="90" t="s">
+      <c r="D38" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="E38" s="150" t="s">
+      <c r="E38" s="149" t="s">
         <v>234</v>
       </c>
       <c r="F38" s="35" t="s">
@@ -4853,7 +4848,7 @@
       <c r="Y38" s="34"/>
       <c r="Z38" s="73"/>
     </row>
-    <row r="39" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="44" t="s">
         <v>75</v>
       </c>
@@ -4866,7 +4861,7 @@
       <c r="D39" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="E39" s="150" t="s">
+      <c r="E39" s="149" t="s">
         <v>120</v>
       </c>
       <c r="F39" s="35">
@@ -4911,7 +4906,7 @@
       <c r="Y39" s="34"/>
       <c r="Z39" s="73"/>
     </row>
-    <row r="40" spans="1:26" s="27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" s="27" customFormat="1" ht="18.75" customHeight="1">
       <c r="A40" s="44" t="s">
         <v>76</v>
       </c>
@@ -4921,10 +4916,10 @@
       <c r="C40" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="90" t="s">
+      <c r="D40" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="150" t="s">
+      <c r="E40" s="149" t="s">
         <v>244</v>
       </c>
       <c r="F40" s="35" t="s">
@@ -4967,123 +4962,123 @@
       <c r="Y40" s="34"/>
       <c r="Z40" s="73"/>
     </row>
-    <row r="41" spans="1:26" s="204" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="189" t="s">
+    <row r="41" spans="1:26" s="203" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="188" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="190" t="s">
+      <c r="B41" s="189" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="191" t="s">
+      <c r="C41" s="190" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="205" t="s">
+      <c r="D41" s="204" t="s">
         <v>229</v>
       </c>
-      <c r="E41" s="193" t="s">
+      <c r="E41" s="192" t="s">
         <v>248</v>
       </c>
-      <c r="F41" s="194" t="s">
+      <c r="F41" s="193" t="s">
         <v>249</v>
       </c>
-      <c r="G41" s="195" t="s">
+      <c r="G41" s="194" t="s">
         <v>105</v>
       </c>
-      <c r="H41" s="196" t="s">
+      <c r="H41" s="195" t="s">
         <v>250</v>
       </c>
-      <c r="I41" s="191" t="s">
+      <c r="I41" s="190" t="s">
         <v>125</v>
       </c>
-      <c r="J41" s="197"/>
-      <c r="K41" s="197" t="s">
+      <c r="J41" s="196"/>
+      <c r="K41" s="196" t="s">
         <v>251</v>
       </c>
-      <c r="L41" s="197"/>
-      <c r="M41" s="191" t="s">
+      <c r="L41" s="196"/>
+      <c r="M41" s="190" t="s">
         <v>194</v>
       </c>
-      <c r="N41" s="197"/>
-      <c r="O41" s="191" t="s">
+      <c r="N41" s="196"/>
+      <c r="O41" s="190" t="s">
         <v>152</v>
       </c>
-      <c r="P41" s="191" t="s">
+      <c r="P41" s="190" t="s">
         <v>36</v>
       </c>
-      <c r="Q41" s="191"/>
-      <c r="R41" s="206"/>
-      <c r="S41" s="198" t="s">
+      <c r="Q41" s="190"/>
+      <c r="R41" s="205"/>
+      <c r="S41" s="197" t="s">
         <v>110</v>
       </c>
-      <c r="T41" s="194"/>
-      <c r="U41" s="199"/>
+      <c r="T41" s="193"/>
+      <c r="U41" s="198"/>
       <c r="V41" t="s">
         <v>31</v>
       </c>
-      <c r="W41" s="200"/>
-      <c r="X41" s="201"/>
-      <c r="Y41" s="202"/>
-      <c r="Z41" s="203"/>
-    </row>
-    <row r="42" spans="1:26" s="204" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="189" t="s">
+      <c r="W41" s="199"/>
+      <c r="X41" s="200"/>
+      <c r="Y41" s="201"/>
+      <c r="Z41" s="202"/>
+    </row>
+    <row r="42" spans="1:26" s="203" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A42" s="188" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="190" t="s">
+      <c r="B42" s="189" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="191" t="s">
+      <c r="C42" s="190" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="205" t="s">
+      <c r="D42" s="204" t="s">
         <v>233</v>
       </c>
-      <c r="E42" s="193" t="s">
+      <c r="E42" s="192" t="s">
         <v>234</v>
       </c>
-      <c r="F42" s="194" t="s">
+      <c r="F42" s="193" t="s">
         <v>249</v>
       </c>
-      <c r="G42" s="195" t="s">
+      <c r="G42" s="194" t="s">
         <v>105</v>
       </c>
-      <c r="H42" s="196" t="s">
+      <c r="H42" s="195" t="s">
         <v>252</v>
       </c>
-      <c r="I42" s="191" t="s">
+      <c r="I42" s="190" t="s">
         <v>125</v>
       </c>
-      <c r="J42" s="197"/>
-      <c r="K42" s="197" t="s">
+      <c r="J42" s="196"/>
+      <c r="K42" s="196" t="s">
         <v>253</v>
       </c>
-      <c r="L42" s="197"/>
-      <c r="M42" s="191" t="s">
+      <c r="L42" s="196"/>
+      <c r="M42" s="190" t="s">
         <v>182</v>
       </c>
-      <c r="N42" s="197"/>
-      <c r="O42" s="191" t="s">
+      <c r="N42" s="196"/>
+      <c r="O42" s="190" t="s">
         <v>152</v>
       </c>
-      <c r="P42" s="191" t="s">
+      <c r="P42" s="190" t="s">
         <v>36</v>
       </c>
-      <c r="Q42" s="191"/>
-      <c r="R42" s="206"/>
-      <c r="S42" s="198" t="s">
+      <c r="Q42" s="190"/>
+      <c r="R42" s="205"/>
+      <c r="S42" s="197" t="s">
         <v>110</v>
       </c>
-      <c r="T42" s="194"/>
-      <c r="U42" s="199"/>
+      <c r="T42" s="193"/>
+      <c r="U42" s="198"/>
       <c r="V42" t="s">
         <v>31</v>
       </c>
-      <c r="W42" s="200"/>
-      <c r="X42" s="201"/>
-      <c r="Y42" s="202"/>
-      <c r="Z42" s="203"/>
-    </row>
-    <row r="43" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W42" s="199"/>
+      <c r="X42" s="200"/>
+      <c r="Y42" s="201"/>
+      <c r="Z42" s="202"/>
+    </row>
+    <row r="43" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="44" t="s">
         <v>79</v>
       </c>
@@ -5093,10 +5088,10 @@
       <c r="C43" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="90" t="s">
+      <c r="D43" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="150" t="s">
+      <c r="E43" s="149" t="s">
         <v>114</v>
       </c>
       <c r="F43" s="35">
@@ -5141,7 +5136,7 @@
       <c r="Y43" s="34"/>
       <c r="Z43" s="73"/>
     </row>
-    <row r="44" spans="1:26" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" s="27" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="44" t="s">
         <v>80</v>
       </c>
@@ -5151,10 +5146,10 @@
       <c r="C44" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="90" t="s">
+      <c r="D44" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="E44" s="150" t="s">
+      <c r="E44" s="149" t="s">
         <v>114</v>
       </c>
       <c r="F44" s="35">
@@ -5199,7 +5194,7 @@
       <c r="Y44" s="34"/>
       <c r="Z44" s="73"/>
     </row>
-    <row r="45" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="44" t="s">
         <v>81</v>
       </c>
@@ -5212,10 +5207,10 @@
       <c r="D45" s="76" t="s">
         <v>259</v>
       </c>
-      <c r="E45" s="207" t="s">
+      <c r="E45" s="206" t="s">
         <v>260</v>
       </c>
-      <c r="F45" s="194" t="s">
+      <c r="F45" s="193" t="s">
         <v>261</v>
       </c>
       <c r="G45" s="52" t="s">
@@ -5257,7 +5252,7 @@
       <c r="Y45" s="34"/>
       <c r="Z45" s="73"/>
     </row>
-    <row r="46" spans="1:26" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" s="27" customFormat="1" ht="17.25" customHeight="1">
       <c r="A46" s="44" t="s">
         <v>82</v>
       </c>
@@ -5267,13 +5262,13 @@
       <c r="C46" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="90" t="s">
+      <c r="D46" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="150" t="s">
+      <c r="E46" s="149" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="194" t="s">
+      <c r="F46" s="193" t="s">
         <v>267</v>
       </c>
       <c r="G46" s="52" t="s">
@@ -5315,7 +5310,7 @@
       <c r="Y46" s="34"/>
       <c r="Z46" s="73"/>
     </row>
-    <row r="47" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="44" t="s">
         <v>83</v>
       </c>
@@ -5328,7 +5323,7 @@
       <c r="D47" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="E47" s="150" t="s">
+      <c r="E47" s="149" t="s">
         <v>114</v>
       </c>
       <c r="F47" s="35">
@@ -5373,7 +5368,7 @@
       <c r="Y47" s="34"/>
       <c r="Z47" s="73"/>
     </row>
-    <row r="48" spans="1:26" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A48" s="44" t="s">
         <v>84</v>
       </c>
@@ -5386,10 +5381,10 @@
       <c r="D48" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="E48" s="150" t="s">
+      <c r="E48" s="149" t="s">
         <v>114</v>
       </c>
-      <c r="F48" s="194" t="s">
+      <c r="F48" s="193" t="s">
         <v>267</v>
       </c>
       <c r="G48" s="52" t="s">
@@ -5431,7 +5426,7 @@
       <c r="Y48" s="34"/>
       <c r="Z48" s="73"/>
     </row>
-    <row r="49" spans="1:26" s="27" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" s="27" customFormat="1" ht="23.25" customHeight="1">
       <c r="A49" s="44" t="s">
         <v>85</v>
       </c>
@@ -5444,7 +5439,7 @@
       <c r="D49" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="E49" s="150" t="s">
+      <c r="E49" s="149" t="s">
         <v>114</v>
       </c>
       <c r="F49" s="35">
@@ -5489,14 +5484,14 @@
       <c r="Y49" s="34"/>
       <c r="Z49" s="73"/>
     </row>
-    <row r="50" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" s="27" customFormat="1">
       <c r="A50" s="44" t="s">
         <v>86</v>
       </c>
       <c r="B50" s="49"/>
       <c r="C50" s="30"/>
       <c r="D50" s="76"/>
-      <c r="E50" s="150"/>
+      <c r="E50" s="149"/>
       <c r="F50" s="35"/>
       <c r="G50" s="52"/>
       <c r="H50" s="65"/>
@@ -5519,14 +5514,14 @@
       <c r="Y50" s="34"/>
       <c r="Z50" s="73"/>
     </row>
-    <row r="51" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" s="27" customFormat="1">
       <c r="A51" s="44" t="s">
         <v>87</v>
       </c>
       <c r="B51" s="49"/>
       <c r="C51" s="30"/>
       <c r="D51" s="76"/>
-      <c r="E51" s="150"/>
+      <c r="E51" s="149"/>
       <c r="F51" s="35"/>
       <c r="G51" s="52"/>
       <c r="H51" s="65"/>
@@ -5549,14 +5544,14 @@
       <c r="Y51" s="34"/>
       <c r="Z51" s="73"/>
     </row>
-    <row r="52" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" s="27" customFormat="1">
       <c r="A52" s="44" t="s">
         <v>88</v>
       </c>
       <c r="B52" s="49"/>
       <c r="C52" s="30"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="150"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="149"/>
       <c r="F52" s="35"/>
       <c r="G52" s="52"/>
       <c r="H52" s="65"/>
@@ -5579,17 +5574,17 @@
       <c r="Y52" s="34"/>
       <c r="Z52" s="73"/>
     </row>
-    <row r="53" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A53" s="44" t="s">
         <v>89</v>
       </c>
       <c r="B53" s="59"/>
       <c r="C53" s="44"/>
       <c r="D53" s="76"/>
-      <c r="E53" s="151"/>
+      <c r="E53" s="150"/>
       <c r="F53" s="43"/>
       <c r="G53" s="53"/>
-      <c r="H53" s="95"/>
+      <c r="H53" s="94"/>
       <c r="I53" s="44"/>
       <c r="J53" s="54"/>
       <c r="K53" s="54"/>
@@ -5604,22 +5599,22 @@
       <c r="T53" s="43"/>
       <c r="U53" s="54"/>
       <c r="V53" s="54"/>
-      <c r="W53" s="101"/>
+      <c r="W53" s="100"/>
       <c r="X53" s="57"/>
       <c r="Y53" s="58"/>
       <c r="Z53" s="73"/>
     </row>
-    <row r="54" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A54" s="44" t="s">
         <v>90</v>
       </c>
       <c r="B54" s="59"/>
       <c r="C54" s="44"/>
       <c r="D54" s="76"/>
-      <c r="E54" s="151"/>
+      <c r="E54" s="150"/>
       <c r="F54" s="43"/>
       <c r="G54" s="53"/>
-      <c r="H54" s="97"/>
+      <c r="H54" s="96"/>
       <c r="I54" s="44"/>
       <c r="J54" s="54"/>
       <c r="K54" s="54"/>
@@ -5634,22 +5629,22 @@
       <c r="T54" s="43"/>
       <c r="U54" s="54"/>
       <c r="V54" s="54"/>
-      <c r="W54" s="101"/>
+      <c r="W54" s="100"/>
       <c r="X54" s="57"/>
       <c r="Y54" s="58"/>
       <c r="Z54" s="73"/>
     </row>
-    <row r="55" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A55" s="44" t="s">
         <v>91</v>
       </c>
       <c r="B55" s="59"/>
       <c r="C55" s="44"/>
       <c r="D55" s="76"/>
-      <c r="E55" s="151"/>
+      <c r="E55" s="150"/>
       <c r="F55" s="43"/>
-      <c r="G55" s="93"/>
-      <c r="H55" s="97"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="96"/>
       <c r="I55" s="72"/>
       <c r="J55" s="54"/>
       <c r="K55" s="54"/>
@@ -5663,23 +5658,23 @@
       <c r="S55" s="41"/>
       <c r="T55" s="43"/>
       <c r="U55" s="54"/>
-      <c r="V55" s="102"/>
-      <c r="W55" s="101"/>
+      <c r="V55" s="101"/>
+      <c r="W55" s="100"/>
       <c r="X55" s="57"/>
       <c r="Y55" s="58"/>
       <c r="Z55" s="73"/>
     </row>
-    <row r="56" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A56" s="44" t="s">
         <v>92</v>
       </c>
       <c r="B56" s="59"/>
       <c r="C56" s="44"/>
       <c r="D56" s="76"/>
-      <c r="E56" s="151"/>
+      <c r="E56" s="150"/>
       <c r="F56" s="43"/>
-      <c r="G56" s="93"/>
-      <c r="H56" s="96"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="95"/>
       <c r="I56" s="72"/>
       <c r="J56" s="54"/>
       <c r="K56" s="54"/>
@@ -5694,22 +5689,22 @@
       <c r="T56" s="43"/>
       <c r="U56" s="54"/>
       <c r="V56" s="54"/>
-      <c r="W56" s="101"/>
+      <c r="W56" s="100"/>
       <c r="X56" s="57"/>
       <c r="Y56" s="58"/>
       <c r="Z56" s="73"/>
     </row>
-    <row r="57" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A57" s="44" t="s">
         <v>93</v>
       </c>
       <c r="B57" s="59"/>
       <c r="C57" s="44"/>
       <c r="D57" s="76"/>
-      <c r="E57" s="151"/>
+      <c r="E57" s="150"/>
       <c r="F57" s="43"/>
-      <c r="G57" s="93"/>
-      <c r="H57" s="97"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="96"/>
       <c r="I57" s="44"/>
       <c r="J57" s="54"/>
       <c r="K57" s="54"/>
@@ -5723,23 +5718,23 @@
       <c r="S57" s="41"/>
       <c r="T57" s="43"/>
       <c r="U57" s="54"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="101"/>
+      <c r="V57" s="102"/>
+      <c r="W57" s="100"/>
       <c r="X57" s="57"/>
       <c r="Y57" s="58"/>
       <c r="Z57" s="73"/>
     </row>
-    <row r="58" spans="1:26" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A58" s="44" t="s">
         <v>94</v>
       </c>
       <c r="B58" s="50"/>
       <c r="C58" s="44"/>
       <c r="D58" s="70"/>
-      <c r="E58" s="151"/>
+      <c r="E58" s="150"/>
       <c r="F58" s="43"/>
       <c r="G58" s="44"/>
-      <c r="H58" s="95"/>
+      <c r="H58" s="94"/>
       <c r="I58" s="44"/>
       <c r="J58" s="54"/>
       <c r="K58" s="54"/>
@@ -5754,28 +5749,28 @@
       <c r="T58" s="54"/>
       <c r="U58" s="54"/>
       <c r="V58" s="54"/>
-      <c r="W58" s="101"/>
+      <c r="W58" s="100"/>
       <c r="X58" s="57"/>
       <c r="Y58" s="58"/>
       <c r="Z58" s="73"/>
     </row>
-    <row r="59" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A59" s="44" t="s">
         <v>95</v>
       </c>
       <c r="B59" s="50"/>
       <c r="C59" s="44"/>
       <c r="D59" s="70"/>
-      <c r="E59" s="151"/>
+      <c r="E59" s="150"/>
       <c r="F59" s="43"/>
       <c r="G59" s="44"/>
-      <c r="H59" s="100"/>
+      <c r="H59" s="99"/>
       <c r="I59" s="44"/>
       <c r="J59" s="54"/>
       <c r="K59" s="54"/>
       <c r="L59" s="54"/>
       <c r="M59" s="44"/>
-      <c r="N59" s="95"/>
+      <c r="N59" s="94"/>
       <c r="O59" s="44"/>
       <c r="P59" s="44"/>
       <c r="Q59" s="44"/>
@@ -5784,22 +5779,22 @@
       <c r="T59" s="54"/>
       <c r="U59" s="54"/>
       <c r="V59" s="54"/>
-      <c r="W59" s="101"/>
+      <c r="W59" s="100"/>
       <c r="X59" s="57"/>
       <c r="Y59" s="58"/>
       <c r="Z59" s="73"/>
     </row>
-    <row r="60" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A60" s="44" t="s">
         <v>96</v>
       </c>
       <c r="B60" s="50"/>
       <c r="C60" s="44"/>
       <c r="D60" s="70"/>
-      <c r="E60" s="151"/>
+      <c r="E60" s="150"/>
       <c r="F60" s="43"/>
       <c r="G60" s="44"/>
-      <c r="H60" s="99"/>
+      <c r="H60" s="98"/>
       <c r="I60" s="44"/>
       <c r="J60" s="54"/>
       <c r="K60" s="54"/>
@@ -5814,22 +5809,22 @@
       <c r="T60" s="43"/>
       <c r="U60" s="54"/>
       <c r="V60" s="54"/>
-      <c r="W60" s="101"/>
+      <c r="W60" s="100"/>
       <c r="X60" s="57"/>
       <c r="Y60" s="58"/>
       <c r="Z60" s="73"/>
     </row>
-    <row r="61" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A61" s="44" t="s">
         <v>97</v>
       </c>
       <c r="B61" s="50"/>
       <c r="C61" s="44"/>
       <c r="D61" s="70"/>
-      <c r="E61" s="151"/>
+      <c r="E61" s="150"/>
       <c r="F61" s="43"/>
       <c r="G61" s="44"/>
-      <c r="H61" s="96"/>
+      <c r="H61" s="95"/>
       <c r="I61" s="44"/>
       <c r="J61" s="54"/>
       <c r="K61" s="54"/>
@@ -5844,22 +5839,22 @@
       <c r="T61" s="43"/>
       <c r="U61" s="54"/>
       <c r="V61" s="54"/>
-      <c r="W61" s="101"/>
+      <c r="W61" s="100"/>
       <c r="X61" s="57"/>
       <c r="Y61" s="58"/>
       <c r="Z61" s="73"/>
     </row>
-    <row r="62" spans="1:26" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A62" s="44" t="s">
         <v>98</v>
       </c>
       <c r="B62" s="50"/>
       <c r="C62" s="44"/>
       <c r="D62" s="70"/>
-      <c r="E62" s="151"/>
+      <c r="E62" s="150"/>
       <c r="F62" s="43"/>
       <c r="G62" s="44"/>
-      <c r="H62" s="99"/>
+      <c r="H62" s="98"/>
       <c r="I62" s="44"/>
       <c r="J62" s="54"/>
       <c r="K62" s="54"/>
@@ -5874,22 +5869,22 @@
       <c r="T62" s="43"/>
       <c r="U62" s="54"/>
       <c r="V62" s="54"/>
-      <c r="W62" s="101"/>
+      <c r="W62" s="100"/>
       <c r="X62" s="57"/>
       <c r="Y62" s="58"/>
       <c r="Z62" s="73"/>
     </row>
-    <row r="63" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A63" s="44" t="s">
         <v>99</v>
       </c>
       <c r="B63" s="50"/>
       <c r="C63" s="44"/>
       <c r="D63" s="76"/>
-      <c r="E63" s="151"/>
+      <c r="E63" s="150"/>
       <c r="F63" s="43"/>
-      <c r="G63" s="93"/>
-      <c r="H63" s="97"/>
+      <c r="G63" s="92"/>
+      <c r="H63" s="96"/>
       <c r="I63" s="44"/>
       <c r="J63" s="54"/>
       <c r="K63" s="54"/>
@@ -5904,22 +5899,22 @@
       <c r="T63" s="54"/>
       <c r="U63" s="54"/>
       <c r="V63" s="54"/>
-      <c r="W63" s="101"/>
+      <c r="W63" s="100"/>
       <c r="X63" s="57"/>
       <c r="Y63" s="58"/>
       <c r="Z63" s="73"/>
     </row>
-    <row r="64" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A64" s="44" t="s">
         <v>100</v>
       </c>
       <c r="B64" s="50"/>
       <c r="C64" s="44"/>
       <c r="D64" s="70"/>
-      <c r="E64" s="151"/>
+      <c r="E64" s="150"/>
       <c r="F64" s="43"/>
       <c r="G64" s="44"/>
-      <c r="H64" s="98"/>
+      <c r="H64" s="97"/>
       <c r="I64" s="44"/>
       <c r="J64" s="54"/>
       <c r="K64" s="54"/>
@@ -5934,20 +5929,20 @@
       <c r="T64" s="54"/>
       <c r="U64" s="54"/>
       <c r="V64" s="54"/>
-      <c r="W64" s="101"/>
+      <c r="W64" s="100"/>
       <c r="X64" s="57"/>
       <c r="Y64" s="58"/>
       <c r="Z64" s="73"/>
     </row>
-    <row r="65" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A65" s="41"/>
       <c r="B65" s="50"/>
       <c r="C65" s="44"/>
       <c r="D65" s="76"/>
-      <c r="E65" s="151"/>
+      <c r="E65" s="150"/>
       <c r="F65" s="43"/>
-      <c r="G65" s="93"/>
-      <c r="H65" s="97"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="96"/>
       <c r="I65" s="44"/>
       <c r="J65" s="54"/>
       <c r="K65" s="54"/>
@@ -5962,20 +5957,20 @@
       <c r="T65" s="43"/>
       <c r="U65" s="54"/>
       <c r="V65" s="54"/>
-      <c r="W65" s="101"/>
+      <c r="W65" s="100"/>
       <c r="X65" s="57"/>
       <c r="Y65" s="58"/>
       <c r="Z65" s="73"/>
     </row>
-    <row r="66" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A66" s="41"/>
       <c r="B66" s="50"/>
       <c r="C66" s="44"/>
       <c r="D66" s="76"/>
-      <c r="E66" s="151"/>
+      <c r="E66" s="150"/>
       <c r="F66" s="43"/>
       <c r="G66" s="42"/>
-      <c r="H66" s="96"/>
+      <c r="H66" s="95"/>
       <c r="I66" s="44"/>
       <c r="J66" s="54"/>
       <c r="K66" s="54"/>
@@ -5990,20 +5985,20 @@
       <c r="T66" s="54"/>
       <c r="U66" s="54"/>
       <c r="V66" s="54"/>
-      <c r="W66" s="101"/>
+      <c r="W66" s="100"/>
       <c r="X66" s="57"/>
       <c r="Y66" s="58"/>
       <c r="Z66" s="73"/>
     </row>
-    <row r="67" spans="1:26" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" s="11" customFormat="1" ht="18" thickBot="1">
       <c r="A67" s="41"/>
       <c r="B67" s="50"/>
       <c r="C67" s="44"/>
       <c r="D67" s="76"/>
-      <c r="E67" s="151"/>
+      <c r="E67" s="150"/>
       <c r="F67" s="43"/>
       <c r="G67" s="42"/>
-      <c r="H67" s="95"/>
+      <c r="H67" s="94"/>
       <c r="I67" s="44"/>
       <c r="J67" s="54"/>
       <c r="K67" s="54"/>
@@ -6018,20 +6013,20 @@
       <c r="T67" s="43"/>
       <c r="U67" s="54"/>
       <c r="V67" s="54"/>
-      <c r="W67" s="101"/>
+      <c r="W67" s="100"/>
       <c r="X67" s="57"/>
       <c r="Y67" s="58"/>
       <c r="Z67" s="73"/>
     </row>
-    <row r="68" spans="1:26" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" s="11" customFormat="1" ht="18" thickBot="1">
       <c r="A68" s="41"/>
       <c r="B68" s="50"/>
       <c r="C68" s="44"/>
       <c r="D68" s="70"/>
-      <c r="E68" s="151"/>
+      <c r="E68" s="150"/>
       <c r="F68" s="43"/>
       <c r="G68" s="44"/>
-      <c r="H68" s="104"/>
+      <c r="H68" s="103"/>
       <c r="I68" s="44"/>
       <c r="J68" s="54"/>
       <c r="K68" s="54"/>
@@ -6046,20 +6041,20 @@
       <c r="T68" s="43"/>
       <c r="U68" s="54"/>
       <c r="V68" s="54"/>
-      <c r="W68" s="101"/>
+      <c r="W68" s="100"/>
       <c r="X68" s="57"/>
       <c r="Y68" s="58"/>
       <c r="Z68" s="73"/>
     </row>
-    <row r="69" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A69" s="41"/>
       <c r="B69" s="50"/>
       <c r="C69" s="44"/>
       <c r="D69" s="76"/>
-      <c r="E69" s="151"/>
+      <c r="E69" s="150"/>
       <c r="F69" s="43"/>
       <c r="G69" s="42"/>
-      <c r="H69" s="95"/>
+      <c r="H69" s="94"/>
       <c r="I69" s="44"/>
       <c r="J69" s="54"/>
       <c r="K69" s="54"/>
@@ -6074,20 +6069,20 @@
       <c r="T69" s="43"/>
       <c r="U69" s="54"/>
       <c r="V69" s="54"/>
-      <c r="W69" s="101"/>
+      <c r="W69" s="100"/>
       <c r="X69" s="57"/>
       <c r="Y69" s="58"/>
       <c r="Z69" s="73"/>
     </row>
-    <row r="70" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A70" s="41"/>
       <c r="B70" s="50"/>
       <c r="C70" s="44"/>
       <c r="D70" s="76"/>
-      <c r="E70" s="151"/>
+      <c r="E70" s="150"/>
       <c r="F70" s="43"/>
       <c r="G70" s="42"/>
-      <c r="H70" s="97"/>
+      <c r="H70" s="96"/>
       <c r="I70" s="44"/>
       <c r="J70" s="54"/>
       <c r="K70" s="54"/>
@@ -6102,20 +6097,20 @@
       <c r="T70" s="43"/>
       <c r="U70" s="54"/>
       <c r="V70" s="54"/>
-      <c r="W70" s="101"/>
+      <c r="W70" s="100"/>
       <c r="X70" s="57"/>
-      <c r="Y70" s="105"/>
-      <c r="Z70" s="92"/>
-    </row>
-    <row r="71" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Y70" s="104"/>
+      <c r="Z70" s="91"/>
+    </row>
+    <row r="71" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A71" s="41"/>
       <c r="B71" s="50"/>
       <c r="C71" s="44"/>
       <c r="D71" s="70"/>
-      <c r="E71" s="151"/>
+      <c r="E71" s="150"/>
       <c r="F71" s="43"/>
       <c r="G71" s="44"/>
-      <c r="H71" s="95"/>
+      <c r="H71" s="94"/>
       <c r="I71" s="44"/>
       <c r="J71" s="54"/>
       <c r="K71" s="54"/>
@@ -6130,20 +6125,20 @@
       <c r="T71" s="43"/>
       <c r="U71" s="54"/>
       <c r="V71" s="54"/>
-      <c r="W71" s="101"/>
+      <c r="W71" s="100"/>
       <c r="X71" s="57"/>
       <c r="Y71" s="58"/>
-      <c r="Z71" s="92"/>
-    </row>
-    <row r="72" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z71" s="91"/>
+    </row>
+    <row r="72" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A72" s="41"/>
       <c r="B72" s="50"/>
       <c r="C72" s="44"/>
       <c r="D72" s="70"/>
-      <c r="E72" s="151"/>
+      <c r="E72" s="150"/>
       <c r="F72" s="43"/>
       <c r="G72" s="44"/>
-      <c r="H72" s="97"/>
+      <c r="H72" s="96"/>
       <c r="I72" s="44"/>
       <c r="J72" s="54"/>
       <c r="K72" s="54"/>
@@ -6158,20 +6153,20 @@
       <c r="T72" s="43"/>
       <c r="U72" s="54"/>
       <c r="V72" s="54"/>
-      <c r="W72" s="101"/>
+      <c r="W72" s="100"/>
       <c r="X72" s="57"/>
       <c r="Y72" s="58"/>
-      <c r="Z72" s="92"/>
-    </row>
-    <row r="73" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z72" s="91"/>
+    </row>
+    <row r="73" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A73" s="41"/>
       <c r="B73" s="50"/>
       <c r="C73" s="44"/>
       <c r="D73" s="70"/>
-      <c r="E73" s="151"/>
+      <c r="E73" s="150"/>
       <c r="F73" s="43"/>
       <c r="G73" s="44"/>
-      <c r="H73" s="95"/>
+      <c r="H73" s="94"/>
       <c r="I73" s="44"/>
       <c r="J73" s="54"/>
       <c r="K73" s="54"/>
@@ -6186,20 +6181,20 @@
       <c r="T73" s="43"/>
       <c r="U73" s="54"/>
       <c r="V73" s="54"/>
-      <c r="W73" s="101"/>
+      <c r="W73" s="100"/>
       <c r="X73" s="57"/>
       <c r="Y73" s="58"/>
-      <c r="Z73" s="92"/>
-    </row>
-    <row r="74" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z73" s="91"/>
+    </row>
+    <row r="74" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A74" s="41"/>
       <c r="B74" s="50"/>
       <c r="C74" s="44"/>
       <c r="D74" s="70"/>
-      <c r="E74" s="151"/>
+      <c r="E74" s="150"/>
       <c r="F74" s="43"/>
       <c r="G74" s="44"/>
-      <c r="H74" s="97"/>
+      <c r="H74" s="96"/>
       <c r="I74" s="44"/>
       <c r="J74" s="54"/>
       <c r="K74" s="54"/>
@@ -6214,20 +6209,20 @@
       <c r="T74" s="54"/>
       <c r="U74" s="54"/>
       <c r="V74" s="54"/>
-      <c r="W74" s="101"/>
+      <c r="W74" s="100"/>
       <c r="X74" s="57"/>
       <c r="Y74" s="58"/>
-      <c r="Z74" s="92"/>
-    </row>
-    <row r="75" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z74" s="91"/>
+    </row>
+    <row r="75" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A75" s="41"/>
       <c r="B75" s="50"/>
       <c r="C75" s="44"/>
       <c r="D75" s="70"/>
-      <c r="E75" s="151"/>
+      <c r="E75" s="150"/>
       <c r="F75" s="43"/>
       <c r="G75" s="44"/>
-      <c r="H75" s="95"/>
+      <c r="H75" s="94"/>
       <c r="I75" s="44"/>
       <c r="J75" s="54"/>
       <c r="K75" s="54"/>
@@ -6242,20 +6237,20 @@
       <c r="T75" s="43"/>
       <c r="U75" s="54"/>
       <c r="V75" s="54"/>
-      <c r="W75" s="101"/>
+      <c r="W75" s="100"/>
       <c r="X75" s="57"/>
       <c r="Y75" s="58"/>
-      <c r="Z75" s="92"/>
-    </row>
-    <row r="76" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z75" s="91"/>
+    </row>
+    <row r="76" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A76" s="41"/>
       <c r="B76" s="50"/>
       <c r="C76" s="44"/>
       <c r="D76" s="76"/>
-      <c r="E76" s="151"/>
+      <c r="E76" s="150"/>
       <c r="F76" s="43"/>
       <c r="G76" s="42"/>
-      <c r="H76" s="97"/>
+      <c r="H76" s="96"/>
       <c r="I76" s="44"/>
       <c r="J76" s="54"/>
       <c r="K76" s="54"/>
@@ -6270,20 +6265,20 @@
       <c r="T76" s="54"/>
       <c r="U76" s="54"/>
       <c r="V76" s="54"/>
-      <c r="W76" s="101"/>
+      <c r="W76" s="100"/>
       <c r="X76" s="57"/>
       <c r="Y76" s="58"/>
-      <c r="Z76" s="92"/>
-    </row>
-    <row r="77" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z76" s="91"/>
+    </row>
+    <row r="77" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A77" s="41"/>
       <c r="B77" s="50"/>
       <c r="C77" s="44"/>
       <c r="D77" s="70"/>
-      <c r="E77" s="151"/>
+      <c r="E77" s="150"/>
       <c r="F77" s="43"/>
       <c r="G77" s="44"/>
-      <c r="H77" s="97"/>
+      <c r="H77" s="96"/>
       <c r="I77" s="44"/>
       <c r="J77" s="54"/>
       <c r="K77" s="54"/>
@@ -6298,20 +6293,20 @@
       <c r="T77" s="54"/>
       <c r="U77" s="54"/>
       <c r="V77" s="54"/>
-      <c r="W77" s="101"/>
+      <c r="W77" s="100"/>
       <c r="X77" s="57"/>
       <c r="Y77" s="58"/>
-      <c r="Z77" s="92"/>
-    </row>
-    <row r="78" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z77" s="91"/>
+    </row>
+    <row r="78" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A78" s="41"/>
       <c r="B78" s="50"/>
       <c r="C78" s="44"/>
       <c r="D78" s="70"/>
-      <c r="E78" s="151"/>
+      <c r="E78" s="150"/>
       <c r="F78" s="43"/>
       <c r="G78" s="44"/>
-      <c r="H78" s="96"/>
+      <c r="H78" s="95"/>
       <c r="I78" s="44"/>
       <c r="J78" s="54"/>
       <c r="K78" s="54"/>
@@ -6326,20 +6321,20 @@
       <c r="T78" s="43"/>
       <c r="U78" s="54"/>
       <c r="V78" s="54"/>
-      <c r="W78" s="101"/>
+      <c r="W78" s="100"/>
       <c r="X78" s="57"/>
       <c r="Y78" s="58"/>
-      <c r="Z78" s="92"/>
-    </row>
-    <row r="79" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z78" s="91"/>
+    </row>
+    <row r="79" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A79" s="41"/>
       <c r="B79" s="50"/>
       <c r="C79" s="44"/>
       <c r="D79" s="76"/>
-      <c r="E79" s="151"/>
+      <c r="E79" s="150"/>
       <c r="F79" s="43"/>
       <c r="G79" s="42"/>
-      <c r="H79" s="95"/>
+      <c r="H79" s="94"/>
       <c r="I79" s="44"/>
       <c r="J79" s="54"/>
       <c r="K79" s="54"/>
@@ -6354,20 +6349,20 @@
       <c r="T79" s="54"/>
       <c r="U79" s="54"/>
       <c r="V79" s="54"/>
-      <c r="W79" s="101"/>
+      <c r="W79" s="100"/>
       <c r="X79" s="57"/>
       <c r="Y79" s="58"/>
-      <c r="Z79" s="92"/>
-    </row>
-    <row r="80" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z79" s="91"/>
+    </row>
+    <row r="80" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A80" s="41"/>
       <c r="B80" s="50"/>
       <c r="C80" s="44"/>
       <c r="D80" s="76"/>
-      <c r="E80" s="151"/>
+      <c r="E80" s="150"/>
       <c r="F80" s="43"/>
       <c r="G80" s="42"/>
-      <c r="H80" s="97"/>
+      <c r="H80" s="96"/>
       <c r="I80" s="44"/>
       <c r="J80" s="54"/>
       <c r="K80" s="54"/>
@@ -6382,20 +6377,20 @@
       <c r="T80" s="43"/>
       <c r="U80" s="54"/>
       <c r="V80" s="54"/>
-      <c r="W80" s="101"/>
+      <c r="W80" s="100"/>
       <c r="X80" s="57"/>
       <c r="Y80" s="58"/>
-      <c r="Z80" s="92"/>
-    </row>
-    <row r="81" spans="1:26" s="11" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z80" s="91"/>
+    </row>
+    <row r="81" spans="1:26" s="11" customFormat="1" ht="78" customHeight="1">
       <c r="A81" s="41"/>
       <c r="B81" s="50"/>
       <c r="C81" s="44"/>
       <c r="D81" s="70"/>
-      <c r="E81" s="151"/>
+      <c r="E81" s="150"/>
       <c r="F81" s="43"/>
       <c r="G81" s="44"/>
-      <c r="H81" s="96"/>
+      <c r="H81" s="95"/>
       <c r="I81" s="44"/>
       <c r="J81" s="54"/>
       <c r="K81" s="54"/>
@@ -6410,20 +6405,20 @@
       <c r="T81" s="43"/>
       <c r="U81" s="54"/>
       <c r="V81" s="54"/>
-      <c r="W81" s="101"/>
+      <c r="W81" s="100"/>
       <c r="X81" s="57"/>
       <c r="Y81" s="58"/>
-      <c r="Z81" s="92"/>
-    </row>
-    <row r="82" spans="1:26" s="11" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z81" s="91"/>
+    </row>
+    <row r="82" spans="1:26" s="11" customFormat="1" ht="78" customHeight="1">
       <c r="A82" s="41"/>
       <c r="B82" s="50"/>
       <c r="C82" s="44"/>
       <c r="D82" s="70"/>
-      <c r="E82" s="151"/>
+      <c r="E82" s="150"/>
       <c r="F82" s="43"/>
       <c r="G82" s="44"/>
-      <c r="H82" s="94"/>
+      <c r="H82" s="93"/>
       <c r="I82" s="44"/>
       <c r="J82" s="54"/>
       <c r="K82" s="54"/>
@@ -6438,20 +6433,20 @@
       <c r="T82" s="54"/>
       <c r="U82" s="54"/>
       <c r="V82" s="54"/>
-      <c r="W82" s="101"/>
+      <c r="W82" s="100"/>
       <c r="X82" s="57"/>
       <c r="Y82" s="58"/>
-      <c r="Z82" s="92"/>
-    </row>
-    <row r="83" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z82" s="91"/>
+    </row>
+    <row r="83" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A83" s="41"/>
       <c r="B83" s="50"/>
       <c r="C83" s="44"/>
       <c r="D83" s="76"/>
-      <c r="E83" s="151"/>
+      <c r="E83" s="150"/>
       <c r="F83" s="43"/>
       <c r="G83" s="42"/>
-      <c r="H83" s="95"/>
+      <c r="H83" s="94"/>
       <c r="I83" s="44"/>
       <c r="J83" s="54"/>
       <c r="K83" s="54"/>
@@ -6466,20 +6461,20 @@
       <c r="T83" s="54"/>
       <c r="U83" s="54"/>
       <c r="V83" s="54"/>
-      <c r="W83" s="101"/>
+      <c r="W83" s="100"/>
       <c r="X83" s="57"/>
       <c r="Y83" s="58"/>
-      <c r="Z83" s="92"/>
-    </row>
-    <row r="84" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z83" s="91"/>
+    </row>
+    <row r="84" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A84" s="41"/>
       <c r="B84" s="50"/>
       <c r="C84" s="44"/>
       <c r="D84" s="70"/>
-      <c r="E84" s="151"/>
+      <c r="E84" s="150"/>
       <c r="F84" s="43"/>
       <c r="G84" s="44"/>
-      <c r="H84" s="97"/>
+      <c r="H84" s="96"/>
       <c r="I84" s="44"/>
       <c r="J84" s="54"/>
       <c r="K84" s="54"/>
@@ -6494,20 +6489,20 @@
       <c r="T84" s="54"/>
       <c r="U84" s="54"/>
       <c r="V84" s="54"/>
-      <c r="W84" s="101"/>
+      <c r="W84" s="100"/>
       <c r="X84" s="57"/>
       <c r="Y84" s="58"/>
-      <c r="Z84" s="92"/>
-    </row>
-    <row r="85" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z84" s="91"/>
+    </row>
+    <row r="85" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A85" s="41"/>
       <c r="B85" s="50"/>
       <c r="C85" s="44"/>
       <c r="D85" s="76"/>
-      <c r="E85" s="151"/>
+      <c r="E85" s="150"/>
       <c r="F85" s="43"/>
       <c r="G85" s="42"/>
-      <c r="H85" s="95"/>
+      <c r="H85" s="94"/>
       <c r="I85" s="44"/>
       <c r="J85" s="54"/>
       <c r="K85" s="54"/>
@@ -6522,20 +6517,20 @@
       <c r="T85" s="43"/>
       <c r="U85" s="54"/>
       <c r="V85" s="54"/>
-      <c r="W85" s="101"/>
+      <c r="W85" s="100"/>
       <c r="X85" s="57"/>
       <c r="Y85" s="58"/>
-      <c r="Z85" s="92"/>
-    </row>
-    <row r="86" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z85" s="91"/>
+    </row>
+    <row r="86" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A86" s="41"/>
       <c r="B86" s="50"/>
       <c r="C86" s="44"/>
       <c r="D86" s="70"/>
-      <c r="E86" s="151"/>
+      <c r="E86" s="150"/>
       <c r="F86" s="43"/>
       <c r="G86" s="44"/>
-      <c r="H86" s="106"/>
+      <c r="H86" s="105"/>
       <c r="I86" s="44"/>
       <c r="J86" s="54"/>
       <c r="K86" s="54"/>
@@ -6550,20 +6545,20 @@
       <c r="T86" s="54"/>
       <c r="U86" s="54"/>
       <c r="V86" s="54"/>
-      <c r="W86" s="101"/>
+      <c r="W86" s="100"/>
       <c r="X86" s="57"/>
       <c r="Y86" s="58"/>
-      <c r="Z86" s="92"/>
-    </row>
-    <row r="87" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z86" s="91"/>
+    </row>
+    <row r="87" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A87" s="41"/>
       <c r="B87" s="50"/>
       <c r="C87" s="44"/>
       <c r="D87" s="70"/>
-      <c r="E87" s="151"/>
+      <c r="E87" s="150"/>
       <c r="F87" s="43"/>
       <c r="G87" s="44"/>
-      <c r="H87" s="95"/>
+      <c r="H87" s="94"/>
       <c r="I87" s="44"/>
       <c r="J87" s="54"/>
       <c r="K87" s="54"/>
@@ -6578,17 +6573,17 @@
       <c r="T87" s="54"/>
       <c r="U87" s="54"/>
       <c r="V87" s="54"/>
-      <c r="W87" s="101"/>
+      <c r="W87" s="100"/>
       <c r="X87" s="57"/>
       <c r="Y87" s="58"/>
-      <c r="Z87" s="92"/>
-    </row>
-    <row r="88" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z87" s="91"/>
+    </row>
+    <row r="88" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A88" s="44"/>
       <c r="B88" s="50"/>
       <c r="C88" s="44"/>
       <c r="D88" s="76"/>
-      <c r="E88" s="151"/>
+      <c r="E88" s="150"/>
       <c r="F88" s="43"/>
       <c r="G88" s="42"/>
       <c r="H88" s="65"/>
@@ -6606,17 +6601,17 @@
       <c r="T88" s="43"/>
       <c r="U88" s="54"/>
       <c r="V88" s="54"/>
-      <c r="W88" s="101"/>
+      <c r="W88" s="100"/>
       <c r="X88" s="57"/>
       <c r="Y88" s="58"/>
-      <c r="Z88" s="92"/>
-    </row>
-    <row r="89" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z88" s="91"/>
+    </row>
+    <row r="89" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A89" s="44"/>
       <c r="B89" s="50"/>
       <c r="C89" s="44"/>
       <c r="D89" s="76"/>
-      <c r="E89" s="151"/>
+      <c r="E89" s="150"/>
       <c r="F89" s="43"/>
       <c r="G89" s="42"/>
       <c r="H89" s="65"/>
@@ -6634,17 +6629,17 @@
       <c r="T89" s="54"/>
       <c r="U89" s="54"/>
       <c r="V89" s="54"/>
-      <c r="W89" s="101"/>
+      <c r="W89" s="100"/>
       <c r="X89" s="57"/>
       <c r="Y89" s="58"/>
-      <c r="Z89" s="92"/>
-    </row>
-    <row r="90" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z89" s="91"/>
+    </row>
+    <row r="90" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A90" s="41"/>
       <c r="B90" s="50"/>
       <c r="C90" s="44"/>
       <c r="D90" s="76"/>
-      <c r="E90" s="151"/>
+      <c r="E90" s="150"/>
       <c r="F90" s="43"/>
       <c r="G90" s="42"/>
       <c r="H90" s="65"/>
@@ -6662,17 +6657,17 @@
       <c r="T90" s="54"/>
       <c r="U90" s="54"/>
       <c r="V90" s="54"/>
-      <c r="W90" s="101"/>
+      <c r="W90" s="100"/>
       <c r="X90" s="57"/>
       <c r="Y90" s="58"/>
-      <c r="Z90" s="92"/>
-    </row>
-    <row r="91" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z90" s="91"/>
+    </row>
+    <row r="91" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A91" s="44"/>
       <c r="B91" s="50"/>
       <c r="C91" s="44"/>
       <c r="D91" s="76"/>
-      <c r="E91" s="151"/>
+      <c r="E91" s="150"/>
       <c r="F91" s="43"/>
       <c r="G91" s="42"/>
       <c r="H91" s="65"/>
@@ -6690,17 +6685,17 @@
       <c r="T91" s="54"/>
       <c r="U91" s="54"/>
       <c r="V91" s="54"/>
-      <c r="W91" s="101"/>
+      <c r="W91" s="100"/>
       <c r="X91" s="57"/>
       <c r="Y91" s="58"/>
-      <c r="Z91" s="92"/>
-    </row>
-    <row r="92" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z91" s="91"/>
+    </row>
+    <row r="92" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A92" s="44"/>
       <c r="B92" s="50"/>
       <c r="C92" s="44"/>
       <c r="D92" s="76"/>
-      <c r="E92" s="151"/>
+      <c r="E92" s="150"/>
       <c r="F92" s="43"/>
       <c r="G92" s="44"/>
       <c r="H92" s="65"/>
@@ -6718,17 +6713,17 @@
       <c r="T92" s="54"/>
       <c r="U92" s="54"/>
       <c r="V92" s="54"/>
-      <c r="W92" s="101"/>
+      <c r="W92" s="100"/>
       <c r="X92" s="57"/>
       <c r="Y92" s="58"/>
-      <c r="Z92" s="92"/>
-    </row>
-    <row r="93" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z92" s="91"/>
+    </row>
+    <row r="93" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A93" s="44"/>
       <c r="B93" s="50"/>
       <c r="C93" s="44"/>
       <c r="D93" s="70"/>
-      <c r="E93" s="151"/>
+      <c r="E93" s="150"/>
       <c r="F93" s="43"/>
       <c r="G93" s="44"/>
       <c r="H93" s="65"/>
@@ -6746,20 +6741,20 @@
       <c r="T93" s="43"/>
       <c r="U93" s="54"/>
       <c r="V93" s="54"/>
-      <c r="W93" s="101"/>
+      <c r="W93" s="100"/>
       <c r="X93" s="57"/>
       <c r="Y93" s="58"/>
-      <c r="Z93" s="92"/>
-    </row>
-    <row r="94" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z93" s="91"/>
+    </row>
+    <row r="94" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A94" s="44"/>
       <c r="B94" s="50"/>
       <c r="C94" s="44"/>
       <c r="D94" s="76"/>
-      <c r="E94" s="151"/>
+      <c r="E94" s="150"/>
       <c r="F94" s="43"/>
       <c r="G94" s="44"/>
-      <c r="H94" s="95"/>
+      <c r="H94" s="94"/>
       <c r="I94" s="44"/>
       <c r="J94" s="54"/>
       <c r="K94" s="54"/>
@@ -6774,17 +6769,17 @@
       <c r="T94" s="54"/>
       <c r="U94" s="54"/>
       <c r="V94" s="54"/>
-      <c r="W94" s="101"/>
+      <c r="W94" s="100"/>
       <c r="X94" s="57"/>
       <c r="Y94" s="58"/>
-      <c r="Z94" s="92"/>
-    </row>
-    <row r="95" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z94" s="91"/>
+    </row>
+    <row r="95" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A95" s="44"/>
       <c r="B95" s="50"/>
       <c r="C95" s="44"/>
       <c r="D95" s="70"/>
-      <c r="E95" s="151"/>
+      <c r="E95" s="150"/>
       <c r="F95" s="43"/>
       <c r="G95" s="44"/>
       <c r="H95" s="65"/>
@@ -6802,20 +6797,20 @@
       <c r="T95" s="43"/>
       <c r="U95" s="54"/>
       <c r="V95" s="54"/>
-      <c r="W95" s="101"/>
+      <c r="W95" s="100"/>
       <c r="X95" s="57"/>
       <c r="Y95" s="58"/>
-      <c r="Z95" s="92"/>
-    </row>
-    <row r="96" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z95" s="91"/>
+    </row>
+    <row r="96" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A96" s="37"/>
       <c r="B96" s="50"/>
       <c r="C96" s="44"/>
       <c r="D96" s="76"/>
-      <c r="E96" s="151"/>
+      <c r="E96" s="150"/>
       <c r="F96" s="43"/>
       <c r="G96" s="44"/>
-      <c r="H96" s="91"/>
+      <c r="H96" s="90"/>
       <c r="I96" s="44"/>
       <c r="J96" s="54"/>
       <c r="K96" s="54"/>
@@ -6830,17 +6825,17 @@
       <c r="T96" s="43"/>
       <c r="U96" s="54"/>
       <c r="V96" s="54"/>
-      <c r="W96" s="101"/>
+      <c r="W96" s="100"/>
       <c r="X96" s="57"/>
       <c r="Y96" s="58"/>
-      <c r="Z96" s="92"/>
-    </row>
-    <row r="97" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z96" s="91"/>
+    </row>
+    <row r="97" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A97" s="44"/>
       <c r="B97" s="50"/>
       <c r="C97" s="44"/>
       <c r="D97" s="76"/>
-      <c r="E97" s="151"/>
+      <c r="E97" s="150"/>
       <c r="F97" s="43"/>
       <c r="G97" s="44"/>
       <c r="H97" s="65"/>
@@ -6858,20 +6853,20 @@
       <c r="T97" s="54"/>
       <c r="U97" s="54"/>
       <c r="V97" s="54"/>
-      <c r="W97" s="101"/>
+      <c r="W97" s="100"/>
       <c r="X97" s="57"/>
       <c r="Y97" s="58"/>
-      <c r="Z97" s="92"/>
-    </row>
-    <row r="98" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z97" s="91"/>
+    </row>
+    <row r="98" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A98" s="44"/>
       <c r="B98" s="50"/>
       <c r="C98" s="44"/>
       <c r="D98" s="70"/>
-      <c r="E98" s="151"/>
+      <c r="E98" s="150"/>
       <c r="F98" s="43"/>
       <c r="G98" s="44"/>
-      <c r="H98" s="107"/>
+      <c r="H98" s="106"/>
       <c r="I98" s="44"/>
       <c r="J98" s="54"/>
       <c r="K98" s="54"/>
@@ -6886,20 +6881,20 @@
       <c r="T98" s="54"/>
       <c r="U98" s="54"/>
       <c r="V98" s="54"/>
-      <c r="W98" s="101"/>
+      <c r="W98" s="100"/>
       <c r="X98" s="57"/>
       <c r="Y98" s="58"/>
-      <c r="Z98" s="92"/>
-    </row>
-    <row r="99" spans="1:26" s="11" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z98" s="91"/>
+    </row>
+    <row r="99" spans="1:26" s="11" customFormat="1" ht="93.75" customHeight="1">
       <c r="A99" s="44"/>
       <c r="B99" s="50"/>
       <c r="C99" s="44"/>
       <c r="D99" s="76"/>
-      <c r="E99" s="151"/>
+      <c r="E99" s="150"/>
       <c r="F99" s="43"/>
       <c r="G99" s="44"/>
-      <c r="H99" s="106"/>
+      <c r="H99" s="105"/>
       <c r="I99" s="44"/>
       <c r="J99" s="54"/>
       <c r="K99" s="54"/>
@@ -6914,20 +6909,20 @@
       <c r="T99" s="43"/>
       <c r="U99" s="54"/>
       <c r="V99" s="54"/>
-      <c r="W99" s="101"/>
+      <c r="W99" s="100"/>
       <c r="X99" s="57"/>
       <c r="Y99" s="58"/>
-      <c r="Z99" s="92"/>
-    </row>
-    <row r="100" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z99" s="91"/>
+    </row>
+    <row r="100" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A100" s="44"/>
       <c r="B100" s="50"/>
       <c r="C100" s="44"/>
       <c r="D100" s="70"/>
-      <c r="E100" s="151"/>
+      <c r="E100" s="150"/>
       <c r="F100" s="43"/>
       <c r="G100" s="44"/>
-      <c r="H100" s="95"/>
+      <c r="H100" s="94"/>
       <c r="I100" s="44"/>
       <c r="J100" s="54"/>
       <c r="K100" s="54"/>
@@ -6942,20 +6937,20 @@
       <c r="T100" s="54"/>
       <c r="U100" s="54"/>
       <c r="V100" s="54"/>
-      <c r="W100" s="101"/>
+      <c r="W100" s="100"/>
       <c r="X100" s="57"/>
       <c r="Y100" s="58"/>
-      <c r="Z100" s="92"/>
-    </row>
-    <row r="101" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z100" s="91"/>
+    </row>
+    <row r="101" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A101" s="44"/>
       <c r="B101" s="50"/>
       <c r="C101" s="44"/>
       <c r="D101" s="76"/>
-      <c r="E101" s="151"/>
+      <c r="E101" s="150"/>
       <c r="F101" s="43"/>
       <c r="G101" s="44"/>
-      <c r="H101" s="106"/>
+      <c r="H101" s="105"/>
       <c r="I101" s="44"/>
       <c r="J101" s="54"/>
       <c r="K101" s="44"/>
@@ -6970,17 +6965,17 @@
       <c r="T101" s="54"/>
       <c r="U101" s="54"/>
       <c r="V101" s="44"/>
-      <c r="W101" s="101"/>
+      <c r="W101" s="100"/>
       <c r="X101" s="57"/>
       <c r="Y101" s="58"/>
-      <c r="Z101" s="92"/>
-    </row>
-    <row r="102" spans="1:26" s="11" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z101" s="91"/>
+    </row>
+    <row r="102" spans="1:26" s="11" customFormat="1" ht="126.75" customHeight="1">
       <c r="A102" s="44"/>
       <c r="B102" s="50"/>
       <c r="C102" s="44"/>
       <c r="D102" s="76"/>
-      <c r="E102" s="151"/>
+      <c r="E102" s="150"/>
       <c r="F102" s="43"/>
       <c r="G102" s="44"/>
       <c r="H102" s="65"/>
@@ -6998,17 +6993,17 @@
       <c r="T102" s="54"/>
       <c r="U102" s="54"/>
       <c r="V102" s="44"/>
-      <c r="W102" s="101"/>
+      <c r="W102" s="100"/>
       <c r="X102" s="57"/>
       <c r="Y102" s="58"/>
-      <c r="Z102" s="92"/>
-    </row>
-    <row r="103" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z102" s="91"/>
+    </row>
+    <row r="103" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A103" s="44"/>
       <c r="B103" s="50"/>
       <c r="C103" s="44"/>
       <c r="D103" s="76"/>
-      <c r="E103" s="151"/>
+      <c r="E103" s="150"/>
       <c r="F103" s="43"/>
       <c r="G103" s="44"/>
       <c r="H103" s="65"/>
@@ -7026,20 +7021,20 @@
       <c r="T103" s="54"/>
       <c r="U103" s="54"/>
       <c r="V103" s="54"/>
-      <c r="W103" s="101"/>
+      <c r="W103" s="100"/>
       <c r="X103" s="57"/>
       <c r="Y103" s="58"/>
-      <c r="Z103" s="92"/>
-    </row>
-    <row r="104" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z103" s="91"/>
+    </row>
+    <row r="104" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A104" s="44"/>
       <c r="B104" s="50"/>
       <c r="C104" s="44"/>
       <c r="D104" s="70"/>
-      <c r="E104" s="151"/>
+      <c r="E104" s="150"/>
       <c r="F104" s="43"/>
       <c r="G104" s="44"/>
-      <c r="H104" s="106"/>
+      <c r="H104" s="105"/>
       <c r="I104" s="44"/>
       <c r="J104" s="54"/>
       <c r="K104" s="54"/>
@@ -7054,20 +7049,20 @@
       <c r="T104" s="43"/>
       <c r="U104" s="54"/>
       <c r="V104" s="44"/>
-      <c r="W104" s="101"/>
+      <c r="W104" s="100"/>
       <c r="X104" s="57"/>
       <c r="Y104" s="58"/>
-      <c r="Z104" s="92"/>
-    </row>
-    <row r="105" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z104" s="91"/>
+    </row>
+    <row r="105" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A105" s="44"/>
       <c r="B105" s="50"/>
       <c r="C105" s="44"/>
       <c r="D105" s="76"/>
-      <c r="E105" s="151"/>
+      <c r="E105" s="150"/>
       <c r="F105" s="43"/>
       <c r="G105" s="44"/>
-      <c r="H105" s="108"/>
+      <c r="H105" s="107"/>
       <c r="I105" s="44"/>
       <c r="J105" s="54"/>
       <c r="K105" s="54"/>
@@ -7082,17 +7077,17 @@
       <c r="T105" s="43"/>
       <c r="U105" s="54"/>
       <c r="V105" s="44"/>
-      <c r="W105" s="101"/>
+      <c r="W105" s="100"/>
       <c r="X105" s="57"/>
       <c r="Y105" s="58"/>
-      <c r="Z105" s="92"/>
-    </row>
-    <row r="106" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z105" s="91"/>
+    </row>
+    <row r="106" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A106" s="44"/>
       <c r="B106" s="50"/>
       <c r="C106" s="44"/>
       <c r="D106" s="70"/>
-      <c r="E106" s="151"/>
+      <c r="E106" s="150"/>
       <c r="F106" s="43"/>
       <c r="G106" s="44"/>
       <c r="H106" s="65"/>
@@ -7110,17 +7105,17 @@
       <c r="T106" s="43"/>
       <c r="U106" s="54"/>
       <c r="V106" s="44"/>
-      <c r="W106" s="101"/>
+      <c r="W106" s="100"/>
       <c r="X106" s="57"/>
       <c r="Y106" s="58"/>
-      <c r="Z106" s="92"/>
-    </row>
-    <row r="107" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z106" s="91"/>
+    </row>
+    <row r="107" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A107" s="44"/>
       <c r="B107" s="50"/>
       <c r="C107" s="44"/>
       <c r="D107" s="70"/>
-      <c r="E107" s="151"/>
+      <c r="E107" s="150"/>
       <c r="F107" s="43"/>
       <c r="G107" s="44"/>
       <c r="H107" s="65"/>
@@ -7138,20 +7133,20 @@
       <c r="T107" s="43"/>
       <c r="U107" s="54"/>
       <c r="V107" s="44"/>
-      <c r="W107" s="101"/>
+      <c r="W107" s="100"/>
       <c r="X107" s="57"/>
       <c r="Y107" s="58"/>
-      <c r="Z107" s="92"/>
-    </row>
-    <row r="108" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z107" s="91"/>
+    </row>
+    <row r="108" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A108" s="44"/>
       <c r="B108" s="50"/>
       <c r="C108" s="44"/>
       <c r="D108" s="76"/>
-      <c r="E108" s="151"/>
+      <c r="E108" s="150"/>
       <c r="F108" s="43"/>
       <c r="G108" s="44"/>
-      <c r="H108" s="99"/>
+      <c r="H108" s="98"/>
       <c r="I108" s="44"/>
       <c r="J108" s="54"/>
       <c r="K108" s="54"/>
@@ -7166,20 +7161,20 @@
       <c r="T108" s="43"/>
       <c r="U108" s="54"/>
       <c r="V108" s="44"/>
-      <c r="W108" s="101"/>
+      <c r="W108" s="100"/>
       <c r="X108" s="57"/>
       <c r="Y108" s="58"/>
-      <c r="Z108" s="92"/>
-    </row>
-    <row r="109" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z108" s="91"/>
+    </row>
+    <row r="109" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A109" s="44"/>
       <c r="B109" s="50"/>
       <c r="C109" s="44"/>
       <c r="D109" s="70"/>
-      <c r="E109" s="151"/>
+      <c r="E109" s="150"/>
       <c r="F109" s="43"/>
       <c r="G109" s="44"/>
-      <c r="H109" s="97"/>
+      <c r="H109" s="96"/>
       <c r="I109" s="44"/>
       <c r="J109" s="54"/>
       <c r="K109" s="54"/>
@@ -7194,20 +7189,20 @@
       <c r="T109" s="43"/>
       <c r="U109" s="54"/>
       <c r="V109" s="54"/>
-      <c r="W109" s="101"/>
+      <c r="W109" s="100"/>
       <c r="X109" s="57"/>
       <c r="Y109" s="58"/>
-      <c r="Z109" s="92"/>
-    </row>
-    <row r="110" spans="1:26" s="11" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z109" s="91"/>
+    </row>
+    <row r="110" spans="1:26" s="11" customFormat="1" ht="78" customHeight="1">
       <c r="A110" s="44"/>
       <c r="B110" s="50"/>
       <c r="C110" s="44"/>
       <c r="D110" s="70"/>
-      <c r="E110" s="151"/>
+      <c r="E110" s="150"/>
       <c r="F110" s="43"/>
       <c r="G110" s="44"/>
-      <c r="H110" s="107"/>
+      <c r="H110" s="106"/>
       <c r="I110" s="44"/>
       <c r="J110" s="54"/>
       <c r="K110" s="54"/>
@@ -7222,20 +7217,20 @@
       <c r="T110" s="43"/>
       <c r="U110" s="54"/>
       <c r="V110" s="54"/>
-      <c r="W110" s="101"/>
+      <c r="W110" s="100"/>
       <c r="X110" s="57"/>
       <c r="Y110" s="58"/>
-      <c r="Z110" s="92"/>
-    </row>
-    <row r="111" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z110" s="91"/>
+    </row>
+    <row r="111" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A111" s="44"/>
       <c r="B111" s="50"/>
       <c r="C111" s="44"/>
       <c r="D111" s="70"/>
-      <c r="E111" s="151"/>
+      <c r="E111" s="150"/>
       <c r="F111" s="43"/>
       <c r="G111" s="44"/>
-      <c r="H111" s="107"/>
+      <c r="H111" s="106"/>
       <c r="I111" s="44"/>
       <c r="J111" s="54"/>
       <c r="K111" s="54"/>
@@ -7250,20 +7245,20 @@
       <c r="T111" s="43"/>
       <c r="U111" s="54"/>
       <c r="V111" s="54"/>
-      <c r="W111" s="101"/>
+      <c r="W111" s="100"/>
       <c r="X111" s="57"/>
       <c r="Y111" s="58"/>
-      <c r="Z111" s="92"/>
-    </row>
-    <row r="112" spans="1:26" s="11" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z111" s="91"/>
+    </row>
+    <row r="112" spans="1:26" s="11" customFormat="1" ht="109.5" customHeight="1">
       <c r="A112" s="44"/>
       <c r="B112" s="50"/>
       <c r="C112" s="44"/>
       <c r="D112" s="70"/>
-      <c r="E112" s="151"/>
+      <c r="E112" s="150"/>
       <c r="F112" s="43"/>
       <c r="G112" s="44"/>
-      <c r="H112" s="107"/>
+      <c r="H112" s="106"/>
       <c r="I112" s="44"/>
       <c r="J112" s="54"/>
       <c r="K112" s="54"/>
@@ -7278,20 +7273,20 @@
       <c r="T112" s="54"/>
       <c r="U112" s="54"/>
       <c r="V112" s="54"/>
-      <c r="W112" s="101"/>
+      <c r="W112" s="100"/>
       <c r="X112" s="57"/>
       <c r="Y112" s="44"/>
-      <c r="Z112" s="92"/>
-    </row>
-    <row r="113" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z112" s="91"/>
+    </row>
+    <row r="113" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A113" s="44"/>
       <c r="B113" s="50"/>
       <c r="C113" s="44"/>
       <c r="D113" s="76"/>
-      <c r="E113" s="151"/>
+      <c r="E113" s="150"/>
       <c r="F113" s="43"/>
       <c r="G113" s="44"/>
-      <c r="H113" s="107"/>
+      <c r="H113" s="106"/>
       <c r="I113" s="44"/>
       <c r="J113" s="54"/>
       <c r="K113" s="54"/>
@@ -7306,20 +7301,20 @@
       <c r="T113" s="43"/>
       <c r="U113" s="54"/>
       <c r="V113" s="54"/>
-      <c r="W113" s="101"/>
+      <c r="W113" s="100"/>
       <c r="X113" s="57"/>
       <c r="Y113" s="58"/>
-      <c r="Z113" s="92"/>
-    </row>
-    <row r="114" spans="1:26" s="11" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z113" s="91"/>
+    </row>
+    <row r="114" spans="1:26" s="11" customFormat="1" ht="70.5" customHeight="1">
       <c r="A114" s="44"/>
       <c r="B114" s="50"/>
       <c r="C114" s="44"/>
       <c r="D114" s="76"/>
-      <c r="E114" s="151"/>
+      <c r="E114" s="150"/>
       <c r="F114" s="43"/>
       <c r="G114" s="44"/>
-      <c r="H114" s="107"/>
+      <c r="H114" s="106"/>
       <c r="I114" s="44"/>
       <c r="J114" s="54"/>
       <c r="K114" s="54"/>
@@ -7333,21 +7328,21 @@
       <c r="S114" s="41"/>
       <c r="T114" s="43"/>
       <c r="U114" s="54"/>
-      <c r="V114" s="109"/>
-      <c r="W114" s="101"/>
+      <c r="V114" s="108"/>
+      <c r="W114" s="100"/>
       <c r="X114" s="57"/>
       <c r="Y114" s="58"/>
-      <c r="Z114" s="92"/>
-    </row>
-    <row r="115" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z114" s="91"/>
+    </row>
+    <row r="115" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A115" s="44"/>
       <c r="B115" s="50"/>
       <c r="C115" s="44"/>
       <c r="D115" s="70"/>
-      <c r="E115" s="151"/>
+      <c r="E115" s="150"/>
       <c r="F115" s="43"/>
       <c r="G115" s="44"/>
-      <c r="H115" s="106"/>
+      <c r="H115" s="105"/>
       <c r="I115" s="44"/>
       <c r="J115" s="54"/>
       <c r="K115" s="54"/>
@@ -7362,17 +7357,17 @@
       <c r="T115" s="54"/>
       <c r="U115" s="54"/>
       <c r="V115" s="54"/>
-      <c r="W115" s="101"/>
+      <c r="W115" s="100"/>
       <c r="X115" s="57"/>
       <c r="Y115" s="58"/>
-      <c r="Z115" s="92"/>
-    </row>
-    <row r="116" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z115" s="91"/>
+    </row>
+    <row r="116" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A116" s="44"/>
       <c r="B116" s="50"/>
       <c r="C116" s="44"/>
       <c r="D116" s="70"/>
-      <c r="E116" s="151"/>
+      <c r="E116" s="150"/>
       <c r="F116" s="43"/>
       <c r="G116" s="44"/>
       <c r="H116" s="65"/>
@@ -7390,20 +7385,20 @@
       <c r="T116" s="54"/>
       <c r="U116" s="54"/>
       <c r="V116" s="54"/>
-      <c r="W116" s="101"/>
+      <c r="W116" s="100"/>
       <c r="X116" s="57"/>
       <c r="Y116" s="58"/>
-      <c r="Z116" s="92"/>
-    </row>
-    <row r="117" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z116" s="91"/>
+    </row>
+    <row r="117" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A117" s="44"/>
       <c r="B117" s="50"/>
       <c r="C117" s="44"/>
       <c r="D117" s="76"/>
-      <c r="E117" s="151"/>
+      <c r="E117" s="150"/>
       <c r="F117" s="43"/>
       <c r="G117" s="44"/>
-      <c r="H117" s="106"/>
+      <c r="H117" s="105"/>
       <c r="I117" s="44"/>
       <c r="J117" s="54"/>
       <c r="K117" s="54"/>
@@ -7418,20 +7413,20 @@
       <c r="T117" s="43"/>
       <c r="U117" s="54"/>
       <c r="V117" s="54"/>
-      <c r="W117" s="101"/>
+      <c r="W117" s="100"/>
       <c r="X117" s="57"/>
       <c r="Y117" s="58"/>
-      <c r="Z117" s="92"/>
-    </row>
-    <row r="118" spans="1:26" s="11" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z117" s="91"/>
+    </row>
+    <row r="118" spans="1:26" s="11" customFormat="1" ht="166.5" customHeight="1">
       <c r="A118" s="44"/>
       <c r="B118" s="50"/>
       <c r="C118" s="44"/>
       <c r="D118" s="70"/>
-      <c r="E118" s="151"/>
+      <c r="E118" s="150"/>
       <c r="F118" s="43"/>
       <c r="G118" s="44"/>
-      <c r="H118" s="107"/>
+      <c r="H118" s="106"/>
       <c r="I118" s="44"/>
       <c r="J118" s="54"/>
       <c r="K118" s="54"/>
@@ -7446,17 +7441,17 @@
       <c r="T118" s="54"/>
       <c r="U118" s="54"/>
       <c r="V118" s="54"/>
-      <c r="W118" s="101"/>
+      <c r="W118" s="100"/>
       <c r="X118" s="57"/>
       <c r="Y118" s="58"/>
-      <c r="Z118" s="92"/>
-    </row>
-    <row r="119" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z118" s="91"/>
+    </row>
+    <row r="119" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A119" s="44"/>
       <c r="B119" s="50"/>
       <c r="C119" s="44"/>
       <c r="D119" s="70"/>
-      <c r="E119" s="151"/>
+      <c r="E119" s="150"/>
       <c r="F119" s="43"/>
       <c r="G119" s="44"/>
       <c r="H119" s="65"/>
@@ -7474,20 +7469,20 @@
       <c r="T119" s="54"/>
       <c r="U119" s="54"/>
       <c r="V119" s="54"/>
-      <c r="W119" s="101"/>
+      <c r="W119" s="100"/>
       <c r="X119" s="57"/>
       <c r="Y119" s="58"/>
-      <c r="Z119" s="92"/>
-    </row>
-    <row r="120" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z119" s="91"/>
+    </row>
+    <row r="120" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A120" s="44"/>
       <c r="B120" s="59"/>
       <c r="C120" s="44"/>
       <c r="D120" s="76"/>
-      <c r="E120" s="151"/>
+      <c r="E120" s="150"/>
       <c r="F120" s="43"/>
       <c r="G120" s="44"/>
-      <c r="H120" s="91"/>
+      <c r="H120" s="90"/>
       <c r="I120" s="44"/>
       <c r="J120" s="54"/>
       <c r="K120" s="54"/>
@@ -7502,17 +7497,17 @@
       <c r="T120" s="54"/>
       <c r="U120" s="54"/>
       <c r="V120" s="54"/>
-      <c r="W120" s="101"/>
+      <c r="W120" s="100"/>
       <c r="X120" s="57"/>
       <c r="Y120" s="58"/>
-      <c r="Z120" s="92"/>
-    </row>
-    <row r="121" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z120" s="91"/>
+    </row>
+    <row r="121" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A121" s="44"/>
       <c r="B121" s="50"/>
       <c r="C121" s="44"/>
       <c r="D121" s="76"/>
-      <c r="E121" s="151"/>
+      <c r="E121" s="150"/>
       <c r="F121" s="43"/>
       <c r="G121" s="44"/>
       <c r="H121" s="65"/>
@@ -7530,17 +7525,17 @@
       <c r="T121" s="54"/>
       <c r="U121" s="54"/>
       <c r="V121" s="54"/>
-      <c r="W121" s="101"/>
+      <c r="W121" s="100"/>
       <c r="X121" s="57"/>
       <c r="Y121" s="58"/>
-      <c r="Z121" s="92"/>
-    </row>
-    <row r="122" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z121" s="91"/>
+    </row>
+    <row r="122" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A122" s="44"/>
       <c r="B122" s="50"/>
       <c r="C122" s="44"/>
       <c r="D122" s="76"/>
-      <c r="E122" s="151"/>
+      <c r="E122" s="150"/>
       <c r="F122" s="43"/>
       <c r="G122" s="44"/>
       <c r="H122" s="65"/>
@@ -7558,17 +7553,17 @@
       <c r="T122" s="54"/>
       <c r="U122" s="54"/>
       <c r="V122" s="54"/>
-      <c r="W122" s="101"/>
+      <c r="W122" s="100"/>
       <c r="X122" s="57"/>
       <c r="Y122" s="58"/>
-      <c r="Z122" s="92"/>
-    </row>
-    <row r="123" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z122" s="91"/>
+    </row>
+    <row r="123" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A123" s="44"/>
       <c r="B123" s="50"/>
       <c r="C123" s="44"/>
       <c r="D123" s="76"/>
-      <c r="E123" s="151"/>
+      <c r="E123" s="150"/>
       <c r="F123" s="43"/>
       <c r="G123" s="44"/>
       <c r="H123" s="65"/>
@@ -7586,17 +7581,17 @@
       <c r="T123" s="54"/>
       <c r="U123" s="54"/>
       <c r="V123" s="54"/>
-      <c r="W123" s="101"/>
+      <c r="W123" s="100"/>
       <c r="X123" s="57"/>
       <c r="Y123" s="58"/>
-      <c r="Z123" s="92"/>
-    </row>
-    <row r="124" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z123" s="91"/>
+    </row>
+    <row r="124" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A124" s="44"/>
       <c r="B124" s="50"/>
       <c r="C124" s="44"/>
       <c r="D124" s="76"/>
-      <c r="E124" s="151"/>
+      <c r="E124" s="150"/>
       <c r="F124" s="43"/>
       <c r="G124" s="44"/>
       <c r="H124" s="65"/>
@@ -7614,17 +7609,17 @@
       <c r="T124" s="54"/>
       <c r="U124" s="54"/>
       <c r="V124" s="54"/>
-      <c r="W124" s="101"/>
+      <c r="W124" s="100"/>
       <c r="X124" s="57"/>
       <c r="Y124" s="58"/>
-      <c r="Z124" s="92"/>
-    </row>
-    <row r="125" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z124" s="91"/>
+    </row>
+    <row r="125" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A125" s="44"/>
       <c r="B125" s="50"/>
       <c r="C125" s="44"/>
       <c r="D125" s="76"/>
-      <c r="E125" s="151"/>
+      <c r="E125" s="150"/>
       <c r="F125" s="43"/>
       <c r="G125" s="44"/>
       <c r="H125" s="65"/>
@@ -7642,20 +7637,20 @@
       <c r="T125" s="54"/>
       <c r="U125" s="54"/>
       <c r="V125" s="54"/>
-      <c r="W125" s="101"/>
+      <c r="W125" s="100"/>
       <c r="X125" s="57"/>
       <c r="Y125" s="58"/>
-      <c r="Z125" s="92"/>
-    </row>
-    <row r="126" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z125" s="91"/>
+    </row>
+    <row r="126" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A126" s="44"/>
       <c r="B126" s="50"/>
       <c r="C126" s="44"/>
       <c r="D126" s="70"/>
-      <c r="E126" s="151"/>
+      <c r="E126" s="150"/>
       <c r="F126" s="43"/>
       <c r="G126" s="44"/>
-      <c r="H126" s="107"/>
+      <c r="H126" s="106"/>
       <c r="I126" s="44"/>
       <c r="J126" s="54"/>
       <c r="K126" s="54"/>
@@ -7670,17 +7665,17 @@
       <c r="T126" s="54"/>
       <c r="U126" s="54"/>
       <c r="V126" s="54"/>
-      <c r="W126" s="101"/>
+      <c r="W126" s="100"/>
       <c r="X126" s="57"/>
       <c r="Y126" s="58"/>
-      <c r="Z126" s="92"/>
-    </row>
-    <row r="127" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z126" s="91"/>
+    </row>
+    <row r="127" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A127" s="44"/>
       <c r="B127" s="50"/>
       <c r="C127" s="44"/>
       <c r="D127" s="76"/>
-      <c r="E127" s="151"/>
+      <c r="E127" s="150"/>
       <c r="F127" s="43"/>
       <c r="G127" s="44"/>
       <c r="H127" s="65"/>
@@ -7698,17 +7693,17 @@
       <c r="T127" s="43"/>
       <c r="U127" s="54"/>
       <c r="V127" s="54"/>
-      <c r="W127" s="101"/>
+      <c r="W127" s="100"/>
       <c r="X127" s="57"/>
       <c r="Y127" s="58"/>
-      <c r="Z127" s="92"/>
-    </row>
-    <row r="128" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z127" s="91"/>
+    </row>
+    <row r="128" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A128" s="44"/>
       <c r="B128" s="50"/>
       <c r="C128" s="44"/>
       <c r="D128" s="76"/>
-      <c r="E128" s="151"/>
+      <c r="E128" s="150"/>
       <c r="F128" s="43"/>
       <c r="G128" s="44"/>
       <c r="H128" s="65"/>
@@ -7726,17 +7721,17 @@
       <c r="T128" s="54"/>
       <c r="U128" s="54"/>
       <c r="V128" s="54"/>
-      <c r="W128" s="101"/>
+      <c r="W128" s="100"/>
       <c r="X128" s="57"/>
       <c r="Y128" s="58"/>
-      <c r="Z128" s="92"/>
-    </row>
-    <row r="129" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z128" s="91"/>
+    </row>
+    <row r="129" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A129" s="44"/>
       <c r="B129" s="50"/>
       <c r="C129" s="44"/>
       <c r="D129" s="76"/>
-      <c r="E129" s="151"/>
+      <c r="E129" s="150"/>
       <c r="F129" s="43"/>
       <c r="G129" s="44"/>
       <c r="H129" s="65"/>
@@ -7754,17 +7749,17 @@
       <c r="T129" s="54"/>
       <c r="U129" s="54"/>
       <c r="V129" s="54"/>
-      <c r="W129" s="101"/>
+      <c r="W129" s="100"/>
       <c r="X129" s="57"/>
       <c r="Y129" s="58"/>
-      <c r="Z129" s="92"/>
-    </row>
-    <row r="130" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z129" s="91"/>
+    </row>
+    <row r="130" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A130" s="44"/>
       <c r="B130" s="50"/>
       <c r="C130" s="44"/>
       <c r="D130" s="76"/>
-      <c r="E130" s="151"/>
+      <c r="E130" s="150"/>
       <c r="F130" s="43"/>
       <c r="G130" s="44"/>
       <c r="H130" s="65"/>
@@ -7782,20 +7777,20 @@
       <c r="T130" s="54"/>
       <c r="U130" s="54"/>
       <c r="V130" s="54"/>
-      <c r="W130" s="101"/>
+      <c r="W130" s="100"/>
       <c r="X130" s="57"/>
       <c r="Y130" s="58"/>
-      <c r="Z130" s="92"/>
-    </row>
-    <row r="131" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z130" s="91"/>
+    </row>
+    <row r="131" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A131" s="44"/>
       <c r="B131" s="50"/>
       <c r="C131" s="44"/>
       <c r="D131" s="70"/>
-      <c r="E131" s="151"/>
+      <c r="E131" s="150"/>
       <c r="F131" s="43"/>
       <c r="G131" s="44"/>
-      <c r="H131" s="110"/>
+      <c r="H131" s="109"/>
       <c r="I131" s="44"/>
       <c r="J131" s="54"/>
       <c r="K131" s="54"/>
@@ -7810,17 +7805,17 @@
       <c r="T131" s="43"/>
       <c r="U131" s="54"/>
       <c r="V131" s="54"/>
-      <c r="W131" s="101"/>
+      <c r="W131" s="100"/>
       <c r="X131" s="57"/>
       <c r="Y131" s="58"/>
-      <c r="Z131" s="92"/>
-    </row>
-    <row r="132" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z131" s="91"/>
+    </row>
+    <row r="132" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A132" s="44"/>
       <c r="B132" s="50"/>
       <c r="C132" s="44"/>
       <c r="D132" s="76"/>
-      <c r="E132" s="151"/>
+      <c r="E132" s="150"/>
       <c r="F132" s="54"/>
       <c r="G132" s="44"/>
       <c r="H132" s="65"/>
@@ -7838,20 +7833,20 @@
       <c r="T132" s="54"/>
       <c r="U132" s="54"/>
       <c r="V132" s="54"/>
-      <c r="W132" s="101"/>
+      <c r="W132" s="100"/>
       <c r="X132" s="57"/>
       <c r="Y132" s="58"/>
-      <c r="Z132" s="92"/>
-    </row>
-    <row r="133" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z132" s="91"/>
+    </row>
+    <row r="133" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A133" s="44"/>
       <c r="B133" s="50"/>
       <c r="C133" s="44"/>
       <c r="D133" s="70"/>
-      <c r="E133" s="151"/>
+      <c r="E133" s="150"/>
       <c r="F133" s="43"/>
       <c r="G133" s="44"/>
-      <c r="H133" s="99"/>
+      <c r="H133" s="98"/>
       <c r="I133" s="44"/>
       <c r="J133" s="54"/>
       <c r="K133" s="54"/>
@@ -7866,20 +7861,20 @@
       <c r="T133" s="43"/>
       <c r="U133" s="54"/>
       <c r="V133" s="54"/>
-      <c r="W133" s="101"/>
+      <c r="W133" s="100"/>
       <c r="X133" s="57"/>
       <c r="Y133" s="58"/>
-      <c r="Z133" s="92"/>
-    </row>
-    <row r="134" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z133" s="91"/>
+    </row>
+    <row r="134" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A134" s="44"/>
       <c r="B134" s="50"/>
       <c r="C134" s="44"/>
       <c r="D134" s="70"/>
-      <c r="E134" s="151"/>
+      <c r="E134" s="150"/>
       <c r="F134" s="43"/>
       <c r="G134" s="44"/>
-      <c r="H134" s="111"/>
+      <c r="H134" s="110"/>
       <c r="I134" s="44"/>
       <c r="J134" s="54"/>
       <c r="K134" s="54"/>
@@ -7894,20 +7889,20 @@
       <c r="T134" s="54"/>
       <c r="U134" s="54"/>
       <c r="V134" s="54"/>
-      <c r="W134" s="101"/>
+      <c r="W134" s="100"/>
       <c r="X134" s="57"/>
       <c r="Y134" s="58"/>
-      <c r="Z134" s="92"/>
-    </row>
-    <row r="135" spans="1:26" s="11" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z134" s="91"/>
+    </row>
+    <row r="135" spans="1:26" s="11" customFormat="1" ht="85.5" customHeight="1">
       <c r="A135" s="44"/>
       <c r="B135" s="50"/>
       <c r="C135" s="44"/>
       <c r="D135" s="76"/>
-      <c r="E135" s="151"/>
+      <c r="E135" s="150"/>
       <c r="F135" s="43"/>
       <c r="G135" s="44"/>
-      <c r="H135" s="107"/>
+      <c r="H135" s="106"/>
       <c r="I135" s="44"/>
       <c r="J135" s="54"/>
       <c r="K135" s="54"/>
@@ -7922,20 +7917,20 @@
       <c r="T135" s="54"/>
       <c r="U135" s="54"/>
       <c r="V135" s="54"/>
-      <c r="W135" s="101"/>
+      <c r="W135" s="100"/>
       <c r="X135" s="57"/>
       <c r="Y135" s="58"/>
-      <c r="Z135" s="92"/>
-    </row>
-    <row r="136" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z135" s="91"/>
+    </row>
+    <row r="136" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A136" s="44"/>
       <c r="B136" s="50"/>
       <c r="C136" s="44"/>
       <c r="D136" s="70"/>
-      <c r="E136" s="151"/>
+      <c r="E136" s="150"/>
       <c r="F136" s="43"/>
       <c r="G136" s="44"/>
-      <c r="H136" s="107"/>
+      <c r="H136" s="106"/>
       <c r="I136" s="44"/>
       <c r="J136" s="54"/>
       <c r="K136" s="54"/>
@@ -7950,17 +7945,17 @@
       <c r="T136" s="43"/>
       <c r="U136" s="54"/>
       <c r="V136" s="54"/>
-      <c r="W136" s="101"/>
+      <c r="W136" s="100"/>
       <c r="X136" s="57"/>
       <c r="Y136" s="58"/>
-      <c r="Z136" s="92"/>
-    </row>
-    <row r="137" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z136" s="91"/>
+    </row>
+    <row r="137" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A137" s="44"/>
       <c r="B137" s="50"/>
       <c r="C137" s="44"/>
       <c r="D137" s="76"/>
-      <c r="E137" s="151"/>
+      <c r="E137" s="150"/>
       <c r="F137" s="43"/>
       <c r="G137" s="44"/>
       <c r="H137" s="65"/>
@@ -7978,17 +7973,17 @@
       <c r="T137" s="43"/>
       <c r="U137" s="54"/>
       <c r="V137" s="54"/>
-      <c r="W137" s="101"/>
+      <c r="W137" s="100"/>
       <c r="X137" s="57"/>
       <c r="Y137" s="58"/>
-      <c r="Z137" s="92"/>
-    </row>
-    <row r="138" spans="1:26" s="11" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z137" s="91"/>
+    </row>
+    <row r="138" spans="1:26" s="11" customFormat="1" ht="117" customHeight="1">
       <c r="A138" s="44"/>
       <c r="B138" s="50"/>
       <c r="C138" s="44"/>
       <c r="D138" s="76"/>
-      <c r="E138" s="151"/>
+      <c r="E138" s="150"/>
       <c r="F138" s="43"/>
       <c r="G138" s="44"/>
       <c r="H138" s="64"/>
@@ -8006,17 +8001,17 @@
       <c r="T138" s="54"/>
       <c r="U138" s="54"/>
       <c r="V138" s="54"/>
-      <c r="W138" s="101"/>
+      <c r="W138" s="100"/>
       <c r="X138" s="57"/>
       <c r="Y138" s="58"/>
-      <c r="Z138" s="92"/>
-    </row>
-    <row r="139" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z138" s="91"/>
+    </row>
+    <row r="139" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A139" s="44"/>
       <c r="B139" s="50"/>
       <c r="C139" s="44"/>
       <c r="D139" s="70"/>
-      <c r="E139" s="151"/>
+      <c r="E139" s="150"/>
       <c r="F139" s="43"/>
       <c r="G139" s="44"/>
       <c r="H139" s="65"/>
@@ -8034,17 +8029,17 @@
       <c r="T139" s="54"/>
       <c r="U139" s="54"/>
       <c r="V139" s="54"/>
-      <c r="W139" s="101"/>
+      <c r="W139" s="100"/>
       <c r="X139" s="57"/>
       <c r="Y139" s="58"/>
-      <c r="Z139" s="92"/>
-    </row>
-    <row r="140" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z139" s="91"/>
+    </row>
+    <row r="140" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A140" s="44"/>
       <c r="B140" s="50"/>
       <c r="C140" s="44"/>
       <c r="D140" s="76"/>
-      <c r="E140" s="151"/>
+      <c r="E140" s="150"/>
       <c r="F140" s="43"/>
       <c r="G140" s="44"/>
       <c r="H140" s="65"/>
@@ -8062,17 +8057,17 @@
       <c r="T140" s="54"/>
       <c r="U140" s="54"/>
       <c r="V140" s="54"/>
-      <c r="W140" s="101"/>
+      <c r="W140" s="100"/>
       <c r="X140" s="57"/>
       <c r="Y140" s="58"/>
-      <c r="Z140" s="92"/>
-    </row>
-    <row r="141" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z140" s="91"/>
+    </row>
+    <row r="141" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A141" s="44"/>
       <c r="B141" s="50"/>
       <c r="C141" s="44"/>
       <c r="D141" s="76"/>
-      <c r="E141" s="151"/>
+      <c r="E141" s="150"/>
       <c r="F141" s="43"/>
       <c r="G141" s="44"/>
       <c r="H141" s="65"/>
@@ -8090,17 +8085,17 @@
       <c r="T141" s="54"/>
       <c r="U141" s="54"/>
       <c r="V141" s="54"/>
-      <c r="W141" s="101"/>
+      <c r="W141" s="100"/>
       <c r="X141" s="57"/>
       <c r="Y141" s="58"/>
-      <c r="Z141" s="92"/>
-    </row>
-    <row r="142" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z141" s="91"/>
+    </row>
+    <row r="142" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A142" s="44"/>
       <c r="B142" s="50"/>
       <c r="C142" s="44"/>
       <c r="D142" s="70"/>
-      <c r="E142" s="151"/>
+      <c r="E142" s="150"/>
       <c r="F142" s="43"/>
       <c r="G142" s="44"/>
       <c r="H142" s="65"/>
@@ -8118,17 +8113,17 @@
       <c r="T142" s="54"/>
       <c r="U142" s="54"/>
       <c r="V142" s="54"/>
-      <c r="W142" s="101"/>
+      <c r="W142" s="100"/>
       <c r="X142" s="57"/>
       <c r="Y142" s="58"/>
-      <c r="Z142" s="92"/>
-    </row>
-    <row r="143" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z142" s="91"/>
+    </row>
+    <row r="143" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A143" s="74"/>
       <c r="B143" s="50"/>
       <c r="C143" s="44"/>
       <c r="D143" s="70"/>
-      <c r="E143" s="151"/>
+      <c r="E143" s="150"/>
       <c r="F143" s="54"/>
       <c r="G143" s="44"/>
       <c r="H143" s="65"/>
@@ -8146,17 +8141,17 @@
       <c r="T143" s="54"/>
       <c r="U143" s="54"/>
       <c r="V143" s="54"/>
-      <c r="W143" s="101"/>
+      <c r="W143" s="100"/>
       <c r="X143" s="57"/>
       <c r="Y143" s="58"/>
-      <c r="Z143" s="92"/>
-    </row>
-    <row r="144" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z143" s="91"/>
+    </row>
+    <row r="144" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A144" s="74"/>
       <c r="B144" s="50"/>
       <c r="C144" s="44"/>
       <c r="D144" s="70"/>
-      <c r="E144" s="151"/>
+      <c r="E144" s="150"/>
       <c r="F144" s="54"/>
       <c r="G144" s="44"/>
       <c r="H144" s="65"/>
@@ -8174,17 +8169,17 @@
       <c r="T144" s="54"/>
       <c r="U144" s="54"/>
       <c r="V144" s="54"/>
-      <c r="W144" s="101"/>
+      <c r="W144" s="100"/>
       <c r="X144" s="57"/>
       <c r="Y144" s="58"/>
-      <c r="Z144" s="92"/>
-    </row>
-    <row r="145" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z144" s="91"/>
+    </row>
+    <row r="145" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A145" s="74"/>
       <c r="B145" s="50"/>
       <c r="C145" s="44"/>
       <c r="D145" s="70"/>
-      <c r="E145" s="151"/>
+      <c r="E145" s="150"/>
       <c r="F145" s="54"/>
       <c r="G145" s="44"/>
       <c r="H145" s="65"/>
@@ -8202,17 +8197,17 @@
       <c r="T145" s="54"/>
       <c r="U145" s="54"/>
       <c r="V145" s="54"/>
-      <c r="W145" s="101"/>
+      <c r="W145" s="100"/>
       <c r="X145" s="57"/>
       <c r="Y145" s="58"/>
-      <c r="Z145" s="92"/>
-    </row>
-    <row r="146" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z145" s="91"/>
+    </row>
+    <row r="146" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A146" s="74"/>
       <c r="B146" s="50"/>
       <c r="C146" s="44"/>
       <c r="D146" s="70"/>
-      <c r="E146" s="151"/>
+      <c r="E146" s="150"/>
       <c r="F146" s="54"/>
       <c r="G146" s="44"/>
       <c r="H146" s="65"/>
@@ -8230,17 +8225,17 @@
       <c r="T146" s="54"/>
       <c r="U146" s="54"/>
       <c r="V146" s="54"/>
-      <c r="W146" s="101"/>
+      <c r="W146" s="100"/>
       <c r="X146" s="57"/>
       <c r="Y146" s="58"/>
-      <c r="Z146" s="92"/>
-    </row>
-    <row r="147" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z146" s="91"/>
+    </row>
+    <row r="147" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A147" s="74"/>
       <c r="B147" s="50"/>
       <c r="C147" s="44"/>
       <c r="D147" s="70"/>
-      <c r="E147" s="151"/>
+      <c r="E147" s="150"/>
       <c r="F147" s="54"/>
       <c r="G147" s="44"/>
       <c r="H147" s="65"/>
@@ -8258,17 +8253,17 @@
       <c r="T147" s="54"/>
       <c r="U147" s="54"/>
       <c r="V147" s="54"/>
-      <c r="W147" s="101"/>
+      <c r="W147" s="100"/>
       <c r="X147" s="57"/>
       <c r="Y147" s="58"/>
-      <c r="Z147" s="92"/>
-    </row>
-    <row r="148" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z147" s="91"/>
+    </row>
+    <row r="148" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A148" s="74"/>
       <c r="B148" s="50"/>
       <c r="C148" s="44"/>
       <c r="D148" s="70"/>
-      <c r="E148" s="151"/>
+      <c r="E148" s="150"/>
       <c r="F148" s="54"/>
       <c r="G148" s="44"/>
       <c r="H148" s="65"/>
@@ -8286,17 +8281,17 @@
       <c r="T148" s="54"/>
       <c r="U148" s="54"/>
       <c r="V148" s="54"/>
-      <c r="W148" s="101"/>
+      <c r="W148" s="100"/>
       <c r="X148" s="57"/>
       <c r="Y148" s="58"/>
-      <c r="Z148" s="92"/>
-    </row>
-    <row r="149" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z148" s="91"/>
+    </row>
+    <row r="149" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A149" s="74"/>
       <c r="B149" s="50"/>
       <c r="C149" s="44"/>
       <c r="D149" s="70"/>
-      <c r="E149" s="151"/>
+      <c r="E149" s="150"/>
       <c r="F149" s="54"/>
       <c r="G149" s="44"/>
       <c r="H149" s="65"/>
@@ -8314,17 +8309,17 @@
       <c r="T149" s="54"/>
       <c r="U149" s="54"/>
       <c r="V149" s="54"/>
-      <c r="W149" s="101"/>
+      <c r="W149" s="100"/>
       <c r="X149" s="57"/>
       <c r="Y149" s="58"/>
-      <c r="Z149" s="92"/>
-    </row>
-    <row r="150" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z149" s="91"/>
+    </row>
+    <row r="150" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A150" s="74"/>
       <c r="B150" s="50"/>
       <c r="C150" s="44"/>
       <c r="D150" s="70"/>
-      <c r="E150" s="151"/>
+      <c r="E150" s="150"/>
       <c r="F150" s="54"/>
       <c r="G150" s="44"/>
       <c r="H150" s="65"/>
@@ -8342,17 +8337,17 @@
       <c r="T150" s="54"/>
       <c r="U150" s="54"/>
       <c r="V150" s="54"/>
-      <c r="W150" s="101"/>
+      <c r="W150" s="100"/>
       <c r="X150" s="57"/>
       <c r="Y150" s="58"/>
-      <c r="Z150" s="92"/>
-    </row>
-    <row r="151" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z150" s="91"/>
+    </row>
+    <row r="151" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A151" s="74"/>
       <c r="B151" s="50"/>
       <c r="C151" s="44"/>
       <c r="D151" s="70"/>
-      <c r="E151" s="151"/>
+      <c r="E151" s="150"/>
       <c r="F151" s="54"/>
       <c r="G151" s="44"/>
       <c r="H151" s="65"/>
@@ -8370,17 +8365,17 @@
       <c r="T151" s="54"/>
       <c r="U151" s="54"/>
       <c r="V151" s="54"/>
-      <c r="W151" s="101"/>
+      <c r="W151" s="100"/>
       <c r="X151" s="57"/>
       <c r="Y151" s="58"/>
-      <c r="Z151" s="92"/>
-    </row>
-    <row r="152" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z151" s="91"/>
+    </row>
+    <row r="152" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A152" s="74"/>
       <c r="B152" s="50"/>
       <c r="C152" s="44"/>
       <c r="D152" s="70"/>
-      <c r="E152" s="151"/>
+      <c r="E152" s="150"/>
       <c r="F152" s="54"/>
       <c r="G152" s="44"/>
       <c r="H152" s="65"/>
@@ -8398,17 +8393,17 @@
       <c r="T152" s="54"/>
       <c r="U152" s="54"/>
       <c r="V152" s="54"/>
-      <c r="W152" s="101"/>
+      <c r="W152" s="100"/>
       <c r="X152" s="57"/>
       <c r="Y152" s="58"/>
-      <c r="Z152" s="92"/>
-    </row>
-    <row r="153" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z152" s="91"/>
+    </row>
+    <row r="153" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A153" s="74"/>
       <c r="B153" s="50"/>
       <c r="C153" s="44"/>
       <c r="D153" s="70"/>
-      <c r="E153" s="151"/>
+      <c r="E153" s="150"/>
       <c r="F153" s="54"/>
       <c r="G153" s="44"/>
       <c r="H153" s="65"/>
@@ -8426,17 +8421,17 @@
       <c r="T153" s="54"/>
       <c r="U153" s="54"/>
       <c r="V153" s="54"/>
-      <c r="W153" s="101"/>
+      <c r="W153" s="100"/>
       <c r="X153" s="57"/>
       <c r="Y153" s="58"/>
-      <c r="Z153" s="92"/>
-    </row>
-    <row r="154" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z153" s="91"/>
+    </row>
+    <row r="154" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A154" s="74"/>
       <c r="B154" s="50"/>
       <c r="C154" s="44"/>
       <c r="D154" s="70"/>
-      <c r="E154" s="151"/>
+      <c r="E154" s="150"/>
       <c r="F154" s="54"/>
       <c r="G154" s="44"/>
       <c r="H154" s="65"/>
@@ -8454,17 +8449,17 @@
       <c r="T154" s="54"/>
       <c r="U154" s="54"/>
       <c r="V154" s="54"/>
-      <c r="W154" s="101"/>
+      <c r="W154" s="100"/>
       <c r="X154" s="57"/>
       <c r="Y154" s="58"/>
-      <c r="Z154" s="92"/>
-    </row>
-    <row r="155" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z154" s="91"/>
+    </row>
+    <row r="155" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A155" s="74"/>
       <c r="B155" s="50"/>
       <c r="C155" s="44"/>
       <c r="D155" s="70"/>
-      <c r="E155" s="151"/>
+      <c r="E155" s="150"/>
       <c r="F155" s="54"/>
       <c r="G155" s="44"/>
       <c r="H155" s="65"/>
@@ -8482,17 +8477,17 @@
       <c r="T155" s="54"/>
       <c r="U155" s="54"/>
       <c r="V155" s="54"/>
-      <c r="W155" s="101"/>
+      <c r="W155" s="100"/>
       <c r="X155" s="57"/>
       <c r="Y155" s="58"/>
-      <c r="Z155" s="92"/>
-    </row>
-    <row r="156" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z155" s="91"/>
+    </row>
+    <row r="156" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A156" s="74"/>
       <c r="B156" s="50"/>
       <c r="C156" s="44"/>
       <c r="D156" s="70"/>
-      <c r="E156" s="151"/>
+      <c r="E156" s="150"/>
       <c r="F156" s="54"/>
       <c r="G156" s="44"/>
       <c r="H156" s="65"/>
@@ -8510,17 +8505,17 @@
       <c r="T156" s="54"/>
       <c r="U156" s="54"/>
       <c r="V156" s="54"/>
-      <c r="W156" s="101"/>
+      <c r="W156" s="100"/>
       <c r="X156" s="57"/>
       <c r="Y156" s="58"/>
-      <c r="Z156" s="92"/>
-    </row>
-    <row r="157" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z156" s="91"/>
+    </row>
+    <row r="157" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A157" s="74"/>
       <c r="B157" s="50"/>
       <c r="C157" s="44"/>
       <c r="D157" s="70"/>
-      <c r="E157" s="151"/>
+      <c r="E157" s="150"/>
       <c r="F157" s="54"/>
       <c r="G157" s="44"/>
       <c r="H157" s="65"/>
@@ -8538,17 +8533,17 @@
       <c r="T157" s="54"/>
       <c r="U157" s="54"/>
       <c r="V157" s="54"/>
-      <c r="W157" s="101"/>
+      <c r="W157" s="100"/>
       <c r="X157" s="57"/>
       <c r="Y157" s="58"/>
-      <c r="Z157" s="92"/>
-    </row>
-    <row r="158" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z157" s="91"/>
+    </row>
+    <row r="158" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A158" s="74"/>
       <c r="B158" s="50"/>
       <c r="C158" s="44"/>
       <c r="D158" s="70"/>
-      <c r="E158" s="151"/>
+      <c r="E158" s="150"/>
       <c r="F158" s="54"/>
       <c r="G158" s="44"/>
       <c r="H158" s="65"/>
@@ -8566,17 +8561,17 @@
       <c r="T158" s="54"/>
       <c r="U158" s="54"/>
       <c r="V158" s="54"/>
-      <c r="W158" s="101"/>
+      <c r="W158" s="100"/>
       <c r="X158" s="57"/>
       <c r="Y158" s="58"/>
-      <c r="Z158" s="92"/>
-    </row>
-    <row r="159" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z158" s="91"/>
+    </row>
+    <row r="159" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A159" s="74"/>
       <c r="B159" s="50"/>
       <c r="C159" s="44"/>
       <c r="D159" s="70"/>
-      <c r="E159" s="151"/>
+      <c r="E159" s="150"/>
       <c r="F159" s="54"/>
       <c r="G159" s="44"/>
       <c r="H159" s="65"/>
@@ -8594,17 +8589,17 @@
       <c r="T159" s="54"/>
       <c r="U159" s="54"/>
       <c r="V159" s="54"/>
-      <c r="W159" s="101"/>
+      <c r="W159" s="100"/>
       <c r="X159" s="57"/>
       <c r="Y159" s="58"/>
-      <c r="Z159" s="92"/>
-    </row>
-    <row r="160" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z159" s="91"/>
+    </row>
+    <row r="160" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A160" s="74"/>
       <c r="B160" s="50"/>
       <c r="C160" s="44"/>
       <c r="D160" s="70"/>
-      <c r="E160" s="151"/>
+      <c r="E160" s="150"/>
       <c r="F160" s="54"/>
       <c r="G160" s="44"/>
       <c r="H160" s="65"/>
@@ -8622,17 +8617,17 @@
       <c r="T160" s="54"/>
       <c r="U160" s="54"/>
       <c r="V160" s="54"/>
-      <c r="W160" s="101"/>
+      <c r="W160" s="100"/>
       <c r="X160" s="57"/>
       <c r="Y160" s="58"/>
-      <c r="Z160" s="92"/>
-    </row>
-    <row r="161" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z160" s="91"/>
+    </row>
+    <row r="161" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A161" s="74"/>
       <c r="B161" s="50"/>
       <c r="C161" s="44"/>
       <c r="D161" s="70"/>
-      <c r="E161" s="151"/>
+      <c r="E161" s="150"/>
       <c r="F161" s="54"/>
       <c r="G161" s="44"/>
       <c r="H161" s="65"/>
@@ -8650,20 +8645,20 @@
       <c r="T161" s="54"/>
       <c r="U161" s="54"/>
       <c r="V161" s="54"/>
-      <c r="W161" s="101"/>
+      <c r="W161" s="100"/>
       <c r="X161" s="57"/>
       <c r="Y161" s="58"/>
-      <c r="Z161" s="92"/>
-    </row>
-    <row r="162" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z161" s="91"/>
+    </row>
+    <row r="162" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A162" s="74"/>
       <c r="B162" s="50"/>
       <c r="C162" s="44"/>
       <c r="D162" s="70"/>
-      <c r="E162" s="151"/>
+      <c r="E162" s="150"/>
       <c r="F162" s="43"/>
       <c r="G162" s="44"/>
-      <c r="H162" s="112"/>
+      <c r="H162" s="111"/>
       <c r="I162" s="44"/>
       <c r="J162" s="54"/>
       <c r="K162" s="54"/>
@@ -8678,17 +8673,17 @@
       <c r="T162" s="54"/>
       <c r="U162" s="54"/>
       <c r="V162" s="54"/>
-      <c r="W162" s="113"/>
+      <c r="W162" s="112"/>
       <c r="X162" s="57"/>
       <c r="Y162" s="58"/>
-      <c r="Z162" s="92"/>
-    </row>
-    <row r="163" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z162" s="91"/>
+    </row>
+    <row r="163" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A163" s="74"/>
       <c r="B163" s="50"/>
       <c r="C163" s="44"/>
       <c r="D163" s="70"/>
-      <c r="E163" s="151"/>
+      <c r="E163" s="150"/>
       <c r="F163" s="54"/>
       <c r="G163" s="44"/>
       <c r="H163" s="65"/>
@@ -8706,17 +8701,17 @@
       <c r="T163" s="54"/>
       <c r="U163" s="54"/>
       <c r="V163" s="54"/>
-      <c r="W163" s="101"/>
+      <c r="W163" s="100"/>
       <c r="X163" s="57"/>
       <c r="Y163" s="58"/>
-      <c r="Z163" s="92"/>
-    </row>
-    <row r="164" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z163" s="91"/>
+    </row>
+    <row r="164" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A164" s="44"/>
       <c r="B164" s="50"/>
       <c r="C164" s="44"/>
       <c r="D164" s="70"/>
-      <c r="E164" s="151"/>
+      <c r="E164" s="150"/>
       <c r="F164" s="54"/>
       <c r="G164" s="44"/>
       <c r="H164" s="65"/>
@@ -8734,17 +8729,17 @@
       <c r="T164" s="54"/>
       <c r="U164" s="54"/>
       <c r="V164" s="54"/>
-      <c r="W164" s="101"/>
+      <c r="W164" s="100"/>
       <c r="X164" s="57"/>
       <c r="Y164" s="58"/>
-      <c r="Z164" s="92"/>
-    </row>
-    <row r="165" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z164" s="91"/>
+    </row>
+    <row r="165" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A165" s="44"/>
       <c r="B165" s="50"/>
       <c r="C165" s="44"/>
       <c r="D165" s="70"/>
-      <c r="E165" s="151"/>
+      <c r="E165" s="150"/>
       <c r="F165" s="54"/>
       <c r="G165" s="44"/>
       <c r="H165" s="65"/>
@@ -8762,17 +8757,17 @@
       <c r="T165" s="54"/>
       <c r="U165" s="54"/>
       <c r="V165" s="54"/>
-      <c r="W165" s="101"/>
+      <c r="W165" s="100"/>
       <c r="X165" s="57"/>
       <c r="Y165" s="58"/>
-      <c r="Z165" s="92"/>
-    </row>
-    <row r="166" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z165" s="91"/>
+    </row>
+    <row r="166" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A166" s="44"/>
       <c r="B166" s="50"/>
       <c r="C166" s="44"/>
       <c r="D166" s="70"/>
-      <c r="E166" s="151"/>
+      <c r="E166" s="150"/>
       <c r="F166" s="54"/>
       <c r="G166" s="44"/>
       <c r="H166" s="65"/>
@@ -8790,17 +8785,17 @@
       <c r="T166" s="54"/>
       <c r="U166" s="54"/>
       <c r="V166" s="54"/>
-      <c r="W166" s="101"/>
+      <c r="W166" s="100"/>
       <c r="X166" s="57"/>
       <c r="Y166" s="58"/>
-      <c r="Z166" s="92"/>
-    </row>
-    <row r="167" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z166" s="91"/>
+    </row>
+    <row r="167" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A167" s="44"/>
       <c r="B167" s="50"/>
       <c r="C167" s="44"/>
       <c r="D167" s="70"/>
-      <c r="E167" s="151"/>
+      <c r="E167" s="150"/>
       <c r="F167" s="54"/>
       <c r="G167" s="44"/>
       <c r="H167" s="65"/>
@@ -8818,17 +8813,17 @@
       <c r="T167" s="54"/>
       <c r="U167" s="54"/>
       <c r="V167" s="54"/>
-      <c r="W167" s="101"/>
+      <c r="W167" s="100"/>
       <c r="X167" s="57"/>
       <c r="Y167" s="58"/>
-      <c r="Z167" s="92"/>
-    </row>
-    <row r="168" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z167" s="91"/>
+    </row>
+    <row r="168" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A168" s="44"/>
       <c r="B168" s="50"/>
       <c r="C168" s="44"/>
       <c r="D168" s="70"/>
-      <c r="E168" s="151"/>
+      <c r="E168" s="150"/>
       <c r="F168" s="54"/>
       <c r="G168" s="44"/>
       <c r="H168" s="65"/>
@@ -8846,17 +8841,17 @@
       <c r="T168" s="54"/>
       <c r="U168" s="54"/>
       <c r="V168" s="54"/>
-      <c r="W168" s="101"/>
+      <c r="W168" s="100"/>
       <c r="X168" s="57"/>
       <c r="Y168" s="58"/>
-      <c r="Z168" s="92"/>
-    </row>
-    <row r="169" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z168" s="91"/>
+    </row>
+    <row r="169" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A169" s="44"/>
       <c r="B169" s="50"/>
       <c r="C169" s="44"/>
       <c r="D169" s="70"/>
-      <c r="E169" s="151"/>
+      <c r="E169" s="150"/>
       <c r="F169" s="54"/>
       <c r="G169" s="44"/>
       <c r="H169" s="65"/>
@@ -8874,17 +8869,17 @@
       <c r="T169" s="54"/>
       <c r="U169" s="54"/>
       <c r="V169" s="54"/>
-      <c r="W169" s="101"/>
+      <c r="W169" s="100"/>
       <c r="X169" s="57"/>
       <c r="Y169" s="58"/>
-      <c r="Z169" s="92"/>
-    </row>
-    <row r="170" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z169" s="91"/>
+    </row>
+    <row r="170" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A170" s="44"/>
       <c r="B170" s="50"/>
       <c r="C170" s="44"/>
       <c r="D170" s="70"/>
-      <c r="E170" s="151"/>
+      <c r="E170" s="150"/>
       <c r="F170" s="54"/>
       <c r="G170" s="44"/>
       <c r="H170" s="65"/>
@@ -8902,17 +8897,17 @@
       <c r="T170" s="54"/>
       <c r="U170" s="54"/>
       <c r="V170" s="54"/>
-      <c r="W170" s="101"/>
+      <c r="W170" s="100"/>
       <c r="X170" s="57"/>
       <c r="Y170" s="58"/>
-      <c r="Z170" s="92"/>
-    </row>
-    <row r="171" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z170" s="91"/>
+    </row>
+    <row r="171" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A171" s="44"/>
       <c r="B171" s="50"/>
       <c r="C171" s="44"/>
       <c r="D171" s="70"/>
-      <c r="E171" s="151"/>
+      <c r="E171" s="150"/>
       <c r="F171" s="54"/>
       <c r="G171" s="44"/>
       <c r="H171" s="65"/>
@@ -8930,17 +8925,17 @@
       <c r="T171" s="54"/>
       <c r="U171" s="54"/>
       <c r="V171" s="54"/>
-      <c r="W171" s="101"/>
+      <c r="W171" s="100"/>
       <c r="X171" s="57"/>
       <c r="Y171" s="58"/>
-      <c r="Z171" s="92"/>
-    </row>
-    <row r="172" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z171" s="91"/>
+    </row>
+    <row r="172" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A172" s="44"/>
       <c r="B172" s="50"/>
       <c r="C172" s="44"/>
       <c r="D172" s="70"/>
-      <c r="E172" s="151"/>
+      <c r="E172" s="150"/>
       <c r="F172" s="54"/>
       <c r="G172" s="44"/>
       <c r="H172" s="65"/>
@@ -8958,17 +8953,17 @@
       <c r="T172" s="54"/>
       <c r="U172" s="54"/>
       <c r="V172" s="54"/>
-      <c r="W172" s="101"/>
+      <c r="W172" s="100"/>
       <c r="X172" s="57"/>
       <c r="Y172" s="58"/>
-      <c r="Z172" s="92"/>
-    </row>
-    <row r="173" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z172" s="91"/>
+    </row>
+    <row r="173" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A173" s="44"/>
       <c r="B173" s="50"/>
       <c r="C173" s="44"/>
       <c r="D173" s="70"/>
-      <c r="E173" s="151"/>
+      <c r="E173" s="150"/>
       <c r="F173" s="54"/>
       <c r="G173" s="44"/>
       <c r="H173" s="65"/>
@@ -8986,17 +8981,17 @@
       <c r="T173" s="54"/>
       <c r="U173" s="54"/>
       <c r="V173" s="54"/>
-      <c r="W173" s="101"/>
+      <c r="W173" s="100"/>
       <c r="X173" s="57"/>
       <c r="Y173" s="58"/>
-      <c r="Z173" s="92"/>
-    </row>
-    <row r="174" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z173" s="91"/>
+    </row>
+    <row r="174" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A174" s="44"/>
       <c r="B174" s="50"/>
       <c r="C174" s="44"/>
       <c r="D174" s="70"/>
-      <c r="E174" s="151"/>
+      <c r="E174" s="150"/>
       <c r="F174" s="54"/>
       <c r="G174" s="44"/>
       <c r="H174" s="65"/>
@@ -9014,17 +9009,17 @@
       <c r="T174" s="54"/>
       <c r="U174" s="54"/>
       <c r="V174" s="54"/>
-      <c r="W174" s="101"/>
+      <c r="W174" s="100"/>
       <c r="X174" s="57"/>
       <c r="Y174" s="58"/>
-      <c r="Z174" s="92"/>
-    </row>
-    <row r="175" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z174" s="91"/>
+    </row>
+    <row r="175" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A175" s="44"/>
       <c r="B175" s="50"/>
       <c r="C175" s="44"/>
       <c r="D175" s="70"/>
-      <c r="E175" s="151"/>
+      <c r="E175" s="150"/>
       <c r="F175" s="54"/>
       <c r="G175" s="44"/>
       <c r="H175" s="65"/>
@@ -9042,17 +9037,17 @@
       <c r="T175" s="54"/>
       <c r="U175" s="54"/>
       <c r="V175" s="54"/>
-      <c r="W175" s="101"/>
+      <c r="W175" s="100"/>
       <c r="X175" s="57"/>
       <c r="Y175" s="58"/>
-      <c r="Z175" s="92"/>
-    </row>
-    <row r="176" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z175" s="91"/>
+    </row>
+    <row r="176" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A176" s="44"/>
       <c r="B176" s="50"/>
       <c r="C176" s="44"/>
       <c r="D176" s="70"/>
-      <c r="E176" s="151"/>
+      <c r="E176" s="150"/>
       <c r="F176" s="54"/>
       <c r="G176" s="44"/>
       <c r="H176" s="65"/>
@@ -9070,17 +9065,17 @@
       <c r="T176" s="54"/>
       <c r="U176" s="54"/>
       <c r="V176" s="54"/>
-      <c r="W176" s="101"/>
+      <c r="W176" s="100"/>
       <c r="X176" s="57"/>
       <c r="Y176" s="58"/>
-      <c r="Z176" s="92"/>
-    </row>
-    <row r="177" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z176" s="91"/>
+    </row>
+    <row r="177" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A177" s="44"/>
       <c r="B177" s="50"/>
       <c r="C177" s="44"/>
       <c r="D177" s="70"/>
-      <c r="E177" s="151"/>
+      <c r="E177" s="150"/>
       <c r="F177" s="54"/>
       <c r="G177" s="44"/>
       <c r="H177" s="65"/>
@@ -9098,17 +9093,17 @@
       <c r="T177" s="54"/>
       <c r="U177" s="54"/>
       <c r="V177" s="54"/>
-      <c r="W177" s="101"/>
+      <c r="W177" s="100"/>
       <c r="X177" s="57"/>
       <c r="Y177" s="58"/>
-      <c r="Z177" s="92"/>
-    </row>
-    <row r="178" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z177" s="91"/>
+    </row>
+    <row r="178" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A178" s="44"/>
       <c r="B178" s="50"/>
       <c r="C178" s="44"/>
       <c r="D178" s="70"/>
-      <c r="E178" s="151"/>
+      <c r="E178" s="150"/>
       <c r="F178" s="54"/>
       <c r="G178" s="44"/>
       <c r="H178" s="65"/>
@@ -9126,17 +9121,17 @@
       <c r="T178" s="54"/>
       <c r="U178" s="54"/>
       <c r="V178" s="54"/>
-      <c r="W178" s="101"/>
+      <c r="W178" s="100"/>
       <c r="X178" s="57"/>
       <c r="Y178" s="58"/>
-      <c r="Z178" s="92"/>
-    </row>
-    <row r="179" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z178" s="91"/>
+    </row>
+    <row r="179" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A179" s="44"/>
       <c r="B179" s="50"/>
       <c r="C179" s="44"/>
       <c r="D179" s="70"/>
-      <c r="E179" s="151"/>
+      <c r="E179" s="150"/>
       <c r="F179" s="54"/>
       <c r="G179" s="44"/>
       <c r="H179" s="65"/>
@@ -9154,17 +9149,17 @@
       <c r="T179" s="54"/>
       <c r="U179" s="54"/>
       <c r="V179" s="54"/>
-      <c r="W179" s="101"/>
+      <c r="W179" s="100"/>
       <c r="X179" s="57"/>
       <c r="Y179" s="58"/>
-      <c r="Z179" s="92"/>
-    </row>
-    <row r="180" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z179" s="91"/>
+    </row>
+    <row r="180" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A180" s="44"/>
       <c r="B180" s="50"/>
       <c r="C180" s="44"/>
       <c r="D180" s="70"/>
-      <c r="E180" s="151"/>
+      <c r="E180" s="150"/>
       <c r="F180" s="54"/>
       <c r="G180" s="44"/>
       <c r="H180" s="65"/>
@@ -9182,17 +9177,17 @@
       <c r="T180" s="54"/>
       <c r="U180" s="54"/>
       <c r="V180" s="54"/>
-      <c r="W180" s="101"/>
+      <c r="W180" s="100"/>
       <c r="X180" s="57"/>
       <c r="Y180" s="58"/>
-      <c r="Z180" s="92"/>
-    </row>
-    <row r="181" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z180" s="91"/>
+    </row>
+    <row r="181" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A181" s="44"/>
       <c r="B181" s="50"/>
       <c r="C181" s="44"/>
       <c r="D181" s="70"/>
-      <c r="E181" s="151"/>
+      <c r="E181" s="150"/>
       <c r="F181" s="54"/>
       <c r="G181" s="44"/>
       <c r="H181" s="65"/>
@@ -9210,17 +9205,17 @@
       <c r="T181" s="54"/>
       <c r="U181" s="54"/>
       <c r="V181" s="54"/>
-      <c r="W181" s="101"/>
+      <c r="W181" s="100"/>
       <c r="X181" s="57"/>
       <c r="Y181" s="58"/>
-      <c r="Z181" s="92"/>
-    </row>
-    <row r="182" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z181" s="91"/>
+    </row>
+    <row r="182" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A182" s="44"/>
       <c r="B182" s="50"/>
       <c r="C182" s="44"/>
       <c r="D182" s="70"/>
-      <c r="E182" s="151"/>
+      <c r="E182" s="150"/>
       <c r="F182" s="54"/>
       <c r="G182" s="44"/>
       <c r="H182" s="65"/>
@@ -9238,17 +9233,17 @@
       <c r="T182" s="54"/>
       <c r="U182" s="54"/>
       <c r="V182" s="54"/>
-      <c r="W182" s="101"/>
+      <c r="W182" s="100"/>
       <c r="X182" s="57"/>
       <c r="Y182" s="58"/>
-      <c r="Z182" s="92"/>
-    </row>
-    <row r="183" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z182" s="91"/>
+    </row>
+    <row r="183" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A183" s="44"/>
       <c r="B183" s="50"/>
       <c r="C183" s="44"/>
       <c r="D183" s="70"/>
-      <c r="E183" s="151"/>
+      <c r="E183" s="150"/>
       <c r="F183" s="54"/>
       <c r="G183" s="44"/>
       <c r="H183" s="65"/>
@@ -9266,17 +9261,17 @@
       <c r="T183" s="54"/>
       <c r="U183" s="54"/>
       <c r="V183" s="54"/>
-      <c r="W183" s="101"/>
+      <c r="W183" s="100"/>
       <c r="X183" s="57"/>
       <c r="Y183" s="58"/>
-      <c r="Z183" s="92"/>
-    </row>
-    <row r="184" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z183" s="91"/>
+    </row>
+    <row r="184" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A184" s="44"/>
       <c r="B184" s="50"/>
       <c r="C184" s="44"/>
       <c r="D184" s="70"/>
-      <c r="E184" s="151"/>
+      <c r="E184" s="150"/>
       <c r="F184" s="54"/>
       <c r="G184" s="44"/>
       <c r="H184" s="65"/>
@@ -9294,17 +9289,17 @@
       <c r="T184" s="54"/>
       <c r="U184" s="54"/>
       <c r="V184" s="54"/>
-      <c r="W184" s="101"/>
+      <c r="W184" s="100"/>
       <c r="X184" s="57"/>
       <c r="Y184" s="58"/>
-      <c r="Z184" s="92"/>
-    </row>
-    <row r="185" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z184" s="91"/>
+    </row>
+    <row r="185" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A185" s="44"/>
       <c r="B185" s="50"/>
       <c r="C185" s="44"/>
       <c r="D185" s="70"/>
-      <c r="E185" s="151"/>
+      <c r="E185" s="150"/>
       <c r="F185" s="54"/>
       <c r="G185" s="44"/>
       <c r="H185" s="65"/>
@@ -9322,17 +9317,17 @@
       <c r="T185" s="54"/>
       <c r="U185" s="54"/>
       <c r="V185" s="54"/>
-      <c r="W185" s="101"/>
+      <c r="W185" s="100"/>
       <c r="X185" s="57"/>
       <c r="Y185" s="58"/>
-      <c r="Z185" s="92"/>
-    </row>
-    <row r="186" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z185" s="91"/>
+    </row>
+    <row r="186" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A186" s="44"/>
       <c r="B186" s="50"/>
       <c r="C186" s="44"/>
       <c r="D186" s="70"/>
-      <c r="E186" s="151"/>
+      <c r="E186" s="150"/>
       <c r="F186" s="54"/>
       <c r="G186" s="44"/>
       <c r="H186" s="65"/>
@@ -9350,17 +9345,17 @@
       <c r="T186" s="54"/>
       <c r="U186" s="54"/>
       <c r="V186" s="54"/>
-      <c r="W186" s="101"/>
+      <c r="W186" s="100"/>
       <c r="X186" s="57"/>
       <c r="Y186" s="58"/>
-      <c r="Z186" s="92"/>
-    </row>
-    <row r="187" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z186" s="91"/>
+    </row>
+    <row r="187" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A187" s="44"/>
       <c r="B187" s="50"/>
       <c r="C187" s="44"/>
       <c r="D187" s="70"/>
-      <c r="E187" s="151"/>
+      <c r="E187" s="150"/>
       <c r="F187" s="54"/>
       <c r="G187" s="44"/>
       <c r="H187" s="65"/>
@@ -9378,17 +9373,17 @@
       <c r="T187" s="54"/>
       <c r="U187" s="54"/>
       <c r="V187" s="54"/>
-      <c r="W187" s="101"/>
+      <c r="W187" s="100"/>
       <c r="X187" s="57"/>
       <c r="Y187" s="58"/>
-      <c r="Z187" s="92"/>
-    </row>
-    <row r="188" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z187" s="91"/>
+    </row>
+    <row r="188" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A188" s="44"/>
       <c r="B188" s="50"/>
       <c r="C188" s="44"/>
       <c r="D188" s="70"/>
-      <c r="E188" s="151"/>
+      <c r="E188" s="150"/>
       <c r="F188" s="54"/>
       <c r="G188" s="44"/>
       <c r="H188" s="65"/>
@@ -9406,17 +9401,17 @@
       <c r="T188" s="54"/>
       <c r="U188" s="54"/>
       <c r="V188" s="54"/>
-      <c r="W188" s="101"/>
+      <c r="W188" s="100"/>
       <c r="X188" s="57"/>
       <c r="Y188" s="58"/>
-      <c r="Z188" s="92"/>
-    </row>
-    <row r="189" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z188" s="91"/>
+    </row>
+    <row r="189" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A189" s="44"/>
       <c r="B189" s="50"/>
       <c r="C189" s="44"/>
       <c r="D189" s="70"/>
-      <c r="E189" s="151"/>
+      <c r="E189" s="150"/>
       <c r="F189" s="54"/>
       <c r="G189" s="44"/>
       <c r="H189" s="65"/>
@@ -9434,17 +9429,17 @@
       <c r="T189" s="54"/>
       <c r="U189" s="54"/>
       <c r="V189" s="54"/>
-      <c r="W189" s="101"/>
+      <c r="W189" s="100"/>
       <c r="X189" s="57"/>
       <c r="Y189" s="58"/>
-      <c r="Z189" s="92"/>
-    </row>
-    <row r="190" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z189" s="91"/>
+    </row>
+    <row r="190" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A190" s="44"/>
       <c r="B190" s="50"/>
       <c r="C190" s="44"/>
       <c r="D190" s="70"/>
-      <c r="E190" s="151"/>
+      <c r="E190" s="150"/>
       <c r="F190" s="54"/>
       <c r="G190" s="44"/>
       <c r="H190" s="65"/>
@@ -9462,17 +9457,17 @@
       <c r="T190" s="54"/>
       <c r="U190" s="54"/>
       <c r="V190" s="54"/>
-      <c r="W190" s="101"/>
+      <c r="W190" s="100"/>
       <c r="X190" s="57"/>
       <c r="Y190" s="58"/>
-      <c r="Z190" s="92"/>
-    </row>
-    <row r="191" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z190" s="91"/>
+    </row>
+    <row r="191" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A191" s="44"/>
       <c r="B191" s="50"/>
       <c r="C191" s="44"/>
       <c r="D191" s="70"/>
-      <c r="E191" s="151"/>
+      <c r="E191" s="150"/>
       <c r="F191" s="54"/>
       <c r="G191" s="44"/>
       <c r="H191" s="65"/>
@@ -9490,17 +9485,17 @@
       <c r="T191" s="54"/>
       <c r="U191" s="54"/>
       <c r="V191" s="54"/>
-      <c r="W191" s="101"/>
+      <c r="W191" s="100"/>
       <c r="X191" s="57"/>
       <c r="Y191" s="58"/>
-      <c r="Z191" s="92"/>
-    </row>
-    <row r="192" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z191" s="91"/>
+    </row>
+    <row r="192" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A192" s="44"/>
       <c r="B192" s="50"/>
       <c r="C192" s="44"/>
       <c r="D192" s="70"/>
-      <c r="E192" s="151"/>
+      <c r="E192" s="150"/>
       <c r="F192" s="54"/>
       <c r="G192" s="44"/>
       <c r="H192" s="65"/>
@@ -9518,17 +9513,17 @@
       <c r="T192" s="54"/>
       <c r="U192" s="54"/>
       <c r="V192" s="54"/>
-      <c r="W192" s="101"/>
+      <c r="W192" s="100"/>
       <c r="X192" s="57"/>
       <c r="Y192" s="58"/>
-      <c r="Z192" s="92"/>
-    </row>
-    <row r="193" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z192" s="91"/>
+    </row>
+    <row r="193" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A193" s="44"/>
       <c r="B193" s="50"/>
       <c r="C193" s="44"/>
       <c r="D193" s="70"/>
-      <c r="E193" s="151"/>
+      <c r="E193" s="150"/>
       <c r="F193" s="54"/>
       <c r="G193" s="44"/>
       <c r="H193" s="65"/>
@@ -9546,17 +9541,17 @@
       <c r="T193" s="54"/>
       <c r="U193" s="54"/>
       <c r="V193" s="54"/>
-      <c r="W193" s="101"/>
+      <c r="W193" s="100"/>
       <c r="X193" s="57"/>
       <c r="Y193" s="58"/>
-      <c r="Z193" s="92"/>
-    </row>
-    <row r="194" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z193" s="91"/>
+    </row>
+    <row r="194" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A194" s="44"/>
       <c r="B194" s="50"/>
       <c r="C194" s="44"/>
       <c r="D194" s="70"/>
-      <c r="E194" s="151"/>
+      <c r="E194" s="150"/>
       <c r="F194" s="54"/>
       <c r="G194" s="44"/>
       <c r="H194" s="65"/>
@@ -9574,17 +9569,17 @@
       <c r="T194" s="54"/>
       <c r="U194" s="54"/>
       <c r="V194" s="54"/>
-      <c r="W194" s="101"/>
+      <c r="W194" s="100"/>
       <c r="X194" s="57"/>
       <c r="Y194" s="58"/>
-      <c r="Z194" s="92"/>
-    </row>
-    <row r="195" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z194" s="91"/>
+    </row>
+    <row r="195" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A195" s="44"/>
       <c r="B195" s="50"/>
       <c r="C195" s="44"/>
       <c r="D195" s="70"/>
-      <c r="E195" s="151"/>
+      <c r="E195" s="150"/>
       <c r="F195" s="54"/>
       <c r="G195" s="44"/>
       <c r="H195" s="65"/>
@@ -9602,17 +9597,17 @@
       <c r="T195" s="54"/>
       <c r="U195" s="54"/>
       <c r="V195" s="54"/>
-      <c r="W195" s="101"/>
+      <c r="W195" s="100"/>
       <c r="X195" s="57"/>
       <c r="Y195" s="58"/>
-      <c r="Z195" s="92"/>
-    </row>
-    <row r="196" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z195" s="91"/>
+    </row>
+    <row r="196" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A196" s="44"/>
       <c r="B196" s="50"/>
       <c r="C196" s="44"/>
       <c r="D196" s="70"/>
-      <c r="E196" s="151"/>
+      <c r="E196" s="150"/>
       <c r="F196" s="54"/>
       <c r="G196" s="44"/>
       <c r="H196" s="65"/>
@@ -9630,17 +9625,17 @@
       <c r="T196" s="54"/>
       <c r="U196" s="54"/>
       <c r="V196" s="54"/>
-      <c r="W196" s="101"/>
+      <c r="W196" s="100"/>
       <c r="X196" s="57"/>
       <c r="Y196" s="58"/>
-      <c r="Z196" s="92"/>
-    </row>
-    <row r="197" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z196" s="91"/>
+    </row>
+    <row r="197" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A197" s="44"/>
       <c r="B197" s="50"/>
       <c r="C197" s="44"/>
       <c r="D197" s="70"/>
-      <c r="E197" s="151"/>
+      <c r="E197" s="150"/>
       <c r="F197" s="54"/>
       <c r="G197" s="44"/>
       <c r="H197" s="65"/>
@@ -9658,17 +9653,17 @@
       <c r="T197" s="54"/>
       <c r="U197" s="54"/>
       <c r="V197" s="54"/>
-      <c r="W197" s="101"/>
+      <c r="W197" s="100"/>
       <c r="X197" s="57"/>
       <c r="Y197" s="58"/>
-      <c r="Z197" s="92"/>
-    </row>
-    <row r="198" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z197" s="91"/>
+    </row>
+    <row r="198" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A198" s="44"/>
       <c r="B198" s="50"/>
       <c r="C198" s="44"/>
       <c r="D198" s="70"/>
-      <c r="E198" s="151"/>
+      <c r="E198" s="150"/>
       <c r="F198" s="54"/>
       <c r="G198" s="44"/>
       <c r="H198" s="65"/>
@@ -9686,17 +9681,17 @@
       <c r="T198" s="54"/>
       <c r="U198" s="54"/>
       <c r="V198" s="54"/>
-      <c r="W198" s="101"/>
+      <c r="W198" s="100"/>
       <c r="X198" s="57"/>
       <c r="Y198" s="58"/>
-      <c r="Z198" s="92"/>
-    </row>
-    <row r="199" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z198" s="91"/>
+    </row>
+    <row r="199" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A199" s="44"/>
       <c r="B199" s="50"/>
       <c r="C199" s="44"/>
       <c r="D199" s="70"/>
-      <c r="E199" s="151"/>
+      <c r="E199" s="150"/>
       <c r="F199" s="54"/>
       <c r="G199" s="44"/>
       <c r="H199" s="65"/>
@@ -9714,17 +9709,17 @@
       <c r="T199" s="54"/>
       <c r="U199" s="54"/>
       <c r="V199" s="54"/>
-      <c r="W199" s="101"/>
+      <c r="W199" s="100"/>
       <c r="X199" s="57"/>
       <c r="Y199" s="58"/>
-      <c r="Z199" s="92"/>
-    </row>
-    <row r="200" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z199" s="91"/>
+    </row>
+    <row r="200" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A200" s="44"/>
       <c r="B200" s="50"/>
       <c r="C200" s="44"/>
       <c r="D200" s="70"/>
-      <c r="E200" s="151"/>
+      <c r="E200" s="150"/>
       <c r="F200" s="54"/>
       <c r="G200" s="44"/>
       <c r="H200" s="65"/>
@@ -9742,17 +9737,17 @@
       <c r="T200" s="54"/>
       <c r="U200" s="54"/>
       <c r="V200" s="54"/>
-      <c r="W200" s="101"/>
+      <c r="W200" s="100"/>
       <c r="X200" s="57"/>
       <c r="Y200" s="58"/>
-      <c r="Z200" s="92"/>
-    </row>
-    <row r="201" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z200" s="91"/>
+    </row>
+    <row r="201" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A201" s="44"/>
       <c r="B201" s="50"/>
       <c r="C201" s="44"/>
       <c r="D201" s="70"/>
-      <c r="E201" s="151"/>
+      <c r="E201" s="150"/>
       <c r="F201" s="54"/>
       <c r="G201" s="44"/>
       <c r="H201" s="65"/>
@@ -9770,17 +9765,17 @@
       <c r="T201" s="54"/>
       <c r="U201" s="54"/>
       <c r="V201" s="54"/>
-      <c r="W201" s="101"/>
+      <c r="W201" s="100"/>
       <c r="X201" s="57"/>
       <c r="Y201" s="58"/>
-      <c r="Z201" s="92"/>
-    </row>
-    <row r="202" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z201" s="91"/>
+    </row>
+    <row r="202" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A202" s="44"/>
       <c r="B202" s="50"/>
       <c r="C202" s="44"/>
       <c r="D202" s="70"/>
-      <c r="E202" s="151"/>
+      <c r="E202" s="150"/>
       <c r="F202" s="54"/>
       <c r="G202" s="44"/>
       <c r="H202" s="65"/>
@@ -9798,17 +9793,17 @@
       <c r="T202" s="54"/>
       <c r="U202" s="54"/>
       <c r="V202" s="54"/>
-      <c r="W202" s="101"/>
+      <c r="W202" s="100"/>
       <c r="X202" s="57"/>
       <c r="Y202" s="58"/>
-      <c r="Z202" s="92"/>
-    </row>
-    <row r="203" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z202" s="91"/>
+    </row>
+    <row r="203" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A203" s="44"/>
       <c r="B203" s="50"/>
       <c r="C203" s="44"/>
       <c r="D203" s="70"/>
-      <c r="E203" s="151"/>
+      <c r="E203" s="150"/>
       <c r="F203" s="54"/>
       <c r="G203" s="44"/>
       <c r="H203" s="65"/>
@@ -9826,17 +9821,17 @@
       <c r="T203" s="54"/>
       <c r="U203" s="54"/>
       <c r="V203" s="54"/>
-      <c r="W203" s="101"/>
+      <c r="W203" s="100"/>
       <c r="X203" s="57"/>
       <c r="Y203" s="58"/>
-      <c r="Z203" s="92"/>
-    </row>
-    <row r="204" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z203" s="91"/>
+    </row>
+    <row r="204" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A204" s="44"/>
       <c r="B204" s="50"/>
       <c r="C204" s="44"/>
       <c r="D204" s="70"/>
-      <c r="E204" s="151"/>
+      <c r="E204" s="150"/>
       <c r="F204" s="54"/>
       <c r="G204" s="44"/>
       <c r="H204" s="65"/>
@@ -9854,17 +9849,17 @@
       <c r="T204" s="54"/>
       <c r="U204" s="54"/>
       <c r="V204" s="54"/>
-      <c r="W204" s="101"/>
+      <c r="W204" s="100"/>
       <c r="X204" s="57"/>
       <c r="Y204" s="58"/>
-      <c r="Z204" s="92"/>
-    </row>
-    <row r="205" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z204" s="91"/>
+    </row>
+    <row r="205" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A205" s="44"/>
       <c r="B205" s="50"/>
       <c r="C205" s="44"/>
       <c r="D205" s="70"/>
-      <c r="E205" s="151"/>
+      <c r="E205" s="150"/>
       <c r="F205" s="54"/>
       <c r="G205" s="44"/>
       <c r="H205" s="65"/>
@@ -9882,17 +9877,17 @@
       <c r="T205" s="54"/>
       <c r="U205" s="54"/>
       <c r="V205" s="54"/>
-      <c r="W205" s="101"/>
+      <c r="W205" s="100"/>
       <c r="X205" s="57"/>
       <c r="Y205" s="58"/>
-      <c r="Z205" s="92"/>
-    </row>
-    <row r="206" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z205" s="91"/>
+    </row>
+    <row r="206" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A206" s="44"/>
       <c r="B206" s="50"/>
       <c r="C206" s="44"/>
       <c r="D206" s="70"/>
-      <c r="E206" s="151"/>
+      <c r="E206" s="150"/>
       <c r="F206" s="54"/>
       <c r="G206" s="44"/>
       <c r="H206" s="65"/>
@@ -9910,17 +9905,17 @@
       <c r="T206" s="54"/>
       <c r="U206" s="54"/>
       <c r="V206" s="54"/>
-      <c r="W206" s="101"/>
+      <c r="W206" s="100"/>
       <c r="X206" s="57"/>
       <c r="Y206" s="58"/>
-      <c r="Z206" s="92"/>
-    </row>
-    <row r="207" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z206" s="91"/>
+    </row>
+    <row r="207" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A207" s="44"/>
       <c r="B207" s="50"/>
       <c r="C207" s="44"/>
       <c r="D207" s="70"/>
-      <c r="E207" s="151"/>
+      <c r="E207" s="150"/>
       <c r="F207" s="54"/>
       <c r="G207" s="44"/>
       <c r="H207" s="65"/>
@@ -9938,17 +9933,17 @@
       <c r="T207" s="54"/>
       <c r="U207" s="54"/>
       <c r="V207" s="54"/>
-      <c r="W207" s="101"/>
+      <c r="W207" s="100"/>
       <c r="X207" s="57"/>
       <c r="Y207" s="58"/>
-      <c r="Z207" s="92"/>
-    </row>
-    <row r="208" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z207" s="91"/>
+    </row>
+    <row r="208" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A208" s="44"/>
       <c r="B208" s="50"/>
       <c r="C208" s="44"/>
       <c r="D208" s="70"/>
-      <c r="E208" s="151"/>
+      <c r="E208" s="150"/>
       <c r="F208" s="54"/>
       <c r="G208" s="44"/>
       <c r="H208" s="65"/>
@@ -9966,17 +9961,17 @@
       <c r="T208" s="54"/>
       <c r="U208" s="54"/>
       <c r="V208" s="54"/>
-      <c r="W208" s="101"/>
+      <c r="W208" s="100"/>
       <c r="X208" s="57"/>
       <c r="Y208" s="58"/>
-      <c r="Z208" s="92"/>
-    </row>
-    <row r="209" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z208" s="91"/>
+    </row>
+    <row r="209" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A209" s="44"/>
       <c r="B209" s="50"/>
       <c r="C209" s="44"/>
       <c r="D209" s="70"/>
-      <c r="E209" s="151"/>
+      <c r="E209" s="150"/>
       <c r="F209" s="54"/>
       <c r="G209" s="44"/>
       <c r="H209" s="65"/>
@@ -9994,17 +9989,17 @@
       <c r="T209" s="54"/>
       <c r="U209" s="54"/>
       <c r="V209" s="54"/>
-      <c r="W209" s="101"/>
+      <c r="W209" s="100"/>
       <c r="X209" s="57"/>
       <c r="Y209" s="58"/>
-      <c r="Z209" s="92"/>
-    </row>
-    <row r="210" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z209" s="91"/>
+    </row>
+    <row r="210" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A210" s="44"/>
       <c r="B210" s="50"/>
       <c r="C210" s="44"/>
       <c r="D210" s="70"/>
-      <c r="E210" s="151"/>
+      <c r="E210" s="150"/>
       <c r="F210" s="54"/>
       <c r="G210" s="44"/>
       <c r="H210" s="65"/>
@@ -10022,17 +10017,17 @@
       <c r="T210" s="54"/>
       <c r="U210" s="54"/>
       <c r="V210" s="54"/>
-      <c r="W210" s="101"/>
+      <c r="W210" s="100"/>
       <c r="X210" s="57"/>
       <c r="Y210" s="58"/>
-      <c r="Z210" s="92"/>
-    </row>
-    <row r="211" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z210" s="91"/>
+    </row>
+    <row r="211" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A211" s="44"/>
       <c r="B211" s="50"/>
       <c r="C211" s="44"/>
       <c r="D211" s="70"/>
-      <c r="E211" s="151"/>
+      <c r="E211" s="150"/>
       <c r="F211" s="54"/>
       <c r="G211" s="44"/>
       <c r="H211" s="65"/>
@@ -10050,17 +10045,17 @@
       <c r="T211" s="54"/>
       <c r="U211" s="54"/>
       <c r="V211" s="54"/>
-      <c r="W211" s="101"/>
+      <c r="W211" s="100"/>
       <c r="X211" s="57"/>
       <c r="Y211" s="58"/>
-      <c r="Z211" s="92"/>
-    </row>
-    <row r="212" spans="1:26" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z211" s="91"/>
+    </row>
+    <row r="212" spans="1:26" s="11" customFormat="1" ht="17.25">
       <c r="A212" s="44"/>
       <c r="B212" s="50"/>
       <c r="C212" s="44"/>
       <c r="D212" s="70"/>
-      <c r="E212" s="151"/>
+      <c r="E212" s="150"/>
       <c r="F212" s="54"/>
       <c r="G212" s="44"/>
       <c r="H212" s="65"/>
@@ -10078,17 +10073,17 @@
       <c r="T212" s="54"/>
       <c r="U212" s="54"/>
       <c r="V212" s="54"/>
-      <c r="W212" s="101"/>
+      <c r="W212" s="100"/>
       <c r="X212" s="57"/>
       <c r="Y212" s="58"/>
-      <c r="Z212" s="92"/>
-    </row>
-    <row r="213" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z212" s="91"/>
+    </row>
+    <row r="213" spans="1:26" s="11" customFormat="1">
       <c r="A213" s="44"/>
-      <c r="B213" s="114"/>
+      <c r="B213" s="113"/>
       <c r="C213" s="20"/>
       <c r="D213" s="68"/>
-      <c r="E213" s="146"/>
+      <c r="E213" s="145"/>
       <c r="G213" s="20"/>
       <c r="H213" s="61"/>
       <c r="I213" s="20"/>
@@ -10099,15 +10094,15 @@
       <c r="S213" s="20"/>
       <c r="V213" s="14"/>
       <c r="W213" s="14"/>
-      <c r="Y213" s="115"/>
-      <c r="Z213" s="92"/>
-    </row>
-    <row r="214" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y213" s="114"/>
+      <c r="Z213" s="91"/>
+    </row>
+    <row r="214" spans="1:26" s="11" customFormat="1">
       <c r="A214" s="44"/>
-      <c r="B214" s="114"/>
+      <c r="B214" s="113"/>
       <c r="C214" s="20"/>
       <c r="D214" s="68"/>
-      <c r="E214" s="146"/>
+      <c r="E214" s="145"/>
       <c r="G214" s="20"/>
       <c r="H214" s="61"/>
       <c r="I214" s="20"/>
@@ -10118,15 +10113,15 @@
       <c r="S214" s="20"/>
       <c r="V214" s="14"/>
       <c r="W214" s="14"/>
-      <c r="Y214" s="115"/>
-      <c r="Z214" s="92"/>
-    </row>
-    <row r="215" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y214" s="114"/>
+      <c r="Z214" s="91"/>
+    </row>
+    <row r="215" spans="1:26" s="11" customFormat="1">
       <c r="A215" s="44"/>
-      <c r="B215" s="114"/>
+      <c r="B215" s="113"/>
       <c r="C215" s="20"/>
       <c r="D215" s="68"/>
-      <c r="E215" s="146"/>
+      <c r="E215" s="145"/>
       <c r="G215" s="20"/>
       <c r="H215" s="61"/>
       <c r="I215" s="20"/>
@@ -10137,15 +10132,15 @@
       <c r="S215" s="20"/>
       <c r="V215" s="14"/>
       <c r="W215" s="14"/>
-      <c r="Y215" s="115"/>
-      <c r="Z215" s="92"/>
-    </row>
-    <row r="216" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y215" s="114"/>
+      <c r="Z215" s="91"/>
+    </row>
+    <row r="216" spans="1:26" s="11" customFormat="1">
       <c r="A216" s="44"/>
-      <c r="B216" s="114"/>
+      <c r="B216" s="113"/>
       <c r="C216" s="20"/>
       <c r="D216" s="68"/>
-      <c r="E216" s="146"/>
+      <c r="E216" s="145"/>
       <c r="G216" s="20"/>
       <c r="H216" s="61"/>
       <c r="I216" s="20"/>
@@ -10156,15 +10151,15 @@
       <c r="S216" s="20"/>
       <c r="V216" s="14"/>
       <c r="W216" s="14"/>
-      <c r="Y216" s="115"/>
-      <c r="Z216" s="92"/>
-    </row>
-    <row r="217" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y216" s="114"/>
+      <c r="Z216" s="91"/>
+    </row>
+    <row r="217" spans="1:26" s="11" customFormat="1">
       <c r="A217" s="44"/>
-      <c r="B217" s="114"/>
+      <c r="B217" s="113"/>
       <c r="C217" s="20"/>
       <c r="D217" s="68"/>
-      <c r="E217" s="146"/>
+      <c r="E217" s="145"/>
       <c r="G217" s="20"/>
       <c r="H217" s="61"/>
       <c r="I217" s="20"/>
@@ -10175,15 +10170,15 @@
       <c r="S217" s="20"/>
       <c r="V217" s="14"/>
       <c r="W217" s="14"/>
-      <c r="Y217" s="115"/>
-      <c r="Z217" s="92"/>
-    </row>
-    <row r="218" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y217" s="114"/>
+      <c r="Z217" s="91"/>
+    </row>
+    <row r="218" spans="1:26" s="11" customFormat="1">
       <c r="A218" s="44"/>
-      <c r="B218" s="114"/>
+      <c r="B218" s="113"/>
       <c r="C218" s="20"/>
       <c r="D218" s="68"/>
-      <c r="E218" s="146"/>
+      <c r="E218" s="145"/>
       <c r="G218" s="20"/>
       <c r="H218" s="61"/>
       <c r="I218" s="20"/>
@@ -10194,15 +10189,15 @@
       <c r="S218" s="20"/>
       <c r="V218" s="14"/>
       <c r="W218" s="14"/>
-      <c r="Y218" s="115"/>
-      <c r="Z218" s="92"/>
-    </row>
-    <row r="219" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y218" s="114"/>
+      <c r="Z218" s="91"/>
+    </row>
+    <row r="219" spans="1:26" s="11" customFormat="1">
       <c r="A219" s="44"/>
-      <c r="B219" s="114"/>
+      <c r="B219" s="113"/>
       <c r="C219" s="20"/>
       <c r="D219" s="68"/>
-      <c r="E219" s="146"/>
+      <c r="E219" s="145"/>
       <c r="G219" s="20"/>
       <c r="H219" s="61"/>
       <c r="I219" s="20"/>
@@ -10213,15 +10208,15 @@
       <c r="S219" s="20"/>
       <c r="V219" s="14"/>
       <c r="W219" s="14"/>
-      <c r="Y219" s="115"/>
-      <c r="Z219" s="92"/>
-    </row>
-    <row r="220" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y219" s="114"/>
+      <c r="Z219" s="91"/>
+    </row>
+    <row r="220" spans="1:26" s="11" customFormat="1">
       <c r="A220" s="44"/>
-      <c r="B220" s="114"/>
+      <c r="B220" s="113"/>
       <c r="C220" s="20"/>
       <c r="D220" s="68"/>
-      <c r="E220" s="146"/>
+      <c r="E220" s="145"/>
       <c r="G220" s="20"/>
       <c r="H220" s="61"/>
       <c r="I220" s="20"/>
@@ -10232,15 +10227,15 @@
       <c r="S220" s="20"/>
       <c r="V220" s="14"/>
       <c r="W220" s="14"/>
-      <c r="Y220" s="115"/>
-      <c r="Z220" s="92"/>
-    </row>
-    <row r="221" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y220" s="114"/>
+      <c r="Z220" s="91"/>
+    </row>
+    <row r="221" spans="1:26" s="11" customFormat="1">
       <c r="A221" s="44"/>
-      <c r="B221" s="114"/>
+      <c r="B221" s="113"/>
       <c r="C221" s="20"/>
       <c r="D221" s="68"/>
-      <c r="E221" s="146"/>
+      <c r="E221" s="145"/>
       <c r="G221" s="20"/>
       <c r="H221" s="61"/>
       <c r="I221" s="20"/>
@@ -10251,15 +10246,15 @@
       <c r="S221" s="20"/>
       <c r="V221" s="14"/>
       <c r="W221" s="14"/>
-      <c r="Y221" s="115"/>
-      <c r="Z221" s="92"/>
-    </row>
-    <row r="222" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y221" s="114"/>
+      <c r="Z221" s="91"/>
+    </row>
+    <row r="222" spans="1:26" s="11" customFormat="1">
       <c r="A222" s="44"/>
-      <c r="B222" s="114"/>
+      <c r="B222" s="113"/>
       <c r="C222" s="20"/>
       <c r="D222" s="68"/>
-      <c r="E222" s="146"/>
+      <c r="E222" s="145"/>
       <c r="G222" s="20"/>
       <c r="H222" s="61"/>
       <c r="I222" s="20"/>
@@ -10270,15 +10265,15 @@
       <c r="S222" s="20"/>
       <c r="V222" s="14"/>
       <c r="W222" s="14"/>
-      <c r="Y222" s="115"/>
-      <c r="Z222" s="92"/>
-    </row>
-    <row r="223" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y222" s="114"/>
+      <c r="Z222" s="91"/>
+    </row>
+    <row r="223" spans="1:26" s="11" customFormat="1">
       <c r="A223" s="44"/>
-      <c r="B223" s="114"/>
+      <c r="B223" s="113"/>
       <c r="C223" s="20"/>
       <c r="D223" s="68"/>
-      <c r="E223" s="146"/>
+      <c r="E223" s="145"/>
       <c r="G223" s="20"/>
       <c r="H223" s="61"/>
       <c r="I223" s="20"/>
@@ -10289,15 +10284,15 @@
       <c r="S223" s="20"/>
       <c r="V223" s="14"/>
       <c r="W223" s="14"/>
-      <c r="Y223" s="115"/>
-      <c r="Z223" s="92"/>
-    </row>
-    <row r="224" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y223" s="114"/>
+      <c r="Z223" s="91"/>
+    </row>
+    <row r="224" spans="1:26" s="11" customFormat="1">
       <c r="A224" s="44"/>
-      <c r="B224" s="114"/>
+      <c r="B224" s="113"/>
       <c r="C224" s="20"/>
       <c r="D224" s="68"/>
-      <c r="E224" s="146"/>
+      <c r="E224" s="145"/>
       <c r="G224" s="20"/>
       <c r="H224" s="61"/>
       <c r="I224" s="20"/>
@@ -10308,15 +10303,15 @@
       <c r="S224" s="20"/>
       <c r="V224" s="14"/>
       <c r="W224" s="14"/>
-      <c r="Y224" s="115"/>
-      <c r="Z224" s="92"/>
-    </row>
-    <row r="225" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y224" s="114"/>
+      <c r="Z224" s="91"/>
+    </row>
+    <row r="225" spans="1:26" s="11" customFormat="1">
       <c r="A225" s="44"/>
-      <c r="B225" s="114"/>
+      <c r="B225" s="113"/>
       <c r="C225" s="20"/>
       <c r="D225" s="68"/>
-      <c r="E225" s="146"/>
+      <c r="E225" s="145"/>
       <c r="G225" s="20"/>
       <c r="H225" s="61"/>
       <c r="I225" s="20"/>
@@ -10327,15 +10322,15 @@
       <c r="S225" s="20"/>
       <c r="V225" s="14"/>
       <c r="W225" s="14"/>
-      <c r="Y225" s="115"/>
-      <c r="Z225" s="92"/>
-    </row>
-    <row r="226" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y225" s="114"/>
+      <c r="Z225" s="91"/>
+    </row>
+    <row r="226" spans="1:26" s="11" customFormat="1">
       <c r="A226" s="44"/>
-      <c r="B226" s="114"/>
+      <c r="B226" s="113"/>
       <c r="C226" s="20"/>
       <c r="D226" s="68"/>
-      <c r="E226" s="146"/>
+      <c r="E226" s="145"/>
       <c r="G226" s="20"/>
       <c r="H226" s="61"/>
       <c r="I226" s="20"/>
@@ -10346,15 +10341,15 @@
       <c r="S226" s="20"/>
       <c r="V226" s="14"/>
       <c r="W226" s="14"/>
-      <c r="Y226" s="115"/>
-      <c r="Z226" s="92"/>
-    </row>
-    <row r="227" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y226" s="114"/>
+      <c r="Z226" s="91"/>
+    </row>
+    <row r="227" spans="1:26" s="11" customFormat="1">
       <c r="A227" s="44"/>
-      <c r="B227" s="114"/>
+      <c r="B227" s="113"/>
       <c r="C227" s="20"/>
       <c r="D227" s="68"/>
-      <c r="E227" s="146"/>
+      <c r="E227" s="145"/>
       <c r="G227" s="20"/>
       <c r="H227" s="61"/>
       <c r="I227" s="20"/>
@@ -10365,15 +10360,15 @@
       <c r="S227" s="20"/>
       <c r="V227" s="14"/>
       <c r="W227" s="14"/>
-      <c r="Y227" s="115"/>
-      <c r="Z227" s="92"/>
-    </row>
-    <row r="228" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y227" s="114"/>
+      <c r="Z227" s="91"/>
+    </row>
+    <row r="228" spans="1:26" s="11" customFormat="1">
       <c r="A228" s="44"/>
-      <c r="B228" s="114"/>
+      <c r="B228" s="113"/>
       <c r="C228" s="20"/>
       <c r="D228" s="68"/>
-      <c r="E228" s="146"/>
+      <c r="E228" s="145"/>
       <c r="G228" s="20"/>
       <c r="H228" s="61"/>
       <c r="I228" s="20"/>
@@ -10384,15 +10379,15 @@
       <c r="S228" s="20"/>
       <c r="V228" s="14"/>
       <c r="W228" s="14"/>
-      <c r="Y228" s="115"/>
-      <c r="Z228" s="92"/>
-    </row>
-    <row r="229" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y228" s="114"/>
+      <c r="Z228" s="91"/>
+    </row>
+    <row r="229" spans="1:26" s="11" customFormat="1">
       <c r="A229" s="44"/>
-      <c r="B229" s="114"/>
+      <c r="B229" s="113"/>
       <c r="C229" s="20"/>
       <c r="D229" s="68"/>
-      <c r="E229" s="146"/>
+      <c r="E229" s="145"/>
       <c r="G229" s="20"/>
       <c r="H229" s="61"/>
       <c r="I229" s="20"/>
@@ -10403,15 +10398,15 @@
       <c r="S229" s="20"/>
       <c r="V229" s="14"/>
       <c r="W229" s="14"/>
-      <c r="Y229" s="115"/>
-      <c r="Z229" s="92"/>
-    </row>
-    <row r="230" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y229" s="114"/>
+      <c r="Z229" s="91"/>
+    </row>
+    <row r="230" spans="1:26" s="11" customFormat="1">
       <c r="A230" s="44"/>
-      <c r="B230" s="114"/>
+      <c r="B230" s="113"/>
       <c r="C230" s="20"/>
       <c r="D230" s="68"/>
-      <c r="E230" s="146"/>
+      <c r="E230" s="145"/>
       <c r="G230" s="20"/>
       <c r="H230" s="61"/>
       <c r="I230" s="20"/>
@@ -10422,15 +10417,15 @@
       <c r="S230" s="20"/>
       <c r="V230" s="14"/>
       <c r="W230" s="14"/>
-      <c r="Y230" s="115"/>
-      <c r="Z230" s="92"/>
-    </row>
-    <row r="231" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y230" s="114"/>
+      <c r="Z230" s="91"/>
+    </row>
+    <row r="231" spans="1:26" s="11" customFormat="1">
       <c r="A231" s="44"/>
-      <c r="B231" s="114"/>
+      <c r="B231" s="113"/>
       <c r="C231" s="20"/>
       <c r="D231" s="68"/>
-      <c r="E231" s="146"/>
+      <c r="E231" s="145"/>
       <c r="G231" s="20"/>
       <c r="H231" s="61"/>
       <c r="I231" s="20"/>
@@ -10441,15 +10436,15 @@
       <c r="S231" s="20"/>
       <c r="V231" s="14"/>
       <c r="W231" s="14"/>
-      <c r="Y231" s="115"/>
-      <c r="Z231" s="92"/>
-    </row>
-    <row r="232" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y231" s="114"/>
+      <c r="Z231" s="91"/>
+    </row>
+    <row r="232" spans="1:26" s="11" customFormat="1">
       <c r="A232" s="44"/>
-      <c r="B232" s="114"/>
+      <c r="B232" s="113"/>
       <c r="C232" s="20"/>
       <c r="D232" s="68"/>
-      <c r="E232" s="146"/>
+      <c r="E232" s="145"/>
       <c r="G232" s="20"/>
       <c r="H232" s="61"/>
       <c r="I232" s="20"/>
@@ -10460,15 +10455,15 @@
       <c r="S232" s="20"/>
       <c r="V232" s="14"/>
       <c r="W232" s="14"/>
-      <c r="Y232" s="115"/>
-      <c r="Z232" s="92"/>
-    </row>
-    <row r="233" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y232" s="114"/>
+      <c r="Z232" s="91"/>
+    </row>
+    <row r="233" spans="1:26" s="11" customFormat="1">
       <c r="A233" s="44"/>
-      <c r="B233" s="114"/>
+      <c r="B233" s="113"/>
       <c r="C233" s="20"/>
       <c r="D233" s="68"/>
-      <c r="E233" s="146"/>
+      <c r="E233" s="145"/>
       <c r="G233" s="20"/>
       <c r="H233" s="61"/>
       <c r="I233" s="20"/>
@@ -10479,15 +10474,15 @@
       <c r="S233" s="20"/>
       <c r="V233" s="14"/>
       <c r="W233" s="14"/>
-      <c r="Y233" s="115"/>
-      <c r="Z233" s="92"/>
-    </row>
-    <row r="234" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y233" s="114"/>
+      <c r="Z233" s="91"/>
+    </row>
+    <row r="234" spans="1:26" s="11" customFormat="1">
       <c r="A234" s="44"/>
-      <c r="B234" s="114"/>
+      <c r="B234" s="113"/>
       <c r="C234" s="20"/>
       <c r="D234" s="68"/>
-      <c r="E234" s="146"/>
+      <c r="E234" s="145"/>
       <c r="G234" s="20"/>
       <c r="H234" s="61"/>
       <c r="I234" s="20"/>
@@ -10498,15 +10493,15 @@
       <c r="S234" s="20"/>
       <c r="V234" s="14"/>
       <c r="W234" s="14"/>
-      <c r="Y234" s="115"/>
-      <c r="Z234" s="92"/>
-    </row>
-    <row r="235" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y234" s="114"/>
+      <c r="Z234" s="91"/>
+    </row>
+    <row r="235" spans="1:26" s="11" customFormat="1">
       <c r="A235" s="44"/>
-      <c r="B235" s="114"/>
+      <c r="B235" s="113"/>
       <c r="C235" s="20"/>
       <c r="D235" s="68"/>
-      <c r="E235" s="146"/>
+      <c r="E235" s="145"/>
       <c r="G235" s="20"/>
       <c r="H235" s="61"/>
       <c r="I235" s="20"/>
@@ -10517,15 +10512,15 @@
       <c r="S235" s="20"/>
       <c r="V235" s="14"/>
       <c r="W235" s="14"/>
-      <c r="Y235" s="115"/>
-      <c r="Z235" s="92"/>
-    </row>
-    <row r="236" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y235" s="114"/>
+      <c r="Z235" s="91"/>
+    </row>
+    <row r="236" spans="1:26" s="11" customFormat="1">
       <c r="A236" s="44"/>
-      <c r="B236" s="114"/>
+      <c r="B236" s="113"/>
       <c r="C236" s="20"/>
       <c r="D236" s="68"/>
-      <c r="E236" s="146"/>
+      <c r="E236" s="145"/>
       <c r="G236" s="20"/>
       <c r="H236" s="61"/>
       <c r="I236" s="20"/>
@@ -10536,15 +10531,15 @@
       <c r="S236" s="20"/>
       <c r="V236" s="14"/>
       <c r="W236" s="14"/>
-      <c r="Y236" s="115"/>
-      <c r="Z236" s="92"/>
-    </row>
-    <row r="237" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y236" s="114"/>
+      <c r="Z236" s="91"/>
+    </row>
+    <row r="237" spans="1:26" s="11" customFormat="1">
       <c r="A237" s="44"/>
-      <c r="B237" s="114"/>
+      <c r="B237" s="113"/>
       <c r="C237" s="20"/>
       <c r="D237" s="68"/>
-      <c r="E237" s="146"/>
+      <c r="E237" s="145"/>
       <c r="G237" s="20"/>
       <c r="H237" s="61"/>
       <c r="I237" s="20"/>
@@ -10555,15 +10550,15 @@
       <c r="S237" s="20"/>
       <c r="V237" s="14"/>
       <c r="W237" s="14"/>
-      <c r="Y237" s="115"/>
-      <c r="Z237" s="92"/>
-    </row>
-    <row r="238" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y237" s="114"/>
+      <c r="Z237" s="91"/>
+    </row>
+    <row r="238" spans="1:26" s="11" customFormat="1">
       <c r="A238" s="44"/>
-      <c r="B238" s="114"/>
+      <c r="B238" s="113"/>
       <c r="C238" s="20"/>
       <c r="D238" s="68"/>
-      <c r="E238" s="146"/>
+      <c r="E238" s="145"/>
       <c r="G238" s="20"/>
       <c r="H238" s="61"/>
       <c r="I238" s="20"/>
@@ -10574,15 +10569,15 @@
       <c r="S238" s="20"/>
       <c r="V238" s="14"/>
       <c r="W238" s="14"/>
-      <c r="Y238" s="115"/>
-      <c r="Z238" s="92"/>
-    </row>
-    <row r="239" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y238" s="114"/>
+      <c r="Z238" s="91"/>
+    </row>
+    <row r="239" spans="1:26" s="11" customFormat="1">
       <c r="A239" s="44"/>
-      <c r="B239" s="114"/>
+      <c r="B239" s="113"/>
       <c r="C239" s="20"/>
       <c r="D239" s="68"/>
-      <c r="E239" s="146"/>
+      <c r="E239" s="145"/>
       <c r="G239" s="20"/>
       <c r="H239" s="61"/>
       <c r="I239" s="20"/>
@@ -10593,15 +10588,15 @@
       <c r="S239" s="20"/>
       <c r="V239" s="14"/>
       <c r="W239" s="14"/>
-      <c r="Y239" s="115"/>
-      <c r="Z239" s="92"/>
-    </row>
-    <row r="240" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y239" s="114"/>
+      <c r="Z239" s="91"/>
+    </row>
+    <row r="240" spans="1:26" s="11" customFormat="1">
       <c r="A240" s="44"/>
-      <c r="B240" s="114"/>
+      <c r="B240" s="113"/>
       <c r="C240" s="20"/>
       <c r="D240" s="68"/>
-      <c r="E240" s="146"/>
+      <c r="E240" s="145"/>
       <c r="G240" s="20"/>
       <c r="H240" s="61"/>
       <c r="I240" s="20"/>
@@ -10612,15 +10607,15 @@
       <c r="S240" s="20"/>
       <c r="V240" s="14"/>
       <c r="W240" s="14"/>
-      <c r="Y240" s="115"/>
-      <c r="Z240" s="92"/>
-    </row>
-    <row r="241" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y240" s="114"/>
+      <c r="Z240" s="91"/>
+    </row>
+    <row r="241" spans="1:26" s="11" customFormat="1">
       <c r="A241" s="44"/>
-      <c r="B241" s="114"/>
+      <c r="B241" s="113"/>
       <c r="C241" s="20"/>
       <c r="D241" s="68"/>
-      <c r="E241" s="146"/>
+      <c r="E241" s="145"/>
       <c r="G241" s="20"/>
       <c r="H241" s="61"/>
       <c r="I241" s="20"/>
@@ -10631,15 +10626,15 @@
       <c r="S241" s="20"/>
       <c r="V241" s="14"/>
       <c r="W241" s="14"/>
-      <c r="Y241" s="115"/>
-      <c r="Z241" s="92"/>
-    </row>
-    <row r="242" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y241" s="114"/>
+      <c r="Z241" s="91"/>
+    </row>
+    <row r="242" spans="1:26" s="11" customFormat="1">
       <c r="A242" s="44"/>
-      <c r="B242" s="114"/>
+      <c r="B242" s="113"/>
       <c r="C242" s="20"/>
       <c r="D242" s="68"/>
-      <c r="E242" s="146"/>
+      <c r="E242" s="145"/>
       <c r="G242" s="20"/>
       <c r="H242" s="61"/>
       <c r="I242" s="20"/>
@@ -10650,15 +10645,15 @@
       <c r="S242" s="20"/>
       <c r="V242" s="14"/>
       <c r="W242" s="14"/>
-      <c r="Y242" s="115"/>
-      <c r="Z242" s="92"/>
-    </row>
-    <row r="243" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y242" s="114"/>
+      <c r="Z242" s="91"/>
+    </row>
+    <row r="243" spans="1:26" s="11" customFormat="1">
       <c r="A243" s="44"/>
-      <c r="B243" s="114"/>
+      <c r="B243" s="113"/>
       <c r="C243" s="20"/>
       <c r="D243" s="68"/>
-      <c r="E243" s="146"/>
+      <c r="E243" s="145"/>
       <c r="G243" s="20"/>
       <c r="H243" s="61"/>
       <c r="I243" s="20"/>
@@ -10669,15 +10664,15 @@
       <c r="S243" s="20"/>
       <c r="V243" s="14"/>
       <c r="W243" s="14"/>
-      <c r="Y243" s="115"/>
-      <c r="Z243" s="92"/>
-    </row>
-    <row r="244" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y243" s="114"/>
+      <c r="Z243" s="91"/>
+    </row>
+    <row r="244" spans="1:26" s="11" customFormat="1">
       <c r="A244" s="44"/>
-      <c r="B244" s="114"/>
+      <c r="B244" s="113"/>
       <c r="C244" s="20"/>
       <c r="D244" s="68"/>
-      <c r="E244" s="146"/>
+      <c r="E244" s="145"/>
       <c r="G244" s="20"/>
       <c r="H244" s="61"/>
       <c r="I244" s="20"/>
@@ -10688,15 +10683,15 @@
       <c r="S244" s="20"/>
       <c r="V244" s="14"/>
       <c r="W244" s="14"/>
-      <c r="Y244" s="115"/>
-      <c r="Z244" s="92"/>
-    </row>
-    <row r="245" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y244" s="114"/>
+      <c r="Z244" s="91"/>
+    </row>
+    <row r="245" spans="1:26" s="11" customFormat="1">
       <c r="A245" s="44"/>
-      <c r="B245" s="114"/>
+      <c r="B245" s="113"/>
       <c r="C245" s="20"/>
       <c r="D245" s="68"/>
-      <c r="E245" s="146"/>
+      <c r="E245" s="145"/>
       <c r="G245" s="20"/>
       <c r="H245" s="61"/>
       <c r="I245" s="20"/>
@@ -10707,15 +10702,15 @@
       <c r="S245" s="20"/>
       <c r="V245" s="14"/>
       <c r="W245" s="14"/>
-      <c r="Y245" s="115"/>
-      <c r="Z245" s="92"/>
-    </row>
-    <row r="246" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y245" s="114"/>
+      <c r="Z245" s="91"/>
+    </row>
+    <row r="246" spans="1:26" s="11" customFormat="1">
       <c r="A246" s="44"/>
-      <c r="B246" s="114"/>
+      <c r="B246" s="113"/>
       <c r="C246" s="20"/>
       <c r="D246" s="68"/>
-      <c r="E246" s="146"/>
+      <c r="E246" s="145"/>
       <c r="G246" s="20"/>
       <c r="H246" s="61"/>
       <c r="I246" s="20"/>
@@ -10726,15 +10721,15 @@
       <c r="S246" s="20"/>
       <c r="V246" s="14"/>
       <c r="W246" s="14"/>
-      <c r="Y246" s="115"/>
-      <c r="Z246" s="92"/>
-    </row>
-    <row r="247" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y246" s="114"/>
+      <c r="Z246" s="91"/>
+    </row>
+    <row r="247" spans="1:26" s="11" customFormat="1">
       <c r="A247" s="44"/>
-      <c r="B247" s="114"/>
+      <c r="B247" s="113"/>
       <c r="C247" s="20"/>
       <c r="D247" s="68"/>
-      <c r="E247" s="146"/>
+      <c r="E247" s="145"/>
       <c r="G247" s="20"/>
       <c r="H247" s="61"/>
       <c r="I247" s="20"/>
@@ -10745,15 +10740,15 @@
       <c r="S247" s="20"/>
       <c r="V247" s="14"/>
       <c r="W247" s="14"/>
-      <c r="Y247" s="115"/>
-      <c r="Z247" s="92"/>
-    </row>
-    <row r="248" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y247" s="114"/>
+      <c r="Z247" s="91"/>
+    </row>
+    <row r="248" spans="1:26" s="11" customFormat="1">
       <c r="A248" s="44"/>
-      <c r="B248" s="114"/>
+      <c r="B248" s="113"/>
       <c r="C248" s="20"/>
       <c r="D248" s="68"/>
-      <c r="E248" s="146"/>
+      <c r="E248" s="145"/>
       <c r="G248" s="20"/>
       <c r="H248" s="61"/>
       <c r="I248" s="20"/>
@@ -10764,15 +10759,15 @@
       <c r="S248" s="20"/>
       <c r="V248" s="14"/>
       <c r="W248" s="14"/>
-      <c r="Y248" s="115"/>
-      <c r="Z248" s="92"/>
-    </row>
-    <row r="249" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y248" s="114"/>
+      <c r="Z248" s="91"/>
+    </row>
+    <row r="249" spans="1:26" s="11" customFormat="1">
       <c r="A249" s="44"/>
-      <c r="B249" s="114"/>
+      <c r="B249" s="113"/>
       <c r="C249" s="20"/>
       <c r="D249" s="68"/>
-      <c r="E249" s="146"/>
+      <c r="E249" s="145"/>
       <c r="G249" s="20"/>
       <c r="H249" s="61"/>
       <c r="I249" s="20"/>
@@ -10783,15 +10778,15 @@
       <c r="S249" s="20"/>
       <c r="V249" s="14"/>
       <c r="W249" s="14"/>
-      <c r="Y249" s="115"/>
-      <c r="Z249" s="92"/>
-    </row>
-    <row r="250" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y249" s="114"/>
+      <c r="Z249" s="91"/>
+    </row>
+    <row r="250" spans="1:26" s="11" customFormat="1">
       <c r="A250" s="44"/>
-      <c r="B250" s="114"/>
+      <c r="B250" s="113"/>
       <c r="C250" s="20"/>
       <c r="D250" s="68"/>
-      <c r="E250" s="146"/>
+      <c r="E250" s="145"/>
       <c r="G250" s="20"/>
       <c r="H250" s="61"/>
       <c r="I250" s="20"/>
@@ -10802,15 +10797,15 @@
       <c r="S250" s="20"/>
       <c r="V250" s="14"/>
       <c r="W250" s="14"/>
-      <c r="Y250" s="115"/>
-      <c r="Z250" s="92"/>
-    </row>
-    <row r="251" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y250" s="114"/>
+      <c r="Z250" s="91"/>
+    </row>
+    <row r="251" spans="1:26" s="11" customFormat="1">
       <c r="A251" s="44"/>
-      <c r="B251" s="114"/>
+      <c r="B251" s="113"/>
       <c r="C251" s="20"/>
       <c r="D251" s="68"/>
-      <c r="E251" s="146"/>
+      <c r="E251" s="145"/>
       <c r="G251" s="20"/>
       <c r="H251" s="61"/>
       <c r="I251" s="20"/>
@@ -10821,15 +10816,15 @@
       <c r="S251" s="20"/>
       <c r="V251" s="14"/>
       <c r="W251" s="14"/>
-      <c r="Y251" s="115"/>
-      <c r="Z251" s="92"/>
-    </row>
-    <row r="252" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y251" s="114"/>
+      <c r="Z251" s="91"/>
+    </row>
+    <row r="252" spans="1:26" s="11" customFormat="1">
       <c r="A252" s="44"/>
-      <c r="B252" s="114"/>
+      <c r="B252" s="113"/>
       <c r="C252" s="20"/>
       <c r="D252" s="68"/>
-      <c r="E252" s="146"/>
+      <c r="E252" s="145"/>
       <c r="G252" s="20"/>
       <c r="H252" s="61"/>
       <c r="I252" s="20"/>
@@ -10840,15 +10835,15 @@
       <c r="S252" s="20"/>
       <c r="V252" s="14"/>
       <c r="W252" s="14"/>
-      <c r="Y252" s="115"/>
-      <c r="Z252" s="92"/>
-    </row>
-    <row r="253" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y252" s="114"/>
+      <c r="Z252" s="91"/>
+    </row>
+    <row r="253" spans="1:26" s="11" customFormat="1">
       <c r="A253" s="44"/>
-      <c r="B253" s="114"/>
+      <c r="B253" s="113"/>
       <c r="C253" s="20"/>
       <c r="D253" s="68"/>
-      <c r="E253" s="146"/>
+      <c r="E253" s="145"/>
       <c r="G253" s="20"/>
       <c r="H253" s="61"/>
       <c r="I253" s="20"/>
@@ -10859,15 +10854,15 @@
       <c r="S253" s="20"/>
       <c r="V253" s="14"/>
       <c r="W253" s="14"/>
-      <c r="Y253" s="115"/>
-      <c r="Z253" s="92"/>
-    </row>
-    <row r="254" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y253" s="114"/>
+      <c r="Z253" s="91"/>
+    </row>
+    <row r="254" spans="1:26" s="11" customFormat="1">
       <c r="A254" s="44"/>
-      <c r="B254" s="114"/>
+      <c r="B254" s="113"/>
       <c r="C254" s="20"/>
       <c r="D254" s="68"/>
-      <c r="E254" s="146"/>
+      <c r="E254" s="145"/>
       <c r="G254" s="20"/>
       <c r="H254" s="61"/>
       <c r="I254" s="20"/>
@@ -10878,15 +10873,15 @@
       <c r="S254" s="20"/>
       <c r="V254" s="14"/>
       <c r="W254" s="14"/>
-      <c r="Y254" s="115"/>
-      <c r="Z254" s="92"/>
-    </row>
-    <row r="255" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y254" s="114"/>
+      <c r="Z254" s="91"/>
+    </row>
+    <row r="255" spans="1:26" s="11" customFormat="1">
       <c r="A255" s="44"/>
-      <c r="B255" s="114"/>
+      <c r="B255" s="113"/>
       <c r="C255" s="20"/>
       <c r="D255" s="68"/>
-      <c r="E255" s="146"/>
+      <c r="E255" s="145"/>
       <c r="G255" s="20"/>
       <c r="H255" s="61"/>
       <c r="I255" s="20"/>
@@ -10897,15 +10892,15 @@
       <c r="S255" s="20"/>
       <c r="V255" s="14"/>
       <c r="W255" s="14"/>
-      <c r="Y255" s="115"/>
-      <c r="Z255" s="92"/>
-    </row>
-    <row r="256" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y255" s="114"/>
+      <c r="Z255" s="91"/>
+    </row>
+    <row r="256" spans="1:26" s="11" customFormat="1">
       <c r="A256" s="44"/>
-      <c r="B256" s="114"/>
+      <c r="B256" s="113"/>
       <c r="C256" s="20"/>
       <c r="D256" s="68"/>
-      <c r="E256" s="146"/>
+      <c r="E256" s="145"/>
       <c r="G256" s="20"/>
       <c r="H256" s="61"/>
       <c r="I256" s="20"/>
@@ -10916,15 +10911,15 @@
       <c r="S256" s="20"/>
       <c r="V256" s="14"/>
       <c r="W256" s="14"/>
-      <c r="Y256" s="115"/>
-      <c r="Z256" s="92"/>
-    </row>
-    <row r="257" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y256" s="114"/>
+      <c r="Z256" s="91"/>
+    </row>
+    <row r="257" spans="1:26" s="11" customFormat="1">
       <c r="A257" s="44"/>
-      <c r="B257" s="114"/>
+      <c r="B257" s="113"/>
       <c r="C257" s="20"/>
       <c r="D257" s="68"/>
-      <c r="E257" s="146"/>
+      <c r="E257" s="145"/>
       <c r="G257" s="20"/>
       <c r="H257" s="61"/>
       <c r="I257" s="20"/>
@@ -10935,15 +10930,15 @@
       <c r="S257" s="20"/>
       <c r="V257" s="14"/>
       <c r="W257" s="14"/>
-      <c r="Y257" s="115"/>
-      <c r="Z257" s="92"/>
-    </row>
-    <row r="258" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y257" s="114"/>
+      <c r="Z257" s="91"/>
+    </row>
+    <row r="258" spans="1:26" s="11" customFormat="1">
       <c r="A258" s="44"/>
-      <c r="B258" s="114"/>
+      <c r="B258" s="113"/>
       <c r="C258" s="20"/>
       <c r="D258" s="68"/>
-      <c r="E258" s="146"/>
+      <c r="E258" s="145"/>
       <c r="G258" s="20"/>
       <c r="H258" s="61"/>
       <c r="I258" s="20"/>
@@ -10954,15 +10949,15 @@
       <c r="S258" s="20"/>
       <c r="V258" s="14"/>
       <c r="W258" s="14"/>
-      <c r="Y258" s="115"/>
-      <c r="Z258" s="92"/>
-    </row>
-    <row r="259" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y258" s="114"/>
+      <c r="Z258" s="91"/>
+    </row>
+    <row r="259" spans="1:26" s="11" customFormat="1">
       <c r="A259" s="20"/>
       <c r="B259" s="46"/>
       <c r="C259" s="20"/>
       <c r="D259" s="68"/>
-      <c r="E259" s="146"/>
+      <c r="E259" s="145"/>
       <c r="G259" s="20"/>
       <c r="H259" s="61"/>
       <c r="I259" s="20"/>
@@ -10973,15 +10968,15 @@
       <c r="S259" s="20"/>
       <c r="V259" s="14"/>
       <c r="W259" s="14"/>
-      <c r="Y259" s="115"/>
-      <c r="Z259" s="92"/>
-    </row>
-    <row r="260" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y259" s="114"/>
+      <c r="Z259" s="91"/>
+    </row>
+    <row r="260" spans="1:26" s="11" customFormat="1">
       <c r="A260" s="20"/>
       <c r="B260" s="46"/>
       <c r="C260" s="20"/>
       <c r="D260" s="68"/>
-      <c r="E260" s="146"/>
+      <c r="E260" s="145"/>
       <c r="G260" s="20"/>
       <c r="H260" s="61"/>
       <c r="I260" s="20"/>
@@ -10992,15 +10987,15 @@
       <c r="S260" s="20"/>
       <c r="V260" s="14"/>
       <c r="W260" s="14"/>
-      <c r="Y260" s="115"/>
-      <c r="Z260" s="92"/>
-    </row>
-    <row r="261" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y260" s="114"/>
+      <c r="Z260" s="91"/>
+    </row>
+    <row r="261" spans="1:26" s="11" customFormat="1">
       <c r="A261" s="20"/>
       <c r="B261" s="46"/>
       <c r="C261" s="20"/>
       <c r="D261" s="68"/>
-      <c r="E261" s="146"/>
+      <c r="E261" s="145"/>
       <c r="G261" s="20"/>
       <c r="H261" s="61"/>
       <c r="I261" s="20"/>
@@ -11011,15 +11006,15 @@
       <c r="S261" s="20"/>
       <c r="V261" s="14"/>
       <c r="W261" s="14"/>
-      <c r="Y261" s="115"/>
-      <c r="Z261" s="92"/>
-    </row>
-    <row r="262" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y261" s="114"/>
+      <c r="Z261" s="91"/>
+    </row>
+    <row r="262" spans="1:26" s="11" customFormat="1">
       <c r="A262" s="20"/>
       <c r="B262" s="46"/>
       <c r="C262" s="20"/>
       <c r="D262" s="68"/>
-      <c r="E262" s="146"/>
+      <c r="E262" s="145"/>
       <c r="G262" s="20"/>
       <c r="H262" s="61"/>
       <c r="I262" s="20"/>
@@ -11030,15 +11025,15 @@
       <c r="S262" s="20"/>
       <c r="V262" s="14"/>
       <c r="W262" s="14"/>
-      <c r="Y262" s="115"/>
-      <c r="Z262" s="92"/>
-    </row>
-    <row r="263" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y262" s="114"/>
+      <c r="Z262" s="91"/>
+    </row>
+    <row r="263" spans="1:26" s="11" customFormat="1">
       <c r="A263" s="20"/>
       <c r="B263" s="46"/>
       <c r="C263" s="20"/>
       <c r="D263" s="68"/>
-      <c r="E263" s="146"/>
+      <c r="E263" s="145"/>
       <c r="G263" s="20"/>
       <c r="H263" s="61"/>
       <c r="I263" s="20"/>
@@ -11049,15 +11044,15 @@
       <c r="S263" s="20"/>
       <c r="V263" s="14"/>
       <c r="W263" s="14"/>
-      <c r="Y263" s="115"/>
-      <c r="Z263" s="92"/>
-    </row>
-    <row r="264" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y263" s="114"/>
+      <c r="Z263" s="91"/>
+    </row>
+    <row r="264" spans="1:26" s="11" customFormat="1">
       <c r="A264" s="20"/>
       <c r="B264" s="46"/>
       <c r="C264" s="20"/>
       <c r="D264" s="68"/>
-      <c r="E264" s="146"/>
+      <c r="E264" s="145"/>
       <c r="G264" s="20"/>
       <c r="H264" s="61"/>
       <c r="I264" s="20"/>
@@ -11068,15 +11063,15 @@
       <c r="S264" s="20"/>
       <c r="V264" s="14"/>
       <c r="W264" s="14"/>
-      <c r="Y264" s="115"/>
-      <c r="Z264" s="92"/>
-    </row>
-    <row r="265" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y264" s="114"/>
+      <c r="Z264" s="91"/>
+    </row>
+    <row r="265" spans="1:26" s="11" customFormat="1">
       <c r="A265" s="20"/>
       <c r="B265" s="46"/>
       <c r="C265" s="20"/>
       <c r="D265" s="68"/>
-      <c r="E265" s="146"/>
+      <c r="E265" s="145"/>
       <c r="G265" s="20"/>
       <c r="H265" s="61"/>
       <c r="I265" s="20"/>
@@ -11087,15 +11082,15 @@
       <c r="S265" s="20"/>
       <c r="V265" s="14"/>
       <c r="W265" s="14"/>
-      <c r="Y265" s="115"/>
-      <c r="Z265" s="92"/>
-    </row>
-    <row r="266" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y265" s="114"/>
+      <c r="Z265" s="91"/>
+    </row>
+    <row r="266" spans="1:26" s="11" customFormat="1">
       <c r="A266" s="20"/>
       <c r="B266" s="46"/>
       <c r="C266" s="20"/>
       <c r="D266" s="68"/>
-      <c r="E266" s="146"/>
+      <c r="E266" s="145"/>
       <c r="G266" s="20"/>
       <c r="H266" s="61"/>
       <c r="I266" s="20"/>
@@ -11106,15 +11101,15 @@
       <c r="S266" s="20"/>
       <c r="V266" s="14"/>
       <c r="W266" s="14"/>
-      <c r="Y266" s="115"/>
-      <c r="Z266" s="92"/>
-    </row>
-    <row r="267" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y266" s="114"/>
+      <c r="Z266" s="91"/>
+    </row>
+    <row r="267" spans="1:26" s="11" customFormat="1">
       <c r="A267" s="20"/>
       <c r="B267" s="46"/>
       <c r="C267" s="20"/>
       <c r="D267" s="68"/>
-      <c r="E267" s="146"/>
+      <c r="E267" s="145"/>
       <c r="G267" s="20"/>
       <c r="H267" s="61"/>
       <c r="I267" s="20"/>
@@ -11125,15 +11120,15 @@
       <c r="S267" s="20"/>
       <c r="V267" s="14"/>
       <c r="W267" s="14"/>
-      <c r="Y267" s="115"/>
-      <c r="Z267" s="92"/>
-    </row>
-    <row r="268" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y267" s="114"/>
+      <c r="Z267" s="91"/>
+    </row>
+    <row r="268" spans="1:26" s="11" customFormat="1">
       <c r="A268" s="20"/>
       <c r="B268" s="46"/>
       <c r="C268" s="20"/>
       <c r="D268" s="68"/>
-      <c r="E268" s="146"/>
+      <c r="E268" s="145"/>
       <c r="G268" s="20"/>
       <c r="H268" s="61"/>
       <c r="I268" s="20"/>
@@ -11144,15 +11139,15 @@
       <c r="S268" s="20"/>
       <c r="V268" s="14"/>
       <c r="W268" s="14"/>
-      <c r="Y268" s="115"/>
-      <c r="Z268" s="92"/>
-    </row>
-    <row r="269" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y268" s="114"/>
+      <c r="Z268" s="91"/>
+    </row>
+    <row r="269" spans="1:26" s="11" customFormat="1">
       <c r="A269" s="20"/>
       <c r="B269" s="46"/>
       <c r="C269" s="20"/>
       <c r="D269" s="68"/>
-      <c r="E269" s="146"/>
+      <c r="E269" s="145"/>
       <c r="G269" s="20"/>
       <c r="H269" s="61"/>
       <c r="I269" s="20"/>
@@ -11163,15 +11158,15 @@
       <c r="S269" s="20"/>
       <c r="V269" s="14"/>
       <c r="W269" s="14"/>
-      <c r="Y269" s="115"/>
-      <c r="Z269" s="92"/>
-    </row>
-    <row r="270" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y269" s="114"/>
+      <c r="Z269" s="91"/>
+    </row>
+    <row r="270" spans="1:26" s="11" customFormat="1">
       <c r="A270" s="20"/>
       <c r="B270" s="46"/>
       <c r="C270" s="20"/>
       <c r="D270" s="68"/>
-      <c r="E270" s="146"/>
+      <c r="E270" s="145"/>
       <c r="G270" s="20"/>
       <c r="H270" s="61"/>
       <c r="I270" s="20"/>
@@ -11182,15 +11177,15 @@
       <c r="S270" s="20"/>
       <c r="V270" s="14"/>
       <c r="W270" s="14"/>
-      <c r="Y270" s="115"/>
-      <c r="Z270" s="92"/>
-    </row>
-    <row r="271" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y270" s="114"/>
+      <c r="Z270" s="91"/>
+    </row>
+    <row r="271" spans="1:26" s="11" customFormat="1">
       <c r="A271" s="20"/>
       <c r="B271" s="46"/>
       <c r="C271" s="20"/>
       <c r="D271" s="68"/>
-      <c r="E271" s="146"/>
+      <c r="E271" s="145"/>
       <c r="G271" s="20"/>
       <c r="H271" s="61"/>
       <c r="I271" s="20"/>
@@ -11201,15 +11196,15 @@
       <c r="S271" s="20"/>
       <c r="V271" s="14"/>
       <c r="W271" s="14"/>
-      <c r="Y271" s="115"/>
-      <c r="Z271" s="92"/>
-    </row>
-    <row r="272" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y271" s="114"/>
+      <c r="Z271" s="91"/>
+    </row>
+    <row r="272" spans="1:26" s="11" customFormat="1">
       <c r="A272" s="20"/>
       <c r="B272" s="46"/>
       <c r="C272" s="20"/>
       <c r="D272" s="68"/>
-      <c r="E272" s="146"/>
+      <c r="E272" s="145"/>
       <c r="G272" s="20"/>
       <c r="H272" s="61"/>
       <c r="I272" s="20"/>
@@ -11220,15 +11215,15 @@
       <c r="S272" s="20"/>
       <c r="V272" s="14"/>
       <c r="W272" s="14"/>
-      <c r="Y272" s="115"/>
-      <c r="Z272" s="92"/>
-    </row>
-    <row r="273" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y272" s="114"/>
+      <c r="Z272" s="91"/>
+    </row>
+    <row r="273" spans="1:26" s="11" customFormat="1">
       <c r="A273" s="20"/>
       <c r="B273" s="46"/>
       <c r="C273" s="20"/>
       <c r="D273" s="68"/>
-      <c r="E273" s="146"/>
+      <c r="E273" s="145"/>
       <c r="G273" s="20"/>
       <c r="H273" s="61"/>
       <c r="I273" s="20"/>
@@ -11239,15 +11234,15 @@
       <c r="S273" s="20"/>
       <c r="V273" s="14"/>
       <c r="W273" s="14"/>
-      <c r="Y273" s="115"/>
-      <c r="Z273" s="92"/>
-    </row>
-    <row r="274" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y273" s="114"/>
+      <c r="Z273" s="91"/>
+    </row>
+    <row r="274" spans="1:26" s="11" customFormat="1">
       <c r="A274" s="20"/>
       <c r="B274" s="46"/>
       <c r="C274" s="20"/>
       <c r="D274" s="68"/>
-      <c r="E274" s="146"/>
+      <c r="E274" s="145"/>
       <c r="G274" s="20"/>
       <c r="H274" s="61"/>
       <c r="I274" s="20"/>
@@ -11258,15 +11253,15 @@
       <c r="S274" s="20"/>
       <c r="V274" s="14"/>
       <c r="W274" s="14"/>
-      <c r="Y274" s="115"/>
-      <c r="Z274" s="92"/>
-    </row>
-    <row r="275" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y274" s="114"/>
+      <c r="Z274" s="91"/>
+    </row>
+    <row r="275" spans="1:26" s="11" customFormat="1">
       <c r="A275" s="20"/>
       <c r="B275" s="46"/>
       <c r="C275" s="20"/>
       <c r="D275" s="68"/>
-      <c r="E275" s="146"/>
+      <c r="E275" s="145"/>
       <c r="G275" s="20"/>
       <c r="H275" s="61"/>
       <c r="I275" s="20"/>
@@ -11277,15 +11272,15 @@
       <c r="S275" s="20"/>
       <c r="V275" s="14"/>
       <c r="W275" s="14"/>
-      <c r="Y275" s="115"/>
-      <c r="Z275" s="92"/>
-    </row>
-    <row r="276" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y275" s="114"/>
+      <c r="Z275" s="91"/>
+    </row>
+    <row r="276" spans="1:26" s="11" customFormat="1">
       <c r="A276" s="20"/>
       <c r="B276" s="46"/>
       <c r="C276" s="20"/>
       <c r="D276" s="68"/>
-      <c r="E276" s="146"/>
+      <c r="E276" s="145"/>
       <c r="G276" s="20"/>
       <c r="H276" s="61"/>
       <c r="I276" s="20"/>
@@ -11296,15 +11291,15 @@
       <c r="S276" s="20"/>
       <c r="V276" s="14"/>
       <c r="W276" s="14"/>
-      <c r="Y276" s="115"/>
-      <c r="Z276" s="92"/>
-    </row>
-    <row r="277" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y276" s="114"/>
+      <c r="Z276" s="91"/>
+    </row>
+    <row r="277" spans="1:26" s="11" customFormat="1">
       <c r="A277" s="20"/>
       <c r="B277" s="46"/>
       <c r="C277" s="20"/>
       <c r="D277" s="68"/>
-      <c r="E277" s="146"/>
+      <c r="E277" s="145"/>
       <c r="G277" s="20"/>
       <c r="H277" s="61"/>
       <c r="I277" s="20"/>
@@ -11315,15 +11310,15 @@
       <c r="S277" s="20"/>
       <c r="V277" s="14"/>
       <c r="W277" s="14"/>
-      <c r="Y277" s="115"/>
-      <c r="Z277" s="92"/>
-    </row>
-    <row r="278" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y277" s="114"/>
+      <c r="Z277" s="91"/>
+    </row>
+    <row r="278" spans="1:26" s="11" customFormat="1">
       <c r="A278" s="20"/>
       <c r="B278" s="46"/>
       <c r="C278" s="20"/>
       <c r="D278" s="68"/>
-      <c r="E278" s="146"/>
+      <c r="E278" s="145"/>
       <c r="G278" s="20"/>
       <c r="H278" s="61"/>
       <c r="I278" s="20"/>
@@ -11334,15 +11329,15 @@
       <c r="S278" s="20"/>
       <c r="V278" s="14"/>
       <c r="W278" s="14"/>
-      <c r="Y278" s="115"/>
-      <c r="Z278" s="92"/>
-    </row>
-    <row r="279" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y278" s="114"/>
+      <c r="Z278" s="91"/>
+    </row>
+    <row r="279" spans="1:26" s="11" customFormat="1">
       <c r="A279" s="20"/>
       <c r="B279" s="46"/>
       <c r="C279" s="20"/>
       <c r="D279" s="68"/>
-      <c r="E279" s="146"/>
+      <c r="E279" s="145"/>
       <c r="G279" s="20"/>
       <c r="H279" s="61"/>
       <c r="I279" s="20"/>
@@ -11353,15 +11348,15 @@
       <c r="S279" s="20"/>
       <c r="V279" s="14"/>
       <c r="W279" s="14"/>
-      <c r="Y279" s="115"/>
-      <c r="Z279" s="92"/>
-    </row>
-    <row r="280" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y279" s="114"/>
+      <c r="Z279" s="91"/>
+    </row>
+    <row r="280" spans="1:26" s="11" customFormat="1">
       <c r="A280" s="20"/>
       <c r="B280" s="46"/>
       <c r="C280" s="20"/>
       <c r="D280" s="68"/>
-      <c r="E280" s="146"/>
+      <c r="E280" s="145"/>
       <c r="G280" s="20"/>
       <c r="H280" s="61"/>
       <c r="I280" s="20"/>
@@ -11372,15 +11367,15 @@
       <c r="S280" s="20"/>
       <c r="V280" s="14"/>
       <c r="W280" s="14"/>
-      <c r="Y280" s="115"/>
-      <c r="Z280" s="92"/>
-    </row>
-    <row r="281" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y280" s="114"/>
+      <c r="Z280" s="91"/>
+    </row>
+    <row r="281" spans="1:26" s="11" customFormat="1">
       <c r="A281" s="20"/>
       <c r="B281" s="46"/>
       <c r="C281" s="20"/>
       <c r="D281" s="68"/>
-      <c r="E281" s="146"/>
+      <c r="E281" s="145"/>
       <c r="G281" s="20"/>
       <c r="H281" s="61"/>
       <c r="I281" s="20"/>
@@ -11391,15 +11386,15 @@
       <c r="S281" s="20"/>
       <c r="V281" s="14"/>
       <c r="W281" s="14"/>
-      <c r="Y281" s="115"/>
-      <c r="Z281" s="92"/>
-    </row>
-    <row r="282" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y281" s="114"/>
+      <c r="Z281" s="91"/>
+    </row>
+    <row r="282" spans="1:26" s="11" customFormat="1">
       <c r="A282" s="20"/>
       <c r="B282" s="46"/>
       <c r="C282" s="20"/>
       <c r="D282" s="68"/>
-      <c r="E282" s="146"/>
+      <c r="E282" s="145"/>
       <c r="G282" s="20"/>
       <c r="H282" s="61"/>
       <c r="I282" s="20"/>
@@ -11410,15 +11405,15 @@
       <c r="S282" s="20"/>
       <c r="V282" s="14"/>
       <c r="W282" s="14"/>
-      <c r="Y282" s="115"/>
-      <c r="Z282" s="92"/>
-    </row>
-    <row r="283" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y282" s="114"/>
+      <c r="Z282" s="91"/>
+    </row>
+    <row r="283" spans="1:26" s="11" customFormat="1">
       <c r="A283" s="20"/>
       <c r="B283" s="46"/>
       <c r="C283" s="20"/>
       <c r="D283" s="68"/>
-      <c r="E283" s="146"/>
+      <c r="E283" s="145"/>
       <c r="G283" s="20"/>
       <c r="H283" s="61"/>
       <c r="I283" s="20"/>
@@ -11429,15 +11424,15 @@
       <c r="S283" s="20"/>
       <c r="V283" s="14"/>
       <c r="W283" s="14"/>
-      <c r="Y283" s="115"/>
-      <c r="Z283" s="92"/>
-    </row>
-    <row r="284" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y283" s="114"/>
+      <c r="Z283" s="91"/>
+    </row>
+    <row r="284" spans="1:26" s="11" customFormat="1">
       <c r="A284" s="20"/>
       <c r="B284" s="46"/>
       <c r="C284" s="20"/>
       <c r="D284" s="68"/>
-      <c r="E284" s="146"/>
+      <c r="E284" s="145"/>
       <c r="G284" s="20"/>
       <c r="H284" s="61"/>
       <c r="I284" s="20"/>
@@ -11448,15 +11443,15 @@
       <c r="S284" s="20"/>
       <c r="V284" s="14"/>
       <c r="W284" s="14"/>
-      <c r="Y284" s="115"/>
-      <c r="Z284" s="92"/>
-    </row>
-    <row r="285" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y284" s="114"/>
+      <c r="Z284" s="91"/>
+    </row>
+    <row r="285" spans="1:26" s="11" customFormat="1">
       <c r="A285" s="20"/>
       <c r="B285" s="46"/>
       <c r="C285" s="20"/>
       <c r="D285" s="68"/>
-      <c r="E285" s="146"/>
+      <c r="E285" s="145"/>
       <c r="G285" s="20"/>
       <c r="H285" s="61"/>
       <c r="I285" s="20"/>
@@ -11467,15 +11462,15 @@
       <c r="S285" s="20"/>
       <c r="V285" s="14"/>
       <c r="W285" s="14"/>
-      <c r="Y285" s="115"/>
-      <c r="Z285" s="92"/>
-    </row>
-    <row r="286" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y285" s="114"/>
+      <c r="Z285" s="91"/>
+    </row>
+    <row r="286" spans="1:26" s="11" customFormat="1">
       <c r="A286" s="20"/>
       <c r="B286" s="46"/>
       <c r="C286" s="20"/>
       <c r="D286" s="68"/>
-      <c r="E286" s="146"/>
+      <c r="E286" s="145"/>
       <c r="G286" s="20"/>
       <c r="H286" s="61"/>
       <c r="I286" s="20"/>
@@ -11486,15 +11481,15 @@
       <c r="S286" s="20"/>
       <c r="V286" s="14"/>
       <c r="W286" s="14"/>
-      <c r="Y286" s="115"/>
-      <c r="Z286" s="92"/>
-    </row>
-    <row r="287" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y286" s="114"/>
+      <c r="Z286" s="91"/>
+    </row>
+    <row r="287" spans="1:26" s="11" customFormat="1">
       <c r="A287" s="20"/>
       <c r="B287" s="46"/>
       <c r="C287" s="20"/>
       <c r="D287" s="68"/>
-      <c r="E287" s="146"/>
+      <c r="E287" s="145"/>
       <c r="G287" s="20"/>
       <c r="H287" s="61"/>
       <c r="I287" s="20"/>
@@ -11505,15 +11500,15 @@
       <c r="S287" s="20"/>
       <c r="V287" s="14"/>
       <c r="W287" s="14"/>
-      <c r="Y287" s="115"/>
-      <c r="Z287" s="92"/>
-    </row>
-    <row r="288" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y287" s="114"/>
+      <c r="Z287" s="91"/>
+    </row>
+    <row r="288" spans="1:26" s="11" customFormat="1">
       <c r="A288" s="20"/>
       <c r="B288" s="46"/>
       <c r="C288" s="20"/>
       <c r="D288" s="68"/>
-      <c r="E288" s="146"/>
+      <c r="E288" s="145"/>
       <c r="G288" s="20"/>
       <c r="H288" s="61"/>
       <c r="I288" s="20"/>
@@ -11524,15 +11519,15 @@
       <c r="S288" s="20"/>
       <c r="V288" s="14"/>
       <c r="W288" s="14"/>
-      <c r="Y288" s="115"/>
-      <c r="Z288" s="92"/>
-    </row>
-    <row r="289" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y288" s="114"/>
+      <c r="Z288" s="91"/>
+    </row>
+    <row r="289" spans="1:26" s="11" customFormat="1">
       <c r="A289" s="20"/>
       <c r="B289" s="46"/>
       <c r="C289" s="20"/>
       <c r="D289" s="68"/>
-      <c r="E289" s="146"/>
+      <c r="E289" s="145"/>
       <c r="G289" s="20"/>
       <c r="H289" s="61"/>
       <c r="I289" s="20"/>
@@ -11543,15 +11538,15 @@
       <c r="S289" s="20"/>
       <c r="V289" s="14"/>
       <c r="W289" s="14"/>
-      <c r="Y289" s="115"/>
-      <c r="Z289" s="92"/>
-    </row>
-    <row r="290" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y289" s="114"/>
+      <c r="Z289" s="91"/>
+    </row>
+    <row r="290" spans="1:26" s="11" customFormat="1">
       <c r="A290" s="20"/>
       <c r="B290" s="46"/>
       <c r="C290" s="20"/>
       <c r="D290" s="68"/>
-      <c r="E290" s="146"/>
+      <c r="E290" s="145"/>
       <c r="G290" s="20"/>
       <c r="H290" s="61"/>
       <c r="I290" s="20"/>
@@ -11562,15 +11557,15 @@
       <c r="S290" s="20"/>
       <c r="V290" s="14"/>
       <c r="W290" s="14"/>
-      <c r="Y290" s="115"/>
-      <c r="Z290" s="92"/>
-    </row>
-    <row r="291" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y290" s="114"/>
+      <c r="Z290" s="91"/>
+    </row>
+    <row r="291" spans="1:26" s="11" customFormat="1">
       <c r="A291" s="20"/>
       <c r="B291" s="46"/>
       <c r="C291" s="20"/>
       <c r="D291" s="68"/>
-      <c r="E291" s="146"/>
+      <c r="E291" s="145"/>
       <c r="G291" s="20"/>
       <c r="H291" s="61"/>
       <c r="I291" s="20"/>
@@ -11581,15 +11576,15 @@
       <c r="S291" s="20"/>
       <c r="V291" s="14"/>
       <c r="W291" s="14"/>
-      <c r="Y291" s="115"/>
-      <c r="Z291" s="92"/>
-    </row>
-    <row r="292" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y291" s="114"/>
+      <c r="Z291" s="91"/>
+    </row>
+    <row r="292" spans="1:26" s="11" customFormat="1">
       <c r="A292" s="20"/>
       <c r="B292" s="46"/>
       <c r="C292" s="20"/>
       <c r="D292" s="68"/>
-      <c r="E292" s="146"/>
+      <c r="E292" s="145"/>
       <c r="G292" s="20"/>
       <c r="H292" s="61"/>
       <c r="I292" s="20"/>
@@ -11600,15 +11595,15 @@
       <c r="S292" s="20"/>
       <c r="V292" s="14"/>
       <c r="W292" s="14"/>
-      <c r="Y292" s="115"/>
-      <c r="Z292" s="92"/>
-    </row>
-    <row r="293" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y292" s="114"/>
+      <c r="Z292" s="91"/>
+    </row>
+    <row r="293" spans="1:26" s="11" customFormat="1">
       <c r="A293" s="20"/>
       <c r="B293" s="46"/>
       <c r="C293" s="20"/>
       <c r="D293" s="68"/>
-      <c r="E293" s="146"/>
+      <c r="E293" s="145"/>
       <c r="G293" s="20"/>
       <c r="H293" s="61"/>
       <c r="I293" s="20"/>
@@ -11619,15 +11614,15 @@
       <c r="S293" s="20"/>
       <c r="V293" s="14"/>
       <c r="W293" s="14"/>
-      <c r="Y293" s="115"/>
-      <c r="Z293" s="92"/>
-    </row>
-    <row r="294" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y293" s="114"/>
+      <c r="Z293" s="91"/>
+    </row>
+    <row r="294" spans="1:26" s="11" customFormat="1">
       <c r="A294" s="20"/>
       <c r="B294" s="46"/>
       <c r="C294" s="20"/>
       <c r="D294" s="68"/>
-      <c r="E294" s="146"/>
+      <c r="E294" s="145"/>
       <c r="G294" s="20"/>
       <c r="H294" s="61"/>
       <c r="I294" s="20"/>
@@ -11638,15 +11633,15 @@
       <c r="S294" s="20"/>
       <c r="V294" s="14"/>
       <c r="W294" s="14"/>
-      <c r="Y294" s="115"/>
-      <c r="Z294" s="92"/>
-    </row>
-    <row r="295" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y294" s="114"/>
+      <c r="Z294" s="91"/>
+    </row>
+    <row r="295" spans="1:26" s="11" customFormat="1">
       <c r="A295" s="20"/>
       <c r="B295" s="46"/>
       <c r="C295" s="20"/>
       <c r="D295" s="68"/>
-      <c r="E295" s="146"/>
+      <c r="E295" s="145"/>
       <c r="G295" s="20"/>
       <c r="H295" s="61"/>
       <c r="I295" s="20"/>
@@ -11657,15 +11652,15 @@
       <c r="S295" s="20"/>
       <c r="V295" s="14"/>
       <c r="W295" s="14"/>
-      <c r="Y295" s="115"/>
-      <c r="Z295" s="92"/>
-    </row>
-    <row r="296" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y295" s="114"/>
+      <c r="Z295" s="91"/>
+    </row>
+    <row r="296" spans="1:26" s="11" customFormat="1">
       <c r="A296" s="20"/>
       <c r="B296" s="46"/>
       <c r="C296" s="20"/>
       <c r="D296" s="68"/>
-      <c r="E296" s="146"/>
+      <c r="E296" s="145"/>
       <c r="G296" s="20"/>
       <c r="H296" s="61"/>
       <c r="I296" s="20"/>
@@ -11676,15 +11671,15 @@
       <c r="S296" s="20"/>
       <c r="V296" s="14"/>
       <c r="W296" s="14"/>
-      <c r="Y296" s="115"/>
-      <c r="Z296" s="92"/>
-    </row>
-    <row r="297" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y296" s="114"/>
+      <c r="Z296" s="91"/>
+    </row>
+    <row r="297" spans="1:26" s="11" customFormat="1">
       <c r="A297" s="20"/>
       <c r="B297" s="46"/>
       <c r="C297" s="20"/>
       <c r="D297" s="68"/>
-      <c r="E297" s="146"/>
+      <c r="E297" s="145"/>
       <c r="G297" s="20"/>
       <c r="H297" s="61"/>
       <c r="I297" s="20"/>
@@ -11695,15 +11690,15 @@
       <c r="S297" s="20"/>
       <c r="V297" s="14"/>
       <c r="W297" s="14"/>
-      <c r="Y297" s="115"/>
-      <c r="Z297" s="92"/>
-    </row>
-    <row r="298" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y297" s="114"/>
+      <c r="Z297" s="91"/>
+    </row>
+    <row r="298" spans="1:26" s="11" customFormat="1">
       <c r="A298" s="20"/>
       <c r="B298" s="46"/>
       <c r="C298" s="20"/>
       <c r="D298" s="68"/>
-      <c r="E298" s="146"/>
+      <c r="E298" s="145"/>
       <c r="G298" s="20"/>
       <c r="H298" s="61"/>
       <c r="I298" s="20"/>
@@ -11714,15 +11709,15 @@
       <c r="S298" s="20"/>
       <c r="V298" s="14"/>
       <c r="W298" s="14"/>
-      <c r="Y298" s="115"/>
-      <c r="Z298" s="92"/>
-    </row>
-    <row r="299" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y298" s="114"/>
+      <c r="Z298" s="91"/>
+    </row>
+    <row r="299" spans="1:26" s="11" customFormat="1">
       <c r="A299" s="20"/>
       <c r="B299" s="46"/>
       <c r="C299" s="20"/>
       <c r="D299" s="68"/>
-      <c r="E299" s="146"/>
+      <c r="E299" s="145"/>
       <c r="G299" s="20"/>
       <c r="H299" s="61"/>
       <c r="I299" s="20"/>
@@ -11733,15 +11728,15 @@
       <c r="S299" s="20"/>
       <c r="V299" s="14"/>
       <c r="W299" s="14"/>
-      <c r="Y299" s="115"/>
-      <c r="Z299" s="92"/>
-    </row>
-    <row r="300" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y299" s="114"/>
+      <c r="Z299" s="91"/>
+    </row>
+    <row r="300" spans="1:26" s="11" customFormat="1">
       <c r="A300" s="20"/>
       <c r="B300" s="46"/>
       <c r="C300" s="20"/>
       <c r="D300" s="68"/>
-      <c r="E300" s="146"/>
+      <c r="E300" s="145"/>
       <c r="G300" s="20"/>
       <c r="H300" s="61"/>
       <c r="I300" s="20"/>
@@ -11752,15 +11747,15 @@
       <c r="S300" s="20"/>
       <c r="V300" s="14"/>
       <c r="W300" s="14"/>
-      <c r="Y300" s="115"/>
-      <c r="Z300" s="92"/>
-    </row>
-    <row r="301" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y300" s="114"/>
+      <c r="Z300" s="91"/>
+    </row>
+    <row r="301" spans="1:26" s="11" customFormat="1">
       <c r="A301" s="20"/>
       <c r="B301" s="46"/>
       <c r="C301" s="20"/>
       <c r="D301" s="68"/>
-      <c r="E301" s="146"/>
+      <c r="E301" s="145"/>
       <c r="G301" s="20"/>
       <c r="H301" s="61"/>
       <c r="I301" s="20"/>
@@ -11771,15 +11766,15 @@
       <c r="S301" s="20"/>
       <c r="V301" s="14"/>
       <c r="W301" s="14"/>
-      <c r="Y301" s="115"/>
-      <c r="Z301" s="92"/>
-    </row>
-    <row r="302" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y301" s="114"/>
+      <c r="Z301" s="91"/>
+    </row>
+    <row r="302" spans="1:26" s="11" customFormat="1">
       <c r="A302" s="20"/>
       <c r="B302" s="46"/>
       <c r="C302" s="20"/>
       <c r="D302" s="68"/>
-      <c r="E302" s="146"/>
+      <c r="E302" s="145"/>
       <c r="G302" s="20"/>
       <c r="H302" s="61"/>
       <c r="I302" s="20"/>
@@ -11790,15 +11785,15 @@
       <c r="S302" s="20"/>
       <c r="V302" s="14"/>
       <c r="W302" s="14"/>
-      <c r="Y302" s="115"/>
-      <c r="Z302" s="92"/>
-    </row>
-    <row r="303" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y302" s="114"/>
+      <c r="Z302" s="91"/>
+    </row>
+    <row r="303" spans="1:26" s="11" customFormat="1">
       <c r="A303" s="20"/>
       <c r="B303" s="46"/>
       <c r="C303" s="20"/>
       <c r="D303" s="68"/>
-      <c r="E303" s="146"/>
+      <c r="E303" s="145"/>
       <c r="G303" s="20"/>
       <c r="H303" s="61"/>
       <c r="I303" s="20"/>
@@ -11809,15 +11804,15 @@
       <c r="S303" s="20"/>
       <c r="V303" s="14"/>
       <c r="W303" s="14"/>
-      <c r="Y303" s="115"/>
-      <c r="Z303" s="92"/>
-    </row>
-    <row r="304" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y303" s="114"/>
+      <c r="Z303" s="91"/>
+    </row>
+    <row r="304" spans="1:26" s="11" customFormat="1">
       <c r="A304" s="20"/>
       <c r="B304" s="46"/>
       <c r="C304" s="20"/>
       <c r="D304" s="68"/>
-      <c r="E304" s="146"/>
+      <c r="E304" s="145"/>
       <c r="G304" s="20"/>
       <c r="H304" s="61"/>
       <c r="I304" s="20"/>
@@ -11828,15 +11823,15 @@
       <c r="S304" s="20"/>
       <c r="V304" s="14"/>
       <c r="W304" s="14"/>
-      <c r="Y304" s="115"/>
-      <c r="Z304" s="92"/>
-    </row>
-    <row r="305" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y304" s="114"/>
+      <c r="Z304" s="91"/>
+    </row>
+    <row r="305" spans="1:26" s="11" customFormat="1">
       <c r="A305" s="20"/>
       <c r="B305" s="46"/>
       <c r="C305" s="20"/>
       <c r="D305" s="68"/>
-      <c r="E305" s="146"/>
+      <c r="E305" s="145"/>
       <c r="G305" s="20"/>
       <c r="H305" s="61"/>
       <c r="I305" s="20"/>
@@ -11847,15 +11842,15 @@
       <c r="S305" s="20"/>
       <c r="V305" s="14"/>
       <c r="W305" s="14"/>
-      <c r="Y305" s="115"/>
-      <c r="Z305" s="92"/>
-    </row>
-    <row r="306" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y305" s="114"/>
+      <c r="Z305" s="91"/>
+    </row>
+    <row r="306" spans="1:26" s="11" customFormat="1">
       <c r="A306" s="20"/>
       <c r="B306" s="46"/>
       <c r="C306" s="20"/>
       <c r="D306" s="68"/>
-      <c r="E306" s="146"/>
+      <c r="E306" s="145"/>
       <c r="G306" s="20"/>
       <c r="H306" s="61"/>
       <c r="I306" s="20"/>
@@ -11866,15 +11861,15 @@
       <c r="S306" s="20"/>
       <c r="V306" s="14"/>
       <c r="W306" s="14"/>
-      <c r="Y306" s="115"/>
-      <c r="Z306" s="92"/>
-    </row>
-    <row r="307" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y306" s="114"/>
+      <c r="Z306" s="91"/>
+    </row>
+    <row r="307" spans="1:26" s="11" customFormat="1">
       <c r="A307" s="20"/>
       <c r="B307" s="46"/>
       <c r="C307" s="20"/>
       <c r="D307" s="68"/>
-      <c r="E307" s="146"/>
+      <c r="E307" s="145"/>
       <c r="G307" s="20"/>
       <c r="H307" s="61"/>
       <c r="I307" s="20"/>
@@ -11885,15 +11880,15 @@
       <c r="S307" s="20"/>
       <c r="V307" s="14"/>
       <c r="W307" s="14"/>
-      <c r="Y307" s="115"/>
-      <c r="Z307" s="92"/>
-    </row>
-    <row r="308" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y307" s="114"/>
+      <c r="Z307" s="91"/>
+    </row>
+    <row r="308" spans="1:26" s="11" customFormat="1">
       <c r="A308" s="20"/>
       <c r="B308" s="46"/>
       <c r="C308" s="20"/>
       <c r="D308" s="68"/>
-      <c r="E308" s="146"/>
+      <c r="E308" s="145"/>
       <c r="G308" s="20"/>
       <c r="H308" s="61"/>
       <c r="I308" s="20"/>
@@ -11904,15 +11899,15 @@
       <c r="S308" s="20"/>
       <c r="V308" s="14"/>
       <c r="W308" s="14"/>
-      <c r="Y308" s="115"/>
-      <c r="Z308" s="92"/>
-    </row>
-    <row r="309" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y308" s="114"/>
+      <c r="Z308" s="91"/>
+    </row>
+    <row r="309" spans="1:26" s="11" customFormat="1">
       <c r="A309" s="20"/>
       <c r="B309" s="46"/>
       <c r="C309" s="20"/>
       <c r="D309" s="68"/>
-      <c r="E309" s="146"/>
+      <c r="E309" s="145"/>
       <c r="G309" s="20"/>
       <c r="H309" s="61"/>
       <c r="I309" s="20"/>
@@ -11923,15 +11918,15 @@
       <c r="S309" s="20"/>
       <c r="V309" s="14"/>
       <c r="W309" s="14"/>
-      <c r="Y309" s="115"/>
-      <c r="Z309" s="92"/>
-    </row>
-    <row r="310" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y309" s="114"/>
+      <c r="Z309" s="91"/>
+    </row>
+    <row r="310" spans="1:26" s="11" customFormat="1">
       <c r="A310" s="20"/>
       <c r="B310" s="46"/>
       <c r="C310" s="20"/>
       <c r="D310" s="68"/>
-      <c r="E310" s="146"/>
+      <c r="E310" s="145"/>
       <c r="G310" s="20"/>
       <c r="H310" s="61"/>
       <c r="I310" s="20"/>
@@ -11942,15 +11937,15 @@
       <c r="S310" s="20"/>
       <c r="V310" s="14"/>
       <c r="W310" s="14"/>
-      <c r="Y310" s="115"/>
-      <c r="Z310" s="92"/>
-    </row>
-    <row r="311" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y310" s="114"/>
+      <c r="Z310" s="91"/>
+    </row>
+    <row r="311" spans="1:26" s="11" customFormat="1">
       <c r="A311" s="20"/>
       <c r="B311" s="46"/>
       <c r="C311" s="20"/>
       <c r="D311" s="68"/>
-      <c r="E311" s="146"/>
+      <c r="E311" s="145"/>
       <c r="G311" s="20"/>
       <c r="H311" s="61"/>
       <c r="I311" s="20"/>
@@ -11961,15 +11956,15 @@
       <c r="S311" s="20"/>
       <c r="V311" s="14"/>
       <c r="W311" s="14"/>
-      <c r="Y311" s="115"/>
-      <c r="Z311" s="92"/>
-    </row>
-    <row r="312" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y311" s="114"/>
+      <c r="Z311" s="91"/>
+    </row>
+    <row r="312" spans="1:26" s="11" customFormat="1">
       <c r="A312" s="20"/>
       <c r="B312" s="46"/>
       <c r="C312" s="20"/>
       <c r="D312" s="68"/>
-      <c r="E312" s="146"/>
+      <c r="E312" s="145"/>
       <c r="G312" s="20"/>
       <c r="H312" s="61"/>
       <c r="I312" s="20"/>
@@ -11980,15 +11975,15 @@
       <c r="S312" s="20"/>
       <c r="V312" s="14"/>
       <c r="W312" s="14"/>
-      <c r="Y312" s="115"/>
-      <c r="Z312" s="92"/>
-    </row>
-    <row r="313" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y312" s="114"/>
+      <c r="Z312" s="91"/>
+    </row>
+    <row r="313" spans="1:26" s="11" customFormat="1">
       <c r="A313" s="20"/>
       <c r="B313" s="46"/>
       <c r="C313" s="20"/>
       <c r="D313" s="68"/>
-      <c r="E313" s="146"/>
+      <c r="E313" s="145"/>
       <c r="G313" s="20"/>
       <c r="H313" s="61"/>
       <c r="I313" s="20"/>
@@ -11999,15 +11994,15 @@
       <c r="S313" s="20"/>
       <c r="V313" s="14"/>
       <c r="W313" s="14"/>
-      <c r="Y313" s="115"/>
-      <c r="Z313" s="92"/>
-    </row>
-    <row r="314" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y313" s="114"/>
+      <c r="Z313" s="91"/>
+    </row>
+    <row r="314" spans="1:26" s="11" customFormat="1">
       <c r="A314" s="20"/>
       <c r="B314" s="46"/>
       <c r="C314" s="20"/>
       <c r="D314" s="68"/>
-      <c r="E314" s="146"/>
+      <c r="E314" s="145"/>
       <c r="G314" s="20"/>
       <c r="H314" s="61"/>
       <c r="I314" s="20"/>
@@ -12018,15 +12013,15 @@
       <c r="S314" s="20"/>
       <c r="V314" s="14"/>
       <c r="W314" s="14"/>
-      <c r="Y314" s="115"/>
-      <c r="Z314" s="92"/>
-    </row>
-    <row r="315" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y314" s="114"/>
+      <c r="Z314" s="91"/>
+    </row>
+    <row r="315" spans="1:26" s="11" customFormat="1">
       <c r="A315" s="20"/>
       <c r="B315" s="46"/>
       <c r="C315" s="20"/>
       <c r="D315" s="68"/>
-      <c r="E315" s="146"/>
+      <c r="E315" s="145"/>
       <c r="G315" s="20"/>
       <c r="H315" s="61"/>
       <c r="I315" s="20"/>
@@ -12037,15 +12032,15 @@
       <c r="S315" s="20"/>
       <c r="V315" s="14"/>
       <c r="W315" s="14"/>
-      <c r="Y315" s="115"/>
-      <c r="Z315" s="92"/>
-    </row>
-    <row r="316" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y315" s="114"/>
+      <c r="Z315" s="91"/>
+    </row>
+    <row r="316" spans="1:26" s="11" customFormat="1">
       <c r="A316" s="20"/>
       <c r="B316" s="46"/>
       <c r="C316" s="20"/>
       <c r="D316" s="68"/>
-      <c r="E316" s="146"/>
+      <c r="E316" s="145"/>
       <c r="G316" s="20"/>
       <c r="H316" s="61"/>
       <c r="I316" s="20"/>
@@ -12056,15 +12051,15 @@
       <c r="S316" s="20"/>
       <c r="V316" s="14"/>
       <c r="W316" s="14"/>
-      <c r="Y316" s="115"/>
-      <c r="Z316" s="92"/>
-    </row>
-    <row r="317" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y316" s="114"/>
+      <c r="Z316" s="91"/>
+    </row>
+    <row r="317" spans="1:26" s="11" customFormat="1">
       <c r="A317" s="20"/>
       <c r="B317" s="46"/>
       <c r="C317" s="20"/>
       <c r="D317" s="68"/>
-      <c r="E317" s="146"/>
+      <c r="E317" s="145"/>
       <c r="G317" s="20"/>
       <c r="H317" s="61"/>
       <c r="I317" s="20"/>
@@ -12075,30 +12070,30 @@
       <c r="S317" s="20"/>
       <c r="V317" s="14"/>
       <c r="W317" s="14"/>
-      <c r="Y317" s="115"/>
-      <c r="Z317" s="92"/>
-    </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y317" s="114"/>
+      <c r="Z317" s="91"/>
+    </row>
+    <row r="318" spans="1:26">
       <c r="V318" s="3"/>
       <c r="W318" s="3"/>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26">
       <c r="V319" s="3"/>
       <c r="W319" s="3"/>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26">
       <c r="V320" s="3"/>
       <c r="W320" s="3"/>
     </row>
-    <row r="321" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="321" spans="22:23">
       <c r="V321" s="3"/>
       <c r="W321" s="3"/>
     </row>
-    <row r="322" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="322" spans="22:23">
       <c r="V322" s="3"/>
       <c r="W322" s="3"/>
     </row>
-    <row r="323" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="323" spans="22:23">
       <c r="V323" s="3"/>
       <c r="W323" s="3"/>
     </row>
@@ -12123,7 +12118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -12131,14 +12126,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
@@ -12152,7 +12147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -12166,7 +12161,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -12180,7 +12175,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -12194,22 +12189,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="C5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="C6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="C7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -12221,45 +12216,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="G1" s="23"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="24"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="24"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="24"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="24"/>
     </row>
   </sheetData>
